--- a/Resultados/CV DA completo/Resultados EMD CV DA.xlsx
+++ b/Resultados/CV DA completo/Resultados EMD CV DA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\TFG\Transfer-Learning-EDM\Resultados\CV DA completo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE06AFC6-0265-4CF5-B597-902609AA7524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD41B43-42E7-47A0-BE81-A3AF9D6B0EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3278" uniqueCount="265">
   <si>
     <t>Color</t>
   </si>
@@ -673,6 +673,165 @@
   <si>
     <t>20230415_172116</t>
   </si>
+  <si>
+    <t>20230417_014132</t>
+  </si>
+  <si>
+    <t>20230417_014252</t>
+  </si>
+  <si>
+    <t>20230417_014300</t>
+  </si>
+  <si>
+    <t>20230417_014327</t>
+  </si>
+  <si>
+    <t>20230417_014443</t>
+  </si>
+  <si>
+    <t>20230417_014238</t>
+  </si>
+  <si>
+    <t>20230417_014246</t>
+  </si>
+  <si>
+    <t>20230417_015303</t>
+  </si>
+  <si>
+    <t>20230417_015333</t>
+  </si>
+  <si>
+    <t>20230417_015510</t>
+  </si>
+  <si>
+    <t>20230417_015417</t>
+  </si>
+  <si>
+    <t>20230417_015438</t>
+  </si>
+  <si>
+    <t>20230417_015453</t>
+  </si>
+  <si>
+    <t>20230417_015658</t>
+  </si>
+  <si>
+    <t>20230417_020543</t>
+  </si>
+  <si>
+    <t>20230417_020432</t>
+  </si>
+  <si>
+    <t>20230417_020434</t>
+  </si>
+  <si>
+    <t>20230417_020518</t>
+  </si>
+  <si>
+    <t>20230417_020558</t>
+  </si>
+  <si>
+    <t>20230417_020600</t>
+  </si>
+  <si>
+    <t>20230417_020551</t>
+  </si>
+  <si>
+    <t>20230417_021633</t>
+  </si>
+  <si>
+    <t>20230417_021729</t>
+  </si>
+  <si>
+    <t>20230417_021812</t>
+  </si>
+  <si>
+    <t>20230417_022038</t>
+  </si>
+  <si>
+    <t>20230417_021646</t>
+  </si>
+  <si>
+    <t>20230417_021836</t>
+  </si>
+  <si>
+    <t>20230417_022010</t>
+  </si>
+  <si>
+    <t>20230417_023433</t>
+  </si>
+  <si>
+    <t>20230417_023642</t>
+  </si>
+  <si>
+    <t>20230417_023142</t>
+  </si>
+  <si>
+    <t>20230417_023157</t>
+  </si>
+  <si>
+    <t>20230417_023153</t>
+  </si>
+  <si>
+    <t>20230417_023203</t>
+  </si>
+  <si>
+    <t>20230417_023213</t>
+  </si>
+  <si>
+    <t>20230417_024606</t>
+  </si>
+  <si>
+    <t>20230417_024609</t>
+  </si>
+  <si>
+    <t>20230417_024640</t>
+  </si>
+  <si>
+    <t>20230417_024715</t>
+  </si>
+  <si>
+    <t>20230417_025119</t>
+  </si>
+  <si>
+    <t>20230417_024917</t>
+  </si>
+  <si>
+    <t>20230417_030007</t>
+  </si>
+  <si>
+    <t>20230417_030030</t>
+  </si>
+  <si>
+    <t>20230417_030135</t>
+  </si>
+  <si>
+    <t>20230417_025958</t>
+  </si>
+  <si>
+    <t>20230417_030221</t>
+  </si>
+  <si>
+    <t>20230417_030655</t>
+  </si>
+  <si>
+    <t>20230417_031618</t>
+  </si>
+  <si>
+    <t>20230417_031237</t>
+  </si>
+  <si>
+    <t>20230417_031253</t>
+  </si>
+  <si>
+    <t>20230417_031340</t>
+  </si>
+  <si>
+    <t>20230417_031436</t>
+  </si>
+  <si>
+    <t>20230417_031454</t>
+  </si>
 </sst>
 </file>
 
@@ -701,7 +860,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -744,6 +903,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3FFF3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -772,7 +937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -790,6 +955,8 @@
     <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,10 +965,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF3FFF3"/>
+      <color rgb="FFFFEBFF"/>
       <color rgb="FFF5F5F5"/>
       <color rgb="FFEBFFFF"/>
       <color rgb="FFFFFFEF"/>
-      <color rgb="FFFFEBFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1078,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AL344"/>
+  <dimension ref="B2:AL454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" zoomScale="81" workbookViewId="0">
-      <selection activeCell="B335" sqref="B335:S344"/>
+    <sheetView tabSelected="1" topLeftCell="O66" zoomScale="61" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="AL93" sqref="AL93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4205,7 +4373,7 @@
         <v>12</v>
       </c>
       <c r="AC27" s="3">
-        <f t="shared" ref="AC27:AL27" si="46">(J123+J124+J125+J126+J127)</f>
+        <f t="shared" ref="AC27:AE27" si="46">(J123+J124+J125+J126+J127)</f>
         <v>16</v>
       </c>
       <c r="AD27" s="3">
@@ -4221,7 +4389,7 @@
         <v>0.71130434782608654</v>
       </c>
       <c r="AG27" s="3">
-        <f t="shared" ref="AG27:AL27" si="47">(N123+N124+N125+N126+N127)/5</f>
+        <f t="shared" ref="AG27:AK27" si="47">(N123+N124+N125+N126+N127)/5</f>
         <v>0.72288398862769521</v>
       </c>
       <c r="AH27" s="3">
@@ -4326,7 +4494,7 @@
         <v>20</v>
       </c>
       <c r="AC28" s="3">
-        <f t="shared" ref="AC28:AL28" si="48">(J128+J129+J130+J131+J132)</f>
+        <f t="shared" ref="AC28:AE28" si="48">(J128+J129+J130+J131+J132)</f>
         <v>24</v>
       </c>
       <c r="AD28" s="3">
@@ -4342,7 +4510,7 @@
         <v>0.54761904761904734</v>
       </c>
       <c r="AG28" s="3">
-        <f t="shared" ref="AG28:AL28" si="49">(N128+N129+N130+N131+N132)/5</f>
+        <f t="shared" ref="AG28:AK28" si="49">(N128+N129+N130+N131+N132)/5</f>
         <v>0.55027139527139479</v>
       </c>
       <c r="AH28" s="3">
@@ -4447,7 +4615,7 @@
         <v>8</v>
       </c>
       <c r="AC29" s="3">
-        <f t="shared" ref="AC29:AL29" si="50">(J133+J135+J137+J139+J141)</f>
+        <f t="shared" ref="AC29:AE29" si="50">(J133+J135+J137+J139+J141)</f>
         <v>20</v>
       </c>
       <c r="AD29" s="3">
@@ -4463,7 +4631,7 @@
         <v>0.73130434782608655</v>
       </c>
       <c r="AG29" s="3">
-        <f t="shared" ref="AG29:AL29" si="51">(N133+N135+N137+N139+N141)/5</f>
+        <f t="shared" ref="AG29:AK29" si="51">(N133+N135+N137+N139+N141)/5</f>
         <v>0.6964852183158815</v>
       </c>
       <c r="AH29" s="3">
@@ -4568,7 +4736,7 @@
         <v>21</v>
       </c>
       <c r="AC30" s="3">
-        <f t="shared" ref="AC30:AL30" si="52">(J134+J136+J138+J140+J142)</f>
+        <f t="shared" ref="AC30:AE30" si="52">(J134+J136+J138+J140+J142)</f>
         <v>23</v>
       </c>
       <c r="AD30" s="3">
@@ -4584,7 +4752,7 @@
         <v>0.57662337662337626</v>
       </c>
       <c r="AG30" s="3">
-        <f t="shared" ref="AG30:AL30" si="53">(N134+N136+N138+N140+N142)/5</f>
+        <f t="shared" ref="AG30:AK30" si="53">(N134+N136+N138+N140+N142)/5</f>
         <v>0.58000166500166461</v>
       </c>
       <c r="AH30" s="3">
@@ -4689,7 +4857,7 @@
         <v>14</v>
       </c>
       <c r="AC31" s="3">
-        <f t="shared" ref="AC31:AL31" si="54">(J143+J145+J147+J149+J151)</f>
+        <f t="shared" ref="AC31:AE31" si="54">(J143+J145+J147+J149+J151)</f>
         <v>14</v>
       </c>
       <c r="AD31" s="3">
@@ -4705,7 +4873,7 @@
         <v>0.57956521739130429</v>
       </c>
       <c r="AG31" s="3">
-        <f t="shared" ref="AG31:AL31" si="55">(N143+N145+N147+N149+N151)/5</f>
+        <f t="shared" ref="AG31:AK31" si="55">(N143+N145+N147+N149+N151)/5</f>
         <v>0.66521550912855232</v>
       </c>
       <c r="AH31" s="3">
@@ -4810,7 +4978,7 @@
         <v>31</v>
       </c>
       <c r="AC32" s="3">
-        <f t="shared" ref="AC32:AL32" si="56">(J144+J146+J148+J150+J152)</f>
+        <f t="shared" ref="AC32:AE32" si="56">(J144+J146+J148+J150+J152)</f>
         <v>13</v>
       </c>
       <c r="AD32" s="3">
@@ -4826,7 +4994,7 @@
         <v>0.5467532467532461</v>
       </c>
       <c r="AG32" s="3">
-        <f t="shared" ref="AG32:AL32" si="57">(N144+N146+N148+N150+N152)/5</f>
+        <f t="shared" ref="AG32:AK32" si="57">(N144+N146+N148+N150+N152)/5</f>
         <v>0.59680735930735851</v>
       </c>
       <c r="AH32" s="3">
@@ -4931,7 +5099,7 @@
         <v>13</v>
       </c>
       <c r="AC33" s="3">
-        <f t="shared" ref="AC33:AL33" si="58">(J153+J155+J157+J159+J161)</f>
+        <f t="shared" ref="AC33:AE33" si="58">(J153+J155+J157+J159+J161)</f>
         <v>15</v>
       </c>
       <c r="AD33" s="3">
@@ -4947,7 +5115,7 @@
         <v>0.77478260869565185</v>
       </c>
       <c r="AG33" s="3">
-        <f t="shared" ref="AG33:AL33" si="59">(N153+N155+N157+N159+N161)/5</f>
+        <f t="shared" ref="AG33:AK33" si="59">(N153+N155+N157+N159+N161)/5</f>
         <v>0.76829392321383128</v>
       </c>
       <c r="AH33" s="3">
@@ -5052,7 +5220,7 @@
         <v>24</v>
       </c>
       <c r="AC34" s="3">
-        <f t="shared" ref="AC34:AL34" si="60">(J154+J156+J158+J160+J162)</f>
+        <f t="shared" ref="AC34:AE34" si="60">(J154+J156+J158+J160+J162)</f>
         <v>20</v>
       </c>
       <c r="AD34" s="3">
@@ -5068,7 +5236,7 @@
         <v>0.51038961038960973</v>
       </c>
       <c r="AG34" s="3">
-        <f t="shared" ref="AG34:AL34" si="61">(N154+N156+N158+N160+N162)/5</f>
+        <f t="shared" ref="AG34:AK34" si="61">(N154+N156+N158+N160+N162)/5</f>
         <v>0.53386724386724316</v>
       </c>
       <c r="AH34" s="3">
@@ -5173,7 +5341,7 @@
         <v>9</v>
       </c>
       <c r="AC35" s="3">
-        <f t="shared" ref="AC35:AL35" si="62">(J163+J165+J167+J169+J171+J173)</f>
+        <f t="shared" ref="AC35:AE35" si="62">(J163+J165+J167+J169+J171+J173)</f>
         <v>25</v>
       </c>
       <c r="AD35" s="3">
@@ -5189,7 +5357,7 @@
         <v>0.87782608695652142</v>
       </c>
       <c r="AG35" s="3">
-        <f t="shared" ref="AG35:AL35" si="63">(N163+N165+N167+N169+N171+N173)/5</f>
+        <f t="shared" ref="AG35:AK35" si="63">(N163+N165+N167+N169+N171+N173)/5</f>
         <v>0.87993295841323749</v>
       </c>
       <c r="AH35" s="3">
@@ -5294,7 +5462,7 @@
         <v>25</v>
       </c>
       <c r="AC36" s="3">
-        <f t="shared" ref="AC36:AL36" si="64">(J164+J166+J168+J170+J172+J174)</f>
+        <f t="shared" ref="AC36:AE36" si="64">(J164+J166+J168+J170+J172+J174)</f>
         <v>28</v>
       </c>
       <c r="AD36" s="3">
@@ -5310,7 +5478,7 @@
         <v>0.70865800865800821</v>
       </c>
       <c r="AG36" s="3">
-        <f t="shared" ref="AG36:AL36" si="65">(N164+N166+N168+N170+N172+N174)/5</f>
+        <f t="shared" ref="AG36:AK36" si="65">(N164+N166+N168+N170+N172+N174)/5</f>
         <v>0.71874680874680819</v>
       </c>
       <c r="AH36" s="3">
@@ -5415,7 +5583,7 @@
         <v>16</v>
       </c>
       <c r="AC37" s="3">
-        <f t="shared" ref="AC37:AL37" si="66">(J175+J177+J179+J181+J183)</f>
+        <f t="shared" ref="AC37:AE37" si="66">(J175+J177+J179+J181+J183)</f>
         <v>12</v>
       </c>
       <c r="AD37" s="3">
@@ -5431,7 +5599,7 @@
         <v>0.81086956521739106</v>
       </c>
       <c r="AG37" s="3">
-        <f t="shared" ref="AG37:AL37" si="67">(N175+N177+N179+N181+N183)/5</f>
+        <f t="shared" ref="AG37:AK37" si="67">(N175+N177+N179+N181+N183)/5</f>
         <v>0.82147158176771806</v>
       </c>
       <c r="AH37" s="3">
@@ -5536,7 +5704,7 @@
         <v>20</v>
       </c>
       <c r="AC38" s="3">
-        <f t="shared" ref="AC38:AL38" si="68">(J176+J178+J180+J182+J184)</f>
+        <f t="shared" ref="AC38:AE38" si="68">(J176+J178+J180+J182+J184)</f>
         <v>24</v>
       </c>
       <c r="AD38" s="3">
@@ -5552,7 +5720,7 @@
         <v>0.57532467532467491</v>
       </c>
       <c r="AG38" s="3">
-        <f t="shared" ref="AG38:AL38" si="69">(N176+N178+N180+N182+N184)/5</f>
+        <f t="shared" ref="AG38:AK38" si="69">(N176+N178+N180+N182+N184)/5</f>
         <v>0.58073614696991283</v>
       </c>
       <c r="AH38" s="3">
@@ -5657,7 +5825,7 @@
         <v>9</v>
       </c>
       <c r="AC39" s="3">
-        <f t="shared" ref="AC39:AL39" si="70">(J185+J187+J189+J191+J193)</f>
+        <f t="shared" ref="AC39:AE39" si="70">(J185+J187+J189+J191+J193)</f>
         <v>19</v>
       </c>
       <c r="AD39" s="3">
@@ -5673,7 +5841,7 @@
         <v>0.6008695652173911</v>
       </c>
       <c r="AG39" s="3">
-        <f t="shared" ref="AG39:AL39" si="71">(N185+N187+N189+N191+N193)/5</f>
+        <f t="shared" ref="AG39:AK39" si="71">(N185+N187+N189+N191+N193)/5</f>
         <v>0.61874964478544991</v>
       </c>
       <c r="AH39" s="3">
@@ -5778,7 +5946,7 @@
         <v>26</v>
       </c>
       <c r="AC40" s="3">
-        <f t="shared" ref="AC40:AL40" si="72">(J186+J188+J190+J192+J194)</f>
+        <f t="shared" ref="AC40:AE40" si="72">(J186+J188+J190+J192+J194)</f>
         <v>18</v>
       </c>
       <c r="AD40" s="3">
@@ -5794,7 +5962,7 @@
         <v>0.54761904761904734</v>
       </c>
       <c r="AG40" s="3">
-        <f t="shared" ref="AG40:AL40" si="73">(N186+N188+N190+N192+N194)/5</f>
+        <f t="shared" ref="AG40:AK40" si="73">(N186+N188+N190+N192+N194)/5</f>
         <v>0.56511904761904719</v>
       </c>
       <c r="AH40" s="3">
@@ -7109,7 +7277,7 @@
         <v>18</v>
       </c>
       <c r="AC51" s="3">
-        <f t="shared" ref="AC51:AL51" si="94">(J245+J247+J249+J251+J253)</f>
+        <f t="shared" ref="AC51:AE51" si="94">(J245+J247+J249+J251+J253)</f>
         <v>10</v>
       </c>
       <c r="AD51" s="3">
@@ -7125,7 +7293,7 @@
         <v>0.54260869565217362</v>
       </c>
       <c r="AG51" s="3">
-        <f t="shared" ref="AG51:AL51" si="95">(N245+N247+N249+N251+N253)/5</f>
+        <f t="shared" ref="AG51:AK51" si="95">(N245+N247+N249+N251+N253)/5</f>
         <v>0.68310822510822478</v>
       </c>
       <c r="AH51" s="3">
@@ -7230,7 +7398,7 @@
         <v>30</v>
       </c>
       <c r="AC52" s="3">
-        <f t="shared" ref="AC52:AL52" si="96">(J246+J248+J250+J252+J254)</f>
+        <f t="shared" ref="AC52:AE52" si="96">(J246+J248+J250+J252+J254)</f>
         <v>14</v>
       </c>
       <c r="AD52" s="3">
@@ -7246,7 +7414,7 @@
         <v>0.47012987012986962</v>
       </c>
       <c r="AG52" s="3">
-        <f t="shared" ref="AG52:AL52" si="97">(N246+N248+N250+N252+N254)/5</f>
+        <f t="shared" ref="AG52:AK52" si="97">(N246+N248+N250+N252+N254)/5</f>
         <v>0.41154995882650536</v>
       </c>
       <c r="AH52" s="3">
@@ -7351,7 +7519,7 @@
         <v>15</v>
       </c>
       <c r="AC53" s="3">
-        <f t="shared" ref="AC53:AL53" si="98">(J255+J257+J259+J261+J263)</f>
+        <f t="shared" ref="AC53:AE53" si="98">(J255+J257+J259+J261+J263)</f>
         <v>13</v>
       </c>
       <c r="AD53" s="3">
@@ -7367,7 +7535,7 @@
         <v>0.43130434782608662</v>
       </c>
       <c r="AG53" s="3">
-        <f t="shared" ref="AG53:AL53" si="99">(N255+N257+N259+N261+N263)/5</f>
+        <f t="shared" ref="AG53:AK53" si="99">(N255+N257+N259+N261+N263)/5</f>
         <v>0.33066048003666132</v>
       </c>
       <c r="AH53" s="3">
@@ -7472,7 +7640,7 @@
         <v>19</v>
       </c>
       <c r="AC54" s="3">
-        <f t="shared" ref="AC54:AL54" si="100">(J256+J258+J260+J262+J264)</f>
+        <f t="shared" ref="AC54:AE54" si="100">(J256+J258+J260+J262+J264)</f>
         <v>25</v>
       </c>
       <c r="AD54" s="3">
@@ -7488,7 +7656,7 @@
         <v>0.46233766233766183</v>
       </c>
       <c r="AG54" s="3">
-        <f t="shared" ref="AG54:AL54" si="101">(N256+N258+N260+N262+N264)/5</f>
+        <f t="shared" ref="AG54:AK54" si="101">(N256+N258+N260+N262+N264)/5</f>
         <v>0.27963048855905959</v>
       </c>
       <c r="AH54" s="3">
@@ -7593,7 +7761,7 @@
         <v>16</v>
       </c>
       <c r="AC55" s="3">
-        <f t="shared" ref="AC55:AL55" si="102">(J265+J267+J269+J271+J273)</f>
+        <f t="shared" ref="AC55:AE55" si="102">(J265+J267+J269+J271+J273)</f>
         <v>12</v>
       </c>
       <c r="AD55" s="3">
@@ -7609,7 +7777,7 @@
         <v>0.47869565217391263</v>
       </c>
       <c r="AG55" s="3">
-        <f t="shared" ref="AG55:AL55" si="103">(N265+N267+N269+N271+N273)/5</f>
+        <f t="shared" ref="AG55:AK55" si="103">(N265+N267+N269+N271+N273)/5</f>
         <v>0.54986713475560334</v>
       </c>
       <c r="AH55" s="3">
@@ -7714,7 +7882,7 @@
         <v>24</v>
       </c>
       <c r="AC56" s="3">
-        <f t="shared" ref="AC56:AL56" si="104">(J266+J268+J270+J272+J274)</f>
+        <f t="shared" ref="AC56:AE56" si="104">(J266+J268+J270+J272+J274)</f>
         <v>20</v>
       </c>
       <c r="AD56" s="3">
@@ -7730,7 +7898,7 @@
         <v>0.46320346320346284</v>
       </c>
       <c r="AG56" s="3">
-        <f t="shared" ref="AG56:AL56" si="105">(N266+N268+N270+N272+N274)/5</f>
+        <f t="shared" ref="AG56:AK56" si="105">(N266+N268+N270+N272+N274)/5</f>
         <v>0.4503277674706242</v>
       </c>
       <c r="AH56" s="3">
@@ -9287,7 +9455,7 @@
         <v>14</v>
       </c>
       <c r="AC69" s="3">
-        <f t="shared" ref="AC69:AL69" si="130">(J335+J337+J339+J341+J343)</f>
+        <f t="shared" ref="AC69:AE69" si="130">(J335+J337+J339+J341+J343)</f>
         <v>14</v>
       </c>
       <c r="AD69" s="3">
@@ -9303,7 +9471,7 @@
         <v>0.52826086956521701</v>
       </c>
       <c r="AG69" s="3">
-        <f t="shared" ref="AG69:AL69" si="131">(N335+N337+N339+N341+N343)/5</f>
+        <f t="shared" ref="AG69:AK69" si="131">(N335+N337+N339+N341+N343)/5</f>
         <v>0.67054422445527762</v>
       </c>
       <c r="AH69" s="3">
@@ -9408,7 +9576,7 @@
         <v>19</v>
       </c>
       <c r="AC70" s="3">
-        <f t="shared" ref="AC70:AL70" si="132">(J336+J338+J340+J342+J344)</f>
+        <f t="shared" ref="AC70:AE70" si="132">(J336+J338+J340+J342+J344)</f>
         <v>25</v>
       </c>
       <c r="AD70" s="3">
@@ -9424,7 +9592,7 @@
         <v>0.5865800865800862</v>
       </c>
       <c r="AG70" s="3">
-        <f t="shared" ref="AG70:AL70" si="133">(N336+N338+N340+N342+N344)/5</f>
+        <f t="shared" ref="AG70:AK70" si="133">(N336+N338+N340+N342+N344)/5</f>
         <v>0.58269913878936375</v>
       </c>
       <c r="AH70" s="3">
@@ -9503,6 +9671,71 @@
       <c r="S71" s="6">
         <v>104</v>
       </c>
+      <c r="U71" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V71" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W71" s="3">
+        <v>32</v>
+      </c>
+      <c r="X71" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y71" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z71" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA71" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB71" s="3">
+        <f>(I345+I347+I349+I351+I353)</f>
+        <v>11</v>
+      </c>
+      <c r="AC71" s="3">
+        <f t="shared" ref="AC71:AE71" si="134">(J345+J347+J349+J351+J353)</f>
+        <v>17</v>
+      </c>
+      <c r="AD71" s="3">
+        <f t="shared" si="134"/>
+        <v>12</v>
+      </c>
+      <c r="AE71" s="3">
+        <f t="shared" si="134"/>
+        <v>72</v>
+      </c>
+      <c r="AF71" s="3">
+        <f>(M345+M347+M349+M351+M353)/5</f>
+        <v>0.74130434782608656</v>
+      </c>
+      <c r="AG71" s="3">
+        <f t="shared" ref="AG71:AK71" si="135">(N345+N347+N349+N351+N353)/5</f>
+        <v>0.7036138537282699</v>
+      </c>
+      <c r="AH71" s="3">
+        <f t="shared" si="135"/>
+        <v>0.74130434782608656</v>
+      </c>
+      <c r="AI71" s="3">
+        <f t="shared" si="135"/>
+        <v>0.71026597667901981</v>
+      </c>
+      <c r="AJ71" s="3">
+        <f t="shared" si="135"/>
+        <v>0.61237745098039187</v>
+      </c>
+      <c r="AK71" s="3">
+        <f t="shared" si="135"/>
+        <v>0.40939674567952239</v>
+      </c>
+      <c r="AL71" s="3">
+        <f>(S345+S347+S349+S351+S353)/5/60</f>
+        <v>9.65</v>
+      </c>
     </row>
     <row r="72" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B72" s="5" t="s">
@@ -9559,6 +9792,71 @@
       <c r="S72" s="6">
         <v>104</v>
       </c>
+      <c r="U72" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W72" s="3">
+        <v>32</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB72" s="3">
+        <f>(I346+I348+I350+I352+I354)</f>
+        <v>21</v>
+      </c>
+      <c r="AC72" s="3">
+        <f t="shared" ref="AC72:AE72" si="136">(J346+J348+J350+J352+J354)</f>
+        <v>23</v>
+      </c>
+      <c r="AD72" s="3">
+        <f t="shared" si="136"/>
+        <v>21</v>
+      </c>
+      <c r="AE72" s="3">
+        <f t="shared" si="136"/>
+        <v>41</v>
+      </c>
+      <c r="AF72" s="3">
+        <f>(M346+M348+M350+M352+M354)/5</f>
+        <v>0.58528138528138474</v>
+      </c>
+      <c r="AG72" s="3">
+        <f t="shared" ref="AG72:AK72" si="137">(N346+N348+N350+N352+N354)/5</f>
+        <v>0.592492703375056</v>
+      </c>
+      <c r="AH72" s="3">
+        <f t="shared" si="137"/>
+        <v>0.58528138528138474</v>
+      </c>
+      <c r="AI72" s="3">
+        <f t="shared" si="137"/>
+        <v>0.57435845408701047</v>
+      </c>
+      <c r="AJ72" s="3">
+        <f t="shared" si="137"/>
+        <v>0.56587301587301553</v>
+      </c>
+      <c r="AK72" s="3">
+        <f t="shared" si="137"/>
+        <v>0.55362443985702936</v>
+      </c>
+      <c r="AL72" s="3">
+        <f>(S346+S348+S350+S352+S354)/5/60</f>
+        <v>9.67</v>
+      </c>
     </row>
     <row r="73" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
@@ -9615,6 +9913,71 @@
       <c r="S73" s="8">
         <v>585</v>
       </c>
+      <c r="U73" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W73" s="3">
+        <v>32</v>
+      </c>
+      <c r="X73" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y73" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z73" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA73" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB73" s="3">
+        <f>(I355+I357+I359+I361+I363)</f>
+        <v>10</v>
+      </c>
+      <c r="AC73" s="3">
+        <f t="shared" ref="AC73:AE73" si="138">(J355+J357+J359+J361+J363)</f>
+        <v>18</v>
+      </c>
+      <c r="AD73" s="3">
+        <f t="shared" si="138"/>
+        <v>16</v>
+      </c>
+      <c r="AE73" s="3">
+        <f t="shared" si="138"/>
+        <v>68</v>
+      </c>
+      <c r="AF73" s="3">
+        <f>(M355+M357+M359+M361+M363)/5</f>
+        <v>0.68869565217391271</v>
+      </c>
+      <c r="AG73" s="3">
+        <f t="shared" ref="AG73:AK73" si="139">(N355+N357+N359+N361+N363)/5</f>
+        <v>0.70649362536776705</v>
+      </c>
+      <c r="AH73" s="3">
+        <f t="shared" si="139"/>
+        <v>0.68869565217391271</v>
+      </c>
+      <c r="AI73" s="3">
+        <f t="shared" si="139"/>
+        <v>0.68378785211737114</v>
+      </c>
+      <c r="AJ73" s="3">
+        <f t="shared" si="139"/>
+        <v>0.57757352941176443</v>
+      </c>
+      <c r="AK73" s="3">
+        <f t="shared" si="139"/>
+        <v>0.54891923966527834</v>
+      </c>
+      <c r="AL73" s="3">
+        <f>(S355+S357+S359+S361+S363)/5/60</f>
+        <v>8.3166666666666664</v>
+      </c>
     </row>
     <row r="74" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
@@ -9671,6 +10034,71 @@
       <c r="S74" s="8">
         <v>587</v>
       </c>
+      <c r="U74" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W74" s="3">
+        <v>32</v>
+      </c>
+      <c r="X74" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y74" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z74" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA74" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB74" s="3">
+        <f>(I356+I358+I360+I362+I364)</f>
+        <v>24</v>
+      </c>
+      <c r="AC74" s="3">
+        <f t="shared" ref="AC74:AE74" si="140">(J356+J358+J360+J362+J364)</f>
+        <v>20</v>
+      </c>
+      <c r="AD74" s="3">
+        <f t="shared" si="140"/>
+        <v>27</v>
+      </c>
+      <c r="AE74" s="3">
+        <f t="shared" si="140"/>
+        <v>35</v>
+      </c>
+      <c r="AF74" s="3">
+        <f>(M356+M358+M360+M362+M364)/5</f>
+        <v>0.55757575757575695</v>
+      </c>
+      <c r="AG74" s="3">
+        <f t="shared" ref="AG74:AK74" si="141">(N356+N358+N360+N362+N364)/5</f>
+        <v>0.58064768564768499</v>
+      </c>
+      <c r="AH74" s="3">
+        <f t="shared" si="141"/>
+        <v>0.55757575757575695</v>
+      </c>
+      <c r="AI74" s="3">
+        <f t="shared" si="141"/>
+        <v>0.54700006063031237</v>
+      </c>
+      <c r="AJ74" s="3">
+        <f t="shared" si="141"/>
+        <v>0.55932539682539639</v>
+      </c>
+      <c r="AK74" s="3">
+        <f t="shared" si="141"/>
+        <v>0.54301110650920836</v>
+      </c>
+      <c r="AL74" s="3">
+        <f>(S356+S358+S360+S362+S364)/5/60</f>
+        <v>8.3466666666666676</v>
+      </c>
     </row>
     <row r="75" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
@@ -9727,6 +10155,71 @@
       <c r="S75" s="8">
         <v>598</v>
       </c>
+      <c r="U75" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V75" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W75" s="3">
+        <v>32</v>
+      </c>
+      <c r="X75" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y75" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z75" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA75" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB75" s="3">
+        <f>(I365+I367+I369+I371+I373)</f>
+        <v>12</v>
+      </c>
+      <c r="AC75" s="3">
+        <f t="shared" ref="AC75:AE75" si="142">(J365+J367+J369+J371+J373)</f>
+        <v>16</v>
+      </c>
+      <c r="AD75" s="3">
+        <f t="shared" si="142"/>
+        <v>25</v>
+      </c>
+      <c r="AE75" s="3">
+        <f t="shared" si="142"/>
+        <v>59</v>
+      </c>
+      <c r="AF75" s="3">
+        <f>(M365+M367+M369+M371+M373)/5</f>
+        <v>0.63043478260869512</v>
+      </c>
+      <c r="AG75" s="3">
+        <f t="shared" ref="AG75:AK75" si="143">(N365+N367+N369+N371+N373)/5</f>
+        <v>0.68155624568668005</v>
+      </c>
+      <c r="AH75" s="3">
+        <f t="shared" si="143"/>
+        <v>0.63043478260869512</v>
+      </c>
+      <c r="AI75" s="3">
+        <f t="shared" si="143"/>
+        <v>0.63629472759907479</v>
+      </c>
+      <c r="AJ75" s="3">
+        <f t="shared" si="143"/>
+        <v>0.55870098039215643</v>
+      </c>
+      <c r="AK75" s="3">
+        <f t="shared" si="143"/>
+        <v>0.50346034841778431</v>
+      </c>
+      <c r="AL75" s="3">
+        <f>(S365+S367+S369+S371+S373)/5/60</f>
+        <v>9.8833333333333329</v>
+      </c>
     </row>
     <row r="76" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
@@ -9783,6 +10276,71 @@
       <c r="S76" s="8">
         <v>599</v>
       </c>
+      <c r="U76" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W76" s="3">
+        <v>32</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y76" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB76" s="3">
+        <f>(I366+I368+I370+I372+I374)</f>
+        <v>26</v>
+      </c>
+      <c r="AC76" s="3">
+        <f t="shared" ref="AC76:AE76" si="144">(J366+J368+J370+J372+J374)</f>
+        <v>18</v>
+      </c>
+      <c r="AD76" s="3">
+        <f t="shared" si="144"/>
+        <v>34</v>
+      </c>
+      <c r="AE76" s="3">
+        <f t="shared" si="144"/>
+        <v>28</v>
+      </c>
+      <c r="AF76" s="3">
+        <f>(M366+M368+M370+M372+M374)/5</f>
+        <v>0.50909090909090882</v>
+      </c>
+      <c r="AG76" s="3">
+        <f t="shared" ref="AG76:AK76" si="145">(N366+N368+N370+N372+N374)/5</f>
+        <v>0.54343022057307722</v>
+      </c>
+      <c r="AH76" s="3">
+        <f t="shared" si="145"/>
+        <v>0.50909090909090882</v>
+      </c>
+      <c r="AI76" s="3">
+        <f t="shared" si="145"/>
+        <v>0.50130638240477998</v>
+      </c>
+      <c r="AJ76" s="3">
+        <f t="shared" si="145"/>
+        <v>0.52599206349206318</v>
+      </c>
+      <c r="AK76" s="3">
+        <f t="shared" si="145"/>
+        <v>0.51065307402245375</v>
+      </c>
+      <c r="AL76" s="3">
+        <f>(S366+S368+S370+S372+S374)/5/60</f>
+        <v>9.9166666666666661</v>
+      </c>
     </row>
     <row r="77" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
@@ -9839,6 +10397,71 @@
       <c r="S77" s="8">
         <v>631</v>
       </c>
+      <c r="U77" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V77" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W77" s="3">
+        <v>32</v>
+      </c>
+      <c r="X77" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y77" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z77" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA77" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB77" s="3">
+        <f>(I375+I377+I379+I381+I383)</f>
+        <v>11</v>
+      </c>
+      <c r="AC77" s="3">
+        <f t="shared" ref="AC77:AE77" si="146">(J375+J377+J379+J381+J383)</f>
+        <v>20</v>
+      </c>
+      <c r="AD77" s="3">
+        <f t="shared" si="146"/>
+        <v>18</v>
+      </c>
+      <c r="AE77" s="3">
+        <f t="shared" si="146"/>
+        <v>61</v>
+      </c>
+      <c r="AF77" s="3">
+        <f>(M375+M377+M379+M381+M383)/5</f>
+        <v>0.64989648033126279</v>
+      </c>
+      <c r="AG77" s="3">
+        <f t="shared" ref="AG77:AL77" si="147">(N375+N377+N379+N381+N383)/5</f>
+        <v>0.63347637869376949</v>
+      </c>
+      <c r="AH77" s="3">
+        <f t="shared" si="147"/>
+        <v>0.64989648033126279</v>
+      </c>
+      <c r="AI77" s="3">
+        <f t="shared" si="147"/>
+        <v>0.63771706554315211</v>
+      </c>
+      <c r="AJ77" s="3">
+        <f t="shared" si="147"/>
+        <v>0.52965686274509782</v>
+      </c>
+      <c r="AK77" s="3">
+        <f t="shared" si="147"/>
+        <v>0.3621914092332546</v>
+      </c>
+      <c r="AL77" s="3">
+        <f t="shared" si="147"/>
+        <v>538.6</v>
+      </c>
     </row>
     <row r="78" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
@@ -9895,6 +10518,71 @@
       <c r="S78" s="8">
         <v>633</v>
       </c>
+      <c r="U78" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V78" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W78" s="3">
+        <v>32</v>
+      </c>
+      <c r="X78" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y78" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z78" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA78" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB78" s="3">
+        <f>(I376+I378+I380+I382+I384)</f>
+        <v>15</v>
+      </c>
+      <c r="AC78" s="3">
+        <f t="shared" ref="AC78:AE78" si="148">(J376+J378+J380+J382+J384)</f>
+        <v>26</v>
+      </c>
+      <c r="AD78" s="3">
+        <f t="shared" si="148"/>
+        <v>22</v>
+      </c>
+      <c r="AE78" s="3">
+        <f t="shared" si="148"/>
+        <v>45</v>
+      </c>
+      <c r="AF78" s="3">
+        <f>(M376+M378+M380+M382+M384)/5</f>
+        <v>0.55431959345002779</v>
+      </c>
+      <c r="AG78" s="3">
+        <f t="shared" ref="AG78:AK78" si="149">(N376+N378+N380+N382+N384)/5</f>
+        <v>0.55967319227178325</v>
+      </c>
+      <c r="AH78" s="3">
+        <f t="shared" si="149"/>
+        <v>0.55431959345002779</v>
+      </c>
+      <c r="AI78" s="3">
+        <f t="shared" si="149"/>
+        <v>0.54724365914133766</v>
+      </c>
+      <c r="AJ78" s="3">
+        <f t="shared" si="149"/>
+        <v>0.51283846872082139</v>
+      </c>
+      <c r="AK78" s="3">
+        <f t="shared" si="149"/>
+        <v>0.50341397014736577</v>
+      </c>
+      <c r="AL78" s="3">
+        <f>(S376+S378+S380+S382+S384)/5/60</f>
+        <v>9.01</v>
+      </c>
     </row>
     <row r="79" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
@@ -9951,6 +10639,71 @@
       <c r="S79" s="8">
         <v>745</v>
       </c>
+      <c r="U79" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W79" s="3">
+        <v>32</v>
+      </c>
+      <c r="X79" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y79" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z79" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA79" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB79" s="3">
+        <f>(I385+I387+I389+I391+I393)</f>
+        <v>9</v>
+      </c>
+      <c r="AC79" s="3">
+        <f t="shared" ref="AC79:AE79" si="150">(J385+J387+J389+J391+J393)</f>
+        <v>19</v>
+      </c>
+      <c r="AD79" s="3">
+        <f t="shared" si="150"/>
+        <v>16</v>
+      </c>
+      <c r="AE79" s="3">
+        <f t="shared" si="150"/>
+        <v>68</v>
+      </c>
+      <c r="AF79" s="3">
+        <f>(M385+M387+M389+M391+M393)/5</f>
+        <v>0.68130434782608673</v>
+      </c>
+      <c r="AG79" s="3">
+        <f t="shared" ref="AG79:AK79" si="151">(N385+N387+N389+N391+N393)/5</f>
+        <v>0.70992601601297201</v>
+      </c>
+      <c r="AH79" s="3">
+        <f t="shared" si="151"/>
+        <v>0.68130434782608673</v>
+      </c>
+      <c r="AI79" s="3">
+        <f t="shared" si="151"/>
+        <v>0.67651864377501514</v>
+      </c>
+      <c r="AJ79" s="3">
+        <f t="shared" si="151"/>
+        <v>0.55330882352941146</v>
+      </c>
+      <c r="AK79" s="3">
+        <f t="shared" si="151"/>
+        <v>0.4861896761739084</v>
+      </c>
+      <c r="AL79" s="3">
+        <f>(S385+S387+S389+S391+S393)/5/60</f>
+        <v>9.8833333333333329</v>
+      </c>
     </row>
     <row r="80" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B80" s="7" t="s">
@@ -10007,8 +10760,73 @@
       <c r="S80" s="8">
         <v>746</v>
       </c>
-    </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="U80" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V80" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W80" s="3">
+        <v>32</v>
+      </c>
+      <c r="X80" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y80" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z80" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA80" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB80" s="3">
+        <f>(I386+I388+I390+I392+I394)</f>
+        <v>26</v>
+      </c>
+      <c r="AC80" s="3">
+        <f t="shared" ref="AC80:AE80" si="152">(J386+J388+J390+J392+J394)</f>
+        <v>18</v>
+      </c>
+      <c r="AD80" s="3">
+        <f t="shared" si="152"/>
+        <v>26</v>
+      </c>
+      <c r="AE80" s="3">
+        <f t="shared" si="152"/>
+        <v>36</v>
+      </c>
+      <c r="AF80" s="3">
+        <f>(M386+M388+M390+M392+M394)/5</f>
+        <v>0.58528138528138474</v>
+      </c>
+      <c r="AG80" s="3">
+        <f>(N386+N388+N390+N392+N394)/5</f>
+        <v>0.60877122877122825</v>
+      </c>
+      <c r="AH80" s="3">
+        <f t="shared" ref="AH80:AJ80" si="153">(O386+O388+O390+O392+O394)/5</f>
+        <v>0.58528138528138474</v>
+      </c>
+      <c r="AI80" s="3">
+        <f t="shared" si="153"/>
+        <v>0.58146840958605617</v>
+      </c>
+      <c r="AJ80" s="3">
+        <f t="shared" si="153"/>
+        <v>0.58749999999999969</v>
+      </c>
+      <c r="AK80" s="3">
+        <f>(R386+R388+R390+R392+R394)/5</f>
+        <v>0.57949488095306978</v>
+      </c>
+      <c r="AL80" s="3">
+        <f>(S386+S388+S390+S392+S394)/5/60</f>
+        <v>9.9166666666666661</v>
+      </c>
+    </row>
+    <row r="81" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>18</v>
       </c>
@@ -10063,8 +10881,73 @@
       <c r="S81" s="8">
         <v>668</v>
       </c>
-    </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="U81" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W81" s="3">
+        <v>32</v>
+      </c>
+      <c r="X81" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y81" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z81" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA81" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB81" s="3">
+        <f>(I395+I397+I399+I401+I403)</f>
+        <v>13</v>
+      </c>
+      <c r="AC81" s="3">
+        <f t="shared" ref="AC81:AE82" si="154">(J395+J397+J399+J401+J403)</f>
+        <v>15</v>
+      </c>
+      <c r="AD81" s="3">
+        <f t="shared" si="154"/>
+        <v>14</v>
+      </c>
+      <c r="AE81" s="3">
+        <f t="shared" si="154"/>
+        <v>70</v>
+      </c>
+      <c r="AF81" s="3">
+        <f>(M395+M397+M399+M401+M403)/5</f>
+        <v>0.73999999999999966</v>
+      </c>
+      <c r="AG81" s="3">
+        <f t="shared" ref="AG81:AI82" si="155">(N395+N397+N399+N401+N403)/5</f>
+        <v>0.76314434357912553</v>
+      </c>
+      <c r="AH81" s="3">
+        <f t="shared" si="155"/>
+        <v>0.73999999999999966</v>
+      </c>
+      <c r="AI81" s="3">
+        <f t="shared" si="155"/>
+        <v>0.73738674643022462</v>
+      </c>
+      <c r="AJ81" s="3">
+        <f t="shared" ref="AJ81:AJ82" si="156">(Q395+Q397+Q399+Q401+Q403)/5</f>
+        <v>0.64950980392156843</v>
+      </c>
+      <c r="AK81" s="3">
+        <f t="shared" ref="AK81:AK82" si="157">(R395+R397+R399+R401+R403)/5</f>
+        <v>0.63556895585737916</v>
+      </c>
+      <c r="AL81" s="3">
+        <f>(S395+S397+S399+S401+S403)/5/60</f>
+        <v>12.343333333333334</v>
+      </c>
+    </row>
+    <row r="82" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>18</v>
       </c>
@@ -10119,8 +11002,73 @@
       <c r="S82" s="8">
         <v>671</v>
       </c>
-    </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="U82" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W82" s="3">
+        <v>32</v>
+      </c>
+      <c r="X82" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y82" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z82" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA82" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB82" s="3">
+        <f>(I396+I398+I400+I402+I404)</f>
+        <v>27</v>
+      </c>
+      <c r="AC82" s="3">
+        <f t="shared" si="154"/>
+        <v>17</v>
+      </c>
+      <c r="AD82" s="3">
+        <f t="shared" si="154"/>
+        <v>26</v>
+      </c>
+      <c r="AE82" s="3">
+        <f t="shared" si="154"/>
+        <v>36</v>
+      </c>
+      <c r="AF82" s="3">
+        <f>(M396+M398+M400+M402+M404)/5</f>
+        <v>0.59350649350649287</v>
+      </c>
+      <c r="AG82" s="3">
+        <f t="shared" si="155"/>
+        <v>0.6387776928953397</v>
+      </c>
+      <c r="AH82" s="3">
+        <f t="shared" si="155"/>
+        <v>0.59350649350649287</v>
+      </c>
+      <c r="AI82" s="3">
+        <f t="shared" si="155"/>
+        <v>0.5758076705902786</v>
+      </c>
+      <c r="AJ82" s="3">
+        <f t="shared" si="156"/>
+        <v>0.60277777777777763</v>
+      </c>
+      <c r="AK82" s="3">
+        <f t="shared" si="157"/>
+        <v>0.57924078965973913</v>
+      </c>
+      <c r="AL82" s="3">
+        <f t="shared" ref="AL82" si="158">(S396+S398+S400+S402+S404)/5</f>
+        <v>742.2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
         <v>18</v>
       </c>
@@ -10175,8 +11123,73 @@
       <c r="S83" s="4">
         <v>379</v>
       </c>
-    </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="U83" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W83" s="3">
+        <v>32</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB83" s="3">
+        <f>(I405+I407+I409+I411+I413)</f>
+        <v>8</v>
+      </c>
+      <c r="AC83" s="3">
+        <f t="shared" ref="AC83:AE83" si="159">(J405+J407+J409+J411+J413)</f>
+        <v>20</v>
+      </c>
+      <c r="AD83" s="3">
+        <f t="shared" si="159"/>
+        <v>19</v>
+      </c>
+      <c r="AE83" s="3">
+        <f t="shared" si="159"/>
+        <v>65</v>
+      </c>
+      <c r="AF83" s="3">
+        <f>(M405+M407+M409+M411+M413)/5</f>
+        <v>0.65043478260869547</v>
+      </c>
+      <c r="AG83" s="3">
+        <f t="shared" ref="AG83:AK83" si="160">(N405+N407+N409+N411+N413)/5</f>
+        <v>0.63857095802747921</v>
+      </c>
+      <c r="AH83" s="3">
+        <f t="shared" si="160"/>
+        <v>0.65043478260869547</v>
+      </c>
+      <c r="AI83" s="3">
+        <f t="shared" si="160"/>
+        <v>0.6411740143914052</v>
+      </c>
+      <c r="AJ83" s="3">
+        <f t="shared" si="160"/>
+        <v>0.52806372549019565</v>
+      </c>
+      <c r="AK83" s="3">
+        <f t="shared" si="160"/>
+        <v>0.39402527946291216</v>
+      </c>
+      <c r="AL83" s="3">
+        <f>(S405+S407+S409+S411+S413)/5/60</f>
+        <v>11.516666666666667</v>
+      </c>
+    </row>
+    <row r="84" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
         <v>18</v>
       </c>
@@ -10231,8 +11244,73 @@
       <c r="S84" s="4">
         <v>380</v>
       </c>
-    </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="U84" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V84" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W84" s="3">
+        <v>32</v>
+      </c>
+      <c r="X84" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y84" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z84" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA84" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB84" s="3">
+        <f>(I406+I408+I410+I412+I414)</f>
+        <v>22</v>
+      </c>
+      <c r="AC84" s="3">
+        <f t="shared" ref="AC84:AE84" si="161">(J406+J408+J410+J412+J414)</f>
+        <v>22</v>
+      </c>
+      <c r="AD84" s="3">
+        <f t="shared" si="161"/>
+        <v>31</v>
+      </c>
+      <c r="AE84" s="3">
+        <f t="shared" si="161"/>
+        <v>31</v>
+      </c>
+      <c r="AF84" s="3">
+        <f>(M406+M408+M410+M412+M414)/5</f>
+        <v>0.49999999999999956</v>
+      </c>
+      <c r="AG84" s="3">
+        <f t="shared" ref="AG84:AK84" si="162">(N406+N408+N410+N412+N414)/5</f>
+        <v>0.5122266622266618</v>
+      </c>
+      <c r="AH84" s="3">
+        <f t="shared" si="162"/>
+        <v>0.49999999999999956</v>
+      </c>
+      <c r="AI84" s="3">
+        <f t="shared" si="162"/>
+        <v>0.50044264864025223</v>
+      </c>
+      <c r="AJ84" s="3">
+        <f t="shared" si="162"/>
+        <v>0.49742063492063454</v>
+      </c>
+      <c r="AK84" s="3">
+        <f t="shared" si="162"/>
+        <v>0.48985278910141483</v>
+      </c>
+      <c r="AL84" s="3">
+        <f>(S406+S408+S410+S412+S414)/5/60</f>
+        <v>11.543333333333333</v>
+      </c>
+    </row>
+    <row r="85" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
         <v>18</v>
       </c>
@@ -10287,8 +11365,73 @@
       <c r="S85" s="4">
         <v>500</v>
       </c>
-    </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="U85" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V85" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W85" s="3">
+        <v>32</v>
+      </c>
+      <c r="X85" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y85" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z85" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA85" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB85" s="3">
+        <f>(I415+I417+I419+I421+I423)</f>
+        <v>13</v>
+      </c>
+      <c r="AC85" s="3">
+        <f t="shared" ref="AC85:AE85" si="163">(J415+J417+J419+J421+J423)</f>
+        <v>18</v>
+      </c>
+      <c r="AD85" s="3">
+        <f t="shared" si="163"/>
+        <v>38</v>
+      </c>
+      <c r="AE85" s="3">
+        <f t="shared" si="163"/>
+        <v>41</v>
+      </c>
+      <c r="AF85" s="3">
+        <f>(M415+M417+M419+M421+M423)/5</f>
+        <v>0.48484472049689398</v>
+      </c>
+      <c r="AG85" s="3">
+        <f t="shared" ref="AG85:AK85" si="164">(N415+N417+N419+N421+N423)/5</f>
+        <v>0.56206900650836533</v>
+      </c>
+      <c r="AH85" s="3">
+        <f t="shared" si="164"/>
+        <v>0.48484472049689398</v>
+      </c>
+      <c r="AI85" s="3">
+        <f t="shared" si="164"/>
+        <v>0.49995784501351875</v>
+      </c>
+      <c r="AJ85" s="3">
+        <f t="shared" si="164"/>
+        <v>0.44203431372548979</v>
+      </c>
+      <c r="AK85" s="3">
+        <f t="shared" si="164"/>
+        <v>0.40974373511400836</v>
+      </c>
+      <c r="AL85" s="3">
+        <f>(S415+S417+S419+S421+S423)/5/60</f>
+        <v>10.033333333333333</v>
+      </c>
+    </row>
+    <row r="86" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
         <v>18</v>
       </c>
@@ -10343,8 +11486,73 @@
       <c r="S86" s="4">
         <v>381</v>
       </c>
-    </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="U86" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V86" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W86" s="3">
+        <v>32</v>
+      </c>
+      <c r="X86" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y86" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z86" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA86" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB86" s="3">
+        <f>(I416+I418+I420+I422+I424)</f>
+        <v>20</v>
+      </c>
+      <c r="AC86" s="3">
+        <f t="shared" ref="AC86:AE86" si="165">(J416+J418+J420+J422+J424)</f>
+        <v>21</v>
+      </c>
+      <c r="AD86" s="3">
+        <f t="shared" si="165"/>
+        <v>21</v>
+      </c>
+      <c r="AE86" s="3">
+        <f t="shared" si="165"/>
+        <v>46</v>
+      </c>
+      <c r="AF86" s="3">
+        <f>(M416+M418+M420+M422+M424)/5</f>
+        <v>0.6101261057782793</v>
+      </c>
+      <c r="AG86" s="3">
+        <f t="shared" ref="AG86:AK86" si="166">(N416+N418+N420+N422+N424)/5</f>
+        <v>0.61513399643834399</v>
+      </c>
+      <c r="AH86" s="3">
+        <f t="shared" si="166"/>
+        <v>0.6101261057782793</v>
+      </c>
+      <c r="AI86" s="3">
+        <f t="shared" si="166"/>
+        <v>0.59867061975555669</v>
+      </c>
+      <c r="AJ86" s="3">
+        <f t="shared" si="166"/>
+        <v>0.57553688141923398</v>
+      </c>
+      <c r="AK86" s="3">
+        <f t="shared" si="166"/>
+        <v>0.54996314805619806</v>
+      </c>
+      <c r="AL86" s="3">
+        <f>(S416+S418+S420+S422+S424)/5/60</f>
+        <v>12.063333333333333</v>
+      </c>
+    </row>
+    <row r="87" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
         <v>18</v>
       </c>
@@ -10399,8 +11607,43 @@
       <c r="S87" s="4">
         <v>381</v>
       </c>
-    </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="U87" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V87" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W87" s="3">
+        <v>32</v>
+      </c>
+      <c r="X87" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y87" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z87" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA87" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB87" s="3">
+        <f>(AD97)</f>
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3"/>
+      <c r="AD87" s="3"/>
+      <c r="AE87" s="3"/>
+      <c r="AF87" s="3"/>
+      <c r="AG87" s="3"/>
+      <c r="AH87" s="3"/>
+      <c r="AI87" s="3"/>
+      <c r="AJ87" s="3"/>
+      <c r="AK87" s="3"/>
+      <c r="AL87" s="3"/>
+    </row>
+    <row r="88" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
         <v>18</v>
       </c>
@@ -10455,8 +11698,40 @@
       <c r="S88" s="4">
         <v>382</v>
       </c>
-    </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="U88" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V88" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W88" s="3">
+        <v>32</v>
+      </c>
+      <c r="X88" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y88" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z88" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA88" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB88" s="3"/>
+      <c r="AC88" s="3"/>
+      <c r="AD88" s="3"/>
+      <c r="AE88" s="3"/>
+      <c r="AF88" s="3"/>
+      <c r="AG88" s="3"/>
+      <c r="AH88" s="3"/>
+      <c r="AI88" s="3"/>
+      <c r="AJ88" s="3"/>
+      <c r="AK88" s="3"/>
+      <c r="AL88" s="3"/>
+    </row>
+    <row r="89" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
         <v>18</v>
       </c>
@@ -10511,8 +11786,73 @@
       <c r="S89" s="4">
         <v>592</v>
       </c>
-    </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="U89" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W89" s="3">
+        <v>32</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y89" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z89" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB89" s="3">
+        <f>(I435+I437+I439+I441+I443)</f>
+        <v>15</v>
+      </c>
+      <c r="AC89" s="3">
+        <f t="shared" ref="AC89:AE89" si="167">(J435+J437+J439+J441+J443)</f>
+        <v>13</v>
+      </c>
+      <c r="AD89" s="3">
+        <f t="shared" si="167"/>
+        <v>17</v>
+      </c>
+      <c r="AE89" s="3">
+        <f t="shared" si="167"/>
+        <v>67</v>
+      </c>
+      <c r="AF89" s="3">
+        <f>(M435+M437+M439+M441+M443)/5</f>
+        <v>0.73130434782608678</v>
+      </c>
+      <c r="AG89" s="3">
+        <f t="shared" ref="AG89:AK90" si="168">(N435+N437+N439+N441+N443)/5</f>
+        <v>0.77212591756069981</v>
+      </c>
+      <c r="AH89" s="3">
+        <f t="shared" si="168"/>
+        <v>0.73130434782608678</v>
+      </c>
+      <c r="AI89" s="3">
+        <f t="shared" si="168"/>
+        <v>0.73633175202651735</v>
+      </c>
+      <c r="AJ89" s="3">
+        <f t="shared" si="168"/>
+        <v>0.66519607843137218</v>
+      </c>
+      <c r="AK89" s="3">
+        <f t="shared" si="168"/>
+        <v>0.65472949815766257</v>
+      </c>
+      <c r="AL89" s="3">
+        <f>(S435+S437+S439+S441+S443)/5/60</f>
+        <v>13.263333333333332</v>
+      </c>
+    </row>
+    <row r="90" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
         <v>18</v>
       </c>
@@ -10567,8 +11907,73 @@
       <c r="S90" s="4">
         <v>594</v>
       </c>
-    </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="U90" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V90" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W90" s="3">
+        <v>32</v>
+      </c>
+      <c r="X90" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y90" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z90" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA90" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB90" s="3">
+        <f>(I436+I438+I440+I442+I444)</f>
+        <v>26</v>
+      </c>
+      <c r="AC90" s="3">
+        <f t="shared" ref="AC90:AE90" si="169">(J436+J438+J440+J442+J444)</f>
+        <v>18</v>
+      </c>
+      <c r="AD90" s="3">
+        <f t="shared" si="169"/>
+        <v>35</v>
+      </c>
+      <c r="AE90" s="3">
+        <f t="shared" si="169"/>
+        <v>27</v>
+      </c>
+      <c r="AF90" s="3">
+        <f>(M436+M438+M440+M442+M444)/5</f>
+        <v>0.50043290043289979</v>
+      </c>
+      <c r="AG90" s="3">
+        <f t="shared" ref="AG90:AI90" si="170">(N436+N438+N440+N442+N444)/5</f>
+        <v>0.53275613275613221</v>
+      </c>
+      <c r="AH90" s="3">
+        <f t="shared" si="170"/>
+        <v>0.50043290043289979</v>
+      </c>
+      <c r="AI90" s="3">
+        <f t="shared" si="170"/>
+        <v>0.4757548020248244</v>
+      </c>
+      <c r="AJ90" s="3">
+        <f>(Q436+Q438+Q440+Q442+Q444)/5</f>
+        <v>0.51746031746031695</v>
+      </c>
+      <c r="AK90" s="3">
+        <f t="shared" si="168"/>
+        <v>0.47826972798844736</v>
+      </c>
+      <c r="AL90" s="3">
+        <f>(S436+S438+S440+S442+S444)/5/60</f>
+        <v>13.293333333333333</v>
+      </c>
+    </row>
+    <row r="91" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
         <v>18</v>
       </c>
@@ -10623,8 +12028,73 @@
       <c r="S91" s="4">
         <v>391</v>
       </c>
-    </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="U91" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W91" s="3">
+        <v>32</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB91" s="3">
+        <f>(I445+I447+I449+I451+I453)</f>
+        <v>13</v>
+      </c>
+      <c r="AC91" s="3">
+        <f t="shared" ref="AC91:AL91" si="171">(J445+J447+J449+J451+J453)</f>
+        <v>15</v>
+      </c>
+      <c r="AD91" s="3">
+        <f t="shared" si="171"/>
+        <v>25</v>
+      </c>
+      <c r="AE91" s="3">
+        <f t="shared" si="171"/>
+        <v>59</v>
+      </c>
+      <c r="AF91" s="3">
+        <f>(M445+M447+M449+M451+M453)/5</f>
+        <v>0.64173913043478248</v>
+      </c>
+      <c r="AG91" s="3">
+        <f t="shared" ref="AG91:AL91" si="172">(N445+N447+N449+N451+N453)/5</f>
+        <v>0.68648471475130468</v>
+      </c>
+      <c r="AH91" s="3">
+        <f t="shared" si="172"/>
+        <v>0.64173913043478248</v>
+      </c>
+      <c r="AI91" s="3">
+        <f t="shared" si="172"/>
+        <v>0.65164723759955145</v>
+      </c>
+      <c r="AJ91" s="3">
+        <f t="shared" si="172"/>
+        <v>0.57610294117647021</v>
+      </c>
+      <c r="AK91" s="3">
+        <f t="shared" si="172"/>
+        <v>0.51722183682486311</v>
+      </c>
+      <c r="AL91" s="3">
+        <f>(S445+S447+S449+S451+S453)/5/60</f>
+        <v>10.029999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
         <v>18</v>
       </c>
@@ -10679,8 +12149,73 @@
       <c r="S92" s="4">
         <v>392</v>
       </c>
-    </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="U92" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V92" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W92" s="3">
+        <v>32</v>
+      </c>
+      <c r="X92" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y92" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z92" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA92" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB92" s="3">
+        <f>(I446+I448+I450+I452+I454)</f>
+        <v>22</v>
+      </c>
+      <c r="AC92" s="3">
+        <f t="shared" ref="AC92:AL92" si="173">(J446+J448+J450+J452+J454)</f>
+        <v>22</v>
+      </c>
+      <c r="AD92" s="3">
+        <f t="shared" si="173"/>
+        <v>30</v>
+      </c>
+      <c r="AE92" s="3">
+        <f t="shared" si="173"/>
+        <v>32</v>
+      </c>
+      <c r="AF92" s="3">
+        <f>(M446+M448+M450+M452+M454)/5</f>
+        <v>0.50952380952380927</v>
+      </c>
+      <c r="AG92" s="3">
+        <f t="shared" ref="AG92:AL92" si="174">(N446+N448+N450+N452+N454)/5</f>
+        <v>0.51117243867243822</v>
+      </c>
+      <c r="AH92" s="3">
+        <f t="shared" si="174"/>
+        <v>0.50952380952380927</v>
+      </c>
+      <c r="AI92" s="3">
+        <f t="shared" si="174"/>
+        <v>0.4825721134848916</v>
+      </c>
+      <c r="AJ92" s="3">
+        <f t="shared" si="174"/>
+        <v>0.50317460317460283</v>
+      </c>
+      <c r="AK92" s="3">
+        <f t="shared" si="174"/>
+        <v>0.46402947440910702</v>
+      </c>
+      <c r="AL92" s="3">
+        <f>(S446+S448+S450+S452+S454)/5/60</f>
+        <v>10.063333333333333</v>
+      </c>
+    </row>
+    <row r="93" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
         <v>18</v>
       </c>
@@ -10736,7 +12271,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
         <v>18</v>
       </c>
@@ -10792,7 +12327,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="95" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>18</v>
       </c>
@@ -10848,7 +12383,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B96" s="7" t="s">
         <v>18</v>
       </c>
@@ -24790,6 +26325,6098 @@
       </c>
       <c r="S344" s="6">
         <v>282</v>
+      </c>
+    </row>
+    <row r="345" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B345" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C345" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D345" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E345" s="13">
+        <v>32</v>
+      </c>
+      <c r="F345" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G345" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H345" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I345" s="13">
+        <v>4</v>
+      </c>
+      <c r="J345" s="13">
+        <v>2</v>
+      </c>
+      <c r="K345" s="13">
+        <v>4</v>
+      </c>
+      <c r="L345" s="13">
+        <v>13</v>
+      </c>
+      <c r="M345" s="13">
+        <v>0.73913043478260798</v>
+      </c>
+      <c r="N345" s="13">
+        <v>0.77101449275362299</v>
+      </c>
+      <c r="O345" s="13">
+        <v>0.73913043478260798</v>
+      </c>
+      <c r="P345" s="13">
+        <v>0.74961180124223603</v>
+      </c>
+      <c r="Q345" s="13">
+        <v>0.71568627450980304</v>
+      </c>
+      <c r="R345" s="13">
+        <v>0.68557712326216202</v>
+      </c>
+      <c r="S345" s="14">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="346" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B346" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C346" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D346" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E346" s="13">
+        <v>32</v>
+      </c>
+      <c r="F346" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G346" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H346" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I346" s="13">
+        <v>6</v>
+      </c>
+      <c r="J346" s="13">
+        <v>3</v>
+      </c>
+      <c r="K346" s="13">
+        <v>7</v>
+      </c>
+      <c r="L346" s="13">
+        <v>5</v>
+      </c>
+      <c r="M346" s="13">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="N346" s="13">
+        <v>0.55494505494505497</v>
+      </c>
+      <c r="O346" s="13">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="P346" s="13">
+        <v>0.51948051948051899</v>
+      </c>
+      <c r="Q346" s="13">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="R346" s="13">
+        <v>0.53204253451782302</v>
+      </c>
+      <c r="S346" s="14">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="347" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B347" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C347" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D347" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E347" s="13">
+        <v>32</v>
+      </c>
+      <c r="F347" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G347" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H347" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I347" s="13">
+        <v>0</v>
+      </c>
+      <c r="J347" s="13">
+        <v>4</v>
+      </c>
+      <c r="K347" s="13">
+        <v>1</v>
+      </c>
+      <c r="L347" s="13">
+        <v>15</v>
+      </c>
+      <c r="M347" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="N347" s="13">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="O347" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="P347" s="13">
+        <v>0.68571428571428505</v>
+      </c>
+      <c r="Q347" s="13">
+        <v>0.46875</v>
+      </c>
+      <c r="R347" s="13">
+        <v>0</v>
+      </c>
+      <c r="S347" s="14">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="348" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B348" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C348" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D348" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E348" s="13">
+        <v>32</v>
+      </c>
+      <c r="F348" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G348" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H348" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I348" s="13">
+        <v>2</v>
+      </c>
+      <c r="J348" s="13">
+        <v>6</v>
+      </c>
+      <c r="K348" s="13">
+        <v>4</v>
+      </c>
+      <c r="L348" s="13">
+        <v>10</v>
+      </c>
+      <c r="M348" s="13">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="N348" s="13">
+        <v>0.51893939393939303</v>
+      </c>
+      <c r="O348" s="13">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="P348" s="13">
+        <v>0.52813852813852802</v>
+      </c>
+      <c r="Q348" s="13">
+        <v>0.48214285714285698</v>
+      </c>
+      <c r="R348" s="13">
+        <v>0.43918013098569803</v>
+      </c>
+      <c r="S348" s="14">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="349" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B349" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C349" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D349" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E349" s="13">
+        <v>32</v>
+      </c>
+      <c r="F349" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G349" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H349" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I349" s="13">
+        <v>2</v>
+      </c>
+      <c r="J349" s="13">
+        <v>4</v>
+      </c>
+      <c r="K349" s="13">
+        <v>1</v>
+      </c>
+      <c r="L349" s="13">
+        <v>16</v>
+      </c>
+      <c r="M349" s="13">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="N349" s="13">
+        <v>0.76521739130434696</v>
+      </c>
+      <c r="O349" s="13">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="P349" s="13">
+        <v>0.75518997258127696</v>
+      </c>
+      <c r="Q349" s="13">
+        <v>0.63725490196078405</v>
+      </c>
+      <c r="R349" s="13">
+        <v>0.63956859995776105</v>
+      </c>
+      <c r="S349" s="14">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="350" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B350" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C350" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D350" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E350" s="13">
+        <v>32</v>
+      </c>
+      <c r="F350" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G350" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H350" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I350" s="13">
+        <v>6</v>
+      </c>
+      <c r="J350" s="13">
+        <v>3</v>
+      </c>
+      <c r="K350" s="13">
+        <v>3</v>
+      </c>
+      <c r="L350" s="13">
+        <v>9</v>
+      </c>
+      <c r="M350" s="13">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="N350" s="13">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="O350" s="13">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="P350" s="13">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="Q350" s="13">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="R350" s="13">
+        <v>0.70710678118654702</v>
+      </c>
+      <c r="S350" s="14">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="351" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B351" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C351" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D351" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="E351" s="13">
+        <v>32</v>
+      </c>
+      <c r="F351" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G351" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H351" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I351" s="13">
+        <v>0</v>
+      </c>
+      <c r="J351" s="13">
+        <v>6</v>
+      </c>
+      <c r="K351" s="13">
+        <v>1</v>
+      </c>
+      <c r="L351" s="13">
+        <v>16</v>
+      </c>
+      <c r="M351" s="13">
+        <v>0.69565217391304301</v>
+      </c>
+      <c r="N351" s="13">
+        <v>0.53754940711462396</v>
+      </c>
+      <c r="O351" s="13">
+        <v>0.69565217391304301</v>
+      </c>
+      <c r="P351" s="13">
+        <v>0.60646599777034504</v>
+      </c>
+      <c r="Q351" s="13">
+        <v>0.47058823529411697</v>
+      </c>
+      <c r="R351" s="13">
+        <v>0</v>
+      </c>
+      <c r="S351" s="14">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="352" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B352" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C352" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D352" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="E352" s="13">
+        <v>32</v>
+      </c>
+      <c r="F352" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G352" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H352" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I352" s="13">
+        <v>4</v>
+      </c>
+      <c r="J352" s="13">
+        <v>5</v>
+      </c>
+      <c r="K352" s="13">
+        <v>6</v>
+      </c>
+      <c r="L352" s="13">
+        <v>6</v>
+      </c>
+      <c r="M352" s="13">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="N352" s="13">
+        <v>0.483116883116883</v>
+      </c>
+      <c r="O352" s="13">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="P352" s="13">
+        <v>0.47858777378228101</v>
+      </c>
+      <c r="Q352" s="13">
+        <v>0.47222222222222199</v>
+      </c>
+      <c r="R352" s="13">
+        <v>0.469247006410559</v>
+      </c>
+      <c r="S352" s="14">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="353" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B353" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C353" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D353" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E353" s="13">
+        <v>32</v>
+      </c>
+      <c r="F353" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G353" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H353" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I353" s="13">
+        <v>5</v>
+      </c>
+      <c r="J353" s="13">
+        <v>1</v>
+      </c>
+      <c r="K353" s="13">
+        <v>5</v>
+      </c>
+      <c r="L353" s="13">
+        <v>12</v>
+      </c>
+      <c r="M353" s="13">
+        <v>0.73913043478260798</v>
+      </c>
+      <c r="N353" s="13">
+        <v>0.81270903010033402</v>
+      </c>
+      <c r="O353" s="13">
+        <v>0.73913043478260798</v>
+      </c>
+      <c r="P353" s="13">
+        <v>0.75434782608695605</v>
+      </c>
+      <c r="Q353" s="13">
+        <v>0.76960784313725505</v>
+      </c>
+      <c r="R353" s="13">
+        <v>0.72183800517768903</v>
+      </c>
+      <c r="S353" s="14">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="354" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B354" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C354" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D354" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E354" s="13">
+        <v>32</v>
+      </c>
+      <c r="F354" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G354" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H354" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I354" s="13">
+        <v>3</v>
+      </c>
+      <c r="J354" s="13">
+        <v>6</v>
+      </c>
+      <c r="K354" s="13">
+        <v>1</v>
+      </c>
+      <c r="L354" s="13">
+        <v>11</v>
+      </c>
+      <c r="M354" s="13">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="N354" s="13">
+        <v>0.69117647058823495</v>
+      </c>
+      <c r="O354" s="13">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="P354" s="13">
+        <v>0.63129973474801004</v>
+      </c>
+      <c r="Q354" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="R354" s="13">
+        <v>0.62054574618451996</v>
+      </c>
+      <c r="S354" s="14">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="355" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B355" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C355" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D355" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E355" s="11">
+        <v>32</v>
+      </c>
+      <c r="F355" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G355" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H355" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I355" s="11">
+        <v>1</v>
+      </c>
+      <c r="J355" s="11">
+        <v>5</v>
+      </c>
+      <c r="K355" s="11">
+        <v>1</v>
+      </c>
+      <c r="L355" s="11">
+        <v>16</v>
+      </c>
+      <c r="M355" s="11">
+        <v>0.73913043478260798</v>
+      </c>
+      <c r="N355" s="11">
+        <v>0.693581780538302</v>
+      </c>
+      <c r="O355" s="11">
+        <v>0.73913043478260798</v>
+      </c>
+      <c r="P355" s="11">
+        <v>0.68764302059496496</v>
+      </c>
+      <c r="Q355" s="11">
+        <v>0.55392156862745001</v>
+      </c>
+      <c r="R355" s="11">
+        <v>0.494421816408677</v>
+      </c>
+      <c r="S355" s="12">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="356" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B356" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C356" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D356" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E356" s="11">
+        <v>32</v>
+      </c>
+      <c r="F356" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G356" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H356" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I356" s="11">
+        <v>7</v>
+      </c>
+      <c r="J356" s="11">
+        <v>2</v>
+      </c>
+      <c r="K356" s="11">
+        <v>2</v>
+      </c>
+      <c r="L356" s="11">
+        <v>10</v>
+      </c>
+      <c r="M356" s="11">
+        <v>0.80952380952380898</v>
+      </c>
+      <c r="N356" s="11">
+        <v>0.80952380952380898</v>
+      </c>
+      <c r="O356" s="11">
+        <v>0.80952380952380898</v>
+      </c>
+      <c r="P356" s="11">
+        <v>0.80952380952380898</v>
+      </c>
+      <c r="Q356" s="11">
+        <v>0.80555555555555503</v>
+      </c>
+      <c r="R356" s="11">
+        <v>0.80507648589941305</v>
+      </c>
+      <c r="S356" s="12">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="357" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B357" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C357" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D357" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E357" s="11">
+        <v>32</v>
+      </c>
+      <c r="F357" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G357" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H357" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I357" s="11">
+        <v>3</v>
+      </c>
+      <c r="J357" s="11">
+        <v>3</v>
+      </c>
+      <c r="K357" s="11">
+        <v>2</v>
+      </c>
+      <c r="L357" s="11">
+        <v>15</v>
+      </c>
+      <c r="M357" s="11">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="N357" s="11">
+        <v>0.77246376811594197</v>
+      </c>
+      <c r="O357" s="11">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="P357" s="11">
+        <v>0.77583286278938401</v>
+      </c>
+      <c r="Q357" s="11">
+        <v>0.69117647058823495</v>
+      </c>
+      <c r="R357" s="11">
+        <v>0.68532344065693596</v>
+      </c>
+      <c r="S357" s="12">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="358" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B358" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C358" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D358" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E358" s="11">
+        <v>32</v>
+      </c>
+      <c r="F358" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G358" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H358" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I358" s="11">
+        <v>7</v>
+      </c>
+      <c r="J358" s="11">
+        <v>2</v>
+      </c>
+      <c r="K358" s="11">
+        <v>8</v>
+      </c>
+      <c r="L358" s="11">
+        <v>4</v>
+      </c>
+      <c r="M358" s="11">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="N358" s="11">
+        <v>0.58095238095238</v>
+      </c>
+      <c r="O358" s="11">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="P358" s="11">
+        <v>0.50396825396825395</v>
+      </c>
+      <c r="Q358" s="11">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="R358" s="11">
+        <v>0.532920527918331</v>
+      </c>
+      <c r="S358" s="12">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="359" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B359" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C359" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D359" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E359" s="11">
+        <v>32</v>
+      </c>
+      <c r="F359" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G359" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H359" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I359" s="11">
+        <v>2</v>
+      </c>
+      <c r="J359" s="11">
+        <v>4</v>
+      </c>
+      <c r="K359" s="11">
+        <v>2</v>
+      </c>
+      <c r="L359" s="11">
+        <v>15</v>
+      </c>
+      <c r="M359" s="11">
+        <v>0.73913043478260798</v>
+      </c>
+      <c r="N359" s="11">
+        <v>0.71395881006864903</v>
+      </c>
+      <c r="O359" s="11">
+        <v>0.73913043478260798</v>
+      </c>
+      <c r="P359" s="11">
+        <v>0.72028985507246301</v>
+      </c>
+      <c r="Q359" s="11">
+        <v>0.60784313725490202</v>
+      </c>
+      <c r="R359" s="11">
+        <v>0.58372351144886303</v>
+      </c>
+      <c r="S359" s="12">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="360" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B360" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C360" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D360" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E360" s="11">
+        <v>32</v>
+      </c>
+      <c r="F360" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G360" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H360" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I360" s="11">
+        <v>2</v>
+      </c>
+      <c r="J360" s="11">
+        <v>7</v>
+      </c>
+      <c r="K360" s="11">
+        <v>6</v>
+      </c>
+      <c r="L360" s="11">
+        <v>6</v>
+      </c>
+      <c r="M360" s="11">
+        <v>0.38095238095237999</v>
+      </c>
+      <c r="N360" s="11">
+        <v>0.37087912087912001</v>
+      </c>
+      <c r="O360" s="11">
+        <v>0.38095238095237999</v>
+      </c>
+      <c r="P360" s="11">
+        <v>0.375126050420168</v>
+      </c>
+      <c r="Q360" s="11">
+        <v>0.36111111111111099</v>
+      </c>
+      <c r="R360" s="11">
+        <v>0.33649324423301502</v>
+      </c>
+      <c r="S360" s="12">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="361" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B361" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C361" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D361" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E361" s="11">
+        <v>32</v>
+      </c>
+      <c r="F361" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G361" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H361" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I361" s="11">
+        <v>3</v>
+      </c>
+      <c r="J361" s="11">
+        <v>3</v>
+      </c>
+      <c r="K361" s="11">
+        <v>2</v>
+      </c>
+      <c r="L361" s="11">
+        <v>15</v>
+      </c>
+      <c r="M361" s="11">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="N361" s="11">
+        <v>0.77246376811594197</v>
+      </c>
+      <c r="O361" s="11">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="P361" s="11">
+        <v>0.77583286278938401</v>
+      </c>
+      <c r="Q361" s="11">
+        <v>0.69117647058823495</v>
+      </c>
+      <c r="R361" s="11">
+        <v>0.68532344065693596</v>
+      </c>
+      <c r="S361" s="12">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="362" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B362" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C362" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D362" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E362" s="11">
+        <v>32</v>
+      </c>
+      <c r="F362" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G362" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H362" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I362" s="11">
+        <v>3</v>
+      </c>
+      <c r="J362" s="11">
+        <v>6</v>
+      </c>
+      <c r="K362" s="11">
+        <v>2</v>
+      </c>
+      <c r="L362" s="11">
+        <v>10</v>
+      </c>
+      <c r="M362" s="11">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="N362" s="11">
+        <v>0.61428571428571399</v>
+      </c>
+      <c r="O362" s="11">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="P362" s="11">
+        <v>0.59183673469387699</v>
+      </c>
+      <c r="Q362" s="11">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="R362" s="11">
+        <v>0.568109683233749</v>
+      </c>
+      <c r="S362" s="12">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="363" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B363" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C363" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D363" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E363" s="11">
+        <v>32</v>
+      </c>
+      <c r="F363" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G363" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H363" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I363" s="11">
+        <v>1</v>
+      </c>
+      <c r="J363" s="11">
+        <v>3</v>
+      </c>
+      <c r="K363" s="11">
+        <v>9</v>
+      </c>
+      <c r="L363" s="11">
+        <v>7</v>
+      </c>
+      <c r="M363" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="N363" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O363" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="P363" s="11">
+        <v>0.45934065934065899</v>
+      </c>
+      <c r="Q363" s="11">
+        <v>0.34375</v>
+      </c>
+      <c r="R363" s="11">
+        <v>0.29580398915498002</v>
+      </c>
+      <c r="S363" s="12">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="364" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B364" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C364" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D364" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E364" s="11">
+        <v>32</v>
+      </c>
+      <c r="F364" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G364" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H364" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I364" s="11">
+        <v>5</v>
+      </c>
+      <c r="J364" s="11">
+        <v>3</v>
+      </c>
+      <c r="K364" s="11">
+        <v>9</v>
+      </c>
+      <c r="L364" s="11">
+        <v>5</v>
+      </c>
+      <c r="M364" s="11">
+        <v>0.45454545454545398</v>
+      </c>
+      <c r="N364" s="11">
+        <v>0.52759740259740195</v>
+      </c>
+      <c r="O364" s="11">
+        <v>0.45454545454545398</v>
+      </c>
+      <c r="P364" s="11">
+        <v>0.45454545454545398</v>
+      </c>
+      <c r="Q364" s="11">
+        <v>0.49107142857142799</v>
+      </c>
+      <c r="R364" s="11">
+        <v>0.47245559126153402</v>
+      </c>
+      <c r="S364" s="12">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="365" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B365" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C365" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D365" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E365" s="13">
+        <v>32</v>
+      </c>
+      <c r="F365" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G365" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H365" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I365" s="13">
+        <v>5</v>
+      </c>
+      <c r="J365" s="13">
+        <v>1</v>
+      </c>
+      <c r="K365" s="13">
+        <v>9</v>
+      </c>
+      <c r="L365" s="13">
+        <v>8</v>
+      </c>
+      <c r="M365" s="13">
+        <v>0.56521739130434701</v>
+      </c>
+      <c r="N365" s="13">
+        <v>0.75017253278122797</v>
+      </c>
+      <c r="O365" s="13">
+        <v>0.56521739130434701</v>
+      </c>
+      <c r="P365" s="13">
+        <v>0.58528428093645402</v>
+      </c>
+      <c r="Q365" s="13">
+        <v>0.65196078431372495</v>
+      </c>
+      <c r="R365" s="13">
+        <v>0.59400119193200396</v>
+      </c>
+      <c r="S365" s="14">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="366" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B366" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C366" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D366" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E366" s="13">
+        <v>32</v>
+      </c>
+      <c r="F366" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G366" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H366" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I366" s="13">
+        <v>4</v>
+      </c>
+      <c r="J366" s="13">
+        <v>5</v>
+      </c>
+      <c r="K366" s="13">
+        <v>10</v>
+      </c>
+      <c r="L366" s="13">
+        <v>2</v>
+      </c>
+      <c r="M366" s="13">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="N366" s="13">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="O366" s="13">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="P366" s="13">
+        <v>0.26936907486106498</v>
+      </c>
+      <c r="Q366" s="13">
+        <v>0.30555555555555503</v>
+      </c>
+      <c r="R366" s="13">
+        <v>0.27885763237891398</v>
+      </c>
+      <c r="S366" s="14">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="367" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B367" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C367" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D367" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E367" s="13">
+        <v>32</v>
+      </c>
+      <c r="F367" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G367" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H367" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I367" s="13">
+        <v>2</v>
+      </c>
+      <c r="J367" s="13">
+        <v>4</v>
+      </c>
+      <c r="K367" s="13">
+        <v>4</v>
+      </c>
+      <c r="L367" s="13">
+        <v>13</v>
+      </c>
+      <c r="M367" s="13">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="N367" s="13">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="O367" s="13">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="P367" s="13">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="Q367" s="13">
+        <v>0.54901960784313697</v>
+      </c>
+      <c r="R367" s="13">
+        <v>0.50487816429740096</v>
+      </c>
+      <c r="S367" s="14">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="368" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B368" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C368" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D368" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E368" s="13">
+        <v>32</v>
+      </c>
+      <c r="F368" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G368" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H368" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I368" s="13">
+        <v>5</v>
+      </c>
+      <c r="J368" s="13">
+        <v>4</v>
+      </c>
+      <c r="K368" s="13">
+        <v>7</v>
+      </c>
+      <c r="L368" s="13">
+        <v>5</v>
+      </c>
+      <c r="M368" s="13">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="N368" s="13">
+        <v>0.49603174603174599</v>
+      </c>
+      <c r="O368" s="13">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="P368" s="13">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="Q368" s="13">
+        <v>0.48611111111111099</v>
+      </c>
+      <c r="R368" s="13">
+        <v>0.48112522432468802</v>
+      </c>
+      <c r="S368" s="14">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="369" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B369" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C369" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D369" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E369" s="13">
+        <v>32</v>
+      </c>
+      <c r="F369" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G369" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H369" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I369" s="13">
+        <v>3</v>
+      </c>
+      <c r="J369" s="13">
+        <v>3</v>
+      </c>
+      <c r="K369" s="13">
+        <v>3</v>
+      </c>
+      <c r="L369" s="13">
+        <v>14</v>
+      </c>
+      <c r="M369" s="13">
+        <v>0.73913043478260798</v>
+      </c>
+      <c r="N369" s="13">
+        <v>0.73913043478260798</v>
+      </c>
+      <c r="O369" s="13">
+        <v>0.73913043478260798</v>
+      </c>
+      <c r="P369" s="13">
+        <v>0.73913043478260798</v>
+      </c>
+      <c r="Q369" s="13">
+        <v>0.66176470588235203</v>
+      </c>
+      <c r="R369" s="13">
+        <v>0.64168894791974695</v>
+      </c>
+      <c r="S369" s="14">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="370" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B370" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C370" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D370" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E370" s="13">
+        <v>32</v>
+      </c>
+      <c r="F370" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G370" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H370" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I370" s="13">
+        <v>6</v>
+      </c>
+      <c r="J370" s="13">
+        <v>3</v>
+      </c>
+      <c r="K370" s="13">
+        <v>5</v>
+      </c>
+      <c r="L370" s="13">
+        <v>7</v>
+      </c>
+      <c r="M370" s="13">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="N370" s="13">
+        <v>0.63376623376623298</v>
+      </c>
+      <c r="O370" s="13">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="P370" s="13">
+        <v>0.62077922077921999</v>
+      </c>
+      <c r="Q370" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="R370" s="13">
+        <v>0.62075544121193604</v>
+      </c>
+      <c r="S370" s="14">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="371" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B371" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C371" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D371" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E371" s="13">
+        <v>32</v>
+      </c>
+      <c r="F371" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G371" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H371" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I371" s="13">
+        <v>1</v>
+      </c>
+      <c r="J371" s="13">
+        <v>5</v>
+      </c>
+      <c r="K371" s="13">
+        <v>2</v>
+      </c>
+      <c r="L371" s="13">
+        <v>15</v>
+      </c>
+      <c r="M371" s="13">
+        <v>0.69565217391304301</v>
+      </c>
+      <c r="N371" s="13">
+        <v>0.64130434782608603</v>
+      </c>
+      <c r="O371" s="13">
+        <v>0.69565217391304301</v>
+      </c>
+      <c r="P371" s="13">
+        <v>0.65726596161378703</v>
+      </c>
+      <c r="Q371" s="13">
+        <v>0.52450980392156799</v>
+      </c>
+      <c r="R371" s="13">
+        <v>0.43788268658607898</v>
+      </c>
+      <c r="S371" s="14">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="372" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B372" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C372" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D372" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E372" s="13">
+        <v>32</v>
+      </c>
+      <c r="F372" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G372" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H372" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I372" s="13">
+        <v>4</v>
+      </c>
+      <c r="J372" s="13">
+        <v>5</v>
+      </c>
+      <c r="K372" s="13">
+        <v>3</v>
+      </c>
+      <c r="L372" s="13">
+        <v>9</v>
+      </c>
+      <c r="M372" s="13">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="N372" s="13">
+        <v>0.61224489795918302</v>
+      </c>
+      <c r="O372" s="13">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="P372" s="13">
+        <v>0.60989010989010894</v>
+      </c>
+      <c r="Q372" s="13">
+        <v>0.59722222222222199</v>
+      </c>
+      <c r="R372" s="13">
+        <v>0.59154636852226705</v>
+      </c>
+      <c r="S372" s="14">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="373" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B373" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C373" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D373" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E373" s="13">
+        <v>32</v>
+      </c>
+      <c r="F373" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G373" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H373" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I373" s="13">
+        <v>1</v>
+      </c>
+      <c r="J373" s="13">
+        <v>3</v>
+      </c>
+      <c r="K373" s="13">
+        <v>7</v>
+      </c>
+      <c r="L373" s="13">
+        <v>9</v>
+      </c>
+      <c r="M373" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="N373" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="O373" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P373" s="13">
+        <v>0.54761904761904701</v>
+      </c>
+      <c r="Q373" s="13">
+        <v>0.40625</v>
+      </c>
+      <c r="R373" s="13">
+        <v>0.33885075135369103</v>
+      </c>
+      <c r="S373" s="14">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="374" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B374" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C374" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D374" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E374" s="13">
+        <v>32</v>
+      </c>
+      <c r="F374" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G374" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H374" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I374" s="13">
+        <v>7</v>
+      </c>
+      <c r="J374" s="13">
+        <v>1</v>
+      </c>
+      <c r="K374" s="13">
+        <v>9</v>
+      </c>
+      <c r="L374" s="13">
+        <v>5</v>
+      </c>
+      <c r="M374" s="13">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="N374" s="13">
+        <v>0.689393939393939</v>
+      </c>
+      <c r="O374" s="13">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="P374" s="13">
+        <v>0.53030303030303005</v>
+      </c>
+      <c r="Q374" s="13">
+        <v>0.61607142857142805</v>
+      </c>
+      <c r="R374" s="13">
+        <v>0.58098070367446397</v>
+      </c>
+      <c r="S374" s="14">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="375" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B375" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C375" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D375" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E375" s="11">
+        <v>32</v>
+      </c>
+      <c r="F375" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G375" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H375" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I375" s="11">
+        <v>3</v>
+      </c>
+      <c r="J375" s="11">
+        <v>3</v>
+      </c>
+      <c r="K375" s="11">
+        <v>2</v>
+      </c>
+      <c r="L375" s="11">
+        <v>15</v>
+      </c>
+      <c r="M375" s="11">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="N375" s="11">
+        <v>0.77246376811594197</v>
+      </c>
+      <c r="O375" s="11">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="P375" s="11">
+        <v>0.77583286278938401</v>
+      </c>
+      <c r="Q375" s="11">
+        <v>0.69117647058823495</v>
+      </c>
+      <c r="R375" s="11">
+        <v>0.68532344065693596</v>
+      </c>
+      <c r="S375" s="12">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="376" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B376" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C376" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D376" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E376" s="11">
+        <v>32</v>
+      </c>
+      <c r="F376" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G376" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H376" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I376" s="11">
+        <v>2</v>
+      </c>
+      <c r="J376" s="11">
+        <v>4</v>
+      </c>
+      <c r="K376" s="11">
+        <v>2</v>
+      </c>
+      <c r="L376" s="11">
+        <v>15</v>
+      </c>
+      <c r="M376" s="11">
+        <v>0.73913043478260798</v>
+      </c>
+      <c r="N376" s="11">
+        <v>0.71395881006864903</v>
+      </c>
+      <c r="O376" s="11">
+        <v>0.73913043478260798</v>
+      </c>
+      <c r="P376" s="11">
+        <v>0.72028985507246301</v>
+      </c>
+      <c r="Q376" s="11">
+        <v>0.60784313725490202</v>
+      </c>
+      <c r="R376" s="11">
+        <v>0.58372351144886303</v>
+      </c>
+      <c r="S376" s="12">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="377" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B377" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C377" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D377" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E377" s="11">
+        <v>32</v>
+      </c>
+      <c r="F377" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G377" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H377" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I377" s="11">
+        <v>6</v>
+      </c>
+      <c r="J377" s="11">
+        <v>3</v>
+      </c>
+      <c r="K377" s="11">
+        <v>5</v>
+      </c>
+      <c r="L377" s="11">
+        <v>7</v>
+      </c>
+      <c r="M377" s="11">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="N377" s="11">
+        <v>0.63376623376623298</v>
+      </c>
+      <c r="O377" s="11">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="P377" s="11">
+        <v>0.62077922077921999</v>
+      </c>
+      <c r="Q377" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="R377" s="11">
+        <v>0.62075544121193604</v>
+      </c>
+      <c r="S377" s="12">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="378" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B378" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C378" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D378" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E378" s="11">
+        <v>32</v>
+      </c>
+      <c r="F378" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G378" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H378" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I378" s="11">
+        <v>4</v>
+      </c>
+      <c r="J378" s="11">
+        <v>5</v>
+      </c>
+      <c r="K378" s="11">
+        <v>6</v>
+      </c>
+      <c r="L378" s="11">
+        <v>6</v>
+      </c>
+      <c r="M378" s="11">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="N378" s="11">
+        <v>0.483116883116883</v>
+      </c>
+      <c r="O378" s="11">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="P378" s="11">
+        <v>0.47858777378228101</v>
+      </c>
+      <c r="Q378" s="11">
+        <v>0.47222222222222199</v>
+      </c>
+      <c r="R378" s="11">
+        <v>0.469247006410559</v>
+      </c>
+      <c r="S378" s="12">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="379" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B379" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C379" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D379" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E379" s="11">
+        <v>32</v>
+      </c>
+      <c r="F379" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G379" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H379" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I379" s="11">
+        <v>0</v>
+      </c>
+      <c r="J379" s="11">
+        <v>6</v>
+      </c>
+      <c r="K379" s="11">
+        <v>1</v>
+      </c>
+      <c r="L379" s="11">
+        <v>16</v>
+      </c>
+      <c r="M379" s="11">
+        <v>0.69565217391304301</v>
+      </c>
+      <c r="N379" s="11">
+        <v>0.53754940711462396</v>
+      </c>
+      <c r="O379" s="11">
+        <v>0.69565217391304301</v>
+      </c>
+      <c r="P379" s="11">
+        <v>0.60646599777034504</v>
+      </c>
+      <c r="Q379" s="11">
+        <v>0.47058823529411697</v>
+      </c>
+      <c r="R379" s="11">
+        <v>0</v>
+      </c>
+      <c r="S379" s="12">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="380" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B380" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C380" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D380" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E380" s="11">
+        <v>32</v>
+      </c>
+      <c r="F380" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G380" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H380" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I380" s="11">
+        <v>4</v>
+      </c>
+      <c r="J380" s="11">
+        <v>5</v>
+      </c>
+      <c r="K380" s="11">
+        <v>1</v>
+      </c>
+      <c r="L380" s="11">
+        <v>11</v>
+      </c>
+      <c r="M380" s="11">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="N380" s="11">
+        <v>0.73571428571428499</v>
+      </c>
+      <c r="O380" s="11">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="P380" s="11">
+        <v>0.69387755102040805</v>
+      </c>
+      <c r="Q380" s="11">
+        <v>0.68055555555555503</v>
+      </c>
+      <c r="R380" s="11">
+        <v>0.68801499344354999</v>
+      </c>
+      <c r="S380" s="12">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="381" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B381" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C381" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D381" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E381" s="11">
+        <v>32</v>
+      </c>
+      <c r="F381" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G381" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H381" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I381" s="11">
+        <v>0</v>
+      </c>
+      <c r="J381" s="11">
+        <v>4</v>
+      </c>
+      <c r="K381" s="11">
+        <v>6</v>
+      </c>
+      <c r="L381" s="11">
+        <v>10</v>
+      </c>
+      <c r="M381" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="N381" s="11">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="O381" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P381" s="11">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="Q381" s="11">
+        <v>0.3125</v>
+      </c>
+      <c r="R381" s="11">
+        <v>0</v>
+      </c>
+      <c r="S381" s="12">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="382" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B382" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C382" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D382" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E382" s="11">
+        <v>32</v>
+      </c>
+      <c r="F382" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G382" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H382" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I382" s="11">
+        <v>2</v>
+      </c>
+      <c r="J382" s="11">
+        <v>6</v>
+      </c>
+      <c r="K382" s="11">
+        <v>9</v>
+      </c>
+      <c r="L382" s="11">
+        <v>5</v>
+      </c>
+      <c r="M382" s="11">
+        <v>0.31818181818181801</v>
+      </c>
+      <c r="N382" s="11">
+        <v>0.35537190082644599</v>
+      </c>
+      <c r="O382" s="11">
+        <v>0.31818181818181801</v>
+      </c>
+      <c r="P382" s="11">
+        <v>0.33110047846889901</v>
+      </c>
+      <c r="Q382" s="11">
+        <v>0.30357142857142799</v>
+      </c>
+      <c r="R382" s="11">
+        <v>0.29308875207521301</v>
+      </c>
+      <c r="S382" s="12">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="383" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B383" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C383" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D383" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E383" s="11">
+        <v>32</v>
+      </c>
+      <c r="F383" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G383" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H383" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I383" s="11">
+        <v>2</v>
+      </c>
+      <c r="J383" s="11">
+        <v>4</v>
+      </c>
+      <c r="K383" s="11">
+        <v>4</v>
+      </c>
+      <c r="L383" s="11">
+        <v>13</v>
+      </c>
+      <c r="M383" s="11">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="N383" s="11">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="O383" s="11">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="P383" s="11">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="Q383" s="11">
+        <v>0.54901960784313697</v>
+      </c>
+      <c r="R383" s="11">
+        <v>0.50487816429740096</v>
+      </c>
+      <c r="S383" s="12">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="384" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B384" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C384" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D384" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E384" s="11">
+        <v>32</v>
+      </c>
+      <c r="F384" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G384" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H384" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I384" s="11">
+        <v>3</v>
+      </c>
+      <c r="J384" s="11">
+        <v>6</v>
+      </c>
+      <c r="K384" s="11">
+        <v>4</v>
+      </c>
+      <c r="L384" s="11">
+        <v>8</v>
+      </c>
+      <c r="M384" s="11">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="N384" s="11">
+        <v>0.51020408163265296</v>
+      </c>
+      <c r="O384" s="11">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="P384" s="11">
+        <v>0.51236263736263699</v>
+      </c>
+      <c r="Q384" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="R384" s="11">
+        <v>0.48299558735864401</v>
+      </c>
+      <c r="S384" s="12">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="385" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B385" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C385" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D385" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E385" s="13">
+        <v>32</v>
+      </c>
+      <c r="F385" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G385" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H385" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I385" s="13">
+        <v>2</v>
+      </c>
+      <c r="J385" s="13">
+        <v>4</v>
+      </c>
+      <c r="K385" s="13">
+        <v>4</v>
+      </c>
+      <c r="L385" s="13">
+        <v>13</v>
+      </c>
+      <c r="M385" s="13">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="N385" s="13">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="O385" s="13">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="P385" s="13">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="Q385" s="13">
+        <v>0.54901960784313697</v>
+      </c>
+      <c r="R385" s="13">
+        <v>0.50487816429740096</v>
+      </c>
+      <c r="S385" s="14">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="386" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B386" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C386" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D386" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E386" s="13">
+        <v>32</v>
+      </c>
+      <c r="F386" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G386" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H386" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I386" s="13">
+        <v>7</v>
+      </c>
+      <c r="J386" s="13">
+        <v>2</v>
+      </c>
+      <c r="K386" s="13">
+        <v>6</v>
+      </c>
+      <c r="L386" s="13">
+        <v>6</v>
+      </c>
+      <c r="M386" s="13">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="N386" s="13">
+        <v>0.659340659340659</v>
+      </c>
+      <c r="O386" s="13">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="P386" s="13">
+        <v>0.61558441558441501</v>
+      </c>
+      <c r="Q386" s="13">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="R386" s="13">
+        <v>0.62952121644199399</v>
+      </c>
+      <c r="S386" s="14">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="387" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B387" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C387" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D387" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E387" s="13">
+        <v>32</v>
+      </c>
+      <c r="F387" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G387" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H387" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I387" s="13">
+        <v>1</v>
+      </c>
+      <c r="J387" s="13">
+        <v>5</v>
+      </c>
+      <c r="K387" s="13">
+        <v>0</v>
+      </c>
+      <c r="L387" s="13">
+        <v>17</v>
+      </c>
+      <c r="M387" s="13">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="N387" s="13">
+        <v>0.83201581027667904</v>
+      </c>
+      <c r="O387" s="13">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="P387" s="13">
+        <v>0.71890428412167495</v>
+      </c>
+      <c r="Q387" s="13">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="R387" s="13">
+        <v>0.59905782799545804</v>
+      </c>
+      <c r="S387" s="14">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="388" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B388" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C388" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D388" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E388" s="13">
+        <v>32</v>
+      </c>
+      <c r="F388" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G388" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H388" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I388" s="13">
+        <v>6</v>
+      </c>
+      <c r="J388" s="13">
+        <v>3</v>
+      </c>
+      <c r="K388" s="13">
+        <v>7</v>
+      </c>
+      <c r="L388" s="13">
+        <v>5</v>
+      </c>
+      <c r="M388" s="13">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="N388" s="13">
+        <v>0.55494505494505497</v>
+      </c>
+      <c r="O388" s="13">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="P388" s="13">
+        <v>0.51948051948051899</v>
+      </c>
+      <c r="Q388" s="13">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="R388" s="13">
+        <v>0.53204253451782302</v>
+      </c>
+      <c r="S388" s="14">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="389" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B389" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C389" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D389" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E389" s="13">
+        <v>32</v>
+      </c>
+      <c r="F389" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G389" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H389" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I389" s="13">
+        <v>3</v>
+      </c>
+      <c r="J389" s="13">
+        <v>3</v>
+      </c>
+      <c r="K389" s="13">
+        <v>2</v>
+      </c>
+      <c r="L389" s="13">
+        <v>15</v>
+      </c>
+      <c r="M389" s="13">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="N389" s="13">
+        <v>0.77246376811594197</v>
+      </c>
+      <c r="O389" s="13">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="P389" s="13">
+        <v>0.77583286278938401</v>
+      </c>
+      <c r="Q389" s="13">
+        <v>0.69117647058823495</v>
+      </c>
+      <c r="R389" s="13">
+        <v>0.68532344065693596</v>
+      </c>
+      <c r="S389" s="14">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="390" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B390" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C390" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D390" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E390" s="13">
+        <v>32</v>
+      </c>
+      <c r="F390" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G390" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H390" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I390" s="13">
+        <v>4</v>
+      </c>
+      <c r="J390" s="13">
+        <v>5</v>
+      </c>
+      <c r="K390" s="13">
+        <v>4</v>
+      </c>
+      <c r="L390" s="13">
+        <v>8</v>
+      </c>
+      <c r="M390" s="13">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="N390" s="13">
+        <v>0.56593406593406503</v>
+      </c>
+      <c r="O390" s="13">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="P390" s="13">
+        <v>0.56739495798319295</v>
+      </c>
+      <c r="Q390" s="13">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="R390" s="13">
+        <v>0.54949116684306998</v>
+      </c>
+      <c r="S390" s="14">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="391" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B391" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C391" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D391" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E391" s="13">
+        <v>32</v>
+      </c>
+      <c r="F391" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G391" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H391" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I391" s="13">
+        <v>3</v>
+      </c>
+      <c r="J391" s="13">
+        <v>3</v>
+      </c>
+      <c r="K391" s="13">
+        <v>3</v>
+      </c>
+      <c r="L391" s="13">
+        <v>14</v>
+      </c>
+      <c r="M391" s="13">
+        <v>0.73913043478260798</v>
+      </c>
+      <c r="N391" s="13">
+        <v>0.73913043478260798</v>
+      </c>
+      <c r="O391" s="13">
+        <v>0.73913043478260798</v>
+      </c>
+      <c r="P391" s="13">
+        <v>0.73913043478260798</v>
+      </c>
+      <c r="Q391" s="13">
+        <v>0.66176470588235203</v>
+      </c>
+      <c r="R391" s="13">
+        <v>0.64168894791974695</v>
+      </c>
+      <c r="S391" s="14">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="392" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B392" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C392" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D392" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E392" s="13">
+        <v>32</v>
+      </c>
+      <c r="F392" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G392" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H392" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I392" s="13">
+        <v>4</v>
+      </c>
+      <c r="J392" s="13">
+        <v>5</v>
+      </c>
+      <c r="K392" s="13">
+        <v>2</v>
+      </c>
+      <c r="L392" s="13">
+        <v>10</v>
+      </c>
+      <c r="M392" s="13">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="N392" s="13">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="O392" s="13">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="P392" s="13">
+        <v>0.65185185185185102</v>
+      </c>
+      <c r="Q392" s="13">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="R392" s="13">
+        <v>0.63696186146957701</v>
+      </c>
+      <c r="S392" s="14">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="393" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B393" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C393" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D393" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="E393" s="13">
+        <v>32</v>
+      </c>
+      <c r="F393" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G393" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H393" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I393" s="13">
+        <v>0</v>
+      </c>
+      <c r="J393" s="13">
+        <v>4</v>
+      </c>
+      <c r="K393" s="13">
+        <v>7</v>
+      </c>
+      <c r="L393" s="13">
+        <v>9</v>
+      </c>
+      <c r="M393" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="N393" s="13">
+        <v>0.55384615384615299</v>
+      </c>
+      <c r="O393" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="P393" s="13">
+        <v>0.49655172413793103</v>
+      </c>
+      <c r="Q393" s="13">
+        <v>0.28125</v>
+      </c>
+      <c r="R393" s="13">
+        <v>0</v>
+      </c>
+      <c r="S393" s="14">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="394" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B394" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C394" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D394" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="E394" s="13">
+        <v>32</v>
+      </c>
+      <c r="F394" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G394" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H394" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I394" s="13">
+        <v>5</v>
+      </c>
+      <c r="J394" s="13">
+        <v>3</v>
+      </c>
+      <c r="K394" s="13">
+        <v>7</v>
+      </c>
+      <c r="L394" s="13">
+        <v>7</v>
+      </c>
+      <c r="M394" s="13">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="N394" s="13">
+        <v>0.59696969696969604</v>
+      </c>
+      <c r="O394" s="13">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="P394" s="13">
+        <v>0.55303030303030298</v>
+      </c>
+      <c r="Q394" s="13">
+        <v>0.5625</v>
+      </c>
+      <c r="R394" s="13">
+        <v>0.54945762549288502</v>
+      </c>
+      <c r="S394" s="14">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="395" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B395" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C395" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D395" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E395" s="11">
+        <v>32</v>
+      </c>
+      <c r="F395" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G395" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H395" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I395" s="11">
+        <v>2</v>
+      </c>
+      <c r="J395" s="11">
+        <v>4</v>
+      </c>
+      <c r="K395" s="11">
+        <v>1</v>
+      </c>
+      <c r="L395" s="11">
+        <v>16</v>
+      </c>
+      <c r="M395" s="11">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="N395" s="11">
+        <v>0.76521739130434696</v>
+      </c>
+      <c r="O395" s="11">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="P395" s="11">
+        <v>0.75518997258127696</v>
+      </c>
+      <c r="Q395" s="11">
+        <v>0.63725490196078405</v>
+      </c>
+      <c r="R395" s="11">
+        <v>0.63956859995776105</v>
+      </c>
+      <c r="S395" s="12">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="396" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B396" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C396" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D396" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E396" s="11">
+        <v>32</v>
+      </c>
+      <c r="F396" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G396" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H396" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I396" s="11">
+        <v>2</v>
+      </c>
+      <c r="J396" s="11">
+        <v>7</v>
+      </c>
+      <c r="K396" s="11">
+        <v>4</v>
+      </c>
+      <c r="L396" s="11">
+        <v>8</v>
+      </c>
+      <c r="M396" s="11">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="N396" s="11">
+        <v>0.44761904761904697</v>
+      </c>
+      <c r="O396" s="11">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="P396" s="11">
+        <v>0.45291005291005199</v>
+      </c>
+      <c r="Q396" s="11">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="R396" s="11">
+        <v>0.40285005298090198</v>
+      </c>
+      <c r="S396" s="12">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="397" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B397" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C397" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D397" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E397" s="11">
+        <v>32</v>
+      </c>
+      <c r="F397" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G397" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H397" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I397" s="11">
+        <v>2</v>
+      </c>
+      <c r="J397" s="11">
+        <v>4</v>
+      </c>
+      <c r="K397" s="11">
+        <v>3</v>
+      </c>
+      <c r="L397" s="11">
+        <v>14</v>
+      </c>
+      <c r="M397" s="11">
+        <v>0.69565217391304301</v>
+      </c>
+      <c r="N397" s="11">
+        <v>0.67922705314009602</v>
+      </c>
+      <c r="O397" s="11">
+        <v>0.69565217391304301</v>
+      </c>
+      <c r="P397" s="11">
+        <v>0.68616600790513804</v>
+      </c>
+      <c r="Q397" s="11">
+        <v>0.578431372549019</v>
+      </c>
+      <c r="R397" s="11">
+        <v>0.54059042028730298</v>
+      </c>
+      <c r="S397" s="12">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="398" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B398" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C398" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D398" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E398" s="11">
+        <v>32</v>
+      </c>
+      <c r="F398" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G398" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H398" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I398" s="11">
+        <v>5</v>
+      </c>
+      <c r="J398" s="11">
+        <v>4</v>
+      </c>
+      <c r="K398" s="11">
+        <v>4</v>
+      </c>
+      <c r="L398" s="11">
+        <v>8</v>
+      </c>
+      <c r="M398" s="11">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="N398" s="11">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="O398" s="11">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="P398" s="11">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="Q398" s="11">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="R398" s="11">
+        <v>0.60858061945018405</v>
+      </c>
+      <c r="S398" s="12">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="399" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B399" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C399" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D399" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E399" s="11">
+        <v>32</v>
+      </c>
+      <c r="F399" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G399" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H399" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I399" s="11">
+        <v>4</v>
+      </c>
+      <c r="J399" s="11">
+        <v>2</v>
+      </c>
+      <c r="K399" s="11">
+        <v>6</v>
+      </c>
+      <c r="L399" s="11">
+        <v>11</v>
+      </c>
+      <c r="M399" s="11">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="N399" s="11">
+        <v>0.72976588628762495</v>
+      </c>
+      <c r="O399" s="11">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="P399" s="11">
+        <v>0.672463768115942</v>
+      </c>
+      <c r="Q399" s="11">
+        <v>0.65686274509803899</v>
+      </c>
+      <c r="R399" s="11">
+        <v>0.61814513737513999</v>
+      </c>
+      <c r="S399" s="12">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="400" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B400" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C400" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D400" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E400" s="11">
+        <v>32</v>
+      </c>
+      <c r="F400" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G400" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H400" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I400" s="11">
+        <v>8</v>
+      </c>
+      <c r="J400" s="11">
+        <v>1</v>
+      </c>
+      <c r="K400" s="11">
+        <v>9</v>
+      </c>
+      <c r="L400" s="11">
+        <v>3</v>
+      </c>
+      <c r="M400" s="11">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="N400" s="11">
+        <v>0.630252100840336</v>
+      </c>
+      <c r="O400" s="11">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="P400" s="11">
+        <v>0.47802197802197699</v>
+      </c>
+      <c r="Q400" s="11">
+        <v>0.56944444444444398</v>
+      </c>
+      <c r="R400" s="11">
+        <v>0.52920319047186504</v>
+      </c>
+      <c r="S400" s="12">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="401" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B401" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C401" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D401" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E401" s="11">
+        <v>32</v>
+      </c>
+      <c r="F401" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G401" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H401" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I401" s="11">
+        <v>2</v>
+      </c>
+      <c r="J401" s="11">
+        <v>2</v>
+      </c>
+      <c r="K401" s="11">
+        <v>4</v>
+      </c>
+      <c r="L401" s="11">
+        <v>12</v>
+      </c>
+      <c r="M401" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="N401" s="11">
+        <v>0.75238095238095204</v>
+      </c>
+      <c r="O401" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="P401" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="Q401" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="R401" s="11">
+        <v>0.57212484245485096</v>
+      </c>
+      <c r="S401" s="12">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="402" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B402" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C402" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D402" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E402" s="11">
+        <v>32</v>
+      </c>
+      <c r="F402" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G402" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H402" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I402" s="11">
+        <v>8</v>
+      </c>
+      <c r="J402" s="11">
+        <v>0</v>
+      </c>
+      <c r="K402" s="11">
+        <v>7</v>
+      </c>
+      <c r="L402" s="11">
+        <v>7</v>
+      </c>
+      <c r="M402" s="11">
+        <v>0.68181818181818099</v>
+      </c>
+      <c r="N402" s="11">
+        <v>0.83030303030302999</v>
+      </c>
+      <c r="O402" s="11">
+        <v>0.68181818181818099</v>
+      </c>
+      <c r="P402" s="11">
+        <v>0.67720685111989398</v>
+      </c>
+      <c r="Q402" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="R402" s="11">
+        <v>0.71860822392616797</v>
+      </c>
+      <c r="S402" s="12">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="403" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B403" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C403" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D403" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E403" s="11">
+        <v>32</v>
+      </c>
+      <c r="F403" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G403" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H403" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I403" s="11">
+        <v>3</v>
+      </c>
+      <c r="J403" s="11">
+        <v>3</v>
+      </c>
+      <c r="K403" s="11">
+        <v>0</v>
+      </c>
+      <c r="L403" s="11">
+        <v>17</v>
+      </c>
+      <c r="M403" s="11">
+        <v>0.86956521739130399</v>
+      </c>
+      <c r="N403" s="11">
+        <v>0.889130434782608</v>
+      </c>
+      <c r="O403" s="11">
+        <v>0.86956521739130399</v>
+      </c>
+      <c r="P403" s="11">
+        <v>0.853113983548766</v>
+      </c>
+      <c r="Q403" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="R403" s="11">
+        <v>0.80741577921184104</v>
+      </c>
+      <c r="S403" s="12">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="404" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B404" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C404" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D404" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E404" s="11">
+        <v>32</v>
+      </c>
+      <c r="F404" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G404" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H404" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I404" s="11">
+        <v>4</v>
+      </c>
+      <c r="J404" s="11">
+        <v>5</v>
+      </c>
+      <c r="K404" s="11">
+        <v>2</v>
+      </c>
+      <c r="L404" s="11">
+        <v>10</v>
+      </c>
+      <c r="M404" s="11">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="N404" s="11">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="O404" s="11">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="P404" s="11">
+        <v>0.65185185185185102</v>
+      </c>
+      <c r="Q404" s="11">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="R404" s="11">
+        <v>0.63696186146957701</v>
+      </c>
+      <c r="S404" s="12">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="405" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B405" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C405" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D405" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="E405" s="13">
+        <v>32</v>
+      </c>
+      <c r="F405" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G405" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H405" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I405" s="13">
+        <v>3</v>
+      </c>
+      <c r="J405" s="13">
+        <v>3</v>
+      </c>
+      <c r="K405" s="13">
+        <v>4</v>
+      </c>
+      <c r="L405" s="13">
+        <v>13</v>
+      </c>
+      <c r="M405" s="13">
+        <v>0.69565217391304301</v>
+      </c>
+      <c r="N405" s="13">
+        <v>0.71234472049689401</v>
+      </c>
+      <c r="O405" s="13">
+        <v>0.69565217391304301</v>
+      </c>
+      <c r="P405" s="13">
+        <v>0.70274652883348498</v>
+      </c>
+      <c r="Q405" s="13">
+        <v>0.63235294117647001</v>
+      </c>
+      <c r="R405" s="13">
+        <v>0.60405676837984001</v>
+      </c>
+      <c r="S405" s="14">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="406" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B406" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C406" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D406" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="E406" s="13">
+        <v>32</v>
+      </c>
+      <c r="F406" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G406" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H406" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I406" s="13">
+        <v>5</v>
+      </c>
+      <c r="J406" s="13">
+        <v>4</v>
+      </c>
+      <c r="K406" s="13">
+        <v>8</v>
+      </c>
+      <c r="L406" s="13">
+        <v>4</v>
+      </c>
+      <c r="M406" s="13">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="N406" s="13">
+        <v>0.45054945054945</v>
+      </c>
+      <c r="O406" s="13">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="P406" s="13">
+        <v>0.42337662337662302</v>
+      </c>
+      <c r="Q406" s="13">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="R406" s="13">
+        <v>0.43441091034192397</v>
+      </c>
+      <c r="S406" s="14">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="407" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B407" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C407" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D407" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="E407" s="13">
+        <v>32</v>
+      </c>
+      <c r="F407" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G407" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H407" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I407" s="13">
+        <v>2</v>
+      </c>
+      <c r="J407" s="13">
+        <v>4</v>
+      </c>
+      <c r="K407" s="13">
+        <v>4</v>
+      </c>
+      <c r="L407" s="13">
+        <v>13</v>
+      </c>
+      <c r="M407" s="13">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="N407" s="13">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="O407" s="13">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="P407" s="13">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="Q407" s="13">
+        <v>0.54901960784313697</v>
+      </c>
+      <c r="R407" s="13">
+        <v>0.50487816429740096</v>
+      </c>
+      <c r="S407" s="14">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="408" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B408" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C408" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D408" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="E408" s="13">
+        <v>32</v>
+      </c>
+      <c r="F408" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G408" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H408" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I408" s="13">
+        <v>5</v>
+      </c>
+      <c r="J408" s="13">
+        <v>4</v>
+      </c>
+      <c r="K408" s="13">
+        <v>7</v>
+      </c>
+      <c r="L408" s="13">
+        <v>5</v>
+      </c>
+      <c r="M408" s="13">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="N408" s="13">
+        <v>0.49603174603174599</v>
+      </c>
+      <c r="O408" s="13">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="P408" s="13">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="Q408" s="13">
+        <v>0.48611111111111099</v>
+      </c>
+      <c r="R408" s="13">
+        <v>0.48112522432468802</v>
+      </c>
+      <c r="S408" s="14">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="409" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B409" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C409" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D409" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E409" s="13">
+        <v>32</v>
+      </c>
+      <c r="F409" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G409" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H409" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I409" s="13">
+        <v>1</v>
+      </c>
+      <c r="J409" s="13">
+        <v>3</v>
+      </c>
+      <c r="K409" s="13">
+        <v>5</v>
+      </c>
+      <c r="L409" s="13">
+        <v>11</v>
+      </c>
+      <c r="M409" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="N409" s="13">
+        <v>0.661904761904761</v>
+      </c>
+      <c r="O409" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="P409" s="13">
+        <v>0.62666666666666604</v>
+      </c>
+      <c r="Q409" s="13">
+        <v>0.46875</v>
+      </c>
+      <c r="R409" s="13">
+        <v>0.38733034936245903</v>
+      </c>
+      <c r="S409" s="14">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="410" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B410" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C410" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D410" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E410" s="13">
+        <v>32</v>
+      </c>
+      <c r="F410" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G410" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H410" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I410" s="13">
+        <v>3</v>
+      </c>
+      <c r="J410" s="13">
+        <v>5</v>
+      </c>
+      <c r="K410" s="13">
+        <v>6</v>
+      </c>
+      <c r="L410" s="13">
+        <v>8</v>
+      </c>
+      <c r="M410" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="N410" s="13">
+        <v>0.512820512820512</v>
+      </c>
+      <c r="O410" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P410" s="13">
+        <v>0.50544662309368205</v>
+      </c>
+      <c r="Q410" s="13">
+        <v>0.47321428571428498</v>
+      </c>
+      <c r="R410" s="13">
+        <v>0.45788313721339802</v>
+      </c>
+      <c r="S410" s="14">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="411" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B411" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C411" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D411" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E411" s="13">
+        <v>32</v>
+      </c>
+      <c r="F411" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G411" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H411" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I411" s="13">
+        <v>0</v>
+      </c>
+      <c r="J411" s="13">
+        <v>6</v>
+      </c>
+      <c r="K411" s="13">
+        <v>1</v>
+      </c>
+      <c r="L411" s="13">
+        <v>16</v>
+      </c>
+      <c r="M411" s="13">
+        <v>0.69565217391304301</v>
+      </c>
+      <c r="N411" s="13">
+        <v>0.53754940711462396</v>
+      </c>
+      <c r="O411" s="13">
+        <v>0.69565217391304301</v>
+      </c>
+      <c r="P411" s="13">
+        <v>0.60646599777034504</v>
+      </c>
+      <c r="Q411" s="13">
+        <v>0.47058823529411697</v>
+      </c>
+      <c r="R411" s="13">
+        <v>0</v>
+      </c>
+      <c r="S411" s="14">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="412" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B412" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C412" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D412" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E412" s="13">
+        <v>32</v>
+      </c>
+      <c r="F412" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G412" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H412" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I412" s="13">
+        <v>5</v>
+      </c>
+      <c r="J412" s="13">
+        <v>4</v>
+      </c>
+      <c r="K412" s="13">
+        <v>5</v>
+      </c>
+      <c r="L412" s="13">
+        <v>7</v>
+      </c>
+      <c r="M412" s="13">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="N412" s="13">
+        <v>0.57792207792207795</v>
+      </c>
+      <c r="O412" s="13">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="P412" s="13">
+        <v>0.57338999673095703</v>
+      </c>
+      <c r="Q412" s="13">
+        <v>0.56944444444444398</v>
+      </c>
+      <c r="R412" s="13">
+        <v>0.56666959640974901</v>
+      </c>
+      <c r="S412" s="14">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="413" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B413" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C413" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D413" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E413" s="13">
+        <v>32</v>
+      </c>
+      <c r="F413" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G413" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H413" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I413" s="13">
+        <v>2</v>
+      </c>
+      <c r="J413" s="13">
+        <v>4</v>
+      </c>
+      <c r="K413" s="13">
+        <v>5</v>
+      </c>
+      <c r="L413" s="13">
+        <v>12</v>
+      </c>
+      <c r="M413" s="13">
+        <v>0.60869565217391297</v>
+      </c>
+      <c r="N413" s="13">
+        <v>0.62888198757763902</v>
+      </c>
+      <c r="O413" s="13">
+        <v>0.60869565217391297</v>
+      </c>
+      <c r="P413" s="13">
+        <v>0.617816965643052</v>
+      </c>
+      <c r="Q413" s="13">
+        <v>0.51960784313725406</v>
+      </c>
+      <c r="R413" s="13">
+        <v>0.47386111527486102</v>
+      </c>
+      <c r="S413" s="14">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="414" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B414" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C414" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D414" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E414" s="13">
+        <v>32</v>
+      </c>
+      <c r="F414" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G414" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H414" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I414" s="13">
+        <v>4</v>
+      </c>
+      <c r="J414" s="13">
+        <v>5</v>
+      </c>
+      <c r="K414" s="13">
+        <v>5</v>
+      </c>
+      <c r="L414" s="13">
+        <v>7</v>
+      </c>
+      <c r="M414" s="13">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="N414" s="13">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="O414" s="13">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="P414" s="13">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="Q414" s="13">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="R414" s="13">
+        <v>0.50917507721731503</v>
+      </c>
+      <c r="S414" s="14">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="415" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B415" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C415" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D415" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E415" s="11">
+        <v>32</v>
+      </c>
+      <c r="F415" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G415" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H415" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I415" s="11">
+        <v>1</v>
+      </c>
+      <c r="J415" s="11">
+        <v>5</v>
+      </c>
+      <c r="K415" s="11">
+        <v>10</v>
+      </c>
+      <c r="L415" s="11">
+        <v>7</v>
+      </c>
+      <c r="M415" s="11">
+        <v>0.34782608695652101</v>
+      </c>
+      <c r="N415" s="11">
+        <v>0.45487483530961798</v>
+      </c>
+      <c r="O415" s="11">
+        <v>0.34782608695652101</v>
+      </c>
+      <c r="P415" s="11">
+        <v>0.38751212628979598</v>
+      </c>
+      <c r="Q415" s="11">
+        <v>0.289215686274509</v>
+      </c>
+      <c r="R415" s="11">
+        <v>0.24561534391418899</v>
+      </c>
+      <c r="S415" s="12">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="416" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B416" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C416" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D416" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E416" s="11">
+        <v>32</v>
+      </c>
+      <c r="F416" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G416" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H416" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I416" s="11">
+        <v>1</v>
+      </c>
+      <c r="J416" s="11">
+        <v>5</v>
+      </c>
+      <c r="K416" s="11">
+        <v>2</v>
+      </c>
+      <c r="L416" s="11">
+        <v>15</v>
+      </c>
+      <c r="M416" s="11">
+        <v>0.69565217391304301</v>
+      </c>
+      <c r="N416" s="11">
+        <v>0.64130434782608603</v>
+      </c>
+      <c r="O416" s="11">
+        <v>0.69565217391304301</v>
+      </c>
+      <c r="P416" s="11">
+        <v>0.65726596161378703</v>
+      </c>
+      <c r="Q416" s="11">
+        <v>0.52450980392156799</v>
+      </c>
+      <c r="R416" s="11">
+        <v>0.43788268658607898</v>
+      </c>
+      <c r="S416" s="12">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="417" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B417" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C417" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D417" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E417" s="11">
+        <v>32</v>
+      </c>
+      <c r="F417" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G417" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H417" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I417" s="11">
+        <v>6</v>
+      </c>
+      <c r="J417" s="11">
+        <v>3</v>
+      </c>
+      <c r="K417" s="11">
+        <v>9</v>
+      </c>
+      <c r="L417" s="11">
+        <v>3</v>
+      </c>
+      <c r="M417" s="11">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="N417" s="11">
+        <v>0.45714285714285702</v>
+      </c>
+      <c r="O417" s="11">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="P417" s="11">
+        <v>0.40476190476190399</v>
+      </c>
+      <c r="Q417" s="11">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="R417" s="11">
+        <v>0.42728700639623401</v>
+      </c>
+      <c r="S417" s="12">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="418" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B418" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C418" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D418" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E418" s="11">
+        <v>32</v>
+      </c>
+      <c r="F418" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G418" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H418" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I418" s="11">
+        <v>6</v>
+      </c>
+      <c r="J418" s="11">
+        <v>3</v>
+      </c>
+      <c r="K418" s="11">
+        <v>2</v>
+      </c>
+      <c r="L418" s="11">
+        <v>10</v>
+      </c>
+      <c r="M418" s="11">
+        <v>0.76190476190476097</v>
+      </c>
+      <c r="N418" s="11">
+        <v>0.76098901098901095</v>
+      </c>
+      <c r="O418" s="11">
+        <v>0.76190476190476097</v>
+      </c>
+      <c r="P418" s="11">
+        <v>0.75966386554621801</v>
+      </c>
+      <c r="Q418" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="R418" s="11">
+        <v>0.75242176807446004</v>
+      </c>
+      <c r="S418" s="12">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="419" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B419" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C419" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D419" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E419" s="11">
+        <v>32</v>
+      </c>
+      <c r="F419" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G419" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H419" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I419" s="11">
+        <v>3</v>
+      </c>
+      <c r="J419" s="11">
+        <v>3</v>
+      </c>
+      <c r="K419" s="11">
+        <v>6</v>
+      </c>
+      <c r="L419" s="11">
+        <v>11</v>
+      </c>
+      <c r="M419" s="11">
+        <v>0.60869565217391297</v>
+      </c>
+      <c r="N419" s="11">
+        <v>0.66770186335403703</v>
+      </c>
+      <c r="O419" s="11">
+        <v>0.60869565217391297</v>
+      </c>
+      <c r="P419" s="11">
+        <v>0.62889200561009795</v>
+      </c>
+      <c r="Q419" s="11">
+        <v>0.57352941176470495</v>
+      </c>
+      <c r="R419" s="11">
+        <v>0.53952837572617895</v>
+      </c>
+      <c r="S419" s="12">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="420" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B420" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C420" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D420" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E420" s="11">
+        <v>32</v>
+      </c>
+      <c r="F420" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G420" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H420" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I420" s="11">
+        <v>4</v>
+      </c>
+      <c r="J420" s="11">
+        <v>5</v>
+      </c>
+      <c r="K420" s="11">
+        <v>6</v>
+      </c>
+      <c r="L420" s="11">
+        <v>6</v>
+      </c>
+      <c r="M420" s="11">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="N420" s="11">
+        <v>0.483116883116883</v>
+      </c>
+      <c r="O420" s="11">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="P420" s="11">
+        <v>0.47858777378228101</v>
+      </c>
+      <c r="Q420" s="11">
+        <v>0.47222222222222199</v>
+      </c>
+      <c r="R420" s="11">
+        <v>0.469247006410559</v>
+      </c>
+      <c r="S420" s="12">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="421" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B421" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C421" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D421" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E421" s="11">
+        <v>32</v>
+      </c>
+      <c r="F421" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G421" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H421" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I421" s="11">
+        <v>1</v>
+      </c>
+      <c r="J421" s="11">
+        <v>3</v>
+      </c>
+      <c r="K421" s="11">
+        <v>11</v>
+      </c>
+      <c r="L421" s="11">
+        <v>5</v>
+      </c>
+      <c r="M421" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="N421" s="11">
+        <v>0.51666666666666605</v>
+      </c>
+      <c r="O421" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="P421" s="11">
+        <v>0.358333333333333</v>
+      </c>
+      <c r="Q421" s="11">
+        <v>0.28125</v>
+      </c>
+      <c r="R421" s="11">
+        <v>0.25256443808457701</v>
+      </c>
+      <c r="S421" s="12">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="422" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B422" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C422" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D422" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E422" s="11">
+        <v>32</v>
+      </c>
+      <c r="F422" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G422" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H422" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I422" s="11">
+        <v>6</v>
+      </c>
+      <c r="J422" s="11">
+        <v>2</v>
+      </c>
+      <c r="K422" s="11">
+        <v>8</v>
+      </c>
+      <c r="L422" s="11">
+        <v>6</v>
+      </c>
+      <c r="M422" s="11">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="N422" s="11">
+        <v>0.63311688311688297</v>
+      </c>
+      <c r="O422" s="11">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="P422" s="11">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="Q422" s="11">
+        <v>0.58928571428571397</v>
+      </c>
+      <c r="R422" s="11">
+        <v>0.56694670951383996</v>
+      </c>
+      <c r="S422" s="12">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="423" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B423" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C423" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D423" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E423" s="11">
+        <v>32</v>
+      </c>
+      <c r="F423" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G423" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H423" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I423" s="11">
+        <v>2</v>
+      </c>
+      <c r="J423" s="11">
+        <v>4</v>
+      </c>
+      <c r="K423" s="11">
+        <v>2</v>
+      </c>
+      <c r="L423" s="11">
+        <v>15</v>
+      </c>
+      <c r="M423" s="11">
+        <v>0.73913043478260798</v>
+      </c>
+      <c r="N423" s="11">
+        <v>0.71395881006864903</v>
+      </c>
+      <c r="O423" s="11">
+        <v>0.73913043478260798</v>
+      </c>
+      <c r="P423" s="11">
+        <v>0.72028985507246301</v>
+      </c>
+      <c r="Q423" s="11">
+        <v>0.60784313725490202</v>
+      </c>
+      <c r="R423" s="11">
+        <v>0.58372351144886303</v>
+      </c>
+      <c r="S423" s="12">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="424" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B424" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C424" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D424" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E424" s="11">
+        <v>32</v>
+      </c>
+      <c r="F424" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G424" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H424" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I424" s="11">
+        <v>3</v>
+      </c>
+      <c r="J424" s="11">
+        <v>6</v>
+      </c>
+      <c r="K424" s="11">
+        <v>3</v>
+      </c>
+      <c r="L424" s="11">
+        <v>9</v>
+      </c>
+      <c r="M424" s="11">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="N424" s="11">
+        <v>0.55714285714285705</v>
+      </c>
+      <c r="O424" s="11">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="P424" s="11">
+        <v>0.55238095238095197</v>
+      </c>
+      <c r="Q424" s="11">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="R424" s="11">
+        <v>0.52331756969605203</v>
+      </c>
+      <c r="S424" s="12">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="425" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B425" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C425" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D425" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E425" s="13">
+        <v>32</v>
+      </c>
+      <c r="F425" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G425" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H425" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I425" s="13">
+        <v>2</v>
+      </c>
+      <c r="J425" s="13">
+        <v>4</v>
+      </c>
+      <c r="K425" s="13">
+        <v>1</v>
+      </c>
+      <c r="L425" s="13">
+        <v>16</v>
+      </c>
+      <c r="M425" s="13">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="N425" s="13">
+        <v>0.76521739130434696</v>
+      </c>
+      <c r="O425" s="13">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="P425" s="13">
+        <v>0.75518997258127696</v>
+      </c>
+      <c r="Q425" s="13">
+        <v>0.63725490196078405</v>
+      </c>
+      <c r="R425" s="13">
+        <v>0.63956859995776105</v>
+      </c>
+      <c r="S425" s="14">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="426" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B426" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C426" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D426" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E426" s="13">
+        <v>32</v>
+      </c>
+      <c r="F426" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G426" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H426" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I426" s="13">
+        <v>5</v>
+      </c>
+      <c r="J426" s="13">
+        <v>4</v>
+      </c>
+      <c r="K426" s="13">
+        <v>6</v>
+      </c>
+      <c r="L426" s="13">
+        <v>6</v>
+      </c>
+      <c r="M426" s="13">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="N426" s="13">
+        <v>0.53766233766233695</v>
+      </c>
+      <c r="O426" s="13">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="P426" s="13">
+        <v>0.52597402597402598</v>
+      </c>
+      <c r="Q426" s="13">
+        <v>0.52777777777777701</v>
+      </c>
+      <c r="R426" s="13">
+        <v>0.52463410228614504</v>
+      </c>
+      <c r="S426" s="14">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="427" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B427" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C427" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D427" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E427" s="13">
+        <v>32</v>
+      </c>
+      <c r="F427" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G427" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H427" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I427" s="13">
+        <v>2</v>
+      </c>
+      <c r="J427" s="13">
+        <v>4</v>
+      </c>
+      <c r="K427" s="13">
+        <v>4</v>
+      </c>
+      <c r="L427" s="13">
+        <v>13</v>
+      </c>
+      <c r="M427" s="13">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="N427" s="13">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="O427" s="13">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="P427" s="13">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="Q427" s="13">
+        <v>0.54901960784313697</v>
+      </c>
+      <c r="R427" s="13">
+        <v>0.50487816429740096</v>
+      </c>
+      <c r="S427" s="14">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="428" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B428" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C428" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D428" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E428" s="13">
+        <v>32</v>
+      </c>
+      <c r="F428" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G428" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H428" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I428" s="13">
+        <v>2</v>
+      </c>
+      <c r="J428" s="13">
+        <v>7</v>
+      </c>
+      <c r="K428" s="13">
+        <v>6</v>
+      </c>
+      <c r="L428" s="13">
+        <v>6</v>
+      </c>
+      <c r="M428" s="13">
+        <v>0.38095238095237999</v>
+      </c>
+      <c r="N428" s="13">
+        <v>0.37087912087912001</v>
+      </c>
+      <c r="O428" s="13">
+        <v>0.38095238095237999</v>
+      </c>
+      <c r="P428" s="13">
+        <v>0.375126050420168</v>
+      </c>
+      <c r="Q428" s="13">
+        <v>0.36111111111111099</v>
+      </c>
+      <c r="R428" s="13">
+        <v>0.33649324423301502</v>
+      </c>
+      <c r="S428" s="14">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="429" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B429" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C429" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D429" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="E429" s="13">
+        <v>32</v>
+      </c>
+      <c r="F429" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G429" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H429" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I429" s="13">
+        <v>4</v>
+      </c>
+      <c r="J429" s="13">
+        <v>2</v>
+      </c>
+      <c r="K429" s="13">
+        <v>3</v>
+      </c>
+      <c r="L429" s="13">
+        <v>14</v>
+      </c>
+      <c r="M429" s="13">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="N429" s="13">
+        <v>0.795807453416149</v>
+      </c>
+      <c r="O429" s="13">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="P429" s="13">
+        <v>0.78767609202391797</v>
+      </c>
+      <c r="Q429" s="13">
+        <v>0.74509803921568596</v>
+      </c>
+      <c r="R429" s="13">
+        <v>0.72383480988108295</v>
+      </c>
+      <c r="S429" s="14">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="430" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B430" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C430" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D430" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="E430" s="13">
+        <v>32</v>
+      </c>
+      <c r="F430" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G430" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H430" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I430" s="13">
+        <v>5</v>
+      </c>
+      <c r="J430" s="13">
+        <v>4</v>
+      </c>
+      <c r="K430" s="13">
+        <v>6</v>
+      </c>
+      <c r="L430" s="13">
+        <v>6</v>
+      </c>
+      <c r="M430" s="13">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="N430" s="13">
+        <v>0.53766233766233695</v>
+      </c>
+      <c r="O430" s="13">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="P430" s="13">
+        <v>0.52597402597402598</v>
+      </c>
+      <c r="Q430" s="13">
+        <v>0.52777777777777701</v>
+      </c>
+      <c r="R430" s="13">
+        <v>0.52463410228614504</v>
+      </c>
+      <c r="S430" s="14">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="431" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B431" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C431" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D431" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E431" s="13">
+        <v>32</v>
+      </c>
+      <c r="F431" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G431" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H431" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I431" s="13">
+        <v>2</v>
+      </c>
+      <c r="J431" s="13">
+        <v>2</v>
+      </c>
+      <c r="K431" s="13">
+        <v>8</v>
+      </c>
+      <c r="L431" s="13">
+        <v>8</v>
+      </c>
+      <c r="M431" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="N431" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="O431" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P431" s="13">
+        <v>0.54945054945054905</v>
+      </c>
+      <c r="Q431" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="R431" s="13">
+        <v>0.44721359549995698</v>
+      </c>
+      <c r="S431" s="14">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="432" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B432" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C432" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D432" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E432" s="13">
+        <v>32</v>
+      </c>
+      <c r="F432" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G432" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H432" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I432" s="13">
+        <v>5</v>
+      </c>
+      <c r="J432" s="13">
+        <v>3</v>
+      </c>
+      <c r="K432" s="13">
+        <v>9</v>
+      </c>
+      <c r="L432" s="13">
+        <v>5</v>
+      </c>
+      <c r="M432" s="13">
+        <v>0.45454545454545398</v>
+      </c>
+      <c r="N432" s="13">
+        <v>0.52759740259740195</v>
+      </c>
+      <c r="O432" s="13">
+        <v>0.45454545454545398</v>
+      </c>
+      <c r="P432" s="13">
+        <v>0.45454545454545398</v>
+      </c>
+      <c r="Q432" s="13">
+        <v>0.49107142857142799</v>
+      </c>
+      <c r="R432" s="13">
+        <v>0.47245559126153402</v>
+      </c>
+      <c r="S432" s="14">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="433" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B433" s="13"/>
+      <c r="C433" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D433" s="13"/>
+      <c r="E433" s="13"/>
+      <c r="F433" s="13"/>
+      <c r="G433" s="13"/>
+      <c r="H433" s="13"/>
+      <c r="I433" s="13"/>
+      <c r="J433" s="13"/>
+      <c r="K433" s="13"/>
+      <c r="L433" s="13"/>
+      <c r="M433" s="13"/>
+      <c r="N433" s="13"/>
+      <c r="O433" s="13"/>
+      <c r="P433" s="13"/>
+      <c r="Q433" s="13"/>
+      <c r="R433" s="13"/>
+      <c r="S433" s="13"/>
+    </row>
+    <row r="434" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B434" s="13"/>
+      <c r="C434" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D434" s="13"/>
+      <c r="E434" s="13"/>
+      <c r="F434" s="13"/>
+      <c r="G434" s="13"/>
+      <c r="H434" s="13"/>
+      <c r="I434" s="13"/>
+      <c r="J434" s="13"/>
+      <c r="K434" s="13"/>
+      <c r="L434" s="13"/>
+      <c r="M434" s="13"/>
+      <c r="N434" s="13"/>
+      <c r="O434" s="13"/>
+      <c r="P434" s="13"/>
+      <c r="Q434" s="13"/>
+      <c r="R434" s="13"/>
+      <c r="S434" s="13"/>
+    </row>
+    <row r="435" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B435" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C435" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D435" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E435" s="11">
+        <v>32</v>
+      </c>
+      <c r="F435" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G435" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H435" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I435" s="11">
+        <v>5</v>
+      </c>
+      <c r="J435" s="11">
+        <v>1</v>
+      </c>
+      <c r="K435" s="11">
+        <v>1</v>
+      </c>
+      <c r="L435" s="11">
+        <v>16</v>
+      </c>
+      <c r="M435" s="11">
+        <v>0.91304347826086896</v>
+      </c>
+      <c r="N435" s="11">
+        <v>0.91304347826086896</v>
+      </c>
+      <c r="O435" s="11">
+        <v>0.91304347826086896</v>
+      </c>
+      <c r="P435" s="11">
+        <v>0.91304347826086896</v>
+      </c>
+      <c r="Q435" s="11">
+        <v>0.88725490196078405</v>
+      </c>
+      <c r="R435" s="11">
+        <v>0.88561488554009504</v>
+      </c>
+      <c r="S435" s="12">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="436" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B436" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C436" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D436" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E436" s="11">
+        <v>32</v>
+      </c>
+      <c r="F436" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G436" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H436" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I436" s="11">
+        <v>5</v>
+      </c>
+      <c r="J436" s="11">
+        <v>4</v>
+      </c>
+      <c r="K436" s="11">
+        <v>9</v>
+      </c>
+      <c r="L436" s="11">
+        <v>3</v>
+      </c>
+      <c r="M436" s="11">
+        <v>0.38095238095237999</v>
+      </c>
+      <c r="N436" s="11">
+        <v>0.397959183673469</v>
+      </c>
+      <c r="O436" s="11">
+        <v>0.38095238095237999</v>
+      </c>
+      <c r="P436" s="11">
+        <v>0.36678653154625601</v>
+      </c>
+      <c r="Q436" s="11">
+        <v>0.40277777777777701</v>
+      </c>
+      <c r="R436" s="11">
+        <v>0.38184153896603601</v>
+      </c>
+      <c r="S436" s="12">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="437" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B437" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C437" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D437" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E437" s="11">
+        <v>32</v>
+      </c>
+      <c r="F437" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G437" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H437" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I437" s="11">
+        <v>2</v>
+      </c>
+      <c r="J437" s="11">
+        <v>4</v>
+      </c>
+      <c r="K437" s="11">
+        <v>9</v>
+      </c>
+      <c r="L437" s="11">
+        <v>8</v>
+      </c>
+      <c r="M437" s="11">
+        <v>0.434782608695652</v>
+      </c>
+      <c r="N437" s="11">
+        <v>0.54018445322793096</v>
+      </c>
+      <c r="O437" s="11">
+        <v>0.434782608695652</v>
+      </c>
+      <c r="P437" s="11">
+        <v>0.469177176117823</v>
+      </c>
+      <c r="Q437" s="11">
+        <v>0.40196078431372501</v>
+      </c>
+      <c r="R437" s="11">
+        <v>0.37133549610202599</v>
+      </c>
+      <c r="S437" s="12">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="438" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B438" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C438" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D438" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E438" s="11">
+        <v>32</v>
+      </c>
+      <c r="F438" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G438" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H438" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I438" s="11">
+        <v>7</v>
+      </c>
+      <c r="J438" s="11">
+        <v>2</v>
+      </c>
+      <c r="K438" s="11">
+        <v>7</v>
+      </c>
+      <c r="L438" s="11">
+        <v>5</v>
+      </c>
+      <c r="M438" s="11">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="N438" s="11">
+        <v>0.62244897959183598</v>
+      </c>
+      <c r="O438" s="11">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="P438" s="11">
+        <v>0.56162144491663901</v>
+      </c>
+      <c r="Q438" s="11">
+        <v>0.59722222222222199</v>
+      </c>
+      <c r="R438" s="11">
+        <v>0.58327258526342995</v>
+      </c>
+      <c r="S438" s="12">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="439" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B439" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C439" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D439" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E439" s="11">
+        <v>32</v>
+      </c>
+      <c r="F439" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G439" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H439" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I439" s="11">
+        <v>4</v>
+      </c>
+      <c r="J439" s="11">
+        <v>2</v>
+      </c>
+      <c r="K439" s="11">
+        <v>3</v>
+      </c>
+      <c r="L439" s="11">
+        <v>14</v>
+      </c>
+      <c r="M439" s="11">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="N439" s="11">
+        <v>0.795807453416149</v>
+      </c>
+      <c r="O439" s="11">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="P439" s="11">
+        <v>0.78767609202391797</v>
+      </c>
+      <c r="Q439" s="11">
+        <v>0.74509803921568596</v>
+      </c>
+      <c r="R439" s="11">
+        <v>0.72383480988108295</v>
+      </c>
+      <c r="S439" s="12">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="440" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B440" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C440" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D440" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E440" s="11">
+        <v>32</v>
+      </c>
+      <c r="F440" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G440" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H440" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I440" s="11">
+        <v>7</v>
+      </c>
+      <c r="J440" s="11">
+        <v>2</v>
+      </c>
+      <c r="K440" s="11">
+        <v>7</v>
+      </c>
+      <c r="L440" s="11">
+        <v>5</v>
+      </c>
+      <c r="M440" s="11">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="N440" s="11">
+        <v>0.62244897959183598</v>
+      </c>
+      <c r="O440" s="11">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="P440" s="11">
+        <v>0.56162144491663901</v>
+      </c>
+      <c r="Q440" s="11">
+        <v>0.59722222222222199</v>
+      </c>
+      <c r="R440" s="11">
+        <v>0.58327258526342995</v>
+      </c>
+      <c r="S440" s="12">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="441" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B441" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C441" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D441" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E441" s="11">
+        <v>32</v>
+      </c>
+      <c r="F441" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G441" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H441" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I441" s="11">
+        <v>2</v>
+      </c>
+      <c r="J441" s="11">
+        <v>4</v>
+      </c>
+      <c r="K441" s="11">
+        <v>0</v>
+      </c>
+      <c r="L441" s="11">
+        <v>17</v>
+      </c>
+      <c r="M441" s="11">
+        <v>0.82608695652173902</v>
+      </c>
+      <c r="N441" s="11">
+        <v>0.859213250517598</v>
+      </c>
+      <c r="O441" s="11">
+        <v>0.82608695652173902</v>
+      </c>
+      <c r="P441" s="11">
+        <v>0.79176201372997701</v>
+      </c>
+      <c r="Q441" s="11">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="R441" s="11">
+        <v>0.72073745681025803</v>
+      </c>
+      <c r="S441" s="12">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="442" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B442" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C442" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D442" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E442" s="11">
+        <v>32</v>
+      </c>
+      <c r="F442" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G442" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H442" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I442" s="11">
+        <v>1</v>
+      </c>
+      <c r="J442" s="11">
+        <v>8</v>
+      </c>
+      <c r="K442" s="11">
+        <v>2</v>
+      </c>
+      <c r="L442" s="11">
+        <v>10</v>
+      </c>
+      <c r="M442" s="11">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="N442" s="11">
+        <v>0.46031746031746001</v>
+      </c>
+      <c r="O442" s="11">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="P442" s="11">
+        <v>0.452380952380952</v>
+      </c>
+      <c r="Q442" s="11">
+        <v>0.47222222222222199</v>
+      </c>
+      <c r="R442" s="11">
+        <v>0.36186420135146102</v>
+      </c>
+      <c r="S442" s="12">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="443" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B443" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C443" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D443" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E443" s="11">
+        <v>32</v>
+      </c>
+      <c r="F443" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G443" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H443" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I443" s="11">
+        <v>2</v>
+      </c>
+      <c r="J443" s="11">
+        <v>2</v>
+      </c>
+      <c r="K443" s="11">
+        <v>4</v>
+      </c>
+      <c r="L443" s="11">
+        <v>12</v>
+      </c>
+      <c r="M443" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="N443" s="11">
+        <v>0.75238095238095204</v>
+      </c>
+      <c r="O443" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="P443" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="Q443" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="R443" s="11">
+        <v>0.57212484245485096</v>
+      </c>
+      <c r="S443" s="12">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="444" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B444" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C444" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D444" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E444" s="11">
+        <v>32</v>
+      </c>
+      <c r="F444" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G444" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H444" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I444" s="11">
+        <v>6</v>
+      </c>
+      <c r="J444" s="11">
+        <v>2</v>
+      </c>
+      <c r="K444" s="11">
+        <v>10</v>
+      </c>
+      <c r="L444" s="11">
+        <v>4</v>
+      </c>
+      <c r="M444" s="11">
+        <v>0.45454545454545398</v>
+      </c>
+      <c r="N444" s="11">
+        <v>0.56060606060606</v>
+      </c>
+      <c r="O444" s="11">
+        <v>0.45454545454545398</v>
+      </c>
+      <c r="P444" s="11">
+        <v>0.43636363636363601</v>
+      </c>
+      <c r="Q444" s="11">
+        <v>0.51785714285714202</v>
+      </c>
+      <c r="R444" s="11">
+        <v>0.48109772909788001</v>
+      </c>
+      <c r="S444" s="12">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="445" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B445" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C445" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D445" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E445" s="13">
+        <v>32</v>
+      </c>
+      <c r="F445" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G445" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H445" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I445" s="13">
+        <v>5</v>
+      </c>
+      <c r="J445" s="13">
+        <v>1</v>
+      </c>
+      <c r="K445" s="13">
+        <v>7</v>
+      </c>
+      <c r="L445" s="13">
+        <v>10</v>
+      </c>
+      <c r="M445" s="13">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="N445" s="13">
+        <v>0.78063241106719305</v>
+      </c>
+      <c r="O445" s="13">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="P445" s="13">
+        <v>0.67287784679089002</v>
+      </c>
+      <c r="Q445" s="13">
+        <v>0.71078431372549</v>
+      </c>
+      <c r="R445" s="13">
+        <v>0.65643461847253504</v>
+      </c>
+      <c r="S445" s="14">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="446" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B446" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C446" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D446" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E446" s="13">
+        <v>32</v>
+      </c>
+      <c r="F446" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G446" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H446" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I446" s="13">
+        <v>5</v>
+      </c>
+      <c r="J446" s="13">
+        <v>4</v>
+      </c>
+      <c r="K446" s="13">
+        <v>11</v>
+      </c>
+      <c r="L446" s="13">
+        <v>1</v>
+      </c>
+      <c r="M446" s="13">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="N446" s="13">
+        <v>0.248214285714285</v>
+      </c>
+      <c r="O446" s="13">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="P446" s="13">
+        <v>0.23865546218487299</v>
+      </c>
+      <c r="Q446" s="13">
+        <v>0.31944444444444398</v>
+      </c>
+      <c r="R446" s="13">
+        <v>0.23192980697614499</v>
+      </c>
+      <c r="S446" s="14">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="447" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B447" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C447" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D447" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="E447" s="13">
+        <v>32</v>
+      </c>
+      <c r="F447" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G447" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H447" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I447" s="13">
+        <v>3</v>
+      </c>
+      <c r="J447" s="13">
+        <v>3</v>
+      </c>
+      <c r="K447" s="13">
+        <v>4</v>
+      </c>
+      <c r="L447" s="13">
+        <v>13</v>
+      </c>
+      <c r="M447" s="13">
+        <v>0.69565217391304301</v>
+      </c>
+      <c r="N447" s="13">
+        <v>0.71234472049689401</v>
+      </c>
+      <c r="O447" s="13">
+        <v>0.69565217391304301</v>
+      </c>
+      <c r="P447" s="13">
+        <v>0.70274652883348498</v>
+      </c>
+      <c r="Q447" s="13">
+        <v>0.63235294117647001</v>
+      </c>
+      <c r="R447" s="13">
+        <v>0.60405676837984001</v>
+      </c>
+      <c r="S447" s="14">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="448" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B448" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C448" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D448" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="E448" s="13">
+        <v>32</v>
+      </c>
+      <c r="F448" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G448" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H448" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I448" s="13">
+        <v>6</v>
+      </c>
+      <c r="J448" s="13">
+        <v>3</v>
+      </c>
+      <c r="K448" s="13">
+        <v>9</v>
+      </c>
+      <c r="L448" s="13">
+        <v>3</v>
+      </c>
+      <c r="M448" s="13">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="N448" s="13">
+        <v>0.45714285714285702</v>
+      </c>
+      <c r="O448" s="13">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="P448" s="13">
+        <v>0.40476190476190399</v>
+      </c>
+      <c r="Q448" s="13">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="R448" s="13">
+        <v>0.42728700639623401</v>
+      </c>
+      <c r="S448" s="14">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="449" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B449" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C449" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D449" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="E449" s="13">
+        <v>32</v>
+      </c>
+      <c r="F449" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G449" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H449" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I449" s="13">
+        <v>1</v>
+      </c>
+      <c r="J449" s="13">
+        <v>3</v>
+      </c>
+      <c r="K449" s="13">
+        <v>5</v>
+      </c>
+      <c r="L449" s="13">
+        <v>11</v>
+      </c>
+      <c r="M449" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="N449" s="13">
+        <v>0.661904761904761</v>
+      </c>
+      <c r="O449" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="P449" s="13">
+        <v>0.62666666666666604</v>
+      </c>
+      <c r="Q449" s="13">
+        <v>0.46875</v>
+      </c>
+      <c r="R449" s="13">
+        <v>0.38733034936245903</v>
+      </c>
+      <c r="S449" s="14">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="450" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B450" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C450" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D450" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="E450" s="13">
+        <v>32</v>
+      </c>
+      <c r="F450" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G450" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H450" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I450" s="13">
+        <v>2</v>
+      </c>
+      <c r="J450" s="13">
+        <v>6</v>
+      </c>
+      <c r="K450" s="13">
+        <v>5</v>
+      </c>
+      <c r="L450" s="13">
+        <v>9</v>
+      </c>
+      <c r="M450" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="N450" s="13">
+        <v>0.48571428571428499</v>
+      </c>
+      <c r="O450" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P450" s="13">
+        <v>0.49195402298850499</v>
+      </c>
+      <c r="Q450" s="13">
+        <v>0.44642857142857101</v>
+      </c>
+      <c r="R450" s="13">
+        <v>0.40741256798452602</v>
+      </c>
+      <c r="S450" s="14">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="451" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B451" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C451" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D451" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E451" s="13">
+        <v>32</v>
+      </c>
+      <c r="F451" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G451" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H451" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I451" s="13">
+        <v>3</v>
+      </c>
+      <c r="J451" s="13">
+        <v>3</v>
+      </c>
+      <c r="K451" s="13">
+        <v>6</v>
+      </c>
+      <c r="L451" s="13">
+        <v>11</v>
+      </c>
+      <c r="M451" s="13">
+        <v>0.60869565217391297</v>
+      </c>
+      <c r="N451" s="13">
+        <v>0.66770186335403703</v>
+      </c>
+      <c r="O451" s="13">
+        <v>0.60869565217391297</v>
+      </c>
+      <c r="P451" s="13">
+        <v>0.62889200561009795</v>
+      </c>
+      <c r="Q451" s="13">
+        <v>0.57352941176470495</v>
+      </c>
+      <c r="R451" s="13">
+        <v>0.53952837572617895</v>
+      </c>
+      <c r="S451" s="14">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="452" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B452" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C452" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D452" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E452" s="13">
+        <v>32</v>
+      </c>
+      <c r="F452" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G452" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H452" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I452" s="13">
+        <v>2</v>
+      </c>
+      <c r="J452" s="13">
+        <v>7</v>
+      </c>
+      <c r="K452" s="13">
+        <v>1</v>
+      </c>
+      <c r="L452" s="13">
+        <v>11</v>
+      </c>
+      <c r="M452" s="13">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="N452" s="13">
+        <v>0.634920634920635</v>
+      </c>
+      <c r="O452" s="13">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="P452" s="13">
+        <v>0.56190476190476102</v>
+      </c>
+      <c r="Q452" s="13">
+        <v>0.56944444444444398</v>
+      </c>
+      <c r="R452" s="13">
+        <v>0.536731348519357</v>
+      </c>
+      <c r="S452" s="14">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="453" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B453" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C453" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D453" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E453" s="13">
+        <v>32</v>
+      </c>
+      <c r="F453" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G453" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H453" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I453" s="13">
+        <v>1</v>
+      </c>
+      <c r="J453" s="13">
+        <v>5</v>
+      </c>
+      <c r="K453" s="13">
+        <v>3</v>
+      </c>
+      <c r="L453" s="13">
+        <v>14</v>
+      </c>
+      <c r="M453" s="13">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="N453" s="13">
+        <v>0.60983981693363798</v>
+      </c>
+      <c r="O453" s="13">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="P453" s="13">
+        <v>0.62705314009661794</v>
+      </c>
+      <c r="Q453" s="13">
+        <v>0.49509803921568601</v>
+      </c>
+      <c r="R453" s="13">
+        <v>0.39875907218330298</v>
+      </c>
+      <c r="S453" s="14">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="454" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B454" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C454" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D454" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E454" s="13">
+        <v>32</v>
+      </c>
+      <c r="F454" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G454" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H454" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I454" s="13">
+        <v>7</v>
+      </c>
+      <c r="J454" s="13">
+        <v>2</v>
+      </c>
+      <c r="K454" s="13">
+        <v>4</v>
+      </c>
+      <c r="L454" s="13">
+        <v>8</v>
+      </c>
+      <c r="M454" s="13">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="N454" s="13">
+        <v>0.729870129870129</v>
+      </c>
+      <c r="O454" s="13">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="P454" s="13">
+        <v>0.71558441558441499</v>
+      </c>
+      <c r="Q454" s="13">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="R454" s="13">
+        <v>0.71678664216927301</v>
+      </c>
+      <c r="S454" s="14">
+        <v>674</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/CV DA completo/Resultados EMD CV DA.xlsx
+++ b/Resultados/CV DA completo/Resultados EMD CV DA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\TFG\Transfer-Learning-EDM\Resultados\CV DA completo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E006F4-8870-44AD-80DA-00E91AB8B370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BD7DDA-6359-4D63-B88A-840B903AADA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2015,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AU884"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M336" zoomScale="81" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="AF345" sqref="AF345"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU11" sqref="AU11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2045,6 +2045,10 @@
     <col min="37" max="37" width="12.77734375" customWidth="1"/>
     <col min="38" max="38" width="20.6640625" customWidth="1"/>
     <col min="41" max="41" width="17.33203125" customWidth="1"/>
+    <col min="44" max="44" width="12.33203125" customWidth="1"/>
+    <col min="45" max="45" width="13.33203125" customWidth="1"/>
+    <col min="46" max="46" width="12.5546875" customWidth="1"/>
+    <col min="47" max="47" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:47" x14ac:dyDescent="0.3">
@@ -2310,9 +2314,15 @@
       <c r="AR3" s="16">
         <v>0.78</v>
       </c>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="15"/>
+      <c r="AS3" s="16">
+        <v>0.73170000000000002</v>
+      </c>
+      <c r="AT3" s="16">
+        <v>0.83</v>
+      </c>
+      <c r="AU3" s="16">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="4" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -2446,9 +2456,15 @@
       <c r="AR4" s="18">
         <v>0.83</v>
       </c>
-      <c r="AS4" s="17"/>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="17"/>
+      <c r="AS4" s="18">
+        <v>0.60409999999999997</v>
+      </c>
+      <c r="AT4" s="18">
+        <v>0.87</v>
+      </c>
+      <c r="AU4" s="18">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="5" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
@@ -19936,7 +19952,7 @@
         <v>3</v>
       </c>
       <c r="AC151" s="3">
-        <f t="shared" ref="AC151:AL151" si="279">(J735+J737+J739+J741+J743)</f>
+        <f t="shared" ref="AC151:AE151" si="279">(J735+J737+J739+J741+J743)</f>
         <v>25</v>
       </c>
       <c r="AD151" s="3">
@@ -19952,7 +19968,7 @@
         <v>0.63913043478260856</v>
       </c>
       <c r="AG151" s="3">
-        <f t="shared" ref="AG151:AL151" si="280">(N735+N737+N739+N741+N743)/5</f>
+        <f t="shared" ref="AG151:AK151" si="280">(N735+N737+N739+N741+N743)/5</f>
         <v>0.59836547891467762</v>
       </c>
       <c r="AH151" s="3">
@@ -20057,7 +20073,7 @@
         <v>14</v>
       </c>
       <c r="AC152" s="3">
-        <f t="shared" ref="AC152:AL152" si="281">(J736+J738+J740+J742+J744)</f>
+        <f t="shared" ref="AC152:AE152" si="281">(J736+J738+J740+J742+J744)</f>
         <v>30</v>
       </c>
       <c r="AD152" s="3">
@@ -20073,7 +20089,7 @@
         <v>0.53766233766233706</v>
       </c>
       <c r="AG152" s="3">
-        <f t="shared" ref="AG152:AL152" si="282">(N736+N738+N740+N742+N744)/5</f>
+        <f t="shared" ref="AG152:AK152" si="282">(N736+N738+N740+N742+N744)/5</f>
         <v>0.51206094559035686</v>
       </c>
       <c r="AH152" s="3">
@@ -20904,7 +20920,7 @@
         <v>10</v>
       </c>
       <c r="AC159" s="3">
-        <f t="shared" ref="AC159:AL159" si="295">(J775+J777+J779+J781+J783)</f>
+        <f t="shared" ref="AC159:AE159" si="295">(J775+J777+J779+J781+J783)</f>
         <v>18</v>
       </c>
       <c r="AD159" s="3">
@@ -20920,7 +20936,7 @@
         <v>0.74999999999999956</v>
       </c>
       <c r="AG159" s="3">
-        <f t="shared" ref="AG159:AL159" si="296">(N775+N777+N779+N781+N783)/5</f>
+        <f t="shared" ref="AG159:AK159" si="296">(N775+N777+N779+N781+N783)/5</f>
         <v>0.73811603571194317</v>
       </c>
       <c r="AH159" s="3">
@@ -21025,7 +21041,7 @@
         <v>22</v>
       </c>
       <c r="AC160" s="3">
-        <f t="shared" ref="AC160:AL160" si="297">(J776+J778+J780+J782+J784)</f>
+        <f t="shared" ref="AC160:AE160" si="297">(J776+J778+J780+J782+J784)</f>
         <v>22</v>
       </c>
       <c r="AD160" s="3">
@@ -21041,7 +21057,7 @@
         <v>0.56666666666666632</v>
       </c>
       <c r="AG160" s="3">
-        <f t="shared" ref="AG160:AL160" si="298">(N776+N778+N780+N782+N784)/5</f>
+        <f t="shared" ref="AG160:AK160" si="298">(N776+N778+N780+N782+N784)/5</f>
         <v>0.57780219780219744</v>
       </c>
       <c r="AH160" s="3">
@@ -21146,7 +21162,7 @@
         <v>10</v>
       </c>
       <c r="AC161" s="3">
-        <f t="shared" ref="AC161:AL161" si="299">J785+J787+J789+J791+J793</f>
+        <f t="shared" ref="AC161:AE161" si="299">J785+J787+J789+J791+J793</f>
         <v>18</v>
       </c>
       <c r="AD161" s="3">
@@ -21162,7 +21178,7 @@
         <v>0.73391304347826036</v>
       </c>
       <c r="AG161" s="3">
-        <f t="shared" ref="AG161:AL161" si="300">(N785+N787+N789+N791+N793)/5</f>
+        <f t="shared" ref="AG161:AK161" si="300">(N785+N787+N789+N791+N793)/5</f>
         <v>0.72279503105590026</v>
       </c>
       <c r="AH161" s="3">
@@ -21267,7 +21283,7 @@
         <v>22</v>
       </c>
       <c r="AC162" s="3">
-        <f t="shared" ref="AC162:AL162" si="301">J786+J788+J790+J792+J794</f>
+        <f t="shared" ref="AC162:AE162" si="301">J786+J788+J790+J792+J794</f>
         <v>22</v>
       </c>
       <c r="AD162" s="3">
@@ -21283,7 +21299,7 @@
         <v>0.54761904761904734</v>
       </c>
       <c r="AG162" s="3">
-        <f t="shared" ref="AG162:AL162" si="302">(N786+N788+N790+N792+N794)/5</f>
+        <f t="shared" ref="AG162:AK162" si="302">(N786+N788+N790+N792+N794)/5</f>
         <v>0.55416583416583376</v>
       </c>
       <c r="AH162" s="3">
@@ -21388,7 +21404,7 @@
         <v>7</v>
       </c>
       <c r="AC163" s="3">
-        <f t="shared" ref="AC163:AL164" si="303">(J795+J797+J799+J801+J803)</f>
+        <f t="shared" ref="AC163:AE164" si="303">(J795+J797+J799+J801+J803)</f>
         <v>26</v>
       </c>
       <c r="AD163" s="3">
@@ -21404,7 +21420,7 @@
         <v>0.65175983436852958</v>
       </c>
       <c r="AG163" s="3">
-        <f t="shared" ref="AG163:AL163" si="304">(N795+N797+N799+N801+N803)/5</f>
+        <f t="shared" ref="AG163:AK163" si="304">(N795+N797+N799+N801+N803)/5</f>
         <v>0.57799019191268675</v>
       </c>
       <c r="AH163" s="3">
@@ -21505,7 +21521,7 @@
         <v>39</v>
       </c>
       <c r="AB164" s="3">
-        <f t="shared" ref="AB164:AB165" si="305">(I796+I798+I800+I802+I804)</f>
+        <f t="shared" ref="AB164" si="305">(I796+I798+I800+I802+I804)</f>
         <v>19</v>
       </c>
       <c r="AC164" s="3">
@@ -21525,7 +21541,7 @@
         <v>0.65683982683982656</v>
       </c>
       <c r="AG164" s="3">
-        <f t="shared" ref="AG164:AL164" si="306">(N796+N798+N800+N802+N804)/5</f>
+        <f t="shared" ref="AG164:AK164" si="306">(N796+N798+N800+N802+N804)/5</f>
         <v>0.659805387719826</v>
       </c>
       <c r="AH164" s="3">
@@ -21630,7 +21646,7 @@
         <v>2</v>
       </c>
       <c r="AC165" s="3">
-        <f t="shared" ref="AC165:AL165" si="307">(J805+J807+J809+J811+J813)</f>
+        <f t="shared" ref="AC165:AE165" si="307">(J805+J807+J809+J811+J813)</f>
         <v>26</v>
       </c>
       <c r="AD165" s="3">
@@ -21646,7 +21662,7 @@
         <v>0.6917391304347823</v>
       </c>
       <c r="AG165" s="3">
-        <f t="shared" ref="AG165:AL165" si="308">(N805+N807+N809+N811+N813)/5</f>
+        <f t="shared" ref="AG165:AK165" si="308">(N805+N807+N809+N811+N813)/5</f>
         <v>0.60803122258300801</v>
       </c>
       <c r="AH165" s="3">
@@ -21751,7 +21767,7 @@
         <v>13</v>
       </c>
       <c r="AC166" s="3">
-        <f t="shared" ref="AC166:AL166" si="309">(J806+J808+J810+J812+J814)</f>
+        <f t="shared" ref="AC166:AE166" si="309">(J806+J808+J810+J812+J814)</f>
         <v>31</v>
       </c>
       <c r="AD166" s="3">
@@ -21767,7 +21783,7 @@
         <v>0.63160173160173072</v>
       </c>
       <c r="AG166" s="3">
-        <f t="shared" ref="AG166:AL166" si="310">(N806+N808+N810+N812+N814)/5</f>
+        <f t="shared" ref="AG166:AK166" si="310">(N806+N808+N810+N812+N814)/5</f>
         <v>0.60884644766997686</v>
       </c>
       <c r="AH166" s="3">
@@ -21872,7 +21888,7 @@
         <v>5</v>
       </c>
       <c r="AC167" s="3">
-        <f t="shared" ref="AC167:AL167" si="311">(J815+J817+J819+J821+J823)</f>
+        <f t="shared" ref="AC167:AE167" si="311">(J815+J817+J819+J821+J823)</f>
         <v>23</v>
       </c>
       <c r="AD167" s="3">
@@ -21888,7 +21904,7 @@
         <v>0.62826086956521698</v>
       </c>
       <c r="AG167" s="3">
-        <f t="shared" ref="AG167:AL167" si="312">(N815+N817+N819+N821+N823)/5</f>
+        <f t="shared" ref="AG167:AK167" si="312">(N815+N817+N819+N821+N823)/5</f>
         <v>0.59200246994297312</v>
       </c>
       <c r="AH167" s="3">
@@ -21993,7 +22009,7 @@
         <v>17</v>
       </c>
       <c r="AC168" s="3">
-        <f t="shared" ref="AC168:AL168" si="313">(J816+J818+J820+J822+J824)</f>
+        <f t="shared" ref="AC168:AE168" si="313">(J816+J818+J820+J822+J824)</f>
         <v>27</v>
       </c>
       <c r="AD168" s="3">
@@ -22009,7 +22025,7 @@
         <v>0.59307359307359275</v>
       </c>
       <c r="AG168" s="3">
-        <f t="shared" ref="AG168:AL168" si="314">(N816+N818+N820+N822+N824)/5</f>
+        <f t="shared" ref="AG168:AK168" si="314">(N816+N818+N820+N822+N824)/5</f>
         <v>0.59203669346526455</v>
       </c>
       <c r="AH168" s="3">
@@ -22114,7 +22130,7 @@
         <v>3</v>
       </c>
       <c r="AC169" s="3">
-        <f t="shared" ref="AC169:AL169" si="315">(J825+J827+J829+J831+J833)</f>
+        <f t="shared" ref="AC169:AE169" si="315">(J825+J827+J829+J831+J833)</f>
         <v>25</v>
       </c>
       <c r="AD169" s="3">
@@ -22130,7 +22146,7 @@
         <v>0.70260869565217343</v>
       </c>
       <c r="AG169" s="3">
-        <f t="shared" ref="AG169:AL169" si="316">(N825+N827+N829+N831+N833)/5</f>
+        <f t="shared" ref="AG169:AK169" si="316">(N825+N827+N829+N831+N833)/5</f>
         <v>0.61828075946870065</v>
       </c>
       <c r="AH169" s="3">
@@ -22235,7 +22251,7 @@
         <v>15</v>
       </c>
       <c r="AC170" s="3">
-        <f t="shared" ref="AC170:AL170" si="317">(J826+J828+J830+J832+J834)</f>
+        <f t="shared" ref="AC170:AE170" si="317">(J826+J828+J830+J832+J834)</f>
         <v>29</v>
       </c>
       <c r="AD170" s="3">
@@ -22251,7 +22267,7 @@
         <v>0.61255411255411185</v>
       </c>
       <c r="AG170" s="3">
-        <f t="shared" ref="AG170:AL170" si="318">(N826+N828+N830+N832+N834)/5</f>
+        <f t="shared" ref="AG170:AK170" si="318">(N826+N828+N830+N832+N834)/5</f>
         <v>0.59640669490936815</v>
       </c>
       <c r="AH170" s="3">
@@ -22356,7 +22372,7 @@
         <v>6</v>
       </c>
       <c r="AC171" s="3">
-        <f t="shared" ref="AC171:AL171" si="319">(J835+J837+J839+J841+J843)</f>
+        <f t="shared" ref="AC171:AE171" si="319">(J835+J837+J839+J841+J843)</f>
         <v>22</v>
       </c>
       <c r="AD171" s="3">
@@ -22372,7 +22388,7 @@
         <v>0.73391304347826036</v>
       </c>
       <c r="AG171" s="3">
-        <f t="shared" ref="AG171:AL171" si="320">(N835+N837+N839+N841+N843)/5</f>
+        <f t="shared" ref="AG171:AK171" si="320">(N835+N837+N839+N841+N843)/5</f>
         <v>0.67208539622528241</v>
       </c>
       <c r="AH171" s="3">
@@ -22477,7 +22493,7 @@
         <v>11</v>
       </c>
       <c r="AC172" s="3">
-        <f t="shared" ref="AC172:AL172" si="321">(J836+J838+J840+J842+J844)</f>
+        <f t="shared" ref="AC172:AE172" si="321">(J836+J838+J840+J842+J844)</f>
         <v>33</v>
       </c>
       <c r="AD172" s="3">
@@ -22493,7 +22509,7 @@
         <v>0.54545454545454475</v>
       </c>
       <c r="AG172" s="3">
-        <f t="shared" ref="AG172:AL172" si="322">(N836+N838+N840+N842+N844)/5</f>
+        <f t="shared" ref="AG172:AK172" si="322">(N836+N838+N840+N842+N844)/5</f>
         <v>0.47942279942279897</v>
       </c>
       <c r="AH172" s="3">
@@ -22598,7 +22614,7 @@
         <v>2</v>
       </c>
       <c r="AC173" s="3">
-        <f t="shared" ref="AC173:AL173" si="323">(J845+J847+J849+J851+J853)</f>
+        <f t="shared" ref="AC173:AE173" si="323">(J845+J847+J849+J851+J853)</f>
         <v>26</v>
       </c>
       <c r="AD173" s="3">
@@ -22614,7 +22630,7 @@
         <v>0.62695652173913019</v>
       </c>
       <c r="AG173" s="3">
-        <f t="shared" ref="AG173:AL173" si="324">(N845+N847+N849+N851+N853)/5</f>
+        <f t="shared" ref="AG173:AK173" si="324">(N845+N847+N849+N851+N853)/5</f>
         <v>0.57006864988558337</v>
       </c>
       <c r="AH173" s="3">
@@ -22719,7 +22735,7 @@
         <v>10</v>
       </c>
       <c r="AC174" s="3">
-        <f t="shared" ref="AC174:AL174" si="325">(J846+J848+J850+J852+J854)</f>
+        <f t="shared" ref="AC174:AE174" si="325">(J846+J848+J850+J852+J854)</f>
         <v>34</v>
       </c>
       <c r="AD174" s="3">
@@ -22735,7 +22751,7 @@
         <v>0.53852813852813819</v>
       </c>
       <c r="AG174" s="3">
-        <f t="shared" ref="AG174:AL174" si="326">(N846+N848+N850+N852+N854)/5</f>
+        <f t="shared" ref="AG174:AK174" si="326">(N846+N848+N850+N852+N854)/5</f>
         <v>0.52248803827751167</v>
       </c>
       <c r="AH174" s="3">
@@ -22840,7 +22856,7 @@
         <v>2</v>
       </c>
       <c r="AC175" s="3">
-        <f t="shared" ref="AC175:AL175" si="327">(J855+J857+J859+J861+J863)</f>
+        <f t="shared" ref="AC175:AE175" si="327">(J855+J857+J859+J861+J863)</f>
         <v>26</v>
       </c>
       <c r="AD175" s="3">
@@ -22856,7 +22872,7 @@
         <v>0.55826086956521725</v>
       </c>
       <c r="AG175" s="3">
-        <f t="shared" ref="AG175:AL175" si="328">(N855+N857+N859+N861+N863)/5</f>
+        <f t="shared" ref="AG175:AK175" si="328">(N855+N857+N859+N861+N863)/5</f>
         <v>0.54201690821256021</v>
       </c>
       <c r="AH175" s="3">
@@ -22961,7 +22977,7 @@
         <v>14</v>
       </c>
       <c r="AC176" s="3">
-        <f t="shared" ref="AC176:AL176" si="329">(J856+J858+J860+J862+J864)</f>
+        <f t="shared" ref="AC176:AE176" si="329">(J856+J858+J860+J862+J864)</f>
         <v>30</v>
       </c>
       <c r="AD176" s="3">
@@ -22977,7 +22993,7 @@
         <v>0.59393939393939343</v>
       </c>
       <c r="AG176" s="3">
-        <f t="shared" ref="AG176:AL176" si="330">(N856+N858+N860+N862+N864)/5</f>
+        <f t="shared" ref="AG176:AK176" si="330">(N856+N858+N860+N862+N864)/5</f>
         <v>0.60016496661233454</v>
       </c>
       <c r="AH176" s="3">
@@ -23082,7 +23098,7 @@
         <v>6</v>
       </c>
       <c r="AC177" s="3">
-        <f t="shared" ref="AC177:AL177" si="331">(J865+J867+J869+J871+J873)</f>
+        <f t="shared" ref="AC177:AE177" si="331">(J865+J867+J869+J871+J873)</f>
         <v>22</v>
       </c>
       <c r="AD177" s="3">
@@ -23098,7 +23114,7 @@
         <v>0.72391304347826035</v>
       </c>
       <c r="AG177" s="3">
-        <f t="shared" ref="AG177:AL177" si="332">(N865+N867+N869+N871+N873)/5</f>
+        <f t="shared" ref="AG177:AK177" si="332">(N865+N867+N869+N871+N873)/5</f>
         <v>0.65255577507094742</v>
       </c>
       <c r="AH177" s="3">
@@ -23203,7 +23219,7 @@
         <v>20</v>
       </c>
       <c r="AC178" s="3">
-        <f t="shared" ref="AC178:AL178" si="333">(J866+J868+J870+J872+J874)</f>
+        <f t="shared" ref="AC178:AE178" si="333">(J866+J868+J870+J872+J874)</f>
         <v>24</v>
       </c>
       <c r="AD178" s="3">
@@ -23219,7 +23235,7 @@
         <v>0.56623376623376576</v>
       </c>
       <c r="AG178" s="3">
-        <f t="shared" ref="AG178:AL178" si="334">(N866+N868+N870+N872+N874)/5</f>
+        <f t="shared" ref="AG178:AK178" si="334">(N866+N868+N870+N872+N874)/5</f>
         <v>0.56306748806748752</v>
       </c>
       <c r="AH178" s="3">
@@ -23324,7 +23340,7 @@
         <v>7</v>
       </c>
       <c r="AC179" s="3">
-        <f t="shared" ref="AC179:AL179" si="335">(J875+J877+J879+J881+J883)</f>
+        <f t="shared" ref="AC179:AE179" si="335">(J875+J877+J879+J881+J883)</f>
         <v>21</v>
       </c>
       <c r="AD179" s="3">
@@ -23340,7 +23356,7 @@
         <v>0.71260869565217333</v>
       </c>
       <c r="AG179" s="3">
-        <f t="shared" ref="AG179:AL179" si="336">(N875+N877+N879+N881+N883)/5</f>
+        <f t="shared" ref="AG179:AK179" si="336">(N875+N877+N879+N881+N883)/5</f>
         <v>0.67781962639887183</v>
       </c>
       <c r="AH179" s="3">
@@ -23445,7 +23461,7 @@
         <v>17</v>
       </c>
       <c r="AC180" s="3">
-        <f t="shared" ref="AC180:AL180" si="337">(J876+J878+J880+J882+J884)</f>
+        <f t="shared" ref="AC180:AE180" si="337">(J876+J878+J880+J882+J884)</f>
         <v>27</v>
       </c>
       <c r="AD180" s="3">
@@ -23461,7 +23477,7 @@
         <v>0.58441558441558372</v>
       </c>
       <c r="AG180" s="3">
-        <f t="shared" ref="AG180:AL180" si="338">(N876+N878+N880+N882+N884)/5</f>
+        <f t="shared" ref="AG180:AK180" si="338">(N876+N878+N880+N882+N884)/5</f>
         <v>0.56277415395062425</v>
       </c>
       <c r="AH180" s="3">

--- a/Resultados/CV DA completo/Resultados EMD CV DA.xlsx
+++ b/Resultados/CV DA completo/Resultados EMD CV DA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\TFG\Transfer-Learning-EDM\Resultados\CV DA completo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BD7DDA-6359-4D63-B88A-840B903AADA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F78B99-F083-488F-9216-AB9EB54248C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1687,7 +1687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1722,6 +1722,7 @@
     <xf numFmtId="3" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1732,9 +1733,9 @@
     <mruColors>
       <color rgb="FFCCECFF"/>
       <color rgb="FFFFCCCC"/>
+      <color rgb="FFF3FFF3"/>
       <color rgb="FFF5F5F5"/>
       <color rgb="FFFFEBFF"/>
-      <color rgb="FFF3FFF3"/>
       <color rgb="FFFFFFEF"/>
       <color rgb="FFEBFFFF"/>
     </mruColors>
@@ -2015,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AU884"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU11" sqref="AU11"/>
+    <sheetView tabSelected="1" topLeftCell="S21" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO10" sqref="AO10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2037,13 +2038,13 @@
     <col min="25" max="25" width="16.88671875" customWidth="1"/>
     <col min="26" max="26" width="14.33203125" customWidth="1"/>
     <col min="27" max="27" width="21.77734375" customWidth="1"/>
-    <col min="32" max="32" width="23" customWidth="1"/>
+    <col min="32" max="32" width="18.21875" customWidth="1"/>
     <col min="33" max="33" width="12.21875" customWidth="1"/>
     <col min="34" max="34" width="11.5546875" customWidth="1"/>
     <col min="35" max="35" width="11.109375" customWidth="1"/>
     <col min="36" max="36" width="15.21875" customWidth="1"/>
     <col min="37" max="37" width="12.77734375" customWidth="1"/>
-    <col min="38" max="38" width="20.6640625" customWidth="1"/>
+    <col min="38" max="38" width="16.21875" customWidth="1"/>
     <col min="41" max="41" width="17.33203125" customWidth="1"/>
     <col min="44" max="44" width="12.33203125" customWidth="1"/>
     <col min="45" max="45" width="13.33203125" customWidth="1"/>
@@ -2279,23 +2280,23 @@
         <v>0.5947826086956518</v>
       </c>
       <c r="AG3" s="3">
-        <f t="shared" ref="AG3:AK3" si="1">(N3+N4+N5+N6+N7)/5</f>
+        <f t="shared" ref="AG3" si="1">(N3+N4+N5+N6+N7)/5</f>
         <v>0.62444383971416084</v>
       </c>
       <c r="AH3" s="3">
-        <f t="shared" si="1"/>
+        <f>(O3+O4+O5+O6+O7)/5</f>
         <v>0.5947826086956518</v>
       </c>
       <c r="AI3" s="3">
-        <f t="shared" si="1"/>
+        <f>(P3+P4+P5+P6+P7)/5</f>
         <v>0.53899959456023483</v>
       </c>
       <c r="AJ3" s="3">
-        <f t="shared" si="1"/>
+        <f>(Q3+Q4+Q5+Q6+Q7)/5</f>
         <v>0.48039215686274483</v>
       </c>
       <c r="AK3" s="3">
-        <f t="shared" si="1"/>
+        <f>(R3+R4+R5+R6+R7)/5</f>
         <v>0.22592850239629461</v>
       </c>
       <c r="AL3" s="3">
@@ -2315,13 +2316,13 @@
         <v>0.78</v>
       </c>
       <c r="AS3" s="16">
-        <v>0.73170000000000002</v>
+        <v>0.60409999999999997</v>
       </c>
       <c r="AT3" s="16">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="AU3" s="16">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="4" spans="2:47" x14ac:dyDescent="0.3">
@@ -2421,23 +2422,23 @@
         <v>0.55584415584415547</v>
       </c>
       <c r="AG4" s="3">
-        <f t="shared" ref="AG4:AK4" si="3">(N8+N9+N10+N11+N12)/5</f>
+        <f t="shared" ref="AG4" si="3">(N8+N9+N10+N11+N12)/5</f>
         <v>0.48843850371814623</v>
       </c>
       <c r="AH4" s="3">
-        <f t="shared" si="3"/>
+        <f>(O8+O9+O10+O11+O12)/5</f>
         <v>0.55584415584415547</v>
       </c>
       <c r="AI4" s="3">
-        <f t="shared" si="3"/>
+        <f>(P8+P9+P10+P11+P12)/5</f>
         <v>0.46138464709893218</v>
       </c>
       <c r="AJ4" s="3">
-        <f t="shared" si="3"/>
+        <f>(Q8+Q9+Q10+Q11+Q12)/5</f>
         <v>0.52777777777777757</v>
       </c>
       <c r="AK4" s="3">
-        <f t="shared" si="3"/>
+        <f>(R8+R9+R10+R11+R12)/5</f>
         <v>0.29013876824668527</v>
       </c>
       <c r="AL4" s="3">
@@ -2457,13 +2458,13 @@
         <v>0.83</v>
       </c>
       <c r="AS4" s="18">
-        <v>0.60409999999999997</v>
+        <v>0.73170000000000002</v>
       </c>
       <c r="AT4" s="18">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="AU4" s="18">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="5" spans="2:47" x14ac:dyDescent="0.3">
@@ -2563,23 +2564,23 @@
         <v>0.55130434782608662</v>
       </c>
       <c r="AG5" s="3">
-        <f t="shared" ref="AG5:AK5" si="5">(N13+N14+N15+N16+N17)/5</f>
+        <f t="shared" ref="AG5" si="5">(N13+N14+N15+N16+N17)/5</f>
         <v>0.37199381336999471</v>
       </c>
       <c r="AH5" s="3">
-        <f t="shared" si="5"/>
+        <f>(O13+O14+O15+O16+O17)/5</f>
         <v>0.55130434782608662</v>
       </c>
       <c r="AI5" s="3">
-        <f t="shared" si="5"/>
+        <f>(P13+P14+P15+P16+P17)/5</f>
         <v>0.43234600648393701</v>
       </c>
       <c r="AJ5" s="3">
-        <f t="shared" si="5"/>
+        <f>(Q13+Q14+Q15+Q16+Q17)/5</f>
         <v>0.49411764705882338</v>
       </c>
       <c r="AK5" s="3">
-        <f t="shared" si="5"/>
+        <f>(R13+R14+R15+R16+R17)/5</f>
         <v>0</v>
       </c>
       <c r="AL5" s="3">
@@ -2684,29 +2685,32 @@
         <v>0.52727272727272678</v>
       </c>
       <c r="AG6" s="3">
-        <f t="shared" ref="AG6:AK6" si="7">(N18+N19+N20+N21+N22)/5</f>
+        <f t="shared" ref="AG6" si="7">(N18+N19+N20+N21+N22)/5</f>
         <v>0.32878980213224879</v>
       </c>
       <c r="AH6" s="3">
-        <f t="shared" si="7"/>
+        <f>(O18+O19+O20+O21+O22)/5</f>
         <v>0.52727272727272678</v>
       </c>
       <c r="AI6" s="3">
-        <f t="shared" si="7"/>
+        <f>(P18+P19+P20+P21+P22)/5</f>
         <v>0.38165433133175042</v>
       </c>
       <c r="AJ6" s="3">
-        <f t="shared" si="7"/>
+        <f>(Q18+Q19+Q20+Q21+Q22)/5</f>
         <v>0.50277777777777777</v>
       </c>
       <c r="AK6" s="3">
-        <f t="shared" si="7"/>
+        <f>(R18+R19+R20+R21+R22)/5</f>
         <v>8.2875182965704994E-2</v>
       </c>
       <c r="AL6" s="3">
         <f>(S18+S19+S20+S21+S22)/5/60</f>
         <v>9.0566666666666666</v>
       </c>
+      <c r="AS6" s="28"/>
+      <c r="AT6" s="28"/>
+      <c r="AU6" s="28"/>
     </row>
     <row r="7" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
@@ -2801,27 +2805,27 @@
         <v>43</v>
       </c>
       <c r="AF7" s="3">
-        <f t="shared" ref="AF7:AK7" si="8">(M23+M24+M25+M26+M27)/5</f>
+        <f t="shared" ref="AF7" si="8">(M23+M24+M25+M26+M27)/5</f>
         <v>0.54260869565217362</v>
       </c>
       <c r="AG7" s="3">
-        <f t="shared" si="8"/>
+        <f>(N23+N24+N25+N26+N27)/5</f>
         <v>0.55981969574219093</v>
       </c>
       <c r="AH7" s="3">
-        <f t="shared" si="8"/>
+        <f>(O23+O24+O25+O26+O27)/5</f>
         <v>0.54260869565217362</v>
       </c>
       <c r="AI7" s="3">
-        <f t="shared" si="8"/>
+        <f>(P23+P24+P25+P26+P27)/5</f>
         <v>0.48446143207730785</v>
       </c>
       <c r="AJ7" s="3">
-        <f t="shared" si="8"/>
+        <f>(Q23+Q24+Q25+Q26+Q27)/5</f>
         <v>0.54215686274509778</v>
       </c>
       <c r="AK7" s="3">
-        <f t="shared" si="8"/>
+        <f>(R23+R24+R25+R26+R27)/5</f>
         <v>0.30275205149895335</v>
       </c>
       <c r="AL7" s="3">
@@ -2922,27 +2926,27 @@
         <v>37</v>
       </c>
       <c r="AF8" s="3">
-        <f t="shared" ref="AF8:AK8" si="9">(M28+M29+M30+M31+M32)/5</f>
+        <f t="shared" ref="AF8" si="9">(M28+M29+M30+M31+M32)/5</f>
         <v>0.49826839826839786</v>
       </c>
       <c r="AG8" s="3">
-        <f t="shared" si="9"/>
+        <f>(N28+N29+N30+N31+N32)/5</f>
         <v>0.37859047925390199</v>
       </c>
       <c r="AH8" s="3">
-        <f t="shared" si="9"/>
+        <f>(O28+O29+O30+O31+O32)/5</f>
         <v>0.49826839826839786</v>
       </c>
       <c r="AI8" s="3">
-        <f t="shared" si="9"/>
+        <f>(P28+P29+P30+P31+P32)/5</f>
         <v>0.38010412526541526</v>
       </c>
       <c r="AJ8" s="3">
-        <f t="shared" si="9"/>
+        <f>(Q28+Q29+Q30+Q31+Q32)/5</f>
         <v>0.47083333333333321</v>
       </c>
       <c r="AK8" s="3">
-        <f t="shared" si="9"/>
+        <f>(R28+R29+R30+R31+R32)/5</f>
         <v>0.1603773122295406</v>
       </c>
       <c r="AL8" s="3">
@@ -3046,24 +3050,24 @@
         <f>(M33+M35+M37+M39+M41)/5</f>
         <v>0.52869565217391279</v>
       </c>
-      <c r="AG9" s="3">
-        <f t="shared" ref="AG9:AK9" si="11">(N33+N35+N37+N39+N41)/5</f>
+      <c r="AG9" s="17">
+        <f t="shared" ref="AG9" si="11">(N33+N35+N37+N39+N41)/5</f>
         <v>0.7461122551787509</v>
       </c>
       <c r="AH9" s="3">
-        <f t="shared" si="11"/>
+        <f>(O33+O35+O37+O39+O41)/5</f>
         <v>0.52869565217391279</v>
       </c>
       <c r="AI9" s="3">
-        <f t="shared" si="11"/>
+        <f>(P33+P35+P37+P39+P41)/5</f>
         <v>0.50248341030949673</v>
       </c>
       <c r="AJ9" s="3">
-        <f t="shared" si="11"/>
+        <f>(Q33+Q35+Q37+Q39+Q41)/5</f>
         <v>0.55355392156862726</v>
       </c>
       <c r="AK9" s="3">
-        <f t="shared" si="11"/>
+        <f>(R33+R35+R37+R39+R41)/5</f>
         <v>0.47996229561108822</v>
       </c>
       <c r="AL9" s="3">
@@ -3168,23 +3172,23 @@
         <v>0.56580086580086542</v>
       </c>
       <c r="AG10" s="3">
-        <f t="shared" ref="AG10:AK10" si="13">(N34+N36+N38+N40+N42)/5</f>
+        <f t="shared" ref="AG10" si="13">(N34+N36+N38+N40+N42)/5</f>
         <v>0.47278340706912092</v>
       </c>
       <c r="AH10" s="3">
-        <f t="shared" si="13"/>
+        <f>(O34+O36+O38+O40+O42)/5</f>
         <v>0.56580086580086542</v>
       </c>
       <c r="AI10" s="3">
-        <f t="shared" si="13"/>
+        <f>(P34+P36+P38+P40+P42)/5</f>
         <v>0.49289488836286821</v>
       </c>
       <c r="AJ10" s="3">
-        <f t="shared" si="13"/>
+        <f>(Q34+Q36+Q38+Q40+Q42)/5</f>
         <v>0.55337301587301568</v>
       </c>
       <c r="AK10" s="3">
-        <f t="shared" si="13"/>
+        <f>(R34+R36+R38+R40+R42)/5</f>
         <v>0.34471965265779303</v>
       </c>
       <c r="AL10" s="3">
@@ -3289,23 +3293,23 @@
         <v>0.63826086956521721</v>
       </c>
       <c r="AG11" s="3">
-        <f t="shared" ref="AG11:AK11" si="15">(N43+N45+N47+N49+N51)/5</f>
+        <f t="shared" ref="AG11" si="15">(N43+N45+N47+N49+N51)/5</f>
         <v>0.72705605051385058</v>
       </c>
       <c r="AH11" s="3">
-        <f t="shared" si="15"/>
+        <f>(O43+O45+O47+O49+O51)/5</f>
         <v>0.63826086956521721</v>
       </c>
       <c r="AI11" s="3">
-        <f t="shared" si="15"/>
+        <f>(P43+P45+P47+P49+P51)/5</f>
         <v>0.61714038719988329</v>
       </c>
       <c r="AJ11" s="3">
-        <f t="shared" si="15"/>
+        <f>(Q43+Q45+Q47+Q49+Q51)/5</f>
         <v>0.60686274509803861</v>
       </c>
       <c r="AK11" s="3">
-        <f t="shared" si="15"/>
+        <f>(R43+R45+R47+R49+R51)/5</f>
         <v>0.45466136640636245</v>
       </c>
       <c r="AL11" s="3">
@@ -3409,24 +3413,24 @@
         <f>(M44+M46+M48+M50+M52)/5</f>
         <v>0.56406926406926339</v>
       </c>
-      <c r="AG12" s="3">
-        <f t="shared" ref="AG12:AK12" si="17">(N44+N46+N48+N50+N52)/5</f>
+      <c r="AG12" s="15">
+        <f t="shared" ref="AG12" si="17">(N44+N46+N48+N50+N52)/5</f>
         <v>0.61165885308852996</v>
       </c>
       <c r="AH12" s="3">
-        <f t="shared" si="17"/>
+        <f>(O44+O46+O48+O50+O52)/5</f>
         <v>0.56406926406926339</v>
       </c>
       <c r="AI12" s="3">
-        <f t="shared" si="17"/>
+        <f>(P44+P46+P48+P50+P52)/5</f>
         <v>0.53796756363066456</v>
       </c>
       <c r="AJ12" s="3">
-        <f t="shared" si="17"/>
+        <f>(Q44+Q46+Q48+Q50+Q52)/5</f>
         <v>0.56249999999999956</v>
       </c>
       <c r="AK12" s="3">
-        <f t="shared" si="17"/>
+        <f>(R44+R46+R48+R50+R52)/5</f>
         <v>0.5489156753491834</v>
       </c>
       <c r="AL12" s="3">
@@ -3531,23 +3535,23 @@
         <v>0.46658385093167665</v>
       </c>
       <c r="AG13" s="3">
-        <f t="shared" ref="AG13:AK13" si="19">(N53+N55+N57+N59+N61)/5</f>
+        <f t="shared" ref="AG13" si="19">(N53+N55+N57+N59+N61)/5</f>
         <v>0.57483020793089401</v>
       </c>
       <c r="AH13" s="3">
-        <f t="shared" si="19"/>
+        <f>(O53+O55+O57+O59+O61)/5</f>
         <v>0.46658385093167665</v>
       </c>
       <c r="AI13" s="3">
-        <f t="shared" si="19"/>
+        <f>(P53+P55+P57+P59+P61)/5</f>
         <v>0.47369639549972842</v>
       </c>
       <c r="AJ13" s="3">
-        <f t="shared" si="19"/>
+        <f>(Q53+Q55+Q57+Q59+Q61)/5</f>
         <v>0.48296568627450964</v>
       </c>
       <c r="AK13" s="3">
-        <f t="shared" si="19"/>
+        <f>(R53+R55+R57+R59+R61)/5</f>
         <v>0.42836945434376422</v>
       </c>
       <c r="AL13" s="3">
@@ -3652,23 +3656,23 @@
         <v>0.52926783361565921</v>
       </c>
       <c r="AG14" s="3">
-        <f t="shared" ref="AG14:AK14" si="21">(N54+N56+N58+N60+N62)/5</f>
+        <f t="shared" ref="AG14" si="21">(N54+N56+N58+N60+N62)/5</f>
         <v>0.54057522877398601</v>
       </c>
       <c r="AH14" s="3">
-        <f t="shared" si="21"/>
+        <f>(O54+O56+O58+O60+O62)/5</f>
         <v>0.52926783361565921</v>
       </c>
       <c r="AI14" s="3">
-        <f t="shared" si="21"/>
+        <f>(P54+P56+P58+P60+P62)/5</f>
         <v>0.43794121337599556</v>
       </c>
       <c r="AJ14" s="3">
-        <f t="shared" si="21"/>
+        <f>(Q54+Q56+Q58+Q60+Q62)/5</f>
         <v>0.55866013071895426</v>
       </c>
       <c r="AK14" s="3">
-        <f t="shared" si="21"/>
+        <f>(R54+R56+R58+R60+R62)/5</f>
         <v>0.3309515991735934</v>
       </c>
       <c r="AL14" s="3">
@@ -3772,24 +3776,24 @@
         <f>(M63+M65+M67+M68+M71)/5</f>
         <v>0.63913043478260845</v>
       </c>
-      <c r="AG15" s="3">
-        <f t="shared" ref="AG15:AK15" si="23">(N63+N65+N67+N68+N71)/5</f>
+      <c r="AG15" s="17">
+        <f t="shared" ref="AG15" si="23">(N63+N65+N67+N68+N71)/5</f>
         <v>0.75704874835309588</v>
       </c>
       <c r="AH15" s="3">
-        <f t="shared" si="23"/>
+        <f>(O63+O65+O67+O68+O71)/5</f>
         <v>0.63913043478260845</v>
       </c>
       <c r="AI15" s="3">
-        <f t="shared" si="23"/>
+        <f>(P63+P65+P67+P68+P71)/5</f>
         <v>0.63108088284633079</v>
       </c>
       <c r="AJ15" s="3">
-        <f t="shared" si="23"/>
+        <f>(Q63+Q65+Q67+Q68+Q71)/5</f>
         <v>0.61004901960784275</v>
       </c>
       <c r="AK15" s="3">
-        <f t="shared" si="23"/>
+        <f>(R63+R65+R67+R68+R71)/5</f>
         <v>0.56194814057750342</v>
       </c>
       <c r="AL15" s="3">
@@ -3894,23 +3898,23 @@
         <v>0.48181818181818137</v>
       </c>
       <c r="AG16" s="3">
-        <f t="shared" ref="AG16:AK16" si="25">(N64+N66+N69+N72+N70)/5</f>
+        <f t="shared" ref="AG16" si="25">(N64+N66+N69+N72+N70)/5</f>
         <v>0.56853535672642208</v>
       </c>
       <c r="AH16" s="3">
-        <f t="shared" si="25"/>
+        <f>(O64+O66+O69+O72+O70)/5</f>
         <v>0.48181818181818137</v>
       </c>
       <c r="AI16" s="3">
-        <f t="shared" si="25"/>
+        <f>(P64+P66+P69+P72+P70)/5</f>
         <v>0.43065249174259118</v>
       </c>
       <c r="AJ16" s="3">
-        <f t="shared" si="25"/>
+        <f>(Q64+Q66+Q69+Q72+Q70)/5</f>
         <v>0.47936507936507911</v>
       </c>
       <c r="AK16" s="3">
-        <f t="shared" si="25"/>
+        <f>(R64+R66+R69+R72+R70)/5</f>
         <v>0.40209846672103045</v>
       </c>
       <c r="AL16" s="3">
@@ -4015,23 +4019,23 @@
         <v>0.48608695652173878</v>
       </c>
       <c r="AG17" s="3">
-        <f t="shared" ref="AG17:AK17" si="27">(N73+N75+N77+N79+N81)/5</f>
+        <f t="shared" ref="AG17" si="27">(N73+N75+N77+N79+N81)/5</f>
         <v>0.6159846916368652</v>
       </c>
       <c r="AH17" s="3">
-        <f t="shared" si="27"/>
+        <f>(O73+O75+O77+O79+O81)/5</f>
         <v>0.48608695652173878</v>
       </c>
       <c r="AI17" s="3">
-        <f t="shared" si="27"/>
+        <f>(P73+P75+P77+P79+P81)/5</f>
         <v>0.45501021144041676</v>
       </c>
       <c r="AJ17" s="3">
-        <f t="shared" si="27"/>
+        <f>(Q73+Q75+Q77+Q79+Q81)/5</f>
         <v>0.4710784313725484</v>
       </c>
       <c r="AK17" s="3">
-        <f t="shared" si="27"/>
+        <f>(R73+R75+R77+R79+R81)/5</f>
         <v>0.25109506759992861</v>
       </c>
       <c r="AL17" s="3">
@@ -4136,23 +4140,23 @@
         <v>0.46320346320346284</v>
       </c>
       <c r="AG18" s="3">
-        <f t="shared" ref="AG18:AK18" si="29">(N74+N76+N78+N80+N82)/5</f>
+        <f t="shared" ref="AG18" si="29">(N74+N76+N78+N80+N82)/5</f>
         <v>0.44984764153595275</v>
       </c>
       <c r="AH18" s="3">
-        <f t="shared" si="29"/>
+        <f>(O74+O76+O78+O80+O82)/5</f>
         <v>0.46320346320346284</v>
       </c>
       <c r="AI18" s="3">
-        <f t="shared" si="29"/>
+        <f>(P74+P76+P78+P80+P82)/5</f>
         <v>0.39448078600415892</v>
       </c>
       <c r="AJ18" s="3">
-        <f t="shared" si="29"/>
+        <f>(Q74+Q76+Q78+Q80+Q82)/5</f>
         <v>0.48055555555555518</v>
       </c>
       <c r="AK18" s="3">
-        <f t="shared" si="29"/>
+        <f>(R74+R76+R78+R80+R82)/5</f>
         <v>0.35531298021783736</v>
       </c>
       <c r="AL18" s="3">
@@ -4256,24 +4260,24 @@
         <f>(M83+M85+M87+M89+M91)/5</f>
         <v>0.5730434782608691</v>
       </c>
-      <c r="AG19" s="3">
-        <f t="shared" ref="AG19:AK19" si="31">(N83+N85+N87+N89+N91)/5</f>
+      <c r="AG19" s="17">
+        <f t="shared" ref="AG19" si="31">(N83+N85+N87+N89+N91)/5</f>
         <v>0.7518200252582401</v>
       </c>
       <c r="AH19" s="3">
-        <f t="shared" si="31"/>
+        <f>(O83+O85+O87+O89+O91)/5</f>
         <v>0.5730434782608691</v>
       </c>
       <c r="AI19" s="3">
-        <f t="shared" si="31"/>
+        <f>(P83+P85+P87+P89+P91)/5</f>
         <v>0.57163924913123931</v>
       </c>
       <c r="AJ19" s="3">
-        <f t="shared" si="31"/>
+        <f>(Q83+Q85+Q87+Q89+Q91)/5</f>
         <v>0.62132352941176427</v>
       </c>
       <c r="AK19" s="3">
-        <f t="shared" si="31"/>
+        <f>(R83+R85+R87+R89+R91)/5</f>
         <v>0.57391091106185832</v>
       </c>
       <c r="AL19" s="3">
@@ -4378,23 +4382,23 @@
         <v>0.45324675324675284</v>
       </c>
       <c r="AG20" s="3">
-        <f t="shared" ref="AG20:AK20" si="33">(N84+N86+N88+N90+N92)/5</f>
+        <f t="shared" ref="AG20" si="33">(N84+N86+N88+N90+N92)/5</f>
         <v>0.50916154021417115</v>
       </c>
       <c r="AH20" s="3">
-        <f t="shared" si="33"/>
+        <f>(O84+O86+O88+O90+O92)/5</f>
         <v>0.45324675324675284</v>
       </c>
       <c r="AI20" s="3">
-        <f t="shared" si="33"/>
+        <f>(P84+P86+P88+P90+P92)/5</f>
         <v>0.3931444901192796</v>
       </c>
       <c r="AJ20" s="3">
-        <f t="shared" si="33"/>
+        <f>(Q84+Q86+Q88+Q90+Q92)/5</f>
         <v>0.49345238095238059</v>
       </c>
       <c r="AK20" s="3">
-        <f t="shared" si="33"/>
+        <f>(R84+R86+R88+R90+R92)/5</f>
         <v>0.41940835062367554</v>
       </c>
       <c r="AL20" s="3">
@@ -4499,23 +4503,23 @@
         <v>0.45739130434782582</v>
       </c>
       <c r="AG21" s="3">
-        <f t="shared" ref="AG21:AK21" si="35">(N93+N95+N97+N99+N101)/5</f>
+        <f t="shared" ref="AG21" si="35">(N93+N95+N97+N99+N101)/5</f>
         <v>0.54679795396419395</v>
       </c>
       <c r="AH21" s="3">
-        <f t="shared" si="35"/>
+        <f>(O93+O95+O97+O99+O101)/5</f>
         <v>0.45739130434782582</v>
       </c>
       <c r="AI21" s="3">
-        <f t="shared" si="35"/>
+        <f>(P93+P95+P97+P99+P101)/5</f>
         <v>0.41241864161772568</v>
       </c>
       <c r="AJ21" s="3">
-        <f t="shared" si="35"/>
+        <f>(Q93+Q95+Q97+Q99+Q101)/5</f>
         <v>0.52254901960784261</v>
       </c>
       <c r="AK21" s="3">
-        <f t="shared" si="35"/>
+        <f>(R93+R95+R97+R99+R101)/5</f>
         <v>0.36880367976850542</v>
       </c>
       <c r="AL21" s="3">
@@ -4620,23 +4624,23 @@
         <v>0.38658008658008619</v>
       </c>
       <c r="AG22" s="3">
-        <f t="shared" ref="AG22:AK22" si="37">(N94+N96+N98+N100+N102)/5</f>
+        <f t="shared" ref="AG22" si="37">(N94+N96+N98+N100+N102)/5</f>
         <v>0.38375158675910503</v>
       </c>
       <c r="AH22" s="3">
-        <f t="shared" si="37"/>
+        <f>(O94+O96+O98+O100+O102)/5</f>
         <v>0.38658008658008619</v>
       </c>
       <c r="AI22" s="3">
-        <f t="shared" si="37"/>
+        <f>(P94+P96+P98+P100+P102)/5</f>
         <v>0.34141764553529202</v>
       </c>
       <c r="AJ22" s="3">
-        <f t="shared" si="37"/>
+        <f>(Q94+Q96+Q98+Q100+Q102)/5</f>
         <v>0.40178571428571397</v>
       </c>
       <c r="AK22" s="3">
-        <f t="shared" si="37"/>
+        <f>(R94+R96+R98+R100+R102)/5</f>
         <v>0.28488954270425859</v>
       </c>
       <c r="AL22" s="3">
@@ -4741,23 +4745,23 @@
         <v>0.59086956521739098</v>
       </c>
       <c r="AG23" s="3">
-        <f t="shared" ref="AG23:AK23" si="39">(N103+N105+N107+N109+N111)/5</f>
+        <f t="shared" ref="AG23" si="39">(N103+N105+N107+N109+N111)/5</f>
         <v>0.58312390304384032</v>
       </c>
       <c r="AH23" s="3">
-        <f t="shared" si="39"/>
+        <f>(O103+O105+O107+O109+O111)/5</f>
         <v>0.59086956521739098</v>
       </c>
       <c r="AI23" s="3">
-        <f t="shared" si="39"/>
+        <f>(P103+P105+P107+P109+P111)/5</f>
         <v>0.55861090985607642</v>
       </c>
       <c r="AJ23" s="3">
-        <f t="shared" si="39"/>
+        <f>(Q103+Q105+Q107+Q109+Q111)/5</f>
         <v>0.55477941176470558</v>
       </c>
       <c r="AK23" s="3">
-        <f t="shared" si="39"/>
+        <f>(R103+R105+R107+R109+R111)/5</f>
         <v>0.36985982851294241</v>
       </c>
       <c r="AL23" s="3">
@@ -4862,23 +4866,23 @@
         <v>0.49004329004328939</v>
       </c>
       <c r="AG24" s="3">
-        <f t="shared" ref="AG24:AK24" si="41">(N104+N106+N108+N110+N112)/5</f>
+        <f t="shared" ref="AG24" si="41">(N104+N106+N108+N110+N112)/5</f>
         <v>0.41847990944629565</v>
       </c>
       <c r="AH24" s="3">
-        <f t="shared" si="41"/>
+        <f>(O104+O106+O108+O110+O112)/5</f>
         <v>0.49004329004328939</v>
       </c>
       <c r="AI24" s="3">
-        <f t="shared" si="41"/>
+        <f>(P104+P106+P108+P110+P112)/5</f>
         <v>0.43748555974113756</v>
       </c>
       <c r="AJ24" s="3">
-        <f t="shared" si="41"/>
+        <f>(Q104+Q106+Q108+Q110+Q112)/5</f>
         <v>0.48253968253968227</v>
       </c>
       <c r="AK24" s="3">
-        <f t="shared" si="41"/>
+        <f>(R104+R106+R108+R110+R112)/5</f>
         <v>0.3041427664693182</v>
       </c>
       <c r="AL24" s="3">
@@ -4983,23 +4987,23 @@
         <v>0.52836438923395401</v>
       </c>
       <c r="AG25" s="3">
-        <f t="shared" ref="AG25:AK25" si="43">(N113+N115+N117+N119+N121)/5</f>
+        <f t="shared" ref="AG25" si="43">(N113+N115+N117+N119+N121)/5</f>
         <v>0.57645142678323447</v>
       </c>
       <c r="AH25" s="3">
-        <f t="shared" si="43"/>
+        <f>(O113+O115+O117+O119+O121)/5</f>
         <v>0.52836438923395401</v>
       </c>
       <c r="AI25" s="3">
-        <f t="shared" si="43"/>
+        <f>(P113+P115+P117+P119+P121)/5</f>
         <v>0.51948796351542303</v>
       </c>
       <c r="AJ25" s="3">
-        <f t="shared" si="43"/>
+        <f>(Q113+Q115+Q117+Q119+Q121)/5</f>
         <v>0.51062091503267937</v>
       </c>
       <c r="AK25" s="3">
-        <f t="shared" si="43"/>
+        <f>(R113+R115+R117+R119+R121)/5</f>
         <v>0.4499015469470603</v>
       </c>
       <c r="AL25" s="3">
@@ -5104,23 +5108,23 @@
         <v>0.51562770562770532</v>
       </c>
       <c r="AG26" s="3">
-        <f t="shared" ref="AG26:AK26" si="45">(N114+N116+N118+N120+N122)/5</f>
+        <f t="shared" ref="AG26" si="45">(N114+N116+N118+N120+N122)/5</f>
         <v>0.50506612341906421</v>
       </c>
       <c r="AH26" s="3">
-        <f t="shared" si="45"/>
+        <f>(O114+O116+O118+O120+O122)/5</f>
         <v>0.51562770562770532</v>
       </c>
       <c r="AI26" s="3">
-        <f t="shared" si="45"/>
+        <f>(P114+P116+P118+P120+P122)/5</f>
         <v>0.48731423051493844</v>
       </c>
       <c r="AJ26" s="3">
-        <f t="shared" si="45"/>
+        <f>(Q114+Q116+Q118+Q120+Q122)/5</f>
         <v>0.45525793650793622</v>
       </c>
       <c r="AK26" s="3">
-        <f t="shared" si="45"/>
+        <f>(R114+R116+R118+R120+R122)/5</f>
         <v>0.29298968486481541</v>
       </c>
       <c r="AL26" s="3">
@@ -5225,23 +5229,23 @@
         <v>0.71130434782608654</v>
       </c>
       <c r="AG27" s="3">
-        <f t="shared" ref="AG27:AK27" si="47">(N123+N124+N125+N126+N127)/5</f>
+        <f t="shared" ref="AG27" si="47">(N123+N124+N125+N126+N127)/5</f>
         <v>0.72288398862769521</v>
       </c>
       <c r="AH27" s="3">
-        <f t="shared" si="47"/>
+        <f>(O123+O124+O125+O126+O127)/5</f>
         <v>0.71130434782608654</v>
       </c>
       <c r="AI27" s="3">
-        <f t="shared" si="47"/>
+        <f>(P123+P124+P125+P126+P127)/5</f>
         <v>0.70575651760765046</v>
       </c>
       <c r="AJ27" s="3">
-        <f t="shared" si="47"/>
+        <f>(Q123+Q124+Q125+Q126+Q127)/5</f>
         <v>0.60441176470588209</v>
       </c>
       <c r="AK27" s="3">
-        <f t="shared" si="47"/>
+        <f>(R123+R124+R125+R126+R127)/5</f>
         <v>0.51069109908511257</v>
       </c>
       <c r="AL27" s="3">
@@ -5346,23 +5350,23 @@
         <v>0.54761904761904734</v>
       </c>
       <c r="AG28" s="3">
-        <f t="shared" ref="AG28:AK28" si="49">(N128+N129+N130+N131+N132)/5</f>
+        <f t="shared" ref="AG28" si="49">(N128+N129+N130+N131+N132)/5</f>
         <v>0.55027139527139479</v>
       </c>
       <c r="AH28" s="3">
-        <f t="shared" si="49"/>
+        <f>(O128+O129+O130+O131+O132)/5</f>
         <v>0.54761904761904734</v>
       </c>
       <c r="AI28" s="3">
-        <f t="shared" si="49"/>
+        <f>(P128+P129+P130+P131+P132)/5</f>
         <v>0.54465205380860193</v>
       </c>
       <c r="AJ28" s="3">
-        <f t="shared" si="49"/>
+        <f>(Q128+Q129+Q130+Q131+Q132)/5</f>
         <v>0.53353174603174547</v>
       </c>
       <c r="AK28" s="3">
-        <f t="shared" si="49"/>
+        <f>(R128+R129+R130+R131+R132)/5</f>
         <v>0.52247461530724404</v>
       </c>
       <c r="AL28" s="3">
@@ -5467,23 +5471,23 @@
         <v>0.73130434782608655</v>
       </c>
       <c r="AG29" s="3">
-        <f t="shared" ref="AG29:AK29" si="51">(N133+N135+N137+N139+N141)/5</f>
+        <f t="shared" ref="AG29" si="51">(N133+N135+N137+N139+N141)/5</f>
         <v>0.6964852183158815</v>
       </c>
       <c r="AH29" s="3">
-        <f t="shared" si="51"/>
+        <f>(O133+O135+O137+O139+O141)/5</f>
         <v>0.73130434782608655</v>
       </c>
       <c r="AI29" s="3">
-        <f t="shared" si="51"/>
+        <f>(P133+P135+P137+P139+P141)/5</f>
         <v>0.69774036895848057</v>
       </c>
       <c r="AJ29" s="3">
-        <f t="shared" si="51"/>
+        <f>(Q133+Q135+Q137+Q139+Q141)/5</f>
         <v>0.5737745098039212</v>
       </c>
       <c r="AK29" s="3">
-        <f t="shared" si="51"/>
+        <f>(R133+R135+R137+R139+R141)/5</f>
         <v>0.39103133445427002</v>
       </c>
       <c r="AL29" s="3">
@@ -5588,23 +5592,23 @@
         <v>0.57662337662337626</v>
       </c>
       <c r="AG30" s="3">
-        <f t="shared" ref="AG30:AK30" si="53">(N134+N136+N138+N140+N142)/5</f>
+        <f t="shared" ref="AG30" si="53">(N134+N136+N138+N140+N142)/5</f>
         <v>0.58000166500166461</v>
       </c>
       <c r="AH30" s="3">
-        <f t="shared" si="53"/>
+        <f>(O134+O136+O138+O140+O142)/5</f>
         <v>0.57662337662337626</v>
       </c>
       <c r="AI30" s="3">
-        <f t="shared" si="53"/>
+        <f>(P134+P136+P138+P140+P142)/5</f>
         <v>0.57041314149957822</v>
       </c>
       <c r="AJ30" s="3">
-        <f t="shared" si="53"/>
+        <f>(Q134+Q136+Q138+Q140+Q142)/5</f>
         <v>0.5599206349206346</v>
       </c>
       <c r="AK30" s="3">
-        <f t="shared" si="53"/>
+        <f>(R134+R136+R138+R140+R142)/5</f>
         <v>0.54576603789845612</v>
       </c>
       <c r="AL30" s="3">
@@ -5709,23 +5713,23 @@
         <v>0.57956521739130429</v>
       </c>
       <c r="AG31" s="3">
-        <f t="shared" ref="AG31:AK31" si="55">(N143+N145+N147+N149+N151)/5</f>
+        <f t="shared" ref="AG31" si="55">(N143+N145+N147+N149+N151)/5</f>
         <v>0.66521550912855232</v>
       </c>
       <c r="AH31" s="3">
-        <f t="shared" si="55"/>
+        <f>(O143+O145+O147+O149+O151)/5</f>
         <v>0.57956521739130429</v>
       </c>
       <c r="AI31" s="3">
-        <f t="shared" si="55"/>
+        <f>(P143+P145+P147+P149+P151)/5</f>
         <v>0.59715697859877337</v>
       </c>
       <c r="AJ31" s="3">
-        <f t="shared" si="55"/>
+        <f>(Q143+Q145+Q147+Q149+Q151)/5</f>
         <v>0.55330882352941113</v>
       </c>
       <c r="AK31" s="3">
-        <f t="shared" si="55"/>
+        <f>(R143+R145+R147+R149+R151)/5</f>
         <v>0.49997345418030398</v>
       </c>
       <c r="AL31" s="3">
@@ -5830,23 +5834,23 @@
         <v>0.5467532467532461</v>
       </c>
       <c r="AG32" s="3">
-        <f t="shared" ref="AG32:AK32" si="57">(N144+N146+N148+N150+N152)/5</f>
+        <f t="shared" ref="AG32" si="57">(N144+N146+N148+N150+N152)/5</f>
         <v>0.59680735930735851</v>
       </c>
       <c r="AH32" s="3">
-        <f t="shared" si="57"/>
+        <f>(O144+O146+O148+O150+O152)/5</f>
         <v>0.5467532467532461</v>
       </c>
       <c r="AI32" s="3">
-        <f t="shared" si="57"/>
+        <f>(P144+P146+P148+P150+P152)/5</f>
         <v>0.53504358159601073</v>
       </c>
       <c r="AJ32" s="3">
-        <f t="shared" si="57"/>
+        <f>(Q144+Q146+Q148+Q150+Q152)/5</f>
         <v>0.57202380952380916</v>
       </c>
       <c r="AK32" s="3">
-        <f t="shared" si="57"/>
+        <f>(R144+R146+R148+R150+R152)/5</f>
         <v>0.55209973725693495</v>
       </c>
       <c r="AL32" s="3">
@@ -5950,24 +5954,24 @@
         <f>(M153+M155+M157+M159+M161)/5</f>
         <v>0.77478260869565185</v>
       </c>
-      <c r="AG33" s="3">
-        <f t="shared" ref="AG33:AK33" si="59">(N153+N155+N157+N159+N161)/5</f>
+      <c r="AG33" s="17">
+        <f t="shared" ref="AG33" si="59">(N153+N155+N157+N159+N161)/5</f>
         <v>0.76829392321383128</v>
       </c>
       <c r="AH33" s="3">
-        <f t="shared" si="59"/>
+        <f>(O153+O155+O157+O159+O161)/5</f>
         <v>0.77478260869565185</v>
       </c>
       <c r="AI33" s="3">
-        <f t="shared" si="59"/>
+        <f>(P153+P155+P157+P159+P161)/5</f>
         <v>0.76786122090469888</v>
       </c>
       <c r="AJ33" s="3">
-        <f t="shared" si="59"/>
+        <f>(Q153+Q155+Q157+Q159+Q161)/5</f>
         <v>0.66507352941176445</v>
       </c>
       <c r="AK33" s="3">
-        <f t="shared" si="59"/>
+        <f>(R153+R155+R157+R159+R161)/5</f>
         <v>0.6441590044681148</v>
       </c>
       <c r="AL33" s="3">
@@ -6072,23 +6076,23 @@
         <v>0.51038961038960973</v>
       </c>
       <c r="AG34" s="3">
-        <f t="shared" ref="AG34:AK34" si="61">(N154+N156+N158+N160+N162)/5</f>
+        <f t="shared" ref="AG34" si="61">(N154+N156+N158+N160+N162)/5</f>
         <v>0.53386724386724316</v>
       </c>
       <c r="AH34" s="3">
-        <f t="shared" si="61"/>
+        <f>(O154+O156+O158+O160+O162)/5</f>
         <v>0.51038961038960973</v>
       </c>
       <c r="AI34" s="3">
-        <f t="shared" si="61"/>
+        <f>(P154+P156+P158+P160+P162)/5</f>
         <v>0.5091097308488608</v>
       </c>
       <c r="AJ34" s="3">
-        <f t="shared" si="61"/>
+        <f>(Q154+Q156+Q158+Q160+Q162)/5</f>
         <v>0.51884920634920584</v>
       </c>
       <c r="AK34" s="3">
-        <f t="shared" si="61"/>
+        <f>(R154+R156+R158+R160+R162)/5</f>
         <v>0.50901666761833053</v>
       </c>
       <c r="AL34" s="3">
@@ -6188,28 +6192,28 @@
         <f t="shared" si="62"/>
         <v>90</v>
       </c>
-      <c r="AF35" s="3">
+      <c r="AF35" s="17">
         <f>(M163+M165+M167+M169+M171+M173)/5</f>
         <v>0.87782608695652142</v>
       </c>
-      <c r="AG35" s="3">
-        <f t="shared" ref="AG35:AK35" si="63">(N163+N165+N167+N169+N171+N173)/5</f>
+      <c r="AG35" s="17">
+        <f t="shared" ref="AG35" si="63">(N163+N165+N167+N169+N171+N173)/5</f>
         <v>0.87993295841323749</v>
       </c>
-      <c r="AH35" s="3">
-        <f t="shared" si="63"/>
+      <c r="AH35" s="17">
+        <f>(O163+O165+O167+O169+O171+O173)/5</f>
         <v>0.87782608695652142</v>
       </c>
-      <c r="AI35" s="3">
-        <f t="shared" si="63"/>
+      <c r="AI35" s="17">
+        <f>(P163+P165+P167+P169+P171+P173)/5</f>
         <v>0.84301025442901811</v>
       </c>
       <c r="AJ35" s="3">
-        <f t="shared" si="63"/>
+        <f>(Q163+Q165+Q167+Q169+Q171+Q173)/5</f>
         <v>0.6841911764705878</v>
       </c>
       <c r="AK35" s="3">
-        <f t="shared" si="63"/>
+        <f>(R163+R165+R167+R169+R171+R173)/5</f>
         <v>0.59367505197296599</v>
       </c>
       <c r="AL35" s="3">
@@ -6313,24 +6317,24 @@
         <f>(M164+M166+M168+M170+M172+M174)/5</f>
         <v>0.70865800865800821</v>
       </c>
-      <c r="AG36" s="3">
-        <f t="shared" ref="AG36:AK36" si="65">(N164+N166+N168+N170+N172+N174)/5</f>
+      <c r="AG36" s="15">
+        <f t="shared" ref="AG36" si="65">(N164+N166+N168+N170+N172+N174)/5</f>
         <v>0.71874680874680819</v>
       </c>
       <c r="AH36" s="3">
-        <f t="shared" si="65"/>
+        <f>(O164+O166+O168+O170+O172+O174)/5</f>
         <v>0.70865800865800821</v>
       </c>
       <c r="AI36" s="3">
-        <f t="shared" si="65"/>
+        <f>(P164+P166+P168+P170+P172+P174)/5</f>
         <v>0.70076466450944785</v>
       </c>
       <c r="AJ36" s="3">
-        <f t="shared" si="65"/>
+        <f>(Q164+Q166+Q168+Q170+Q172+Q174)/5</f>
         <v>0.68928571428571372</v>
       </c>
       <c r="AK36" s="3">
-        <f t="shared" si="65"/>
+        <f>(R164+R166+R168+R170+R172+R174)/5</f>
         <v>0.68223932794395881</v>
       </c>
       <c r="AL36" s="3">
@@ -6434,24 +6438,24 @@
         <f>(M175+M177+M179+M181+M183)/5</f>
         <v>0.81086956521739106</v>
       </c>
-      <c r="AG37" s="3">
-        <f t="shared" ref="AG37:AK37" si="67">(N175+N177+N179+N181+N183)/5</f>
+      <c r="AG37" s="17">
+        <f t="shared" ref="AG37" si="67">(N175+N177+N179+N181+N183)/5</f>
         <v>0.82147158176771806</v>
       </c>
       <c r="AH37" s="3">
-        <f t="shared" si="67"/>
+        <f>(O175+O177+O179+O181+O183)/5</f>
         <v>0.81086956521739106</v>
       </c>
       <c r="AI37" s="3">
-        <f t="shared" si="67"/>
+        <f>(P175+P177+P179+P181+P183)/5</f>
         <v>0.79945159341040273</v>
       </c>
       <c r="AJ37" s="3">
-        <f t="shared" si="67"/>
+        <f>(Q175+Q177+Q179+Q181+Q183)/5</f>
         <v>0.72132352941176447</v>
       </c>
       <c r="AK37" s="3">
-        <f t="shared" si="67"/>
+        <f>(R175+R177+R179+R181+R183)/5</f>
         <v>0.7016244129777498</v>
       </c>
       <c r="AL37" s="3">
@@ -6556,23 +6560,23 @@
         <v>0.57532467532467491</v>
       </c>
       <c r="AG38" s="3">
-        <f t="shared" ref="AG38:AK38" si="69">(N176+N178+N180+N182+N184)/5</f>
+        <f t="shared" ref="AG38" si="69">(N176+N178+N180+N182+N184)/5</f>
         <v>0.58073614696991283</v>
       </c>
       <c r="AH38" s="3">
-        <f t="shared" si="69"/>
+        <f>(O176+O178+O180+O182+O184)/5</f>
         <v>0.57532467532467491</v>
       </c>
       <c r="AI38" s="3">
-        <f t="shared" si="69"/>
+        <f>(P176+P178+P180+P182+P184)/5</f>
         <v>0.56927397268615976</v>
       </c>
       <c r="AJ38" s="3">
-        <f t="shared" si="69"/>
+        <f>(Q176+Q178+Q180+Q182+Q184)/5</f>
         <v>0.56130952380952337</v>
       </c>
       <c r="AK38" s="3">
-        <f t="shared" si="69"/>
+        <f>(R176+R178+R180+R182+R184)/5</f>
         <v>0.55291434583201438</v>
       </c>
       <c r="AL38" s="3">
@@ -6677,23 +6681,23 @@
         <v>0.6008695652173911</v>
       </c>
       <c r="AG39" s="3">
-        <f t="shared" ref="AG39:AK39" si="71">(N185+N187+N189+N191+N193)/5</f>
+        <f t="shared" ref="AG39" si="71">(N185+N187+N189+N191+N193)/5</f>
         <v>0.61874964478544991</v>
       </c>
       <c r="AH39" s="3">
-        <f t="shared" si="71"/>
+        <f>(O185+O187+O189+O191+O193)/5</f>
         <v>0.6008695652173911</v>
       </c>
       <c r="AI39" s="3">
-        <f t="shared" si="71"/>
+        <f>(P185+P187+P189+P191+P193)/5</f>
         <v>0.5882977380675587</v>
       </c>
       <c r="AJ39" s="3">
-        <f t="shared" si="71"/>
+        <f>(Q185+Q187+Q189+Q191+Q193)/5</f>
         <v>0.49632352941176422</v>
       </c>
       <c r="AK39" s="3">
-        <f t="shared" si="71"/>
+        <f>(R185+R187+R189+R191+R193)/5</f>
         <v>0.36197557661543456</v>
       </c>
       <c r="AL39" s="3">
@@ -6798,23 +6802,23 @@
         <v>0.54761904761904734</v>
       </c>
       <c r="AG40" s="3">
-        <f t="shared" ref="AG40:AK40" si="73">(N186+N188+N190+N192+N194)/5</f>
+        <f t="shared" ref="AG40" si="73">(N186+N188+N190+N192+N194)/5</f>
         <v>0.56511904761904719</v>
       </c>
       <c r="AH40" s="3">
-        <f t="shared" si="73"/>
+        <f>(O186+O188+O190+O192+O194)/5</f>
         <v>0.54761904761904734</v>
       </c>
       <c r="AI40" s="3">
-        <f t="shared" si="73"/>
+        <f>(P186+P188+P190+P192+P194)/5</f>
         <v>0.53910789143243465</v>
       </c>
       <c r="AJ40" s="3">
-        <f t="shared" si="73"/>
+        <f>(Q186+Q188+Q190+Q192+Q194)/5</f>
         <v>0.54761904761904723</v>
       </c>
       <c r="AK40" s="3">
-        <f t="shared" si="73"/>
+        <f>(R186+R188+R190+R192+R194)/5</f>
         <v>0.52920167769251503</v>
       </c>
       <c r="AL40" s="3">
@@ -6919,23 +6923,23 @@
         <v>0.62043478260869522</v>
       </c>
       <c r="AG41" s="3">
-        <f t="shared" ref="AG41:AK41" si="75">(N195+N197+N199+N201+N203)/5</f>
+        <f t="shared" ref="AG41" si="75">(N195+N197+N199+N201+N203)/5</f>
         <v>0.62726699692374654</v>
       </c>
       <c r="AH41" s="3">
-        <f t="shared" si="75"/>
+        <f>(O195+O197+O199+O201+O203)/5</f>
         <v>0.62043478260869522</v>
       </c>
       <c r="AI41" s="3">
-        <f t="shared" si="75"/>
+        <f>(P195+P197+P199+P201+P203)/5</f>
         <v>0.615559412970062</v>
       </c>
       <c r="AJ41" s="3">
-        <f t="shared" si="75"/>
+        <f>(Q195+Q197+Q199+Q201+Q203)/5</f>
         <v>0.47977941176470562</v>
       </c>
       <c r="AK41" s="3">
-        <f t="shared" si="75"/>
+        <f>(R195+R197+R199+R201+R203)/5</f>
         <v>0.3759022310938066</v>
       </c>
       <c r="AL41" s="3">
@@ -7040,23 +7044,23 @@
         <v>0.55584415584415559</v>
       </c>
       <c r="AG42" s="3">
-        <f t="shared" ref="AG42:AK42" si="77">(N196+N198+N200+N202+N204)/5</f>
+        <f t="shared" ref="AG42" si="77">(N196+N198+N200+N202+N204)/5</f>
         <v>0.54960059781488302</v>
       </c>
       <c r="AH42" s="3">
-        <f t="shared" si="77"/>
+        <f>(O196+O198+O200+O202+O204)/5</f>
         <v>0.55584415584415559</v>
       </c>
       <c r="AI42" s="3">
-        <f t="shared" si="77"/>
+        <f>(P196+P198+P200+P202+P204)/5</f>
         <v>0.546663336663336</v>
       </c>
       <c r="AJ42" s="3">
-        <f t="shared" si="77"/>
+        <f>(Q196+Q198+Q200+Q202+Q204)/5</f>
         <v>0.53273809523809479</v>
       </c>
       <c r="AK42" s="3">
-        <f t="shared" si="77"/>
+        <f>(R196+R198+R200+R202+R204)/5</f>
         <v>0.51944980544933039</v>
       </c>
       <c r="AL42" s="3">
@@ -7161,23 +7165,23 @@
         <v>0.60304347826086924</v>
       </c>
       <c r="AG43" s="3">
-        <f t="shared" ref="AG43:AK43" si="79">(N205+N207+N209+N211+N213)/5</f>
+        <f t="shared" ref="AG43" si="79">(N205+N207+N209+N211+N213)/5</f>
         <v>0.6270686597917714</v>
       </c>
       <c r="AH43" s="3">
-        <f t="shared" si="79"/>
+        <f>(O205+O207+O209+O211+O213)/5</f>
         <v>0.60304347826086924</v>
       </c>
       <c r="AI43" s="3">
-        <f t="shared" si="79"/>
+        <f>(P205+P207+P209+P211+P213)/5</f>
         <v>0.60725103995791208</v>
       </c>
       <c r="AJ43" s="3">
-        <f t="shared" si="79"/>
+        <f>(Q205+Q207+Q209+Q211+Q213)/5</f>
         <v>0.49754901960784281</v>
       </c>
       <c r="AK43" s="3">
-        <f t="shared" si="79"/>
+        <f>(R205+R207+R209+R211+R213)/5</f>
         <v>0.38141370206703556</v>
       </c>
       <c r="AL43" s="3">
@@ -7282,23 +7286,23 @@
         <v>0.46190476190476132</v>
       </c>
       <c r="AG44" s="3">
-        <f t="shared" ref="AG44:AK44" si="81">(N206+N208+N210+N212+N214)/5</f>
+        <f t="shared" ref="AG44" si="81">(N206+N208+N210+N212+N214)/5</f>
         <v>0.48467532467532415</v>
       </c>
       <c r="AH44" s="3">
-        <f t="shared" si="81"/>
+        <f>(O206+O208+O210+O212+O214)/5</f>
         <v>0.46190476190476132</v>
       </c>
       <c r="AI44" s="3">
-        <f t="shared" si="81"/>
+        <f>(P206+P208+P210+P212+P214)/5</f>
         <v>0.45533283141978736</v>
       </c>
       <c r="AJ44" s="3">
-        <f t="shared" si="81"/>
+        <f>(Q206+Q208+Q210+Q212+Q214)/5</f>
         <v>0.47460317460317414</v>
       </c>
       <c r="AK44" s="3">
-        <f t="shared" si="81"/>
+        <f>(R206+R208+R210+R212+R214)/5</f>
         <v>0.45730115286306655</v>
       </c>
       <c r="AL44" s="3">
@@ -7402,24 +7406,24 @@
         <f>(M215+M217+M219+M221+M223)/5</f>
         <v>0.7513043478260869</v>
       </c>
-      <c r="AG45" s="3">
-        <f t="shared" ref="AG45:AK45" si="83">(N215+N217+N219+N221+N223)/5</f>
+      <c r="AG45" s="17">
+        <f t="shared" ref="AG45" si="83">(N215+N217+N219+N221+N223)/5</f>
         <v>0.78048183700357587</v>
       </c>
       <c r="AH45" s="3">
-        <f t="shared" si="83"/>
+        <f>(O215+O217+O219+O221+O223)/5</f>
         <v>0.7513043478260869</v>
       </c>
       <c r="AI45" s="3">
-        <f t="shared" si="83"/>
+        <f>(P215+P217+P219+P221+P223)/5</f>
         <v>0.75527632564850644</v>
       </c>
       <c r="AJ45" s="3">
-        <f t="shared" si="83"/>
+        <f>(Q215+Q217+Q219+Q221+Q223)/5</f>
         <v>0.70208333333333306</v>
       </c>
       <c r="AK45" s="3">
-        <f t="shared" si="83"/>
+        <f>(R215+R217+R219+R221+R223)/5</f>
         <v>0.67219999432231403</v>
       </c>
       <c r="AL45" s="3">
@@ -7524,23 +7528,23 @@
         <v>0.54805194805194757</v>
       </c>
       <c r="AG46" s="3">
-        <f t="shared" ref="AG46:AK46" si="85">(N216+N218+N220+N222+N224)/5</f>
+        <f t="shared" ref="AG46" si="85">(N216+N218+N220+N222+N224)/5</f>
         <v>0.55891240338608716</v>
       </c>
       <c r="AH46" s="3">
-        <f t="shared" si="85"/>
+        <f>(O216+O218+O220+O222+O224)/5</f>
         <v>0.54805194805194757</v>
       </c>
       <c r="AI46" s="3">
-        <f t="shared" si="85"/>
+        <f>(P216+P218+P220+P222+P224)/5</f>
         <v>0.52417843096834615</v>
       </c>
       <c r="AJ46" s="3">
-        <f t="shared" si="85"/>
+        <f>(Q216+Q218+Q220+Q222+Q224)/5</f>
         <v>0.55119047619047579</v>
       </c>
       <c r="AK46" s="3">
-        <f t="shared" si="85"/>
+        <f>(R216+R218+R220+R222+R224)/5</f>
         <v>0.51398966152258996</v>
       </c>
       <c r="AL46" s="3">
@@ -7645,23 +7649,23 @@
         <v>0.63565217391304341</v>
       </c>
       <c r="AG47" s="3">
-        <f t="shared" ref="AG47:AK47" si="87">(N225+N227+N229+N231+N233)/5</f>
+        <f t="shared" ref="AG47" si="87">(N225+N227+N229+N231+N233)/5</f>
         <v>0.7168301746562612</v>
       </c>
       <c r="AH47" s="3">
-        <f t="shared" si="87"/>
+        <f>(O225+O227+O229+O231+O233)/5</f>
         <v>0.63565217391304341</v>
       </c>
       <c r="AI47" s="3">
-        <f t="shared" si="87"/>
+        <f>(P225+P227+P229+P231+P233)/5</f>
         <v>0.64296268338831231</v>
       </c>
       <c r="AJ47" s="3">
-        <f t="shared" si="87"/>
+        <f>(Q225+Q227+Q229+Q231+Q233)/5</f>
         <v>0.60330882352941118</v>
       </c>
       <c r="AK47" s="3">
-        <f t="shared" si="87"/>
+        <f>(R225+R227+R229+R231+R233)/5</f>
         <v>0.53465801641423405</v>
       </c>
       <c r="AL47" s="3">
@@ -7766,23 +7770,23 @@
         <v>0.52770562770562712</v>
       </c>
       <c r="AG48" s="3">
-        <f t="shared" ref="AG48:AK48" si="89">(N226+N228+N230+N232+N234)/5</f>
+        <f t="shared" ref="AG48" si="89">(N226+N228+N230+N232+N234)/5</f>
         <v>0.53833752615265207</v>
       </c>
       <c r="AH48" s="3">
-        <f t="shared" si="89"/>
+        <f>(O226+O228+O230+O232+O234)/5</f>
         <v>0.52770562770562712</v>
       </c>
       <c r="AI48" s="3">
-        <f t="shared" si="89"/>
+        <f>(P226+P228+P230+P232+P234)/5</f>
         <v>0.51403156090601798</v>
       </c>
       <c r="AJ48" s="3">
-        <f t="shared" si="89"/>
+        <f>(Q226+Q228+Q230+Q232+Q234)/5</f>
         <v>0.52003968253968225</v>
       </c>
       <c r="AK48" s="3">
-        <f t="shared" si="89"/>
+        <f>(R226+R228+R230+R232+R234)/5</f>
         <v>0.50104498360459004</v>
       </c>
       <c r="AL48" s="3">
@@ -7887,23 +7891,23 @@
         <v>0.48782608695652135</v>
       </c>
       <c r="AG49" s="3">
-        <f t="shared" ref="AG49:AK49" si="91">(N235+N237+N239+N241+N243)/5</f>
+        <f t="shared" ref="AG49" si="91">(N235+N237+N239+N241+N243)/5</f>
         <v>0.45782660523681284</v>
       </c>
       <c r="AH49" s="3">
-        <f t="shared" si="91"/>
+        <f>(O235+O237+O239+O241+O243)/5</f>
         <v>0.48782608695652135</v>
       </c>
       <c r="AI49" s="3">
-        <f t="shared" si="91"/>
+        <f>(P235+P237+P239+P241+P243)/5</f>
         <v>0.426575542222424</v>
       </c>
       <c r="AJ49" s="3">
-        <f t="shared" si="91"/>
+        <f>(Q235+Q237+Q239+Q241+Q243)/5</f>
         <v>0.56004901960784292</v>
       </c>
       <c r="AK49" s="3">
-        <f t="shared" si="91"/>
+        <f>(R235+R237+R239+R241+R243)/5</f>
         <v>0.25008716208090781</v>
       </c>
       <c r="AL49" s="3">
@@ -8008,23 +8012,23 @@
         <v>0.48831168831168775</v>
       </c>
       <c r="AG50" s="3">
-        <f t="shared" ref="AG50:AK50" si="93">(N236+N238+N240+N242+N244)/5</f>
+        <f t="shared" ref="AG50" si="93">(N236+N238+N240+N242+N244)/5</f>
         <v>0.4272356215213356</v>
       </c>
       <c r="AH50" s="3">
-        <f t="shared" si="93"/>
+        <f>(O236+O238+O240+O242+O244)/5</f>
         <v>0.48831168831168775</v>
       </c>
       <c r="AI50" s="3">
-        <f t="shared" si="93"/>
+        <f>(P236+P238+P240+P242+P244)/5</f>
         <v>0.39478783760921299</v>
       </c>
       <c r="AJ50" s="3">
-        <f t="shared" si="93"/>
+        <f>(Q236+Q238+Q240+Q242+Q244)/5</f>
         <v>0.50555555555555531</v>
       </c>
       <c r="AK50" s="3">
-        <f t="shared" si="93"/>
+        <f>(R236+R238+R240+R242+R244)/5</f>
         <v>0.29509654543120184</v>
       </c>
       <c r="AL50" s="3">
@@ -8129,23 +8133,23 @@
         <v>0.54260869565217362</v>
       </c>
       <c r="AG51" s="3">
-        <f t="shared" ref="AG51:AK51" si="95">(N245+N247+N249+N251+N253)/5</f>
+        <f t="shared" ref="AG51" si="95">(N245+N247+N249+N251+N253)/5</f>
         <v>0.68310822510822478</v>
       </c>
       <c r="AH51" s="3">
-        <f t="shared" si="95"/>
+        <f>(O245+O247+O249+O251+O253)/5</f>
         <v>0.54260869565217362</v>
       </c>
       <c r="AI51" s="3">
-        <f t="shared" si="95"/>
+        <f>(P245+P247+P249+P251+P253)/5</f>
         <v>0.50732796756619725</v>
       </c>
       <c r="AJ51" s="3">
-        <f t="shared" si="95"/>
+        <f>(Q245+Q247+Q249+Q251+Q253)/5</f>
         <v>0.55294117647058783</v>
       </c>
       <c r="AK51" s="3">
-        <f t="shared" si="95"/>
+        <f>(R245+R247+R249+R251+R253)/5</f>
         <v>0.38755913934208203</v>
       </c>
       <c r="AL51" s="3">
@@ -8250,23 +8254,23 @@
         <v>0.47012987012986962</v>
       </c>
       <c r="AG52" s="3">
-        <f t="shared" ref="AG52:AK52" si="97">(N246+N248+N250+N252+N254)/5</f>
+        <f t="shared" ref="AG52" si="97">(N246+N248+N250+N252+N254)/5</f>
         <v>0.41154995882650536</v>
       </c>
       <c r="AH52" s="3">
-        <f t="shared" si="97"/>
+        <f>(O246+O248+O250+O252+O254)/5</f>
         <v>0.47012987012986962</v>
       </c>
       <c r="AI52" s="3">
-        <f t="shared" si="97"/>
+        <f>(P246+P248+P250+P252+P254)/5</f>
         <v>0.37515538056714498</v>
       </c>
       <c r="AJ52" s="3">
-        <f t="shared" si="97"/>
+        <f>(Q246+Q248+Q250+Q252+Q254)/5</f>
         <v>0.48333333333333323</v>
       </c>
       <c r="AK52" s="3">
-        <f t="shared" si="97"/>
+        <f>(R246+R248+R250+R252+R254)/5</f>
         <v>0.24370185294007518</v>
       </c>
       <c r="AL52" s="3">
@@ -8371,23 +8375,23 @@
         <v>0.43130434782608662</v>
       </c>
       <c r="AG53" s="3">
-        <f t="shared" ref="AG53:AK53" si="99">(N255+N257+N259+N261+N263)/5</f>
+        <f t="shared" ref="AG53" si="99">(N255+N257+N259+N261+N263)/5</f>
         <v>0.33066048003666132</v>
       </c>
       <c r="AH53" s="3">
-        <f t="shared" si="99"/>
+        <f>(O255+O257+O259+O261+O263)/5</f>
         <v>0.43130434782608662</v>
       </c>
       <c r="AI53" s="3">
-        <f t="shared" si="99"/>
+        <f>(P255+P257+P259+P261+P263)/5</f>
         <v>0.31881065294858341</v>
       </c>
       <c r="AJ53" s="3">
-        <f t="shared" si="99"/>
+        <f>(Q255+Q257+Q259+Q261+Q263)/5</f>
         <v>0.47536764705882339</v>
       </c>
       <c r="AK53" s="3">
-        <f t="shared" si="99"/>
+        <f>(R255+R257+R259+R261+R263)/5</f>
         <v>0.05</v>
       </c>
       <c r="AL53" s="3">
@@ -8492,23 +8496,23 @@
         <v>0.46233766233766183</v>
       </c>
       <c r="AG54" s="3">
-        <f t="shared" ref="AG54:AK54" si="101">(N256+N258+N260+N262+N264)/5</f>
+        <f t="shared" ref="AG54" si="101">(N256+N258+N260+N262+N264)/5</f>
         <v>0.27963048855905959</v>
       </c>
       <c r="AH54" s="3">
-        <f t="shared" si="101"/>
+        <f>(O256+O258+O260+O262+O264)/5</f>
         <v>0.46233766233766183</v>
       </c>
       <c r="AI54" s="3">
-        <f t="shared" si="101"/>
+        <f>(P256+P258+P260+P262+P264)/5</f>
         <v>0.34129870129870082</v>
       </c>
       <c r="AJ54" s="3">
-        <f t="shared" si="101"/>
+        <f>(Q256+Q258+Q260+Q262+Q264)/5</f>
         <v>0.45178571428571423</v>
       </c>
       <c r="AK54" s="3">
-        <f t="shared" si="101"/>
+        <f>(R256+R258+R260+R262+R264)/5</f>
         <v>5.8922197635076799E-2</v>
       </c>
       <c r="AL54" s="3">
@@ -8613,23 +8617,23 @@
         <v>0.47869565217391263</v>
       </c>
       <c r="AG55" s="3">
-        <f t="shared" ref="AG55:AK55" si="103">(N265+N267+N269+N271+N273)/5</f>
+        <f t="shared" ref="AG55" si="103">(N265+N267+N269+N271+N273)/5</f>
         <v>0.54986713475560334</v>
       </c>
       <c r="AH55" s="3">
-        <f t="shared" si="103"/>
+        <f>(O265+O267+O269+O271+O273)/5</f>
         <v>0.47869565217391263</v>
       </c>
       <c r="AI55" s="3">
-        <f t="shared" si="103"/>
+        <f>(P265+P267+P269+P271+P273)/5</f>
         <v>0.40658821879448342</v>
       </c>
       <c r="AJ55" s="3">
-        <f t="shared" si="103"/>
+        <f>(Q265+Q267+Q269+Q271+Q273)/5</f>
         <v>0.51666666666666639</v>
       </c>
       <c r="AK55" s="3">
-        <f t="shared" si="103"/>
+        <f>(R265+R267+R269+R271+R273)/5</f>
         <v>0.25644873696200399</v>
       </c>
       <c r="AL55" s="3">
@@ -8734,23 +8738,23 @@
         <v>0.46320346320346284</v>
       </c>
       <c r="AG56" s="3">
-        <f t="shared" ref="AG56:AK56" si="105">(N266+N268+N270+N272+N274)/5</f>
+        <f t="shared" ref="AG56" si="105">(N266+N268+N270+N272+N274)/5</f>
         <v>0.4503277674706242</v>
       </c>
       <c r="AH56" s="3">
-        <f t="shared" si="105"/>
+        <f>(O266+O268+O270+O272+O274)/5</f>
         <v>0.46320346320346284</v>
       </c>
       <c r="AI56" s="3">
-        <f t="shared" si="105"/>
+        <f>(P266+P268+P270+P272+P274)/5</f>
         <v>0.36597624597624567</v>
       </c>
       <c r="AJ56" s="3">
-        <f t="shared" si="105"/>
+        <f>(Q266+Q268+Q270+Q272+Q274)/5</f>
         <v>0.48095238095238058</v>
       </c>
       <c r="AK56" s="3">
-        <f t="shared" si="105"/>
+        <f>(R266+R268+R270+R272+R274)/5</f>
         <v>0.26628280059769704</v>
       </c>
       <c r="AL56" s="3">
@@ -8855,23 +8859,23 @@
         <v>0.5313043478260866</v>
       </c>
       <c r="AG57" s="3">
-        <f t="shared" ref="AG57:AK57" si="107">(N275+N277+N279+N281+N283)/5</f>
+        <f t="shared" ref="AG57" si="107">(N275+N277+N279+N281+N283)/5</f>
         <v>0.64736954860995743</v>
       </c>
       <c r="AH57" s="3">
-        <f t="shared" si="107"/>
+        <f>(O275+O277+O279+O281+O283)/5</f>
         <v>0.5313043478260866</v>
       </c>
       <c r="AI57" s="3">
-        <f t="shared" si="107"/>
+        <f>(P275+P277+P279+P281+P283)/5</f>
         <v>0.54559701661774118</v>
       </c>
       <c r="AJ57" s="3">
-        <f t="shared" si="107"/>
+        <f>(Q275+Q277+Q279+Q281+Q283)/5</f>
         <v>0.5299019607843134</v>
       </c>
       <c r="AK57" s="3">
-        <f t="shared" si="107"/>
+        <f>(R275+R277+R279+R281+R283)/5</f>
         <v>0.48453394382387333</v>
       </c>
       <c r="AL57" s="3">
@@ -8976,23 +8980,23 @@
         <v>0.52943722943722904</v>
       </c>
       <c r="AG58" s="3">
-        <f t="shared" ref="AG58:AK58" si="109">(N276+N278+N280+N282+N284)/5</f>
+        <f t="shared" ref="AG58" si="109">(N276+N278+N280+N282+N284)/5</f>
         <v>0.57436017456915234</v>
       </c>
       <c r="AH58" s="3">
-        <f t="shared" si="109"/>
+        <f>(O276+O278+O280+O282+O284)/5</f>
         <v>0.52943722943722904</v>
       </c>
       <c r="AI58" s="3">
-        <f t="shared" si="109"/>
+        <f>(P276+P278+P280+P282+P284)/5</f>
         <v>0.49869038586945641</v>
       </c>
       <c r="AJ58" s="3">
-        <f t="shared" si="109"/>
+        <f>(Q276+Q278+Q280+Q282+Q284)/5</f>
         <v>0.54404761904761856</v>
       </c>
       <c r="AK58" s="3">
-        <f t="shared" si="109"/>
+        <f>(R276+R278+R280+R282+R284)/5</f>
         <v>0.51235195214485674</v>
       </c>
       <c r="AL58" s="3">
@@ -9097,23 +9101,23 @@
         <v>0.54478260869565176</v>
       </c>
       <c r="AG59" s="3">
-        <f t="shared" ref="AG59:AK59" si="111">(N285+N287+N289+N291+N293)/5</f>
+        <f t="shared" ref="AG59" si="111">(N285+N287+N289+N291+N293)/5</f>
         <v>0.72050473680908422</v>
       </c>
       <c r="AH59" s="3">
-        <f t="shared" si="111"/>
+        <f>(O285+O287+O289+O291+O293)/5</f>
         <v>0.54478260869565176</v>
       </c>
       <c r="AI59" s="3">
-        <f t="shared" si="111"/>
+        <f>(P285+P287+P289+P291+P293)/5</f>
         <v>0.56614844720496882</v>
       </c>
       <c r="AJ59" s="3">
-        <f t="shared" si="111"/>
+        <f>(Q285+Q287+Q289+Q291+Q293)/5</f>
         <v>0.60245098039215639</v>
       </c>
       <c r="AK59" s="3">
-        <f t="shared" si="111"/>
+        <f>(R285+R287+R289+R291+R293)/5</f>
         <v>0.54773646537067522</v>
       </c>
       <c r="AL59" s="3">
@@ -9218,23 +9222,23 @@
         <v>0.52900432900432848</v>
       </c>
       <c r="AG60" s="3">
-        <f t="shared" ref="AG60:AK60" si="113">(N286+N288+N290+N292+N294)/5</f>
+        <f t="shared" ref="AG60" si="113">(N286+N288+N290+N292+N294)/5</f>
         <v>0.5018046239474806</v>
       </c>
       <c r="AH60" s="3">
-        <f t="shared" si="113"/>
+        <f>(O286+O288+O290+O292+O294)/5</f>
         <v>0.52900432900432848</v>
       </c>
       <c r="AI60" s="3">
-        <f t="shared" si="113"/>
+        <f>(P286+P288+P290+P292+P294)/5</f>
         <v>0.49307864406424062</v>
       </c>
       <c r="AJ60" s="3">
-        <f t="shared" si="113"/>
+        <f>(Q286+Q288+Q290+Q292+Q294)/5</f>
         <v>0.55099206349206331</v>
       </c>
       <c r="AK60" s="3">
-        <f t="shared" si="113"/>
+        <f>(R286+R288+R290+R292+R294)/5</f>
         <v>0.43974741898985703</v>
       </c>
       <c r="AL60" s="3">
@@ -9339,23 +9343,23 @@
         <v>0.35434782608695625</v>
       </c>
       <c r="AG61" s="3">
-        <f t="shared" ref="AG61:AK61" si="115">(N295+N297+N299+N301+N303)/5</f>
+        <f t="shared" ref="AG61" si="115">(N295+N297+N299+N301+N303)/5</f>
         <v>0.4652074420455673</v>
       </c>
       <c r="AH61" s="3">
-        <f t="shared" si="115"/>
+        <f>(O295+O297+O299+O301+O303)/5</f>
         <v>0.35434782608695625</v>
       </c>
       <c r="AI61" s="3">
-        <f t="shared" si="115"/>
+        <f>(P295+P297+P299+P301+P303)/5</f>
         <v>0.23599355245884862</v>
       </c>
       <c r="AJ61" s="3">
-        <f t="shared" si="115"/>
+        <f>(Q295+Q297+Q299+Q301+Q303)/5</f>
         <v>0.50624999999999987</v>
       </c>
       <c r="AK61" s="3">
-        <f t="shared" si="115"/>
+        <f>(R295+R297+R299+R301+R303)/5</f>
         <v>0.138915776091009</v>
       </c>
       <c r="AL61" s="3">
@@ -9460,23 +9464,23 @@
         <v>0.43463203463203398</v>
       </c>
       <c r="AG62" s="3">
-        <f t="shared" ref="AG62:AK62" si="117">(N296+N298+N300+N302+N304)/5</f>
+        <f t="shared" ref="AG62" si="117">(N296+N298+N300+N302+N304)/5</f>
         <v>0.23665036262438818</v>
       </c>
       <c r="AH62" s="3">
-        <f t="shared" si="117"/>
+        <f>(O296+O298+O300+O302+O304)/5</f>
         <v>0.43463203463203398</v>
       </c>
       <c r="AI62" s="3">
-        <f t="shared" si="117"/>
+        <f>(P296+P298+P300+P302+P304)/5</f>
         <v>0.28444444444444394</v>
       </c>
       <c r="AJ62" s="3">
-        <f t="shared" si="117"/>
+        <f>(Q296+Q298+Q300+Q302+Q304)/5</f>
         <v>0.48611111111111099</v>
       </c>
       <c r="AK62" s="3">
-        <f t="shared" si="117"/>
+        <f>(R296+R298+R300+R302+R304)/5</f>
         <v>6.0551462460889008E-2</v>
       </c>
       <c r="AL62" s="3">
@@ -9581,23 +9585,23 @@
         <v>0.4478260869565216</v>
       </c>
       <c r="AG63" s="3">
-        <f t="shared" ref="AG63:AK63" si="119">(N305+N307+N309+N311+N313)/5</f>
+        <f t="shared" ref="AG63" si="119">(N305+N307+N309+N311+N313)/5</f>
         <v>0.45753173102889527</v>
       </c>
       <c r="AH63" s="3">
-        <f t="shared" si="119"/>
+        <f>(O305+O307+O309+O311+O313)/5</f>
         <v>0.4478260869565216</v>
       </c>
       <c r="AI63" s="3">
-        <f t="shared" si="119"/>
+        <f>(P305+P307+P309+P311+P313)/5</f>
         <v>0.40200624962244086</v>
       </c>
       <c r="AJ63" s="3">
-        <f t="shared" si="119"/>
+        <f>(Q305+Q307+Q309+Q311+Q313)/5</f>
         <v>0.56973039215686261</v>
       </c>
       <c r="AK63" s="3">
-        <f t="shared" si="119"/>
+        <f>(R305+R307+R309+R311+R313)/5</f>
         <v>0.34230085947848998</v>
       </c>
       <c r="AL63" s="3">
@@ -9702,23 +9706,23 @@
         <v>0.4913419913419908</v>
       </c>
       <c r="AG64" s="3">
-        <f t="shared" ref="AG64:AK64" si="121">(N306+N308+N310+N312+N314)/5</f>
+        <f t="shared" ref="AG64" si="121">(N306+N308+N310+N312+N314)/5</f>
         <v>0.40517220874363702</v>
       </c>
       <c r="AH64" s="3">
-        <f t="shared" si="121"/>
+        <f>(O306+O308+O310+O312+O314)/5</f>
         <v>0.4913419913419908</v>
       </c>
       <c r="AI64" s="3">
-        <f t="shared" si="121"/>
+        <f>(P306+P308+P310+P312+P314)/5</f>
         <v>0.41814095452714339</v>
       </c>
       <c r="AJ64" s="3">
-        <f t="shared" si="121"/>
+        <f>(Q306+Q308+Q310+Q312+Q314)/5</f>
         <v>0.52162698412698383</v>
       </c>
       <c r="AK64" s="3">
-        <f t="shared" si="121"/>
+        <f>(R306+R308+R310+R312+R314)/5</f>
         <v>0.31281250138825922</v>
       </c>
       <c r="AL64" s="3">
@@ -9823,23 +9827,23 @@
         <v>0.6182608695652172</v>
       </c>
       <c r="AG65" s="3">
-        <f t="shared" ref="AG65:AK65" si="123">(N315+N317+N319+N321+N323)/5</f>
+        <f t="shared" ref="AG65" si="123">(N315+N317+N319+N321+N323)/5</f>
         <v>0.66266390614216686</v>
       </c>
       <c r="AH65" s="3">
-        <f t="shared" si="123"/>
+        <f>(O315+O317+O319+O321+O323)/5</f>
         <v>0.6182608695652172</v>
       </c>
       <c r="AI65" s="3">
-        <f t="shared" si="123"/>
+        <f>(P315+P317+P319+P321+P323)/5</f>
         <v>0.60669383053344528</v>
       </c>
       <c r="AJ65" s="3">
-        <f t="shared" si="123"/>
+        <f>(Q315+Q317+Q319+Q321+Q323)/5</f>
         <v>0.55122549019607803</v>
       </c>
       <c r="AK65" s="3">
-        <f t="shared" si="123"/>
+        <f>(R315+R317+R319+R321+R323)/5</f>
         <v>0.34854528613175118</v>
       </c>
       <c r="AL65" s="3">
@@ -9944,23 +9948,23 @@
         <v>0.47142857142857097</v>
       </c>
       <c r="AG66" s="3">
-        <f t="shared" ref="AG66:AK66" si="125">(N316+N318+N320+N322+N324)/5</f>
+        <f t="shared" ref="AG66" si="125">(N316+N318+N320+N322+N324)/5</f>
         <v>0.47620320855614917</v>
       </c>
       <c r="AH66" s="3">
-        <f t="shared" si="125"/>
+        <f>(O316+O318+O320+O322+O324)/5</f>
         <v>0.47142857142857097</v>
       </c>
       <c r="AI66" s="3">
-        <f t="shared" si="125"/>
+        <f>(P316+P318+P320+P322+P324)/5</f>
         <v>0.44774519870528201</v>
       </c>
       <c r="AJ66" s="3">
-        <f t="shared" si="125"/>
+        <f>(Q316+Q318+Q320+Q322+Q324)/5</f>
         <v>0.46706349206349185</v>
       </c>
       <c r="AK66" s="3">
-        <f t="shared" si="125"/>
+        <f>(R316+R318+R320+R322+R324)/5</f>
         <v>0.42963761244925164</v>
       </c>
       <c r="AL66" s="3">
@@ -10065,23 +10069,23 @@
         <v>0.35304347826086935</v>
       </c>
       <c r="AG67" s="3">
-        <f t="shared" ref="AG67:AK67" si="127">(N325+N327+N329+N331+N333)/5</f>
+        <f t="shared" ref="AG67" si="127">(N325+N327+N329+N331+N333)/5</f>
         <v>0.53326139764126013</v>
       </c>
       <c r="AH67" s="3">
-        <f t="shared" si="127"/>
+        <f>(O325+O327+O329+O331+O333)/5</f>
         <v>0.35304347826086935</v>
       </c>
       <c r="AI67" s="3">
-        <f t="shared" si="127"/>
+        <f>(P325+P327+P329+P331+P333)/5</f>
         <v>0.30280061357406834</v>
       </c>
       <c r="AJ67" s="3">
-        <f t="shared" si="127"/>
+        <f>(Q325+Q327+Q329+Q331+Q333)/5</f>
         <v>0.52745098039215654</v>
       </c>
       <c r="AK67" s="3">
-        <f t="shared" si="127"/>
+        <f>(R325+R327+R329+R331+R333)/5</f>
         <v>0.35381450636691597</v>
       </c>
       <c r="AL67" s="3">
@@ -10186,23 +10190,23 @@
         <v>0.43463203463203415</v>
       </c>
       <c r="AG68" s="3">
-        <f t="shared" ref="AG68:AK68" si="129">(N326+N328+N330+N332+N334)/5</f>
+        <f t="shared" ref="AG68" si="129">(N326+N328+N330+N332+N334)/5</f>
         <v>0.41565263019808418</v>
       </c>
       <c r="AH68" s="3">
-        <f t="shared" si="129"/>
+        <f>(O326+O328+O330+O332+O334)/5</f>
         <v>0.43463203463203415</v>
       </c>
       <c r="AI68" s="3">
-        <f t="shared" si="129"/>
+        <f>(P326+P328+P330+P332+P334)/5</f>
         <v>0.3787318563789146</v>
       </c>
       <c r="AJ68" s="3">
-        <f t="shared" si="129"/>
+        <f>(Q326+Q328+Q330+Q332+Q334)/5</f>
         <v>0.48611111111111055</v>
       </c>
       <c r="AK68" s="3">
-        <f t="shared" si="129"/>
+        <f>(R326+R328+R330+R332+R334)/5</f>
         <v>0.35821173231699999</v>
       </c>
       <c r="AL68" s="3">
@@ -10307,23 +10311,23 @@
         <v>0.52826086956521701</v>
       </c>
       <c r="AG69" s="3">
-        <f t="shared" ref="AG69:AK69" si="131">(N335+N337+N339+N341+N343)/5</f>
+        <f t="shared" ref="AG69" si="131">(N335+N337+N339+N341+N343)/5</f>
         <v>0.67054422445527762</v>
       </c>
       <c r="AH69" s="3">
-        <f t="shared" si="131"/>
+        <f>(O335+O337+O339+O341+O343)/5</f>
         <v>0.52826086956521701</v>
       </c>
       <c r="AI69" s="3">
-        <f t="shared" si="131"/>
+        <f>(P335+P337+P339+P341+P343)/5</f>
         <v>0.4851589331384723</v>
       </c>
       <c r="AJ69" s="3">
-        <f t="shared" si="131"/>
+        <f>(Q335+Q337+Q339+Q341+Q343)/5</f>
         <v>0.5376225490196076</v>
       </c>
       <c r="AK69" s="3">
-        <f t="shared" si="131"/>
+        <f>(R335+R337+R339+R341+R343)/5</f>
         <v>0.36535063266862922</v>
       </c>
       <c r="AL69" s="3">
@@ -10428,23 +10432,23 @@
         <v>0.5865800865800862</v>
       </c>
       <c r="AG70" s="3">
-        <f t="shared" ref="AG70:AK70" si="133">(N336+N338+N340+N342+N344)/5</f>
+        <f t="shared" ref="AG70" si="133">(N336+N338+N340+N342+N344)/5</f>
         <v>0.58269913878936375</v>
       </c>
       <c r="AH70" s="3">
-        <f t="shared" si="133"/>
+        <f>(O336+O338+O340+O342+O344)/5</f>
         <v>0.5865800865800862</v>
       </c>
       <c r="AI70" s="3">
-        <f t="shared" si="133"/>
+        <f>(P336+P338+P340+P342+P344)/5</f>
         <v>0.54256190009640903</v>
       </c>
       <c r="AJ70" s="3">
-        <f t="shared" si="133"/>
+        <f>(Q336+Q338+Q340+Q342+Q344)/5</f>
         <v>0.5690476190476188</v>
       </c>
       <c r="AK70" s="3">
-        <f t="shared" si="133"/>
+        <f>(R336+R338+R340+R342+R344)/5</f>
         <v>0.46463973842369699</v>
       </c>
       <c r="AL70" s="3">
@@ -10549,23 +10553,23 @@
         <v>0.74130434782608656</v>
       </c>
       <c r="AG71" s="3">
-        <f t="shared" ref="AG71:AK71" si="135">(N345+N347+N349+N351+N353)/5</f>
+        <f t="shared" ref="AG71" si="135">(N345+N347+N349+N351+N353)/5</f>
         <v>0.7036138537282699</v>
       </c>
       <c r="AH71" s="3">
-        <f t="shared" si="135"/>
+        <f>(O345+O347+O349+O351+O353)/5</f>
         <v>0.74130434782608656</v>
       </c>
       <c r="AI71" s="3">
-        <f t="shared" si="135"/>
+        <f>(P345+P347+P349+P351+P353)/5</f>
         <v>0.71026597667901981</v>
       </c>
       <c r="AJ71" s="3">
-        <f t="shared" si="135"/>
+        <f>(Q345+Q347+Q349+Q351+Q353)/5</f>
         <v>0.61237745098039187</v>
       </c>
       <c r="AK71" s="3">
-        <f t="shared" si="135"/>
+        <f>(R345+R347+R349+R351+R353)/5</f>
         <v>0.40939674567952239</v>
       </c>
       <c r="AL71" s="3">
@@ -10670,23 +10674,23 @@
         <v>0.58528138528138474</v>
       </c>
       <c r="AG72" s="3">
-        <f t="shared" ref="AG72:AK72" si="137">(N346+N348+N350+N352+N354)/5</f>
+        <f t="shared" ref="AG72" si="137">(N346+N348+N350+N352+N354)/5</f>
         <v>0.592492703375056</v>
       </c>
       <c r="AH72" s="3">
-        <f t="shared" si="137"/>
+        <f>(O346+O348+O350+O352+O354)/5</f>
         <v>0.58528138528138474</v>
       </c>
       <c r="AI72" s="3">
-        <f t="shared" si="137"/>
+        <f>(P346+P348+P350+P352+P354)/5</f>
         <v>0.57435845408701047</v>
       </c>
       <c r="AJ72" s="3">
-        <f t="shared" si="137"/>
+        <f>(Q346+Q348+Q350+Q352+Q354)/5</f>
         <v>0.56587301587301553</v>
       </c>
       <c r="AK72" s="3">
-        <f t="shared" si="137"/>
+        <f>(R346+R348+R350+R352+R354)/5</f>
         <v>0.55362443985702936</v>
       </c>
       <c r="AL72" s="3">
@@ -10791,23 +10795,23 @@
         <v>0.68869565217391271</v>
       </c>
       <c r="AG73" s="3">
-        <f t="shared" ref="AG73:AK73" si="139">(N355+N357+N359+N361+N363)/5</f>
+        <f t="shared" ref="AG73" si="139">(N355+N357+N359+N361+N363)/5</f>
         <v>0.70649362536776705</v>
       </c>
       <c r="AH73" s="3">
-        <f t="shared" si="139"/>
+        <f>(O355+O357+O359+O361+O363)/5</f>
         <v>0.68869565217391271</v>
       </c>
       <c r="AI73" s="3">
-        <f t="shared" si="139"/>
+        <f>(P355+P357+P359+P361+P363)/5</f>
         <v>0.68378785211737114</v>
       </c>
       <c r="AJ73" s="3">
-        <f t="shared" si="139"/>
+        <f>(Q355+Q357+Q359+Q361+Q363)/5</f>
         <v>0.57757352941176443</v>
       </c>
       <c r="AK73" s="3">
-        <f t="shared" si="139"/>
+        <f>(R355+R357+R359+R361+R363)/5</f>
         <v>0.54891923966527834</v>
       </c>
       <c r="AL73" s="3">
@@ -10912,23 +10916,23 @@
         <v>0.55757575757575695</v>
       </c>
       <c r="AG74" s="3">
-        <f t="shared" ref="AG74:AK74" si="141">(N356+N358+N360+N362+N364)/5</f>
+        <f t="shared" ref="AG74" si="141">(N356+N358+N360+N362+N364)/5</f>
         <v>0.58064768564768499</v>
       </c>
       <c r="AH74" s="3">
-        <f t="shared" si="141"/>
+        <f>(O356+O358+O360+O362+O364)/5</f>
         <v>0.55757575757575695</v>
       </c>
       <c r="AI74" s="3">
-        <f t="shared" si="141"/>
+        <f>(P356+P358+P360+P362+P364)/5</f>
         <v>0.54700006063031237</v>
       </c>
       <c r="AJ74" s="3">
-        <f t="shared" si="141"/>
+        <f>(Q356+Q358+Q360+Q362+Q364)/5</f>
         <v>0.55932539682539639</v>
       </c>
       <c r="AK74" s="3">
-        <f t="shared" si="141"/>
+        <f>(R356+R358+R360+R362+R364)/5</f>
         <v>0.54301110650920836</v>
       </c>
       <c r="AL74" s="3">
@@ -11033,23 +11037,23 @@
         <v>0.63043478260869512</v>
       </c>
       <c r="AG75" s="3">
-        <f t="shared" ref="AG75:AK75" si="143">(N365+N367+N369+N371+N373)/5</f>
+        <f t="shared" ref="AG75" si="143">(N365+N367+N369+N371+N373)/5</f>
         <v>0.68155624568668005</v>
       </c>
       <c r="AH75" s="3">
-        <f t="shared" si="143"/>
+        <f>(O365+O367+O369+O371+O373)/5</f>
         <v>0.63043478260869512</v>
       </c>
       <c r="AI75" s="3">
-        <f t="shared" si="143"/>
+        <f>(P365+P367+P369+P371+P373)/5</f>
         <v>0.63629472759907479</v>
       </c>
       <c r="AJ75" s="3">
-        <f t="shared" si="143"/>
+        <f>(Q365+Q367+Q369+Q371+Q373)/5</f>
         <v>0.55870098039215643</v>
       </c>
       <c r="AK75" s="3">
-        <f t="shared" si="143"/>
+        <f>(R365+R367+R369+R371+R373)/5</f>
         <v>0.50346034841778431</v>
       </c>
       <c r="AL75" s="3">
@@ -11154,23 +11158,23 @@
         <v>0.50909090909090882</v>
       </c>
       <c r="AG76" s="3">
-        <f t="shared" ref="AG76:AK76" si="145">(N366+N368+N370+N372+N374)/5</f>
+        <f t="shared" ref="AG76" si="145">(N366+N368+N370+N372+N374)/5</f>
         <v>0.54343022057307722</v>
       </c>
       <c r="AH76" s="3">
-        <f t="shared" si="145"/>
+        <f>(O366+O368+O370+O372+O374)/5</f>
         <v>0.50909090909090882</v>
       </c>
       <c r="AI76" s="3">
-        <f t="shared" si="145"/>
+        <f>(P366+P368+P370+P372+P374)/5</f>
         <v>0.50130638240477998</v>
       </c>
       <c r="AJ76" s="3">
-        <f t="shared" si="145"/>
+        <f>(Q366+Q368+Q370+Q372+Q374)/5</f>
         <v>0.52599206349206318</v>
       </c>
       <c r="AK76" s="3">
-        <f t="shared" si="145"/>
+        <f>(R366+R368+R370+R372+R374)/5</f>
         <v>0.51065307402245375</v>
       </c>
       <c r="AL76" s="3">
@@ -11275,27 +11279,27 @@
         <v>0.64989648033126279</v>
       </c>
       <c r="AG77" s="3">
-        <f t="shared" ref="AG77:AL77" si="147">(N375+N377+N379+N381+N383)/5</f>
+        <f t="shared" ref="AG77" si="147">(N375+N377+N379+N381+N383)/5</f>
         <v>0.63347637869376949</v>
       </c>
       <c r="AH77" s="3">
-        <f t="shared" si="147"/>
+        <f>(O375+O377+O379+O381+O383)/5</f>
         <v>0.64989648033126279</v>
       </c>
       <c r="AI77" s="3">
-        <f t="shared" si="147"/>
+        <f>(P375+P377+P379+P381+P383)/5</f>
         <v>0.63771706554315211</v>
       </c>
       <c r="AJ77" s="3">
-        <f t="shared" si="147"/>
+        <f>(Q375+Q377+Q379+Q381+Q383)/5</f>
         <v>0.52965686274509782</v>
       </c>
       <c r="AK77" s="3">
-        <f t="shared" si="147"/>
+        <f>(R375+R377+R379+R381+R383)/5</f>
         <v>0.3621914092332546</v>
       </c>
       <c r="AL77" s="3">
-        <f t="shared" si="147"/>
+        <f>(S375+S377+S379+S381+S383)/5</f>
         <v>538.6</v>
       </c>
     </row>
@@ -11396,23 +11400,23 @@
         <v>0.55431959345002779</v>
       </c>
       <c r="AG78" s="3">
-        <f t="shared" ref="AG78:AK78" si="149">(N376+N378+N380+N382+N384)/5</f>
+        <f t="shared" ref="AG78" si="149">(N376+N378+N380+N382+N384)/5</f>
         <v>0.55967319227178325</v>
       </c>
       <c r="AH78" s="3">
-        <f t="shared" si="149"/>
+        <f>(O376+O378+O380+O382+O384)/5</f>
         <v>0.55431959345002779</v>
       </c>
       <c r="AI78" s="3">
-        <f t="shared" si="149"/>
+        <f>(P376+P378+P380+P382+P384)/5</f>
         <v>0.54724365914133766</v>
       </c>
       <c r="AJ78" s="3">
-        <f t="shared" si="149"/>
+        <f>(Q376+Q378+Q380+Q382+Q384)/5</f>
         <v>0.51283846872082139</v>
       </c>
       <c r="AK78" s="3">
-        <f t="shared" si="149"/>
+        <f>(R376+R378+R380+R382+R384)/5</f>
         <v>0.50341397014736577</v>
       </c>
       <c r="AL78" s="3">
@@ -11517,23 +11521,23 @@
         <v>0.68130434782608673</v>
       </c>
       <c r="AG79" s="3">
-        <f t="shared" ref="AG79:AK79" si="151">(N385+N387+N389+N391+N393)/5</f>
+        <f t="shared" ref="AG79" si="151">(N385+N387+N389+N391+N393)/5</f>
         <v>0.70992601601297201</v>
       </c>
       <c r="AH79" s="3">
-        <f t="shared" si="151"/>
+        <f>(O385+O387+O389+O391+O393)/5</f>
         <v>0.68130434782608673</v>
       </c>
       <c r="AI79" s="3">
-        <f t="shared" si="151"/>
+        <f>(P385+P387+P389+P391+P393)/5</f>
         <v>0.67651864377501514</v>
       </c>
       <c r="AJ79" s="3">
-        <f t="shared" si="151"/>
+        <f>(Q385+Q387+Q389+Q391+Q393)/5</f>
         <v>0.55330882352941146</v>
       </c>
       <c r="AK79" s="3">
-        <f t="shared" si="151"/>
+        <f>(R385+R387+R389+R391+R393)/5</f>
         <v>0.4861896761739084</v>
       </c>
       <c r="AL79" s="3">
@@ -11637,20 +11641,20 @@
         <f>(M386+M388+M390+M392+M394)/5</f>
         <v>0.58528138528138474</v>
       </c>
-      <c r="AG80" s="3">
+      <c r="AG80" s="15">
         <f>(N386+N388+N390+N392+N394)/5</f>
         <v>0.60877122877122825</v>
       </c>
       <c r="AH80" s="3">
-        <f t="shared" ref="AH80:AJ80" si="153">(O386+O388+O390+O392+O394)/5</f>
+        <f t="shared" ref="AH80" si="153">(O386+O388+O390+O392+O394)/5</f>
         <v>0.58528138528138474</v>
       </c>
       <c r="AI80" s="3">
-        <f t="shared" si="153"/>
+        <f>(P386+P388+P390+P392+P394)/5</f>
         <v>0.58146840958605617</v>
       </c>
       <c r="AJ80" s="3">
-        <f t="shared" si="153"/>
+        <f>(Q386+Q388+Q390+Q392+Q394)/5</f>
         <v>0.58749999999999969</v>
       </c>
       <c r="AK80" s="3">
@@ -11758,16 +11762,16 @@
         <f>(M395+M397+M399+M401+M403)/5</f>
         <v>0.73999999999999966</v>
       </c>
-      <c r="AG81" s="3">
-        <f t="shared" ref="AG81:AI82" si="155">(N395+N397+N399+N401+N403)/5</f>
+      <c r="AG81" s="17">
+        <f t="shared" ref="AG81:AG82" si="155">(N395+N397+N399+N401+N403)/5</f>
         <v>0.76314434357912553</v>
       </c>
       <c r="AH81" s="3">
-        <f t="shared" si="155"/>
+        <f>(O395+O397+O399+O401+O403)/5</f>
         <v>0.73999999999999966</v>
       </c>
       <c r="AI81" s="3">
-        <f t="shared" si="155"/>
+        <f>(P395+P397+P399+P401+P403)/5</f>
         <v>0.73738674643022462</v>
       </c>
       <c r="AJ81" s="3">
@@ -11879,16 +11883,16 @@
         <f>(M396+M398+M400+M402+M404)/5</f>
         <v>0.59350649350649287</v>
       </c>
-      <c r="AG82" s="3">
+      <c r="AG82" s="15">
         <f t="shared" si="155"/>
         <v>0.6387776928953397</v>
       </c>
       <c r="AH82" s="3">
-        <f t="shared" si="155"/>
+        <f>(O396+O398+O400+O402+O404)/5</f>
         <v>0.59350649350649287</v>
       </c>
       <c r="AI82" s="3">
-        <f t="shared" si="155"/>
+        <f>(P396+P398+P400+P402+P404)/5</f>
         <v>0.5758076705902786</v>
       </c>
       <c r="AJ82" s="3">
@@ -12001,23 +12005,23 @@
         <v>0.65043478260869547</v>
       </c>
       <c r="AG83" s="3">
-        <f t="shared" ref="AG83:AK83" si="160">(N405+N407+N409+N411+N413)/5</f>
+        <f t="shared" ref="AG83" si="160">(N405+N407+N409+N411+N413)/5</f>
         <v>0.63857095802747921</v>
       </c>
       <c r="AH83" s="3">
-        <f t="shared" si="160"/>
+        <f>(O405+O407+O409+O411+O413)/5</f>
         <v>0.65043478260869547</v>
       </c>
       <c r="AI83" s="3">
-        <f t="shared" si="160"/>
+        <f>(P405+P407+P409+P411+P413)/5</f>
         <v>0.6411740143914052</v>
       </c>
       <c r="AJ83" s="3">
-        <f t="shared" si="160"/>
+        <f>(Q405+Q407+Q409+Q411+Q413)/5</f>
         <v>0.52806372549019565</v>
       </c>
       <c r="AK83" s="3">
-        <f t="shared" si="160"/>
+        <f>(R405+R407+R409+R411+R413)/5</f>
         <v>0.39402527946291216</v>
       </c>
       <c r="AL83" s="3">
@@ -12122,23 +12126,23 @@
         <v>0.49999999999999956</v>
       </c>
       <c r="AG84" s="3">
-        <f t="shared" ref="AG84:AK84" si="162">(N406+N408+N410+N412+N414)/5</f>
+        <f t="shared" ref="AG84" si="162">(N406+N408+N410+N412+N414)/5</f>
         <v>0.5122266622266618</v>
       </c>
       <c r="AH84" s="3">
-        <f t="shared" si="162"/>
+        <f>(O406+O408+O410+O412+O414)/5</f>
         <v>0.49999999999999956</v>
       </c>
       <c r="AI84" s="3">
-        <f t="shared" si="162"/>
+        <f>(P406+P408+P410+P412+P414)/5</f>
         <v>0.50044264864025223</v>
       </c>
       <c r="AJ84" s="3">
-        <f t="shared" si="162"/>
+        <f>(Q406+Q408+Q410+Q412+Q414)/5</f>
         <v>0.49742063492063454</v>
       </c>
       <c r="AK84" s="3">
-        <f t="shared" si="162"/>
+        <f>(R406+R408+R410+R412+R414)/5</f>
         <v>0.48985278910141483</v>
       </c>
       <c r="AL84" s="3">
@@ -12243,23 +12247,23 @@
         <v>0.48484472049689398</v>
       </c>
       <c r="AG85" s="3">
-        <f t="shared" ref="AG85:AK85" si="164">(N415+N417+N419+N421+N423)/5</f>
+        <f t="shared" ref="AG85" si="164">(N415+N417+N419+N421+N423)/5</f>
         <v>0.56206900650836533</v>
       </c>
       <c r="AH85" s="3">
-        <f t="shared" si="164"/>
+        <f>(O415+O417+O419+O421+O423)/5</f>
         <v>0.48484472049689398</v>
       </c>
       <c r="AI85" s="3">
-        <f t="shared" si="164"/>
+        <f>(P415+P417+P419+P421+P423)/5</f>
         <v>0.49995784501351875</v>
       </c>
       <c r="AJ85" s="3">
-        <f t="shared" si="164"/>
+        <f>(Q415+Q417+Q419+Q421+Q423)/5</f>
         <v>0.44203431372548979</v>
       </c>
       <c r="AK85" s="3">
-        <f t="shared" si="164"/>
+        <f>(R415+R417+R419+R421+R423)/5</f>
         <v>0.40974373511400836</v>
       </c>
       <c r="AL85" s="3">
@@ -12363,24 +12367,24 @@
         <f>(M416+M418+M420+M422+M424)/5</f>
         <v>0.6101261057782793</v>
       </c>
-      <c r="AG86" s="3">
-        <f t="shared" ref="AG86:AK86" si="166">(N416+N418+N420+N422+N424)/5</f>
+      <c r="AG86" s="15">
+        <f t="shared" ref="AG86" si="166">(N416+N418+N420+N422+N424)/5</f>
         <v>0.61513399643834399</v>
       </c>
       <c r="AH86" s="3">
-        <f t="shared" si="166"/>
+        <f>(O416+O418+O420+O422+O424)/5</f>
         <v>0.6101261057782793</v>
       </c>
       <c r="AI86" s="3">
-        <f t="shared" si="166"/>
+        <f>(P416+P418+P420+P422+P424)/5</f>
         <v>0.59867061975555669</v>
       </c>
       <c r="AJ86" s="3">
-        <f t="shared" si="166"/>
+        <f>(Q416+Q418+Q420+Q422+Q424)/5</f>
         <v>0.57553688141923398</v>
       </c>
       <c r="AK86" s="3">
-        <f t="shared" si="166"/>
+        <f>(R416+R418+R420+R422+R424)/5</f>
         <v>0.54996314805619806</v>
       </c>
       <c r="AL86" s="3">
@@ -12663,24 +12667,24 @@
         <f>(M435+M437+M439+M441+M443)/5</f>
         <v>0.73130434782608678</v>
       </c>
-      <c r="AG89" s="3">
-        <f t="shared" ref="AG89:AK90" si="168">(N435+N437+N439+N441+N443)/5</f>
+      <c r="AG89" s="17">
+        <f t="shared" ref="AG89" si="168">(N435+N437+N439+N441+N443)/5</f>
         <v>0.77212591756069981</v>
       </c>
       <c r="AH89" s="3">
-        <f t="shared" si="168"/>
+        <f>(O435+O437+O439+O441+O443)/5</f>
         <v>0.73130434782608678</v>
       </c>
       <c r="AI89" s="3">
-        <f t="shared" si="168"/>
+        <f>(P435+P437+P439+P441+P443)/5</f>
         <v>0.73633175202651735</v>
       </c>
       <c r="AJ89" s="3">
-        <f t="shared" si="168"/>
+        <f>(Q435+Q437+Q439+Q441+Q443)/5</f>
         <v>0.66519607843137218</v>
       </c>
       <c r="AK89" s="3">
-        <f t="shared" si="168"/>
+        <f>(R435+R437+R439+R441+R443)/5</f>
         <v>0.65472949815766257</v>
       </c>
       <c r="AL89" s="3">
@@ -12785,15 +12789,15 @@
         <v>0.50043290043289979</v>
       </c>
       <c r="AG90" s="3">
-        <f t="shared" ref="AG90:AI90" si="170">(N436+N438+N440+N442+N444)/5</f>
+        <f t="shared" ref="AG90" si="170">(N436+N438+N440+N442+N444)/5</f>
         <v>0.53275613275613221</v>
       </c>
       <c r="AH90" s="3">
-        <f t="shared" si="170"/>
+        <f>(O436+O438+O440+O442+O444)/5</f>
         <v>0.50043290043289979</v>
       </c>
       <c r="AI90" s="3">
-        <f t="shared" si="170"/>
+        <f>(P436+P438+P440+P442+P444)/5</f>
         <v>0.4757548020248244</v>
       </c>
       <c r="AJ90" s="3">
@@ -12801,7 +12805,7 @@
         <v>0.51746031746031695</v>
       </c>
       <c r="AK90" s="3">
-        <f t="shared" si="168"/>
+        <f>(R436+R438+R440+R442+R444)/5</f>
         <v>0.47826972798844736</v>
       </c>
       <c r="AL90" s="3">
@@ -12906,23 +12910,23 @@
         <v>0.64173913043478248</v>
       </c>
       <c r="AG91" s="3">
-        <f t="shared" ref="AG91:AK91" si="172">(N445+N447+N449+N451+N453)/5</f>
+        <f t="shared" ref="AG91" si="172">(N445+N447+N449+N451+N453)/5</f>
         <v>0.68648471475130468</v>
       </c>
       <c r="AH91" s="3">
-        <f t="shared" si="172"/>
+        <f>(O445+O447+O449+O451+O453)/5</f>
         <v>0.64173913043478248</v>
       </c>
       <c r="AI91" s="3">
-        <f t="shared" si="172"/>
+        <f>(P445+P447+P449+P451+P453)/5</f>
         <v>0.65164723759955145</v>
       </c>
       <c r="AJ91" s="3">
-        <f t="shared" si="172"/>
+        <f>(Q445+Q447+Q449+Q451+Q453)/5</f>
         <v>0.57610294117647021</v>
       </c>
       <c r="AK91" s="3">
-        <f t="shared" si="172"/>
+        <f>(R445+R447+R449+R451+R453)/5</f>
         <v>0.51722183682486311</v>
       </c>
       <c r="AL91" s="3">
@@ -13027,23 +13031,23 @@
         <v>0.50952380952380927</v>
       </c>
       <c r="AG92" s="3">
-        <f t="shared" ref="AG92:AK92" si="174">(N446+N448+N450+N452+N454)/5</f>
+        <f t="shared" ref="AG92" si="174">(N446+N448+N450+N452+N454)/5</f>
         <v>0.51117243867243822</v>
       </c>
       <c r="AH92" s="3">
-        <f t="shared" si="174"/>
+        <f>(O446+O448+O450+O452+O454)/5</f>
         <v>0.50952380952380927</v>
       </c>
       <c r="AI92" s="3">
-        <f t="shared" si="174"/>
+        <f>(P446+P448+P450+P452+P454)/5</f>
         <v>0.4825721134848916</v>
       </c>
       <c r="AJ92" s="3">
-        <f t="shared" si="174"/>
+        <f>(Q446+Q448+Q450+Q452+Q454)/5</f>
         <v>0.50317460317460283</v>
       </c>
       <c r="AK92" s="3">
-        <f t="shared" si="174"/>
+        <f>(R446+R448+R450+R452+R454)/5</f>
         <v>0.46402947440910702</v>
       </c>
       <c r="AL92" s="3">
@@ -13148,23 +13152,23 @@
         <v>0.3860869565217388</v>
       </c>
       <c r="AG93" s="3">
-        <f t="shared" ref="AG93:AK93" si="176">(N455+N457+N459+N461+N463)/5</f>
+        <f t="shared" ref="AG93" si="176">(N455+N457+N459+N461+N463)/5</f>
         <v>0.33156467728868488</v>
       </c>
       <c r="AH93" s="3">
-        <f t="shared" si="176"/>
+        <f>(O455+O457+O459+O461+O463)/5</f>
         <v>0.3860869565217388</v>
       </c>
       <c r="AI93" s="3">
-        <f t="shared" si="176"/>
+        <f>(P455+P457+P459+P461+P463)/5</f>
         <v>0.26129952567575804</v>
       </c>
       <c r="AJ93" s="3">
-        <f t="shared" si="176"/>
+        <f>(Q455+Q457+Q459+Q461+Q463)/5</f>
         <v>0.51176470588235279</v>
       </c>
       <c r="AK93" s="3">
-        <f t="shared" si="176"/>
+        <f>(R455+R457+R459+R461+R463)/5</f>
         <v>8.5636370639031997E-2</v>
       </c>
       <c r="AL93" s="3">
@@ -13269,23 +13273,23 @@
         <v>0.47012987012986962</v>
       </c>
       <c r="AG94" s="3">
-        <f t="shared" ref="AG94:AK94" si="178">(N456+N458+N460+N462+N464)/5</f>
+        <f t="shared" ref="AG94" si="178">(N456+N458+N460+N462+N464)/5</f>
         <v>0.22793051104739401</v>
       </c>
       <c r="AH94" s="3">
-        <f t="shared" si="178"/>
+        <f>(O456+O458+O460+O462+O464)/5</f>
         <v>0.47012987012986962</v>
       </c>
       <c r="AI94" s="3">
-        <f t="shared" si="178"/>
+        <f>(P456+P458+P460+P462+P464)/5</f>
         <v>0.30470418470418459</v>
       </c>
       <c r="AJ94" s="3">
-        <f t="shared" si="178"/>
+        <f>(Q456+Q458+Q460+Q462+Q464)/5</f>
         <v>0.5</v>
       </c>
       <c r="AK94" s="3">
-        <f t="shared" si="178"/>
+        <f>(R456+R458+R460+R462+R464)/5</f>
         <v>0</v>
       </c>
       <c r="AL94" s="3">
@@ -13390,23 +13394,23 @@
         <v>0.3530434782608694</v>
       </c>
       <c r="AG95" s="3">
-        <f t="shared" ref="AG95:AK95" si="180">(N465+N467+N469+N471+N473)/5</f>
+        <f t="shared" ref="AG95" si="180">(N465+N467+N469+N471+N473)/5</f>
         <v>0.3099811946087937</v>
       </c>
       <c r="AH95" s="3">
-        <f t="shared" si="180"/>
+        <f>(O465+O467+O469+O471+O473)/5</f>
         <v>0.3530434782608694</v>
       </c>
       <c r="AI95" s="3">
-        <f t="shared" si="180"/>
+        <f>(P465+P467+P469+P471+P473)/5</f>
         <v>0.27165384840047474</v>
       </c>
       <c r="AJ95" s="3">
-        <f t="shared" si="180"/>
+        <f>(Q465+Q467+Q469+Q471+Q473)/5</f>
         <v>0.53823529411764703</v>
       </c>
       <c r="AK95" s="3">
-        <f t="shared" si="180"/>
+        <f>(R465+R467+R469+R471+R473)/5</f>
         <v>0.21780173101470623</v>
       </c>
       <c r="AL95" s="3">
@@ -13511,23 +13515,23 @@
         <v>0.47272727272727211</v>
       </c>
       <c r="AG96" s="3">
-        <f t="shared" ref="AG96:AK96" si="182">(N466+N468+N470+N472+N474)/5</f>
+        <f t="shared" ref="AG96" si="182">(N466+N468+N470+N472+N474)/5</f>
         <v>0.33765792648909498</v>
       </c>
       <c r="AH96" s="3">
-        <f t="shared" si="182"/>
+        <f>(O466+O468+O470+O472+O474)/5</f>
         <v>0.47272727272727211</v>
       </c>
       <c r="AI96" s="3">
-        <f t="shared" si="182"/>
+        <f>(P466+P468+P470+P472+P474)/5</f>
         <v>0.36969696969696919</v>
       </c>
       <c r="AJ96" s="3">
-        <f t="shared" si="182"/>
+        <f>(Q466+Q468+Q470+Q472+Q474)/5</f>
         <v>0.53333333333333321</v>
       </c>
       <c r="AK96" s="3">
-        <f t="shared" si="182"/>
+        <f>(R466+R468+R470+R472+R474)/5</f>
         <v>0.23055959514595181</v>
       </c>
       <c r="AL96" s="3">
@@ -13632,23 +13636,23 @@
         <v>0.67304347826086919</v>
       </c>
       <c r="AG97" s="3">
-        <f t="shared" ref="AG97:AK97" si="184">(N475+N477+N479+N481+N483)/5</f>
+        <f t="shared" ref="AG97" si="184">(N475+N477+N479+N481+N483)/5</f>
         <v>0.63219739051118984</v>
       </c>
       <c r="AH97" s="3">
-        <f t="shared" si="184"/>
+        <f>(O475+O477+O479+O481+O483)/5</f>
         <v>0.67304347826086919</v>
       </c>
       <c r="AI97" s="3">
-        <f t="shared" si="184"/>
+        <f>(P475+P477+P479+P481+P483)/5</f>
         <v>0.62474688206953599</v>
       </c>
       <c r="AJ97" s="3">
-        <f t="shared" si="184"/>
+        <f>(Q475+Q477+Q479+Q481+Q483)/5</f>
         <v>0.54411764705882315</v>
       </c>
       <c r="AK97" s="3">
-        <f t="shared" si="184"/>
+        <f>(R475+R477+R479+R481+R483)/5</f>
         <v>0.23045719886028601</v>
       </c>
       <c r="AL97" s="3">
@@ -13753,23 +13757,23 @@
         <v>0.56536796536796496</v>
       </c>
       <c r="AG98" s="3">
-        <f t="shared" ref="AG98:AK98" si="186">(N476+N478+N480+N482+N484)/5</f>
+        <f t="shared" ref="AG98" si="186">(N476+N478+N480+N482+N484)/5</f>
         <v>0.47764793647910453</v>
       </c>
       <c r="AH98" s="3">
-        <f t="shared" si="186"/>
+        <f>(O476+O478+O480+O482+O484)/5</f>
         <v>0.56536796536796496</v>
       </c>
       <c r="AI98" s="3">
-        <f t="shared" si="186"/>
+        <f>(P476+P478+P480+P482+P484)/5</f>
         <v>0.44948704484607072</v>
       </c>
       <c r="AJ98" s="3">
-        <f t="shared" si="186"/>
+        <f>(Q476+Q478+Q480+Q482+Q484)/5</f>
         <v>0.51944444444444415</v>
       </c>
       <c r="AK98" s="3">
-        <f t="shared" si="186"/>
+        <f>(R476+R478+R480+R482+R484)/5</f>
         <v>0.19790940704795318</v>
       </c>
       <c r="AL98" s="3">
@@ -13873,24 +13877,24 @@
         <f>(M485+M487+M489+M491+M493)/5</f>
         <v>0.54826086956521702</v>
       </c>
-      <c r="AG99" s="3">
-        <f t="shared" ref="AG99:AK99" si="188">(N485+N487+N489+N491+N493)/5</f>
+      <c r="AG99" s="17">
+        <f t="shared" ref="AG99" si="188">(N485+N487+N489+N491+N493)/5</f>
         <v>0.73429396690266224</v>
       </c>
       <c r="AH99" s="3">
-        <f t="shared" si="188"/>
+        <f>(O485+O487+O489+O491+O493)/5</f>
         <v>0.54826086956521702</v>
       </c>
       <c r="AI99" s="3">
-        <f t="shared" si="188"/>
+        <f>(P485+P487+P489+P491+P493)/5</f>
         <v>0.57000985784359903</v>
       </c>
       <c r="AJ99" s="3">
-        <f t="shared" si="188"/>
+        <f>(Q485+Q487+Q489+Q491+Q493)/5</f>
         <v>0.60171568627450944</v>
       </c>
       <c r="AK99" s="3">
-        <f t="shared" si="188"/>
+        <f>(R485+R487+R489+R491+R493)/5</f>
         <v>0.54463449823731569</v>
       </c>
       <c r="AL99" s="3">
@@ -13995,23 +13999,23 @@
         <v>0.53809523809523752</v>
       </c>
       <c r="AG100" s="3">
-        <f t="shared" ref="AG100:AK100" si="190">(N486+N488+N490+N492+N494)/5</f>
+        <f t="shared" ref="AG100" si="190">(N486+N488+N490+N492+N494)/5</f>
         <v>0.55357854266945128</v>
       </c>
       <c r="AH100" s="3">
-        <f t="shared" si="190"/>
+        <f>(O486+O488+O490+O492+O494)/5</f>
         <v>0.53809523809523752</v>
       </c>
       <c r="AI100" s="3">
-        <f t="shared" si="190"/>
+        <f>(P486+P488+P490+P492+P494)/5</f>
         <v>0.53411489763369413</v>
       </c>
       <c r="AJ100" s="3">
-        <f t="shared" si="190"/>
+        <f>(Q486+Q488+Q490+Q492+Q494)/5</f>
         <v>0.53333333333333299</v>
       </c>
       <c r="AK100" s="3">
-        <f t="shared" si="190"/>
+        <f>(R486+R488+R490+R492+R494)/5</f>
         <v>0.5248785366862414</v>
       </c>
       <c r="AL100" s="3">
@@ -14116,23 +14120,23 @@
         <v>0.45391304347826067</v>
       </c>
       <c r="AG101" s="3">
-        <f t="shared" ref="AG101:AK101" si="192">(N495+N497+N499+N501+N503)/5</f>
+        <f t="shared" ref="AG101" si="192">(N495+N497+N499+N501+N503)/5</f>
         <v>0.50621253478720374</v>
       </c>
       <c r="AH101" s="3">
-        <f t="shared" si="192"/>
+        <f>(O495+O497+O499+O501+O503)/5</f>
         <v>0.45391304347826067</v>
       </c>
       <c r="AI101" s="3">
-        <f t="shared" si="192"/>
+        <f>(P495+P497+P499+P501+P503)/5</f>
         <v>0.44232964002014424</v>
       </c>
       <c r="AJ101" s="3">
-        <f t="shared" si="192"/>
+        <f>(Q495+Q497+Q499+Q501+Q503)/5</f>
         <v>0.45110294117647021</v>
       </c>
       <c r="AK101" s="3">
-        <f t="shared" si="192"/>
+        <f>(R495+R497+R499+R501+R503)/5</f>
         <v>0.34213854234625901</v>
       </c>
       <c r="AL101" s="3">
@@ -14237,23 +14241,23 @@
         <v>0.42554112554112516</v>
       </c>
       <c r="AG102" s="3">
-        <f t="shared" ref="AG102:AK102" si="194">(N496+N498+N500+N502+N504)/5</f>
+        <f t="shared" ref="AG102" si="194">(N496+N498+N500+N502+N504)/5</f>
         <v>0.39843271807557462</v>
       </c>
       <c r="AH102" s="3">
-        <f t="shared" si="194"/>
+        <f>(O496+O498+O500+O502+O504)/5</f>
         <v>0.42554112554112516</v>
       </c>
       <c r="AI102" s="3">
-        <f t="shared" si="194"/>
+        <f>(P496+P498+P500+P502+P504)/5</f>
         <v>0.38556442023449661</v>
       </c>
       <c r="AJ102" s="3">
-        <f t="shared" si="194"/>
+        <f>(Q496+Q498+Q500+Q502+Q504)/5</f>
         <v>0.44662698412698354</v>
       </c>
       <c r="AK102" s="3">
-        <f t="shared" si="194"/>
+        <f>(R496+R498+R500+R502+R504)/5</f>
         <v>0.33607716821812839</v>
       </c>
       <c r="AL102" s="3">
@@ -14358,23 +14362,23 @@
         <v>0.66173913043478227</v>
       </c>
       <c r="AG103" s="3">
-        <f t="shared" ref="AG103:AK103" si="196">(N505+N507+N509+N511+N513)/5</f>
+        <f t="shared" ref="AG103" si="196">(N505+N507+N509+N511+N513)/5</f>
         <v>0.6872018319844404</v>
       </c>
       <c r="AH103" s="3">
-        <f t="shared" si="196"/>
+        <f>(O505+O507+O509+O511+O513)/5</f>
         <v>0.66173913043478227</v>
       </c>
       <c r="AI103" s="3">
-        <f t="shared" si="196"/>
+        <f>(P505+P507+P509+P511+P513)/5</f>
         <v>0.65161930347043617</v>
       </c>
       <c r="AJ103" s="3">
-        <f t="shared" si="196"/>
+        <f>(Q505+Q507+Q509+Q511+Q513)/5</f>
         <v>0.58860294117647016</v>
       </c>
       <c r="AK103" s="3">
-        <f t="shared" si="196"/>
+        <f>(R505+R507+R509+R511+R513)/5</f>
         <v>0.44760954035231898</v>
       </c>
       <c r="AL103" s="3">
@@ -14479,23 +14483,23 @@
         <v>0.61298701298701241</v>
       </c>
       <c r="AG104" s="3">
-        <f t="shared" ref="AG104:AK104" si="198">(N506+N508+N510+N512+N514)/5</f>
+        <f t="shared" ref="AG104" si="198">(N506+N508+N510+N512+N514)/5</f>
         <v>0.50620045538876668</v>
       </c>
       <c r="AH104" s="3">
-        <f t="shared" si="198"/>
+        <f>(O506+O508+O510+O512+O514)/5</f>
         <v>0.61298701298701241</v>
       </c>
       <c r="AI104" s="3">
-        <f t="shared" si="198"/>
+        <f>(P506+P508+P510+P512+P514)/5</f>
         <v>0.52325783108472523</v>
       </c>
       <c r="AJ104" s="3">
-        <f t="shared" si="198"/>
+        <f>(Q506+Q508+Q510+Q512+Q514)/5</f>
         <v>0.56666666666666643</v>
       </c>
       <c r="AK104" s="3">
-        <f t="shared" si="198"/>
+        <f>(R506+R508+R510+R512+R514)/5</f>
         <v>0.27188098029944463</v>
       </c>
       <c r="AL104" s="3">
@@ -14600,23 +14604,23 @@
         <v>0.42260869565217363</v>
       </c>
       <c r="AG105" s="3">
-        <f t="shared" ref="AG105:AK105" si="200">(N515+N517+N519+N521+N523)/5</f>
+        <f t="shared" ref="AG105" si="200">(N515+N517+N519+N521+N523)/5</f>
         <v>0.54329079616036124</v>
       </c>
       <c r="AH105" s="3">
-        <f t="shared" si="200"/>
+        <f>(O515+O517+O519+O521+O523)/5</f>
         <v>0.42260869565217363</v>
       </c>
       <c r="AI105" s="3">
-        <f t="shared" si="200"/>
+        <f>(P515+P517+P519+P521+P523)/5</f>
         <v>0.32431368275761857</v>
       </c>
       <c r="AJ105" s="3">
-        <f t="shared" si="200"/>
+        <f>(Q515+Q517+Q519+Q521+Q523)/5</f>
         <v>0.48823529411764682</v>
       </c>
       <c r="AK105" s="3">
-        <f t="shared" si="200"/>
+        <f>(R515+R517+R519+R521+R523)/5</f>
         <v>0.14235735275775521</v>
       </c>
       <c r="AL105" s="3">
@@ -14721,23 +14725,23 @@
         <v>0.48225108225108154</v>
       </c>
       <c r="AG106" s="3">
-        <f t="shared" ref="AG106:AK106" si="202">(N516+N518+N520+N522+N524)/5</f>
+        <f t="shared" ref="AG106" si="202">(N516+N518+N520+N522+N524)/5</f>
         <v>0.33303255186372022</v>
       </c>
       <c r="AH106" s="3">
-        <f t="shared" si="202"/>
+        <f>(O516+O518+O520+O522+O524)/5</f>
         <v>0.48225108225108154</v>
       </c>
       <c r="AI106" s="3">
-        <f t="shared" si="202"/>
+        <f>(P516+P518+P520+P522+P524)/5</f>
         <v>0.37324264925441736</v>
       </c>
       <c r="AJ106" s="3">
-        <f t="shared" si="202"/>
+        <f>(Q516+Q518+Q520+Q522+Q524)/5</f>
         <v>0.53055555555555534</v>
       </c>
       <c r="AK106" s="3">
-        <f t="shared" si="202"/>
+        <f>(R516+R518+R520+R522+R524)/5</f>
         <v>0.22073426979309682</v>
       </c>
       <c r="AL106" s="3">
@@ -14842,23 +14846,23 @@
         <v>0.3617391304347824</v>
       </c>
       <c r="AG107" s="3">
-        <f t="shared" ref="AG107:AK107" si="204">(N525+N527+N529+N531+N533)/5</f>
+        <f t="shared" ref="AG107" si="204">(N525+N527+N529+N531+N533)/5</f>
         <v>0.32149119490597927</v>
       </c>
       <c r="AH107" s="3">
-        <f t="shared" si="204"/>
+        <f>(O525+O527+O529+O531+O533)/5</f>
         <v>0.3617391304347824</v>
       </c>
       <c r="AI107" s="3">
-        <f t="shared" si="204"/>
+        <f>(P525+P527+P529+P531+P533)/5</f>
         <v>0.26328055020108948</v>
       </c>
       <c r="AJ107" s="3">
-        <f t="shared" si="204"/>
+        <f>(Q525+Q527+Q529+Q531+Q533)/5</f>
         <v>0.52254901960784306</v>
       </c>
       <c r="AK107" s="3">
-        <f t="shared" si="204"/>
+        <f>(R525+R527+R529+R531+R533)/5</f>
         <v>0.1841714505698232</v>
       </c>
       <c r="AL107" s="3">
@@ -14963,23 +14967,23 @@
         <v>0.49999999999999956</v>
       </c>
       <c r="AG108" s="3">
-        <f t="shared" ref="AG108:AK108" si="206">(N526+N528+N530+N532+N534)/5</f>
+        <f t="shared" ref="AG108" si="206">(N526+N528+N530+N532+N534)/5</f>
         <v>0.43251700680272087</v>
       </c>
       <c r="AH108" s="3">
-        <f t="shared" si="206"/>
+        <f>(O526+O528+O530+O532+O534)/5</f>
         <v>0.49999999999999956</v>
       </c>
       <c r="AI108" s="3">
-        <f t="shared" si="206"/>
+        <f>(P526+P528+P530+P532+P534)/5</f>
         <v>0.43353367272407695</v>
       </c>
       <c r="AJ108" s="3">
-        <f t="shared" si="206"/>
+        <f>(Q526+Q528+Q530+Q532+Q534)/5</f>
         <v>0.53571428571428537</v>
       </c>
       <c r="AK108" s="3">
-        <f t="shared" si="206"/>
+        <f>(R526+R528+R530+R532+R534)/5</f>
         <v>0.3389728002650228</v>
       </c>
       <c r="AL108" s="3">
@@ -15084,23 +15088,23 @@
         <v>0.70043478260869541</v>
       </c>
       <c r="AG109" s="3">
-        <f t="shared" ref="AG109:AK109" si="208">(N535+N537+N539+N541+N543)/5</f>
+        <f t="shared" ref="AG109" si="208">(N535+N537+N539+N541+N543)/5</f>
         <v>0.73050916237552577</v>
       </c>
       <c r="AH109" s="3">
-        <f t="shared" si="208"/>
+        <f>(O535+O537+O539+O541+O543)/5</f>
         <v>0.70043478260869541</v>
       </c>
       <c r="AI109" s="3">
-        <f t="shared" si="208"/>
+        <f>(P535+P537+P539+P541+P543)/5</f>
         <v>0.67101567997220124</v>
       </c>
       <c r="AJ109" s="3">
-        <f t="shared" si="208"/>
+        <f>(Q535+Q537+Q539+Q541+Q543)/5</f>
         <v>0.60245098039215672</v>
       </c>
       <c r="AK109" s="3">
-        <f t="shared" si="208"/>
+        <f>(R535+R537+R539+R541+R543)/5</f>
         <v>0.48612881576782296</v>
       </c>
       <c r="AL109" s="3">
@@ -15204,24 +15208,24 @@
         <f>(M536+M538+M540+M542+M544)/5</f>
         <v>0.6142857142857141</v>
       </c>
-      <c r="AG110" s="3">
-        <f t="shared" ref="AG110:AK110" si="210">(N536+N538+N540+N542+N544)/5</f>
+      <c r="AG110" s="15">
+        <f t="shared" ref="AG110" si="210">(N536+N538+N540+N542+N544)/5</f>
         <v>0.61578231292516938</v>
       </c>
       <c r="AH110" s="3">
-        <f t="shared" si="210"/>
+        <f>(O536+O538+O540+O542+O544)/5</f>
         <v>0.6142857142857141</v>
       </c>
       <c r="AI110" s="3">
-        <f t="shared" si="210"/>
+        <f>(P536+P538+P540+P542+P544)/5</f>
         <v>0.55521139141828735</v>
       </c>
       <c r="AJ110" s="3">
-        <f t="shared" si="210"/>
+        <f>(Q536+Q538+Q540+Q542+Q544)/5</f>
         <v>0.57817460317460301</v>
       </c>
       <c r="AK110" s="3">
-        <f t="shared" si="210"/>
+        <f>(R536+R538+R540+R542+R544)/5</f>
         <v>0.45851799642020036</v>
       </c>
       <c r="AL110" s="3">
@@ -15326,23 +15330,23 @@
         <v>0.53999999999999981</v>
       </c>
       <c r="AG111" s="3">
-        <f t="shared" ref="AG111:AK111" si="212">(N545+N547+N549+N551+N553)/5</f>
+        <f t="shared" ref="AG111" si="212">(N545+N547+N549+N551+N553)/5</f>
         <v>0.5738477731821674</v>
       </c>
       <c r="AH111" s="3">
-        <f t="shared" si="212"/>
+        <f>(O545+O547+O549+O551+O553)/5</f>
         <v>0.53999999999999981</v>
       </c>
       <c r="AI111" s="3">
-        <f t="shared" si="212"/>
+        <f>(P545+P547+P549+P551+P553)/5</f>
         <v>0.49770040637806723</v>
       </c>
       <c r="AJ111" s="3">
-        <f t="shared" si="212"/>
+        <f>(Q545+Q547+Q549+Q551+Q553)/5</f>
         <v>0.54656862745098</v>
       </c>
       <c r="AK111" s="3">
-        <f t="shared" si="212"/>
+        <f>(R545+R547+R549+R551+R553)/5</f>
         <v>0.38009119820170861</v>
       </c>
       <c r="AL111" s="3">
@@ -15447,23 +15451,23 @@
         <v>0.44502164502164454</v>
       </c>
       <c r="AG112" s="3">
-        <f t="shared" ref="AG112:AK112" si="214">(N546+N548+N550+N552+N554)/5</f>
+        <f t="shared" ref="AG112" si="214">(N546+N548+N550+N552+N554)/5</f>
         <v>0.40106033481973302</v>
       </c>
       <c r="AH112" s="3">
-        <f t="shared" si="214"/>
+        <f>(O546+O548+O550+O552+O554)/5</f>
         <v>0.44502164502164454</v>
       </c>
       <c r="AI112" s="3">
-        <f t="shared" si="214"/>
+        <f>(P546+P548+P550+P552+P554)/5</f>
         <v>0.37654371272547082</v>
       </c>
       <c r="AJ112" s="3">
-        <f t="shared" si="214"/>
+        <f>(Q546+Q548+Q550+Q552+Q554)/5</f>
         <v>0.48075396825396799</v>
       </c>
       <c r="AK112" s="3">
-        <f t="shared" si="214"/>
+        <f>(R546+R548+R550+R552+R554)/5</f>
         <v>0.33002784483328301</v>
       </c>
       <c r="AL112" s="3">
@@ -15567,24 +15571,24 @@
         <f>(M555+M557+M559+M561+M563)/5</f>
         <v>0.66043478260869548</v>
       </c>
-      <c r="AG113" s="3">
-        <f t="shared" ref="AG113:AK113" si="216">(N555+N557+N559+N561+N563)/5</f>
+      <c r="AG113" s="17">
+        <f t="shared" ref="AG113" si="216">(N555+N557+N559+N561+N563)/5</f>
         <v>0.75676664341625921</v>
       </c>
       <c r="AH113" s="3">
-        <f t="shared" si="216"/>
+        <f>(O555+O557+O559+O561+O563)/5</f>
         <v>0.66043478260869548</v>
       </c>
       <c r="AI113" s="3">
-        <f t="shared" si="216"/>
+        <f>(P555+P557+P559+P561+P563)/5</f>
         <v>0.64715748020095798</v>
       </c>
       <c r="AJ113" s="3">
-        <f t="shared" si="216"/>
+        <f>(Q555+Q557+Q559+Q561+Q563)/5</f>
         <v>0.62340686274509782</v>
       </c>
       <c r="AK113" s="3">
-        <f t="shared" si="216"/>
+        <f>(R555+R557+R559+R561+R563)/5</f>
         <v>0.50707933892909385</v>
       </c>
       <c r="AL113" s="3">
@@ -15689,23 +15693,23 @@
         <v>0.50043290043289979</v>
       </c>
       <c r="AG114" s="3">
-        <f t="shared" ref="AG114:AK114" si="218">(N556+N558+N560+N562+N564)/5</f>
+        <f t="shared" ref="AG114" si="218">(N556+N558+N560+N562+N564)/5</f>
         <v>0.49128172481113602</v>
       </c>
       <c r="AH114" s="3">
-        <f t="shared" si="218"/>
+        <f>(O556+O558+O560+O562+O564)/5</f>
         <v>0.50043290043289979</v>
       </c>
       <c r="AI114" s="3">
-        <f t="shared" si="218"/>
+        <f>(P556+P558+P560+P562+P564)/5</f>
         <v>0.47943711460952781</v>
       </c>
       <c r="AJ114" s="3">
-        <f t="shared" si="218"/>
+        <f>(Q556+Q558+Q560+Q562+Q564)/5</f>
         <v>0.47638888888888858</v>
       </c>
       <c r="AK114" s="3">
-        <f t="shared" si="218"/>
+        <f>(R556+R558+R560+R562+R564)/5</f>
         <v>0.44162069682563942</v>
       </c>
       <c r="AL114" s="3">
@@ -15810,23 +15814,23 @@
         <v>0.34434782608695619</v>
       </c>
       <c r="AG115" s="3">
-        <f t="shared" ref="AG115:AK115" si="220">(N565+N567+N569+N571+N573)/5</f>
+        <f t="shared" ref="AG115" si="220">(N565+N567+N569+N571+N573)/5</f>
         <v>0.15809451795841206</v>
       </c>
       <c r="AH115" s="3">
-        <f t="shared" si="220"/>
+        <f>(O565+O567+O569+O571+O573)/5</f>
         <v>0.34434782608695619</v>
       </c>
       <c r="AI115" s="3">
-        <f t="shared" si="220"/>
+        <f>(P565+P567+P569+P571+P573)/5</f>
         <v>0.20375312343828034</v>
       </c>
       <c r="AJ115" s="3">
-        <f t="shared" si="220"/>
+        <f>(Q565+Q567+Q569+Q571+Q573)/5</f>
         <v>0.5</v>
       </c>
       <c r="AK115" s="3">
-        <f t="shared" si="220"/>
+        <f>(R565+R567+R569+R571+R573)/5</f>
         <v>0</v>
       </c>
       <c r="AL115" s="3">
@@ -15931,23 +15935,23 @@
         <v>0.44415584415584358</v>
       </c>
       <c r="AG116" s="3">
-        <f t="shared" ref="AG116:AK116" si="222">(N566+N568+N570+N572+N574)/5</f>
+        <f t="shared" ref="AG116" si="222">(N566+N568+N570+N572+N574)/5</f>
         <v>0.20195648507336778</v>
       </c>
       <c r="AH116" s="3">
-        <f t="shared" si="222"/>
+        <f>(O566+O568+O570+O572+O574)/5</f>
         <v>0.44415584415584358</v>
       </c>
       <c r="AI116" s="3">
-        <f t="shared" si="222"/>
+        <f>(P566+P568+P570+P572+P574)/5</f>
         <v>0.27619047619047576</v>
       </c>
       <c r="AJ116" s="3">
-        <f t="shared" si="222"/>
+        <f>(Q566+Q568+Q570+Q572+Q574)/5</f>
         <v>0.5</v>
       </c>
       <c r="AK116" s="3">
-        <f t="shared" si="222"/>
+        <f>(R566+R568+R570+R572+R574)/5</f>
         <v>0</v>
       </c>
       <c r="AL116" s="3">
@@ -16052,23 +16056,23 @@
         <v>0.50478260869565161</v>
       </c>
       <c r="AG117" s="3">
-        <f t="shared" ref="AG117:AK117" si="224">(N575+N577+N579+N581+N583)/5</f>
+        <f t="shared" ref="AG117" si="224">(N575+N577+N579+N581+N583)/5</f>
         <v>0.69388451498092318</v>
       </c>
       <c r="AH117" s="3">
-        <f t="shared" si="224"/>
+        <f>(O575+O577+O579+O581+O583)/5</f>
         <v>0.50478260869565161</v>
       </c>
       <c r="AI117" s="3">
-        <f t="shared" si="224"/>
+        <f>(P575+P577+P579+P581+P583)/5</f>
         <v>0.45077713465248737</v>
       </c>
       <c r="AJ117" s="3">
-        <f t="shared" si="224"/>
+        <f>(Q575+Q577+Q579+Q581+Q583)/5</f>
         <v>0.51556372549019558</v>
       </c>
       <c r="AK117" s="3">
-        <f t="shared" si="224"/>
+        <f>(R575+R577+R579+R581+R583)/5</f>
         <v>0.34255478534868644</v>
       </c>
       <c r="AL117" s="3">
@@ -16173,23 +16177,23 @@
         <v>0.49999999999999967</v>
       </c>
       <c r="AG118" s="3">
-        <f t="shared" ref="AG118:AK118" si="226">(N576+N578+N580+N582+N584)/5</f>
+        <f t="shared" ref="AG118" si="226">(N576+N578+N580+N582+N584)/5</f>
         <v>0.44425349087003163</v>
       </c>
       <c r="AH118" s="3">
-        <f t="shared" si="226"/>
+        <f>(O576+O578+O580+O582+O584)/5</f>
         <v>0.49999999999999967</v>
       </c>
       <c r="AI118" s="3">
-        <f t="shared" si="226"/>
+        <f>(P576+P578+P580+P582+P584)/5</f>
         <v>0.39696159341479487</v>
       </c>
       <c r="AJ118" s="3">
-        <f t="shared" si="226"/>
+        <f>(Q576+Q578+Q580+Q582+Q584)/5</f>
         <v>0.48650793650793622</v>
       </c>
       <c r="AK118" s="3">
-        <f t="shared" si="226"/>
+        <f>(R576+R578+R580+R582+R584)/5</f>
         <v>0.25378525673339036</v>
       </c>
       <c r="AL118" s="3">
@@ -16294,23 +16298,23 @@
         <v>0.43999999999999967</v>
       </c>
       <c r="AG119" s="3">
-        <f t="shared" ref="AG119:AK119" si="228">(N585+N587+N589+N591+N593)/5</f>
+        <f t="shared" ref="AG119" si="228">(N585+N587+N589+N591+N593)/5</f>
         <v>0.25374669187145554</v>
       </c>
       <c r="AH119" s="3">
-        <f t="shared" si="228"/>
+        <f>(O585+O587+O589+O591+O593)/5</f>
         <v>0.43999999999999967</v>
       </c>
       <c r="AI119" s="3">
-        <f t="shared" si="228"/>
+        <f>(P585+P587+P589+P591+P593)/5</f>
         <v>0.30781609195402254</v>
       </c>
       <c r="AJ119" s="3">
-        <f t="shared" si="228"/>
+        <f>(Q585+Q587+Q589+Q591+Q593)/5</f>
         <v>0.5</v>
       </c>
       <c r="AK119" s="3">
-        <f t="shared" si="228"/>
+        <f>(R585+R587+R589+R591+R593)/5</f>
         <v>0</v>
       </c>
       <c r="AL119" s="3">
@@ -16415,23 +16419,23 @@
         <v>0.48225108225108182</v>
       </c>
       <c r="AG120" s="3">
-        <f t="shared" ref="AG120:AK120" si="230">(N586+N588+N590+N592+N594)/5</f>
+        <f t="shared" ref="AG120" si="230">(N586+N588+N590+N592+N594)/5</f>
         <v>0.34665036262438803</v>
       </c>
       <c r="AH120" s="3">
-        <f t="shared" si="230"/>
+        <f>(O586+O588+O590+O592+O594)/5</f>
         <v>0.48225108225108182</v>
       </c>
       <c r="AI120" s="3">
-        <f t="shared" si="230"/>
+        <f>(P586+P588+P590+P592+P594)/5</f>
         <v>0.32723460447598318</v>
       </c>
       <c r="AJ120" s="3">
-        <f t="shared" si="230"/>
+        <f>(Q586+Q588+Q590+Q592+Q594)/5</f>
         <v>0.50833333333333319</v>
       </c>
       <c r="AK120" s="3">
-        <f t="shared" si="230"/>
+        <f>(R586+R588+R590+R592+R594)/5</f>
         <v>8.8011173679339208E-2</v>
       </c>
       <c r="AL120" s="3">
@@ -16536,23 +16540,23 @@
         <v>0.45782608695652138</v>
       </c>
       <c r="AG121" s="3">
-        <f t="shared" ref="AG121:AK121" si="232">(N595+N597+N599+N601+N603)/5</f>
+        <f t="shared" ref="AG121" si="232">(N595+N597+N599+N601+N603)/5</f>
         <v>0.3771632010081914</v>
       </c>
       <c r="AH121" s="3">
-        <f t="shared" si="232"/>
+        <f>(O595+O597+O599+O601+O603)/5</f>
         <v>0.45782608695652138</v>
       </c>
       <c r="AI121" s="3">
-        <f t="shared" si="232"/>
+        <f>(P595+P597+P599+P601+P603)/5</f>
         <v>0.3895917519689594</v>
       </c>
       <c r="AJ121" s="3">
-        <f t="shared" si="232"/>
+        <f>(Q595+Q597+Q599+Q601+Q603)/5</f>
         <v>0.45502450980392145</v>
       </c>
       <c r="AK121" s="3">
-        <f t="shared" si="232"/>
+        <f>(R595+R597+R599+R601+R603)/5</f>
         <v>9.6475791885375792E-2</v>
       </c>
       <c r="AL121" s="3">
@@ -16657,23 +16661,23 @@
         <v>0.43593073593073539</v>
       </c>
       <c r="AG122" s="3">
-        <f t="shared" ref="AG122:AK122" si="234">(N596+N598+N600+N602+N604)/5</f>
+        <f t="shared" ref="AG122" si="234">(N596+N598+N600+N602+N604)/5</f>
         <v>0.43049240675291067</v>
       </c>
       <c r="AH122" s="3">
-        <f t="shared" si="234"/>
+        <f>(O596+O598+O600+O602+O604)/5</f>
         <v>0.43593073593073539</v>
       </c>
       <c r="AI122" s="3">
-        <f t="shared" si="234"/>
+        <f>(P596+P598+P600+P602+P604)/5</f>
         <v>0.35597619685014575</v>
       </c>
       <c r="AJ122" s="3">
-        <f t="shared" si="234"/>
+        <f>(Q596+Q598+Q600+Q602+Q604)/5</f>
         <v>0.48472222222222194</v>
       </c>
       <c r="AK122" s="3">
-        <f t="shared" si="234"/>
+        <f>(R596+R598+R600+R602+R604)/5</f>
         <v>0.30088267256210421</v>
       </c>
       <c r="AL122" s="3">
@@ -16777,24 +16781,24 @@
         <f>(M605+M607+M609+M611+M613)/5</f>
         <v>0.6469565217391301</v>
       </c>
-      <c r="AG123" s="3">
-        <f t="shared" ref="AG123:AK123" si="236">(N605+N607+N609+N611+N613)/5</f>
+      <c r="AG123" s="17">
+        <f t="shared" ref="AG123" si="236">(N605+N607+N609+N611+N613)/5</f>
         <v>0.77813299232736521</v>
       </c>
       <c r="AH123" s="3">
-        <f t="shared" si="236"/>
+        <f>(O605+O607+O609+O611+O613)/5</f>
         <v>0.6469565217391301</v>
       </c>
       <c r="AI123" s="3">
-        <f t="shared" si="236"/>
+        <f>(P605+P607+P609+P611+P613)/5</f>
         <v>0.64975155279503061</v>
       </c>
       <c r="AJ123" s="3">
-        <f t="shared" si="236"/>
+        <f>(Q605+Q607+Q609+Q611+Q613)/5</f>
         <v>0.66102941176470564</v>
       </c>
       <c r="AK123" s="3">
-        <f t="shared" si="236"/>
+        <f>(R605+R607+R609+R611+R613)/5</f>
         <v>0.61234769489189511</v>
       </c>
       <c r="AL123" s="3">
@@ -16899,23 +16903,23 @@
         <v>0.48008658008657956</v>
       </c>
       <c r="AG124" s="3">
-        <f t="shared" ref="AG124:AK124" si="238">(N606+N608+N610+N612+N614)/5</f>
+        <f t="shared" ref="AG124" si="238">(N606+N608+N610+N612+N614)/5</f>
         <v>0.47697986850242458</v>
       </c>
       <c r="AH124" s="3">
-        <f t="shared" si="238"/>
+        <f>(O606+O608+O610+O612+O614)/5</f>
         <v>0.48008658008657956</v>
       </c>
       <c r="AI124" s="3">
-        <f t="shared" si="238"/>
+        <f>(P606+P608+P610+P612+P614)/5</f>
         <v>0.45336744151129976</v>
       </c>
       <c r="AJ124" s="3">
-        <f t="shared" si="238"/>
+        <f>(Q606+Q608+Q610+Q612+Q614)/5</f>
         <v>0.46488095238095195</v>
       </c>
       <c r="AK124" s="3">
-        <f t="shared" si="238"/>
+        <f>(R606+R608+R610+R612+R614)/5</f>
         <v>0.41631165907769985</v>
       </c>
       <c r="AL124" s="3">
@@ -17020,23 +17024,23 @@
         <v>0.38782608695652138</v>
       </c>
       <c r="AG125" s="3">
-        <f t="shared" ref="AG125:AK125" si="240">(N615+N617+N619+N621+N623)/5</f>
+        <f t="shared" ref="AG125" si="240">(N615+N617+N619+N621+N623)/5</f>
         <v>0.70607276781189809</v>
       </c>
       <c r="AH125" s="3">
-        <f t="shared" si="240"/>
+        <f>(O615+O617+O619+O621+O623)/5</f>
         <v>0.38782608695652138</v>
       </c>
       <c r="AI125" s="3">
-        <f t="shared" si="240"/>
+        <f>(P615+P617+P619+P621+P623)/5</f>
         <v>0.33262124349080846</v>
       </c>
       <c r="AJ125" s="3">
-        <f t="shared" si="240"/>
+        <f>(Q615+Q617+Q619+Q621+Q623)/5</f>
         <v>0.55379901960784306</v>
       </c>
       <c r="AK125" s="3">
-        <f t="shared" si="240"/>
+        <f>(R615+R617+R619+R621+R623)/5</f>
         <v>0.42810141254755124</v>
       </c>
       <c r="AL125" s="3">
@@ -17141,23 +17145,23 @@
         <v>0.47142857142857081</v>
       </c>
       <c r="AG126" s="3">
-        <f t="shared" ref="AG126:AK126" si="242">(N616+N618+N620+N622+N624)/5</f>
+        <f t="shared" ref="AG126" si="242">(N616+N618+N620+N622+N624)/5</f>
         <v>0.4109930670832922</v>
       </c>
       <c r="AH126" s="3">
-        <f t="shared" si="242"/>
+        <f>(O616+O618+O620+O622+O624)/5</f>
         <v>0.47142857142857081</v>
       </c>
       <c r="AI126" s="3">
-        <f t="shared" si="242"/>
+        <f>(P616+P618+P620+P622+P624)/5</f>
         <v>0.37743076763745936</v>
       </c>
       <c r="AJ126" s="3">
-        <f t="shared" si="242"/>
+        <f>(Q616+Q618+Q620+Q622+Q624)/5</f>
         <v>0.52976190476190455</v>
       </c>
       <c r="AK126" s="3">
-        <f t="shared" si="242"/>
+        <f>(R616+R618+R620+R622+R624)/5</f>
         <v>0.26166649260132202</v>
       </c>
       <c r="AL126" s="3">
@@ -17262,23 +17266,23 @@
         <v>0.63565217391304318</v>
       </c>
       <c r="AG127" s="3">
-        <f t="shared" ref="AG127:AK127" si="244">(N625+N627+N629+N631+N633)/5</f>
+        <f t="shared" ref="AG127" si="244">(N625+N627+N629+N631+N633)/5</f>
         <v>0.57379174543163158</v>
       </c>
       <c r="AH127" s="3">
-        <f t="shared" si="244"/>
+        <f>(O625+O627+O629+O631+O633)/5</f>
         <v>0.63565217391304318</v>
       </c>
       <c r="AI127" s="3">
-        <f t="shared" si="244"/>
+        <f>(P625+P627+P629+P631+P633)/5</f>
         <v>0.58826833425491942</v>
       </c>
       <c r="AJ127" s="3">
-        <f t="shared" si="244"/>
+        <f>(Q625+Q627+Q629+Q631+Q633)/5</f>
         <v>0.58970588235294086</v>
       </c>
       <c r="AK127" s="3">
-        <f t="shared" si="244"/>
+        <f>(R625+R627+R629+R631+R633)/5</f>
         <v>0.36953670978392339</v>
       </c>
       <c r="AL127" s="3">
@@ -17382,24 +17386,24 @@
         <f>(M626+M628+M630+M632+M634)/5</f>
         <v>0.6034632034632027</v>
       </c>
-      <c r="AG128" s="3">
-        <f t="shared" ref="AG128:AK128" si="246">(N626+N628+N630+N632+N634)/5</f>
+      <c r="AG128" s="15">
+        <f t="shared" ref="AG128" si="246">(N626+N628+N630+N632+N634)/5</f>
         <v>0.687544364819906</v>
       </c>
       <c r="AH128" s="3">
-        <f t="shared" si="246"/>
+        <f>(O626+O628+O630+O632+O634)/5</f>
         <v>0.6034632034632027</v>
       </c>
       <c r="AI128" s="3">
-        <f t="shared" si="246"/>
+        <f>(P626+P628+P630+P632+P634)/5</f>
         <v>0.57558788799124883</v>
       </c>
       <c r="AJ128" s="3">
-        <f t="shared" si="246"/>
+        <f>(Q626+Q628+Q630+Q632+Q634)/5</f>
         <v>0.6210317460317456</v>
       </c>
       <c r="AK128" s="3">
-        <f t="shared" si="246"/>
+        <f>(R626+R628+R630+R632+R634)/5</f>
         <v>0.59982573622565161</v>
       </c>
       <c r="AL128" s="3">
@@ -17504,23 +17508,23 @@
         <v>0.56565217391304301</v>
       </c>
       <c r="AG129" s="3">
-        <f t="shared" ref="AG129:AK129" si="248">(N635+N637+N639+N641+N643)/5</f>
+        <f t="shared" ref="AG129" si="248">(N635+N637+N639+N641+N643)/5</f>
         <v>0.51511747231974059</v>
       </c>
       <c r="AH129" s="3">
-        <f t="shared" si="248"/>
+        <f>(O635+O637+O639+O641+O643)/5</f>
         <v>0.56565217391304301</v>
       </c>
       <c r="AI129" s="3">
-        <f t="shared" si="248"/>
+        <f>(P635+P637+P639+P641+P643)/5</f>
         <v>0.50274010053796581</v>
       </c>
       <c r="AJ129" s="3">
-        <f t="shared" si="248"/>
+        <f>(Q635+Q637+Q639+Q641+Q643)/5</f>
         <v>0.53517156862745097</v>
       </c>
       <c r="AK129" s="3">
-        <f t="shared" si="248"/>
+        <f>(R635+R637+R639+R641+R643)/5</f>
         <v>0.21676528182442478</v>
       </c>
       <c r="AL129" s="3">
@@ -17625,23 +17629,23 @@
         <v>0.49177489177489109</v>
       </c>
       <c r="AG130" s="3">
-        <f t="shared" ref="AG130:AK130" si="250">(N636+N638+N640+N642+N644)/5</f>
+        <f t="shared" ref="AG130" si="250">(N636+N638+N640+N642+N644)/5</f>
         <v>0.38706246134817501</v>
       </c>
       <c r="AH130" s="3">
-        <f t="shared" si="250"/>
+        <f>(O636+O638+O640+O642+O644)/5</f>
         <v>0.49177489177489109</v>
       </c>
       <c r="AI130" s="3">
-        <f t="shared" si="250"/>
+        <f>(P636+P638+P640+P642+P644)/5</f>
         <v>0.38401232393930124</v>
       </c>
       <c r="AJ130" s="3">
-        <f t="shared" si="250"/>
+        <f>(Q636+Q638+Q640+Q642+Q644)/5</f>
         <v>0.50039682539682528</v>
       </c>
       <c r="AK130" s="3">
-        <f t="shared" si="250"/>
+        <f>(R636+R638+R640+R642+R644)/5</f>
         <v>0.19045927614335478</v>
       </c>
       <c r="AL130" s="3">
@@ -17746,23 +17750,23 @@
         <v>0.48173913043478223</v>
       </c>
       <c r="AG131" s="3">
-        <f t="shared" ref="AG131:AK131" si="252">(N645+N647+N649+N651+N653)/5</f>
+        <f t="shared" ref="AG131" si="252">(N645+N647+N649+N651+N653)/5</f>
         <v>0.52599273704109017</v>
       </c>
       <c r="AH131" s="3">
-        <f t="shared" si="252"/>
+        <f>(O645+O647+O649+O651+O653)/5</f>
         <v>0.48173913043478223</v>
       </c>
       <c r="AI131" s="3">
-        <f t="shared" si="252"/>
+        <f>(P645+P647+P649+P651+P653)/5</f>
         <v>0.43119896761575882</v>
       </c>
       <c r="AJ131" s="3">
-        <f t="shared" si="252"/>
+        <f>(Q645+Q647+Q649+Q651+Q653)/5</f>
         <v>0.50098039215686241</v>
       </c>
       <c r="AK131" s="3">
-        <f t="shared" si="252"/>
+        <f>(R645+R647+R649+R651+R653)/5</f>
         <v>0.20792283735680223</v>
       </c>
       <c r="AL131" s="3">
@@ -17867,23 +17871,23 @@
         <v>0.47012987012986962</v>
       </c>
       <c r="AG132" s="3">
-        <f t="shared" ref="AG132:AK132" si="254">(N646+N648+N650+N652+N654)/5</f>
+        <f t="shared" ref="AG132" si="254">(N646+N648+N650+N652+N654)/5</f>
         <v>0.43428139148053857</v>
       </c>
       <c r="AH132" s="3">
-        <f t="shared" si="254"/>
+        <f>(O646+O648+O650+O652+O654)/5</f>
         <v>0.47012987012986962</v>
       </c>
       <c r="AI132" s="3">
-        <f t="shared" si="254"/>
+        <f>(P646+P648+P650+P652+P654)/5</f>
         <v>0.37835339263910661</v>
       </c>
       <c r="AJ132" s="3">
-        <f t="shared" si="254"/>
+        <f>(Q646+Q648+Q650+Q652+Q654)/5</f>
         <v>0.48055555555555535</v>
       </c>
       <c r="AK132" s="3">
-        <f t="shared" si="254"/>
+        <f>(R646+R648+R650+R652+R654)/5</f>
         <v>0.25415006171659521</v>
       </c>
       <c r="AL132" s="3">
@@ -17988,23 +17992,23 @@
         <v>0.55130434782608639</v>
       </c>
       <c r="AG133" s="3">
-        <f t="shared" ref="AG133:AK133" si="256">(N655+N657+N659+N661+N663)/5</f>
+        <f t="shared" ref="AG133" si="256">(N655+N657+N659+N661+N663)/5</f>
         <v>0.66702879728966669</v>
       </c>
       <c r="AH133" s="3">
-        <f t="shared" si="256"/>
+        <f>(O655+O657+O659+O661+O663)/5</f>
         <v>0.55130434782608639</v>
       </c>
       <c r="AI133" s="3">
-        <f t="shared" si="256"/>
+        <f>(P655+P657+P659+P661+P663)/5</f>
         <v>0.52504903270331005</v>
       </c>
       <c r="AJ133" s="3">
-        <f t="shared" si="256"/>
+        <f>(Q655+Q657+Q659+Q661+Q663)/5</f>
         <v>0.51568627450980364</v>
       </c>
       <c r="AK133" s="3">
-        <f t="shared" si="256"/>
+        <f>(R655+R657+R659+R661+R663)/5</f>
         <v>0.35576963468520717</v>
       </c>
       <c r="AL133" s="3">
@@ -18109,23 +18113,23 @@
         <v>0.47965367965367917</v>
       </c>
       <c r="AG134" s="3">
-        <f t="shared" ref="AG134:AK134" si="258">(N656+N658+N660+N662+N664)/5</f>
+        <f t="shared" ref="AG134" si="258">(N656+N658+N660+N662+N664)/5</f>
         <v>0.43730626134751382</v>
       </c>
       <c r="AH134" s="3">
-        <f t="shared" si="258"/>
+        <f>(O656+O658+O660+O662+O664)/5</f>
         <v>0.47965367965367917</v>
       </c>
       <c r="AI134" s="3">
-        <f t="shared" si="258"/>
+        <f>(P656+P658+P660+P662+P664)/5</f>
         <v>0.37347915357767542</v>
       </c>
       <c r="AJ134" s="3">
-        <f t="shared" si="258"/>
+        <f>(Q656+Q658+Q660+Q662+Q664)/5</f>
         <v>0.48055555555555518</v>
       </c>
       <c r="AK134" s="3">
-        <f t="shared" si="258"/>
+        <f>(R656+R658+R660+R662+R664)/5</f>
         <v>0.22752241207721399</v>
       </c>
       <c r="AL134" s="3">
@@ -18230,23 +18234,23 @@
         <v>0.43652173913043441</v>
       </c>
       <c r="AG135" s="3">
-        <f t="shared" ref="AG135:AK135" si="260">(N665+N667+N669+N671+N673)/5</f>
+        <f t="shared" ref="AG135" si="260">(N665+N667+N669+N671+N673)/5</f>
         <v>0.57394569198916989</v>
       </c>
       <c r="AH135" s="3">
-        <f t="shared" si="260"/>
+        <f>(O665+O667+O669+O671+O673)/5</f>
         <v>0.43652173913043441</v>
       </c>
       <c r="AI135" s="3">
-        <f t="shared" si="260"/>
+        <f>(P665+P667+P669+P671+P673)/5</f>
         <v>0.44248830244253518</v>
       </c>
       <c r="AJ135" s="3">
-        <f t="shared" si="260"/>
+        <f>(Q665+Q667+Q669+Q671+Q673)/5</f>
         <v>0.46372549019607801</v>
       </c>
       <c r="AK135" s="3">
-        <f t="shared" si="260"/>
+        <f>(R665+R667+R669+R671+R673)/5</f>
         <v>0.35220270436967199</v>
       </c>
       <c r="AL135" s="3">
@@ -18351,23 +18355,23 @@
         <v>0.42294372294372218</v>
       </c>
       <c r="AG136" s="3">
-        <f t="shared" ref="AG136:AK136" si="262">(N666+N668+N670+N672+N674)/5</f>
+        <f t="shared" ref="AG136" si="262">(N666+N668+N670+N672+N674)/5</f>
         <v>0.34942708085565177</v>
       </c>
       <c r="AH136" s="3">
-        <f t="shared" si="262"/>
+        <f>(O666+O668+O670+O672+O674)/5</f>
         <v>0.42294372294372218</v>
       </c>
       <c r="AI136" s="3">
-        <f t="shared" si="262"/>
+        <f>(P666+P668+P670+P672+P674)/5</f>
         <v>0.35768822215598783</v>
       </c>
       <c r="AJ136" s="3">
-        <f t="shared" si="262"/>
+        <f>(Q666+Q668+Q670+Q672+Q674)/5</f>
         <v>0.45555555555555516</v>
       </c>
       <c r="AK136" s="3">
-        <f t="shared" si="262"/>
+        <f>(R666+R668+R670+R672+R674)/5</f>
         <v>0.25861947185331718</v>
       </c>
       <c r="AL136" s="3">
@@ -18472,23 +18476,23 @@
         <v>0.72130434782608654</v>
       </c>
       <c r="AG137" s="3">
-        <f t="shared" ref="AG137:AK137" si="264">(N675+N677+N679+N681+N683)/5</f>
+        <f t="shared" ref="AG137" si="264">(N675+N677+N679+N681+N683)/5</f>
         <v>0.63539191858217725</v>
       </c>
       <c r="AH137" s="3">
-        <f t="shared" si="264"/>
+        <f>(O675+O677+O679+O681+O683)/5</f>
         <v>0.72130434782608654</v>
       </c>
       <c r="AI137" s="3">
-        <f t="shared" si="264"/>
+        <f>(P675+P677+P679+P681+P683)/5</f>
         <v>0.66758392461057237</v>
       </c>
       <c r="AJ137" s="3">
-        <f t="shared" si="264"/>
+        <f>(Q675+Q677+Q679+Q681+Q683)/5</f>
         <v>0.54595588235294101</v>
       </c>
       <c r="AK137" s="3">
-        <f t="shared" si="264"/>
+        <f>(R675+R677+R679+R681+R683)/5</f>
         <v>0.23901772075514902</v>
       </c>
       <c r="AL137" s="3">
@@ -18593,23 +18597,23 @@
         <v>0.54761904761904723</v>
       </c>
       <c r="AG138" s="3">
-        <f t="shared" ref="AG138:AK138" si="266">(N676+N678+N680+N682+N684)/5</f>
+        <f t="shared" ref="AG138" si="266">(N676+N678+N680+N682+N684)/5</f>
         <v>0.55303648732220112</v>
       </c>
       <c r="AH138" s="3">
-        <f t="shared" si="266"/>
+        <f>(O676+O678+O680+O682+O684)/5</f>
         <v>0.54761904761904723</v>
       </c>
       <c r="AI138" s="3">
-        <f t="shared" si="266"/>
+        <f>(P676+P678+P680+P682+P684)/5</f>
         <v>0.53984259926459832</v>
       </c>
       <c r="AJ138" s="3">
-        <f t="shared" si="266"/>
+        <f>(Q676+Q678+Q680+Q682+Q684)/5</f>
         <v>0.53095238095238084</v>
       </c>
       <c r="AK138" s="3">
-        <f t="shared" si="266"/>
+        <f>(R676+R678+R680+R682+R684)/5</f>
         <v>0.51909728582565662</v>
       </c>
       <c r="AL138" s="3">
@@ -18713,24 +18717,24 @@
         <f>(M685+M687+M689+M691+M693)/5</f>
         <v>0.74739130434782597</v>
       </c>
-      <c r="AG139" s="3">
-        <f t="shared" ref="AG139:AK139" si="268">(N685+N687+N689+N691+N693)/5</f>
+      <c r="AG139" s="17">
+        <f t="shared" ref="AG139" si="268">(N685+N687+N689+N691+N693)/5</f>
         <v>0.73612623310193581</v>
       </c>
       <c r="AH139" s="3">
-        <f t="shared" si="268"/>
+        <f>(O685+O687+O689+O691+O693)/5</f>
         <v>0.74739130434782597</v>
       </c>
       <c r="AI139" s="3">
-        <f t="shared" si="268"/>
+        <f>(P685+P687+P689+P691+P693)/5</f>
         <v>0.73390329216416161</v>
       </c>
       <c r="AJ139" s="3">
-        <f t="shared" si="268"/>
+        <f>(Q685+Q687+Q689+Q691+Q693)/5</f>
         <v>0.61752450980392126</v>
       </c>
       <c r="AK139" s="3">
-        <f t="shared" si="268"/>
+        <f>(R685+R687+R689+R691+R693)/5</f>
         <v>0.53003179142854639</v>
       </c>
       <c r="AL139" s="3">
@@ -18835,23 +18839,23 @@
         <v>0.59567099567099524</v>
       </c>
       <c r="AG140" s="3">
-        <f t="shared" ref="AG140:AK140" si="270">(N686+N688+N690+N692+N694)/5</f>
+        <f t="shared" ref="AG140" si="270">(N686+N688+N690+N692+N694)/5</f>
         <v>0.58561688311688287</v>
       </c>
       <c r="AH140" s="3">
-        <f t="shared" si="270"/>
+        <f>(O686+O688+O690+O692+O694)/5</f>
         <v>0.59567099567099524</v>
       </c>
       <c r="AI140" s="3">
-        <f t="shared" si="270"/>
+        <f>(P686+P688+P690+P692+P694)/5</f>
         <v>0.58770562770562718</v>
       </c>
       <c r="AJ140" s="3">
-        <f t="shared" si="270"/>
+        <f>(Q686+Q688+Q690+Q692+Q694)/5</f>
         <v>0.57123015873015826</v>
       </c>
       <c r="AK140" s="3">
-        <f t="shared" si="270"/>
+        <f>(R686+R688+R690+R692+R694)/5</f>
         <v>0.54767202308425189</v>
       </c>
       <c r="AL140" s="3">
@@ -19132,23 +19136,23 @@
         <v>0.67527950310558971</v>
       </c>
       <c r="AG143" s="3">
-        <f t="shared" ref="AG143:AK143" si="272">(N695+N697+N699+N701+N703)/5</f>
+        <f t="shared" ref="AG143" si="272">(N695+N697+N699+N701+N703)/5</f>
         <v>0.68702041665428337</v>
       </c>
       <c r="AH143" s="3">
-        <f t="shared" si="272"/>
+        <f>(O695+O697+O699+O701+O703)/5</f>
         <v>0.67527950310558971</v>
       </c>
       <c r="AI143" s="3">
-        <f t="shared" si="272"/>
+        <f>(P695+P697+P699+P701+P703)/5</f>
         <v>0.66512472649772403</v>
       </c>
       <c r="AJ143" s="3">
-        <f t="shared" si="272"/>
+        <f>(Q695+Q697+Q699+Q701+Q703)/5</f>
         <v>0.58096405228758119</v>
       </c>
       <c r="AK143" s="3">
-        <f t="shared" si="272"/>
+        <f>(R695+R697+R699+R701+R703)/5</f>
         <v>0.56116791425564605</v>
       </c>
       <c r="AL143" s="3">
@@ -19252,24 +19256,24 @@
         <f>(M696+M698+M700+M702+M704)/5</f>
         <v>0.62960662525879885</v>
       </c>
-      <c r="AG144" s="3">
-        <f t="shared" ref="AG144:AK144" si="274">(N696+N698+N700+N702+N704)/5</f>
+      <c r="AG144" s="15">
+        <f t="shared" ref="AG144" si="274">(N696+N698+N700+N702+N704)/5</f>
         <v>0.63833412963847702</v>
       </c>
       <c r="AH144" s="3">
-        <f t="shared" si="274"/>
+        <f>(O696+O698+O700+O702+O704)/5</f>
         <v>0.62960662525879885</v>
       </c>
       <c r="AI144" s="3">
-        <f t="shared" si="274"/>
+        <f>(P696+P698+P700+P702+P704)/5</f>
         <v>0.62101703683289311</v>
       </c>
       <c r="AJ144" s="3">
-        <f t="shared" si="274"/>
+        <f>(Q696+Q698+Q700+Q702+Q704)/5</f>
         <v>0.59914799253034501</v>
       </c>
       <c r="AK144" s="3">
-        <f t="shared" si="274"/>
+        <f>(R696+R698+R700+R702+R704)/5</f>
         <v>0.57651310886677121</v>
       </c>
       <c r="AL144" s="3">
@@ -19373,24 +19377,24 @@
         <f>(M705+M707+M709+M711+M713)/5</f>
         <v>0.70999999999999974</v>
       </c>
-      <c r="AG145" s="3">
-        <f t="shared" ref="AG145:AK145" si="276">(N705+N707+N709+N711+N713)/5</f>
+      <c r="AG145" s="17">
+        <f t="shared" ref="AG145" si="276">(N705+N707+N709+N711+N713)/5</f>
         <v>0.74094631836508218</v>
       </c>
       <c r="AH145" s="3">
-        <f t="shared" si="276"/>
+        <f>(O705+O707+O709+O711+O713)/5</f>
         <v>0.70999999999999974</v>
       </c>
       <c r="AI145" s="3">
-        <f t="shared" si="276"/>
+        <f>(P705+P707+P709+P711+P713)/5</f>
         <v>0.70676078981477186</v>
       </c>
       <c r="AJ145" s="3">
-        <f t="shared" si="276"/>
+        <f>(Q705+Q707+Q709+Q711+Q713)/5</f>
         <v>0.61482843137254861</v>
       </c>
       <c r="AK145" s="3">
-        <f t="shared" si="276"/>
+        <f>(R705+R707+R709+R711+R713)/5</f>
         <v>0.52068081537309219</v>
       </c>
       <c r="AL145" s="3">
@@ -19495,23 +19499,23 @@
         <v>0.52857142857142791</v>
       </c>
       <c r="AG146" s="3">
-        <f t="shared" ref="AG146:AK146" si="278">(N706+N708+N710+N712+N714)/5</f>
+        <f t="shared" ref="AG146" si="278">(N706+N708+N710+N712+N714)/5</f>
         <v>0.54393495393495339</v>
       </c>
       <c r="AH146" s="3">
-        <f t="shared" si="278"/>
+        <f>(O706+O708+O710+O712+O714)/5</f>
         <v>0.52857142857142791</v>
       </c>
       <c r="AI146" s="3">
-        <f t="shared" si="278"/>
+        <f>(P706+P708+P710+P712+P714)/5</f>
         <v>0.53048593868354232</v>
       </c>
       <c r="AJ146" s="3">
-        <f t="shared" si="278"/>
+        <f>(Q706+Q708+Q710+Q712+Q714)/5</f>
         <v>0.52797619047618982</v>
       </c>
       <c r="AK146" s="3">
-        <f t="shared" si="278"/>
+        <f>(R706+R708+R710+R712+R714)/5</f>
         <v>0.52153246588472102</v>
       </c>
       <c r="AL146" s="3">
@@ -19968,23 +19972,23 @@
         <v>0.63913043478260856</v>
       </c>
       <c r="AG151" s="3">
-        <f t="shared" ref="AG151:AK151" si="280">(N735+N737+N739+N741+N743)/5</f>
+        <f t="shared" ref="AG151" si="280">(N735+N737+N739+N741+N743)/5</f>
         <v>0.59836547891467762</v>
       </c>
       <c r="AH151" s="3">
-        <f t="shared" si="280"/>
+        <f>(O735+O737+O739+O741+O743)/5</f>
         <v>0.63913043478260856</v>
       </c>
       <c r="AI151" s="3">
-        <f t="shared" si="280"/>
+        <f>(P735+P737+P739+P741+P743)/5</f>
         <v>0.61168848482349603</v>
       </c>
       <c r="AJ151" s="3">
-        <f t="shared" si="280"/>
+        <f>(Q735+Q737+Q739+Q741+Q743)/5</f>
         <v>0.45955882352941141</v>
       </c>
       <c r="AK151" s="3">
-        <f t="shared" si="280"/>
+        <f>(R735+R737+R739+R741+R743)/5</f>
         <v>0.20766553442821278</v>
       </c>
       <c r="AL151" s="3">
@@ -20089,23 +20093,23 @@
         <v>0.53766233766233706</v>
       </c>
       <c r="AG152" s="3">
-        <f t="shared" ref="AG152:AK152" si="282">(N736+N738+N740+N742+N744)/5</f>
+        <f t="shared" ref="AG152" si="282">(N736+N738+N740+N742+N744)/5</f>
         <v>0.51206094559035686</v>
       </c>
       <c r="AH152" s="3">
-        <f t="shared" si="282"/>
+        <f>(O736+O738+O740+O742+O744)/5</f>
         <v>0.53766233766233706</v>
       </c>
       <c r="AI152" s="3">
-        <f t="shared" si="282"/>
+        <f>(P736+P738+P740+P742+P744)/5</f>
         <v>0.50657220174461493</v>
       </c>
       <c r="AJ152" s="3">
-        <f t="shared" si="282"/>
+        <f>(Q736+Q738+Q740+Q742+Q744)/5</f>
         <v>0.50992063492063433</v>
       </c>
       <c r="AK152" s="3">
-        <f t="shared" si="282"/>
+        <f>(R736+R738+R740+R742+R744)/5</f>
         <v>0.41742540612282764</v>
       </c>
       <c r="AL152" s="3">
@@ -20210,23 +20214,23 @@
         <v>0.56565217391304334</v>
       </c>
       <c r="AG153" s="3">
-        <f t="shared" ref="AG153:AK153" si="284">(N745+N747+N749+N751+N753)/5</f>
+        <f t="shared" ref="AG153" si="284">(N745+N747+N749+N751+N753)/5</f>
         <v>0.57092414831545213</v>
       </c>
       <c r="AH153" s="3">
-        <f t="shared" si="284"/>
+        <f>(O745+O747+O749+O751+O753)/5</f>
         <v>0.56565217391304334</v>
       </c>
       <c r="AI153" s="3">
-        <f t="shared" si="284"/>
+        <f>(P745+P747+P749+P751+P753)/5</f>
         <v>0.55783331521180446</v>
       </c>
       <c r="AJ153" s="3">
-        <f t="shared" si="284"/>
+        <f>(Q745+Q747+Q749+Q751+Q753)/5</f>
         <v>0.44093137254901904</v>
       </c>
       <c r="AK153" s="3">
-        <f t="shared" si="284"/>
+        <f>(R745+R747+R749+R751+R753)/5</f>
         <v>0.24445449478755563</v>
       </c>
       <c r="AL153" s="3">
@@ -20330,24 +20334,24 @@
         <f>(M746+M748+M750+M752+M754)/5</f>
         <v>0.63160173160173094</v>
       </c>
-      <c r="AG154" s="3">
-        <f t="shared" ref="AG154:AK154" si="286">(N746+N748+N750+N752+N754)/5</f>
+      <c r="AG154" s="15">
+        <f t="shared" ref="AG154" si="286">(N746+N748+N750+N752+N754)/5</f>
         <v>0.63163637016578134</v>
       </c>
       <c r="AH154" s="3">
-        <f t="shared" si="286"/>
+        <f>(O746+O748+O750+O752+O754)/5</f>
         <v>0.63160173160173094</v>
       </c>
       <c r="AI154" s="3">
-        <f t="shared" si="286"/>
+        <f>(P746+P748+P750+P752+P754)/5</f>
         <v>0.5979987504044294</v>
       </c>
       <c r="AJ154" s="3">
-        <f t="shared" si="286"/>
+        <f>(Q746+Q748+Q750+Q752+Q754)/5</f>
         <v>0.59246031746031669</v>
       </c>
       <c r="AK154" s="3">
-        <f t="shared" si="286"/>
+        <f>(R746+R748+R750+R752+R754)/5</f>
         <v>0.56402838658337562</v>
       </c>
       <c r="AL154" s="3">
@@ -20452,23 +20456,23 @@
         <v>0.68913043478260838</v>
       </c>
       <c r="AG155" s="3">
-        <f t="shared" ref="AG155:AK155" si="288">(N755+N757+N759+N761+N763)/5</f>
+        <f t="shared" ref="AG155" si="288">(N755+N757+N759+N761+N763)/5</f>
         <v>0.58711581647881506</v>
       </c>
       <c r="AH155" s="3">
-        <f t="shared" si="288"/>
+        <f>(O755+O757+O759+O761+O763)/5</f>
         <v>0.68913043478260838</v>
       </c>
       <c r="AI155" s="3">
-        <f t="shared" si="288"/>
+        <f>(P755+P757+P759+P761+P763)/5</f>
         <v>0.63191753244384785</v>
       </c>
       <c r="AJ155" s="3">
-        <f t="shared" si="288"/>
+        <f>(Q755+Q757+Q759+Q761+Q763)/5</f>
         <v>0.49080882352941141</v>
       </c>
       <c r="AK155" s="3">
-        <f t="shared" si="288"/>
+        <f>(R755+R757+R759+R761+R763)/5</f>
         <v>0.120811353675968</v>
       </c>
       <c r="AL155" s="3">
@@ -20573,23 +20577,23 @@
         <v>0.50995670995670939</v>
       </c>
       <c r="AG156" s="3">
-        <f t="shared" ref="AG156:AK156" si="290">(N756+N758+N760+N762+N764)/5</f>
+        <f t="shared" ref="AG156" si="290">(N756+N758+N760+N762+N764)/5</f>
         <v>0.54217713401149881</v>
       </c>
       <c r="AH156" s="3">
-        <f t="shared" si="290"/>
+        <f>(O756+O758+O760+O762+O764)/5</f>
         <v>0.50995670995670939</v>
       </c>
       <c r="AI156" s="3">
-        <f t="shared" si="290"/>
+        <f>(P756+P758+P760+P762+P764)/5</f>
         <v>0.4752352591761454</v>
       </c>
       <c r="AJ156" s="3">
-        <f t="shared" si="290"/>
+        <f>(Q756+Q758+Q760+Q762+Q764)/5</f>
         <v>0.49345238095238059</v>
       </c>
       <c r="AK156" s="3">
-        <f t="shared" si="290"/>
+        <f>(R756+R758+R760+R762+R764)/5</f>
         <v>0.44281513968372899</v>
       </c>
       <c r="AL156" s="3">
@@ -20694,23 +20698,23 @@
         <v>0.63173913043478236</v>
       </c>
       <c r="AG157" s="3">
-        <f t="shared" ref="AG157:AK157" si="292">(N765+N767+N769+N771+N773)/5</f>
+        <f t="shared" ref="AG157" si="292">(N765+N767+N769+N771+N773)/5</f>
         <v>0.61481725373974883</v>
       </c>
       <c r="AH157" s="3">
-        <f t="shared" si="292"/>
+        <f>(O765+O767+O769+O771+O773)/5</f>
         <v>0.63173913043478236</v>
       </c>
       <c r="AI157" s="3">
-        <f t="shared" si="292"/>
+        <f>(P765+P767+P769+P771+P773)/5</f>
         <v>0.61758085243092697</v>
       </c>
       <c r="AJ157" s="3">
-        <f t="shared" si="292"/>
+        <f>(Q765+Q767+Q769+Q771+Q773)/5</f>
         <v>0.49436274509803885</v>
       </c>
       <c r="AK157" s="3">
-        <f t="shared" si="292"/>
+        <f>(R765+R767+R769+R771+R773)/5</f>
         <v>0.34326151656168641</v>
       </c>
       <c r="AL157" s="3">
@@ -20815,23 +20819,23 @@
         <v>0.56406926406926339</v>
       </c>
       <c r="AG158" s="3">
-        <f t="shared" ref="AG158:AK158" si="294">(N766+N768+N770+N772+N774)/5</f>
+        <f t="shared" ref="AG158" si="294">(N766+N768+N770+N772+N774)/5</f>
         <v>0.5340775890775884</v>
       </c>
       <c r="AH158" s="3">
-        <f t="shared" si="294"/>
+        <f>(O766+O768+O770+O772+O774)/5</f>
         <v>0.56406926406926339</v>
       </c>
       <c r="AI158" s="3">
-        <f t="shared" si="294"/>
+        <f>(P766+P768+P770+P772+P774)/5</f>
         <v>0.54556750349042349</v>
       </c>
       <c r="AJ158" s="3">
-        <f t="shared" si="294"/>
+        <f>(Q766+Q768+Q770+Q772+Q774)/5</f>
         <v>0.53988095238095202</v>
       </c>
       <c r="AK158" s="3">
-        <f t="shared" si="294"/>
+        <f>(R766+R768+R770+R772+R774)/5</f>
         <v>0.46257398243630082</v>
       </c>
       <c r="AL158" s="3">
@@ -20935,24 +20939,24 @@
         <f>(M775+M777+M779+M781+M783)/5</f>
         <v>0.74999999999999956</v>
       </c>
-      <c r="AG159" s="3">
-        <f t="shared" ref="AG159:AK159" si="296">(N775+N777+N779+N781+N783)/5</f>
+      <c r="AG159" s="17">
+        <f t="shared" ref="AG159" si="296">(N775+N777+N779+N781+N783)/5</f>
         <v>0.73811603571194317</v>
       </c>
       <c r="AH159" s="3">
-        <f t="shared" si="296"/>
+        <f>(O775+O777+O779+O781+O783)/5</f>
         <v>0.74999999999999956</v>
       </c>
       <c r="AI159" s="3">
-        <f t="shared" si="296"/>
+        <f>(P775+P777+P779+P781+P783)/5</f>
         <v>0.72415091515777952</v>
       </c>
       <c r="AJ159" s="3">
-        <f t="shared" si="296"/>
+        <f>(Q775+Q777+Q779+Q781+Q783)/5</f>
         <v>0.61544117647058783</v>
       </c>
       <c r="AK159" s="3">
-        <f t="shared" si="296"/>
+        <f>(R775+R777+R779+R781+R783)/5</f>
         <v>0.56905489892723049</v>
       </c>
       <c r="AL159" s="3">
@@ -21057,23 +21061,23 @@
         <v>0.56666666666666632</v>
       </c>
       <c r="AG160" s="3">
-        <f t="shared" ref="AG160:AK160" si="298">(N776+N778+N780+N782+N784)/5</f>
+        <f t="shared" ref="AG160" si="298">(N776+N778+N780+N782+N784)/5</f>
         <v>0.57780219780219744</v>
       </c>
       <c r="AH160" s="3">
-        <f t="shared" si="298"/>
+        <f>(O776+O778+O780+O782+O784)/5</f>
         <v>0.56666666666666632</v>
       </c>
       <c r="AI160" s="3">
-        <f t="shared" si="298"/>
+        <f>(P776+P778+P780+P782+P784)/5</f>
         <v>0.56694482855204298</v>
       </c>
       <c r="AJ160" s="3">
-        <f t="shared" si="298"/>
+        <f>(Q776+Q778+Q780+Q782+Q784)/5</f>
         <v>0.55575396825396794</v>
       </c>
       <c r="AK160" s="3">
-        <f t="shared" si="298"/>
+        <f>(R776+R778+R780+R782+R784)/5</f>
         <v>0.55280731592145915</v>
       </c>
       <c r="AL160" s="3">
@@ -21178,23 +21182,23 @@
         <v>0.73391304347826036</v>
       </c>
       <c r="AG161" s="3">
-        <f t="shared" ref="AG161:AK161" si="300">(N785+N787+N789+N791+N793)/5</f>
+        <f t="shared" ref="AG161" si="300">(N785+N787+N789+N791+N793)/5</f>
         <v>0.72279503105590026</v>
       </c>
       <c r="AH161" s="3">
-        <f t="shared" si="300"/>
+        <f>(O785+O787+O789+O791+O793)/5</f>
         <v>0.73391304347826036</v>
       </c>
       <c r="AI161" s="3">
-        <f t="shared" si="300"/>
+        <f>(P785+P787+P789+P791+P793)/5</f>
         <v>0.71271918607259799</v>
       </c>
       <c r="AJ161" s="3">
-        <f t="shared" si="300"/>
+        <f>(Q785+Q787+Q789+Q791+Q793)/5</f>
         <v>0.60404411764705823</v>
       </c>
       <c r="AK161" s="3">
-        <f t="shared" si="300"/>
+        <f>(R785+R787+R789+R791+R793)/5</f>
         <v>0.5607744795312074</v>
       </c>
       <c r="AL161" s="3">
@@ -21299,23 +21303,23 @@
         <v>0.54761904761904734</v>
       </c>
       <c r="AG162" s="3">
-        <f t="shared" ref="AG162:AK162" si="302">(N786+N788+N790+N792+N794)/5</f>
+        <f t="shared" ref="AG162" si="302">(N786+N788+N790+N792+N794)/5</f>
         <v>0.55416583416583376</v>
       </c>
       <c r="AH162" s="3">
-        <f t="shared" si="302"/>
+        <f>(O786+O788+O790+O792+O794)/5</f>
         <v>0.54761904761904734</v>
       </c>
       <c r="AI162" s="3">
-        <f t="shared" si="302"/>
+        <f>(P786+P788+P790+P792+P794)/5</f>
         <v>0.54970731227562541</v>
       </c>
       <c r="AJ162" s="3">
-        <f t="shared" si="302"/>
+        <f>(Q786+Q788+Q790+Q792+Q794)/5</f>
         <v>0.53908730158730123</v>
       </c>
       <c r="AK162" s="3">
-        <f t="shared" si="302"/>
+        <f>(R786+R788+R790+R792+R794)/5</f>
         <v>0.53423589900308266</v>
       </c>
       <c r="AL162" s="3">
@@ -21420,23 +21424,23 @@
         <v>0.65175983436852958</v>
       </c>
       <c r="AG163" s="3">
-        <f t="shared" ref="AG163:AK163" si="304">(N795+N797+N799+N801+N803)/5</f>
+        <f t="shared" ref="AG163" si="304">(N795+N797+N799+N801+N803)/5</f>
         <v>0.57799019191268675</v>
       </c>
       <c r="AH163" s="3">
-        <f t="shared" si="304"/>
+        <f>(O795+O797+O799+O801+O803)/5</f>
         <v>0.65175983436852958</v>
       </c>
       <c r="AI163" s="3">
-        <f t="shared" si="304"/>
+        <f>(P795+P797+P799+P801+P803)/5</f>
         <v>0.60940752512619456</v>
       </c>
       <c r="AJ163" s="3">
-        <f t="shared" si="304"/>
+        <f>(Q795+Q797+Q799+Q801+Q803)/5</f>
         <v>0.5112745098039212</v>
       </c>
       <c r="AK163" s="3">
-        <f t="shared" si="304"/>
+        <f>(R795+R797+R799+R801+R803)/5</f>
         <v>0.29469186639777817</v>
       </c>
       <c r="AL163" s="3">
@@ -21540,24 +21544,24 @@
         <f>(M796+M798+M800+M802+M804)/5</f>
         <v>0.65683982683982656</v>
       </c>
-      <c r="AG164" s="3">
-        <f t="shared" ref="AG164:AK164" si="306">(N796+N798+N800+N802+N804)/5</f>
+      <c r="AG164" s="15">
+        <f t="shared" ref="AG164" si="306">(N796+N798+N800+N802+N804)/5</f>
         <v>0.659805387719826</v>
       </c>
       <c r="AH164" s="3">
-        <f t="shared" si="306"/>
+        <f>(O796+O798+O800+O802+O804)/5</f>
         <v>0.65683982683982656</v>
       </c>
       <c r="AI164" s="3">
-        <f t="shared" si="306"/>
+        <f>(P796+P798+P800+P802+P804)/5</f>
         <v>0.6426776030986554</v>
       </c>
       <c r="AJ164" s="3">
-        <f t="shared" si="306"/>
+        <f>(Q796+Q798+Q800+Q802+Q804)/5</f>
         <v>0.59831349206349194</v>
       </c>
       <c r="AK164" s="3">
-        <f t="shared" si="306"/>
+        <f>(R796+R798+R800+R802+R804)/5</f>
         <v>0.50669909252097955</v>
       </c>
       <c r="AL164" s="3">
@@ -21662,23 +21666,23 @@
         <v>0.6917391304347823</v>
       </c>
       <c r="AG165" s="3">
-        <f t="shared" ref="AG165:AK165" si="308">(N805+N807+N809+N811+N813)/5</f>
+        <f t="shared" ref="AG165" si="308">(N805+N807+N809+N811+N813)/5</f>
         <v>0.60803122258300801</v>
       </c>
       <c r="AH165" s="3">
-        <f t="shared" si="308"/>
+        <f>(O805+O807+O809+O811+O813)/5</f>
         <v>0.6917391304347823</v>
       </c>
       <c r="AI165" s="3">
-        <f t="shared" si="308"/>
+        <f>(P805+P807+P809+P811+P813)/5</f>
         <v>0.63414295614295557</v>
       </c>
       <c r="AJ165" s="3">
-        <f t="shared" si="308"/>
+        <f>(Q805+Q807+Q809+Q811+Q813)/5</f>
         <v>0.48872549019607792</v>
       </c>
       <c r="AK165" s="3">
-        <f t="shared" si="308"/>
+        <f>(R805+R807+R809+R811+R813)/5</f>
         <v>0.2040736334812662</v>
       </c>
       <c r="AL165" s="3">
@@ -21782,24 +21786,24 @@
         <f>(M806+M808+M810+M812+M814)/5</f>
         <v>0.63160173160173072</v>
       </c>
-      <c r="AG166" s="3">
-        <f t="shared" ref="AG166:AK166" si="310">(N806+N808+N810+N812+N814)/5</f>
+      <c r="AG166" s="15">
+        <f t="shared" ref="AG166" si="310">(N806+N808+N810+N812+N814)/5</f>
         <v>0.60884644766997686</v>
       </c>
       <c r="AH166" s="3">
-        <f t="shared" si="310"/>
+        <f>(O806+O808+O810+O812+O814)/5</f>
         <v>0.63160173160173072</v>
       </c>
       <c r="AI166" s="3">
-        <f t="shared" si="310"/>
+        <f>(P806+P808+P810+P812+P814)/5</f>
         <v>0.58699545717444346</v>
       </c>
       <c r="AJ166" s="3">
-        <f t="shared" si="310"/>
+        <f>(Q806+Q808+Q810+Q812+Q814)/5</f>
         <v>0.58174603174603157</v>
       </c>
       <c r="AK166" s="3">
-        <f t="shared" si="310"/>
+        <f>(R806+R808+R810+R812+R814)/5</f>
         <v>0.49572569333847855</v>
       </c>
       <c r="AL166" s="3">
@@ -21904,23 +21908,23 @@
         <v>0.62826086956521698</v>
       </c>
       <c r="AG167" s="3">
-        <f t="shared" ref="AG167:AK167" si="312">(N815+N817+N819+N821+N823)/5</f>
+        <f t="shared" ref="AG167" si="312">(N815+N817+N819+N821+N823)/5</f>
         <v>0.59200246994297312</v>
       </c>
       <c r="AH167" s="3">
-        <f t="shared" si="312"/>
+        <f>(O815+O817+O819+O821+O823)/5</f>
         <v>0.62826086956521698</v>
       </c>
       <c r="AI167" s="3">
-        <f t="shared" si="312"/>
+        <f>(P815+P817+P819+P821+P823)/5</f>
         <v>0.60622202740051656</v>
       </c>
       <c r="AJ167" s="3">
-        <f t="shared" si="312"/>
+        <f>(Q815+Q817+Q819+Q821+Q823)/5</f>
         <v>0.47120098039215641</v>
       </c>
       <c r="AK167" s="3">
-        <f t="shared" si="312"/>
+        <f>(R815+R817+R819+R821+R823)/5</f>
         <v>0.25204176687259838</v>
       </c>
       <c r="AL167" s="3">
@@ -22025,23 +22029,23 @@
         <v>0.59307359307359275</v>
       </c>
       <c r="AG168" s="3">
-        <f t="shared" ref="AG168:AK168" si="314">(N816+N818+N820+N822+N824)/5</f>
+        <f t="shared" ref="AG168" si="314">(N816+N818+N820+N822+N824)/5</f>
         <v>0.59203669346526455</v>
       </c>
       <c r="AH168" s="3">
-        <f t="shared" si="314"/>
+        <f>(O816+O818+O820+O822+O824)/5</f>
         <v>0.59307359307359275</v>
       </c>
       <c r="AI168" s="3">
-        <f t="shared" si="314"/>
+        <f>(P816+P818+P820+P822+P824)/5</f>
         <v>0.57592567996458077</v>
       </c>
       <c r="AJ168" s="3">
-        <f t="shared" si="314"/>
+        <f>(Q816+Q818+Q820+Q822+Q824)/5</f>
         <v>0.56349206349206304</v>
       </c>
       <c r="AK168" s="3">
-        <f t="shared" si="314"/>
+        <f>(R816+R818+R820+R822+R824)/5</f>
         <v>0.55047826848555237</v>
       </c>
       <c r="AL168" s="3">
@@ -22146,23 +22150,23 @@
         <v>0.70260869565217343</v>
       </c>
       <c r="AG169" s="3">
-        <f t="shared" ref="AG169:AK169" si="316">(N825+N827+N829+N831+N833)/5</f>
+        <f t="shared" ref="AG169" si="316">(N825+N827+N829+N831+N833)/5</f>
         <v>0.61828075946870065</v>
       </c>
       <c r="AH169" s="3">
-        <f t="shared" si="316"/>
+        <f>(O825+O827+O829+O831+O833)/5</f>
         <v>0.70260869565217343</v>
       </c>
       <c r="AI169" s="3">
-        <f t="shared" si="316"/>
+        <f>(P825+P827+P829+P831+P833)/5</f>
         <v>0.64853194860059804</v>
       </c>
       <c r="AJ169" s="3">
-        <f t="shared" si="316"/>
+        <f>(Q825+Q827+Q829+Q831+Q833)/5</f>
         <v>0.50147058823529378</v>
       </c>
       <c r="AK169" s="3">
-        <f t="shared" si="316"/>
+        <f>(R825+R827+R829+R831+R833)/5</f>
         <v>0.21562906557150799</v>
       </c>
       <c r="AL169" s="3">
@@ -22267,23 +22271,23 @@
         <v>0.61255411255411185</v>
       </c>
       <c r="AG170" s="3">
-        <f t="shared" ref="AG170:AK170" si="318">(N826+N828+N830+N832+N834)/5</f>
+        <f t="shared" ref="AG170" si="318">(N826+N828+N830+N832+N834)/5</f>
         <v>0.59640669490936815</v>
       </c>
       <c r="AH170" s="3">
-        <f t="shared" si="318"/>
+        <f>(O826+O828+O830+O832+O834)/5</f>
         <v>0.61255411255411185</v>
       </c>
       <c r="AI170" s="3">
-        <f t="shared" si="318"/>
+        <f>(P826+P828+P830+P832+P834)/5</f>
         <v>0.57636762407931674</v>
       </c>
       <c r="AJ170" s="3">
-        <f t="shared" si="318"/>
+        <f>(Q826+Q828+Q830+Q832+Q834)/5</f>
         <v>0.58095238095238066</v>
       </c>
       <c r="AK170" s="3">
-        <f t="shared" si="318"/>
+        <f>(R826+R828+R830+R832+R834)/5</f>
         <v>0.4945463322570906</v>
       </c>
       <c r="AL170" s="3">
@@ -22388,23 +22392,23 @@
         <v>0.73391304347826036</v>
       </c>
       <c r="AG171" s="3">
-        <f t="shared" ref="AG171:AK171" si="320">(N835+N837+N839+N841+N843)/5</f>
+        <f t="shared" ref="AG171" si="320">(N835+N837+N839+N841+N843)/5</f>
         <v>0.67208539622528241</v>
       </c>
       <c r="AH171" s="3">
-        <f t="shared" si="320"/>
+        <f>(O835+O837+O839+O841+O843)/5</f>
         <v>0.73391304347826036</v>
       </c>
       <c r="AI171" s="3">
-        <f t="shared" si="320"/>
+        <f>(P835+P837+P839+P841+P843)/5</f>
         <v>0.69186717193582148</v>
       </c>
       <c r="AJ171" s="3">
-        <f t="shared" si="320"/>
+        <f>(Q835+Q837+Q839+Q841+Q843)/5</f>
         <v>0.56887254901960738</v>
       </c>
       <c r="AK171" s="3">
-        <f t="shared" si="320"/>
+        <f>(R835+R837+R839+R841+R843)/5</f>
         <v>0.4268665502096412</v>
       </c>
       <c r="AL171" s="3">
@@ -22509,23 +22513,23 @@
         <v>0.54545454545454475</v>
       </c>
       <c r="AG172" s="3">
-        <f t="shared" ref="AG172:AK172" si="322">(N836+N838+N840+N842+N844)/5</f>
+        <f t="shared" ref="AG172" si="322">(N836+N838+N840+N842+N844)/5</f>
         <v>0.47942279942279897</v>
       </c>
       <c r="AH172" s="3">
-        <f t="shared" si="322"/>
+        <f>(O836+O838+O840+O842+O844)/5</f>
         <v>0.54545454545454475</v>
       </c>
       <c r="AI172" s="3">
-        <f t="shared" si="322"/>
+        <f>(P836+P838+P840+P842+P844)/5</f>
         <v>0.49681508967223198</v>
       </c>
       <c r="AJ172" s="3">
-        <f t="shared" si="322"/>
+        <f>(Q836+Q838+Q840+Q842+Q844)/5</f>
         <v>0.50773809523809477</v>
       </c>
       <c r="AK172" s="3">
-        <f t="shared" si="322"/>
+        <f>(R836+R838+R840+R842+R844)/5</f>
         <v>0.37303494914532837</v>
       </c>
       <c r="AL172" s="3">
@@ -22630,23 +22634,23 @@
         <v>0.62695652173913019</v>
       </c>
       <c r="AG173" s="3">
-        <f t="shared" ref="AG173:AK173" si="324">(N845+N847+N849+N851+N853)/5</f>
+        <f t="shared" ref="AG173" si="324">(N845+N847+N849+N851+N853)/5</f>
         <v>0.57006864988558337</v>
       </c>
       <c r="AH173" s="3">
-        <f t="shared" si="324"/>
+        <f>(O845+O847+O849+O851+O853)/5</f>
         <v>0.62695652173913019</v>
       </c>
       <c r="AI173" s="3">
-        <f t="shared" si="324"/>
+        <f>(P845+P847+P849+P851+P853)/5</f>
         <v>0.59591069330199731</v>
       </c>
       <c r="AJ173" s="3">
-        <f t="shared" si="324"/>
+        <f>(Q845+Q847+Q849+Q851+Q853)/5</f>
         <v>0.44644607843137207</v>
       </c>
       <c r="AK173" s="3">
-        <f t="shared" si="324"/>
+        <f>(R845+R847+R849+R851+R853)/5</f>
         <v>0.1698905963232602</v>
       </c>
       <c r="AL173" s="3">
@@ -22751,23 +22755,23 @@
         <v>0.53852813852813819</v>
       </c>
       <c r="AG174" s="3">
-        <f t="shared" ref="AG174:AK174" si="326">(N846+N848+N850+N852+N854)/5</f>
+        <f t="shared" ref="AG174" si="326">(N846+N848+N850+N852+N854)/5</f>
         <v>0.52248803827751167</v>
       </c>
       <c r="AH174" s="3">
-        <f t="shared" si="326"/>
+        <f>(O846+O848+O850+O852+O854)/5</f>
         <v>0.53852813852813819</v>
       </c>
       <c r="AI174" s="3">
-        <f t="shared" si="326"/>
+        <f>(P846+P848+P850+P852+P854)/5</f>
         <v>0.48790711592554886</v>
       </c>
       <c r="AJ174" s="3">
-        <f t="shared" si="326"/>
+        <f>(Q846+Q848+Q850+Q852+Q854)/5</f>
         <v>0.49603174603174544</v>
       </c>
       <c r="AK174" s="3">
-        <f t="shared" si="326"/>
+        <f>(R846+R848+R850+R852+R854)/5</f>
         <v>0.37731491625630376</v>
       </c>
       <c r="AL174" s="3">
@@ -22872,23 +22876,23 @@
         <v>0.55826086956521725</v>
       </c>
       <c r="AG175" s="3">
-        <f t="shared" ref="AG175:AK175" si="328">(N855+N857+N859+N861+N863)/5</f>
+        <f t="shared" ref="AG175" si="328">(N855+N857+N859+N861+N863)/5</f>
         <v>0.54201690821256021</v>
       </c>
       <c r="AH175" s="3">
-        <f t="shared" si="328"/>
+        <f>(O855+O857+O859+O861+O863)/5</f>
         <v>0.55826086956521725</v>
       </c>
       <c r="AI175" s="3">
-        <f t="shared" si="328"/>
+        <f>(P855+P857+P859+P861+P863)/5</f>
         <v>0.54587907814452397</v>
       </c>
       <c r="AJ175" s="3">
-        <f t="shared" si="328"/>
+        <f>(Q855+Q857+Q859+Q861+Q863)/5</f>
         <v>0.39509803921568576</v>
       </c>
       <c r="AK175" s="3">
-        <f t="shared" si="328"/>
+        <f>(R855+R857+R859+R861+R863)/5</f>
         <v>0.13783115457630341</v>
       </c>
       <c r="AL175" s="3">
@@ -22993,23 +22997,23 @@
         <v>0.59393939393939343</v>
       </c>
       <c r="AG176" s="3">
-        <f t="shared" ref="AG176:AK176" si="330">(N856+N858+N860+N862+N864)/5</f>
+        <f t="shared" ref="AG176" si="330">(N856+N858+N860+N862+N864)/5</f>
         <v>0.60016496661233454</v>
       </c>
       <c r="AH176" s="3">
-        <f t="shared" si="330"/>
+        <f>(O856+O858+O860+O862+O864)/5</f>
         <v>0.59393939393939343</v>
       </c>
       <c r="AI176" s="3">
-        <f t="shared" si="330"/>
+        <f>(P856+P858+P860+P862+P864)/5</f>
         <v>0.56488335158110115</v>
       </c>
       <c r="AJ176" s="3">
-        <f t="shared" si="330"/>
+        <f>(Q856+Q858+Q860+Q862+Q864)/5</f>
         <v>0.55496031746031682</v>
       </c>
       <c r="AK176" s="3">
-        <f t="shared" si="330"/>
+        <f>(R856+R858+R860+R862+R864)/5</f>
         <v>0.52890307939401537</v>
       </c>
       <c r="AL176" s="3">
@@ -23114,23 +23118,23 @@
         <v>0.72391304347826035</v>
       </c>
       <c r="AG177" s="3">
-        <f t="shared" ref="AG177:AK177" si="332">(N865+N867+N869+N871+N873)/5</f>
+        <f t="shared" ref="AG177" si="332">(N865+N867+N869+N871+N873)/5</f>
         <v>0.65255577507094742</v>
       </c>
       <c r="AH177" s="3">
-        <f t="shared" si="332"/>
+        <f>(O865+O867+O869+O871+O873)/5</f>
         <v>0.72391304347826035</v>
       </c>
       <c r="AI177" s="3">
-        <f t="shared" si="332"/>
+        <f>(P865+P867+P869+P871+P873)/5</f>
         <v>0.67858450474011067</v>
       </c>
       <c r="AJ177" s="3">
-        <f t="shared" si="332"/>
+        <f>(Q865+Q867+Q869+Q871+Q873)/5</f>
         <v>0.54669117647058774</v>
       </c>
       <c r="AK177" s="3">
-        <f t="shared" si="332"/>
+        <f>(R865+R867+R869+R871+R873)/5</f>
         <v>0.32819778572516495</v>
       </c>
       <c r="AL177" s="3">
@@ -23235,23 +23239,23 @@
         <v>0.56623376623376576</v>
       </c>
       <c r="AG178" s="3">
-        <f t="shared" ref="AG178:AK178" si="334">(N866+N868+N870+N872+N874)/5</f>
+        <f t="shared" ref="AG178" si="334">(N866+N868+N870+N872+N874)/5</f>
         <v>0.56306748806748752</v>
       </c>
       <c r="AH178" s="3">
-        <f t="shared" si="334"/>
+        <f>(O866+O868+O870+O872+O874)/5</f>
         <v>0.56623376623376576</v>
       </c>
       <c r="AI178" s="3">
-        <f t="shared" si="334"/>
+        <f>(P866+P868+P870+P872+P874)/5</f>
         <v>0.5599918512859684</v>
       </c>
       <c r="AJ178" s="3">
-        <f t="shared" si="334"/>
+        <f>(Q866+Q868+Q870+Q872+Q874)/5</f>
         <v>0.54642857142857104</v>
       </c>
       <c r="AK178" s="3">
-        <f t="shared" si="334"/>
+        <f>(R866+R868+R870+R872+R874)/5</f>
         <v>0.52974981976842905</v>
       </c>
       <c r="AL178" s="3">
@@ -23356,23 +23360,23 @@
         <v>0.71260869565217333</v>
       </c>
       <c r="AG179" s="3">
-        <f t="shared" ref="AG179:AK179" si="336">(N875+N877+N879+N881+N883)/5</f>
+        <f t="shared" ref="AG179" si="336">(N875+N877+N879+N881+N883)/5</f>
         <v>0.67781962639887183</v>
       </c>
       <c r="AH179" s="3">
-        <f t="shared" si="336"/>
+        <f>(O875+O877+O879+O881+O883)/5</f>
         <v>0.71260869565217333</v>
       </c>
       <c r="AI179" s="3">
-        <f t="shared" si="336"/>
+        <f>(P875+P877+P879+P881+P883)/5</f>
         <v>0.67567199834934322</v>
       </c>
       <c r="AJ179" s="3">
-        <f t="shared" si="336"/>
+        <f>(Q875+Q877+Q879+Q881+Q883)/5</f>
         <v>0.57475490196078405</v>
       </c>
       <c r="AK179" s="3">
-        <f t="shared" si="336"/>
+        <f>(R875+R877+R879+R881+R883)/5</f>
         <v>0.42598820437968482</v>
       </c>
       <c r="AL179" s="3">
@@ -23477,23 +23481,23 @@
         <v>0.58441558441558372</v>
       </c>
       <c r="AG180" s="3">
-        <f t="shared" ref="AG180:AK180" si="338">(N876+N878+N880+N882+N884)/5</f>
+        <f t="shared" ref="AG180" si="338">(N876+N878+N880+N882+N884)/5</f>
         <v>0.56277415395062425</v>
       </c>
       <c r="AH180" s="3">
-        <f t="shared" si="338"/>
+        <f>(O876+O878+O880+O882+O884)/5</f>
         <v>0.58441558441558372</v>
       </c>
       <c r="AI180" s="3">
-        <f t="shared" si="338"/>
+        <f>(P876+P878+P880+P882+P884)/5</f>
         <v>0.55980957064121317</v>
       </c>
       <c r="AJ180" s="3">
-        <f t="shared" si="338"/>
+        <f>(Q876+Q878+Q880+Q882+Q884)/5</f>
         <v>0.56011904761904741</v>
       </c>
       <c r="AK180" s="3">
-        <f t="shared" si="338"/>
+        <f>(R876+R878+R880+R882+R884)/5</f>
         <v>0.51411137579028721</v>
       </c>
       <c r="AL180" s="3">

--- a/Resultados/CV DA completo/Resultados EMD CV DA.xlsx
+++ b/Resultados/CV DA completo/Resultados EMD CV DA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\TFG\Transfer-Learning-EDM\Resultados\CV DA completo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F78B99-F083-488F-9216-AB9EB54248C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA997CBD-788F-43F8-833F-B0A16A61DD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1722,7 +1722,7 @@
     <xf numFmtId="3" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2016,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AU884"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S21" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO10" sqref="AO10"/>
+    <sheetView tabSelected="1" topLeftCell="T74" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="AK122" sqref="AK122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3055,19 +3055,19 @@
         <v>0.7461122551787509</v>
       </c>
       <c r="AH9" s="3">
-        <f>(O33+O35+O37+O39+O41)/5</f>
+        <f t="shared" ref="AH9:AK10" si="12">(O33+O35+O37+O39+O41)/5</f>
         <v>0.52869565217391279</v>
       </c>
       <c r="AI9" s="3">
-        <f>(P33+P35+P37+P39+P41)/5</f>
+        <f t="shared" si="12"/>
         <v>0.50248341030949673</v>
       </c>
       <c r="AJ9" s="3">
-        <f>(Q33+Q35+Q37+Q39+Q41)/5</f>
+        <f t="shared" si="12"/>
         <v>0.55355392156862726</v>
       </c>
       <c r="AK9" s="3">
-        <f>(R33+R35+R37+R39+R41)/5</f>
+        <f t="shared" si="12"/>
         <v>0.47996229561108822</v>
       </c>
       <c r="AL9" s="3">
@@ -3156,15 +3156,15 @@
         <v>22</v>
       </c>
       <c r="AC10" s="3">
-        <f t="shared" ref="AC10:AE10" si="12">(J34+J36+J38+J40+J42)</f>
+        <f t="shared" ref="AC10:AE10" si="13">(J34+J36+J38+J40+J42)</f>
         <v>22</v>
       </c>
       <c r="AD10" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="AE10" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>38</v>
       </c>
       <c r="AF10" s="3">
@@ -3172,23 +3172,23 @@
         <v>0.56580086580086542</v>
       </c>
       <c r="AG10" s="3">
-        <f t="shared" ref="AG10" si="13">(N34+N36+N38+N40+N42)/5</f>
+        <f t="shared" ref="AG10" si="14">(N34+N36+N38+N40+N42)/5</f>
         <v>0.47278340706912092</v>
       </c>
       <c r="AH10" s="3">
-        <f>(O34+O36+O38+O40+O42)/5</f>
+        <f t="shared" si="12"/>
         <v>0.56580086580086542</v>
       </c>
       <c r="AI10" s="3">
-        <f>(P34+P36+P38+P40+P42)/5</f>
+        <f t="shared" si="12"/>
         <v>0.49289488836286821</v>
       </c>
       <c r="AJ10" s="3">
-        <f>(Q34+Q36+Q38+Q40+Q42)/5</f>
+        <f t="shared" si="12"/>
         <v>0.55337301587301568</v>
       </c>
       <c r="AK10" s="3">
-        <f>(R34+R36+R38+R40+R42)/5</f>
+        <f t="shared" si="12"/>
         <v>0.34471965265779303</v>
       </c>
       <c r="AL10" s="3">
@@ -3277,15 +3277,15 @@
         <v>17</v>
       </c>
       <c r="AC11" s="3">
-        <f t="shared" ref="AC11:AE11" si="14">(J43+J45+J47+J49+J51)</f>
+        <f t="shared" ref="AC11:AE11" si="15">(J43+J45+J47+J49+J51)</f>
         <v>11</v>
       </c>
       <c r="AD11" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="AE11" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>54</v>
       </c>
       <c r="AF11" s="3">
@@ -3293,23 +3293,23 @@
         <v>0.63826086956521721</v>
       </c>
       <c r="AG11" s="3">
-        <f t="shared" ref="AG11" si="15">(N43+N45+N47+N49+N51)/5</f>
+        <f t="shared" ref="AG11" si="16">(N43+N45+N47+N49+N51)/5</f>
         <v>0.72705605051385058</v>
       </c>
       <c r="AH11" s="3">
-        <f>(O43+O45+O47+O49+O51)/5</f>
+        <f t="shared" ref="AH11:AK12" si="17">(O43+O45+O47+O49+O51)/5</f>
         <v>0.63826086956521721</v>
       </c>
       <c r="AI11" s="3">
-        <f>(P43+P45+P47+P49+P51)/5</f>
+        <f t="shared" si="17"/>
         <v>0.61714038719988329</v>
       </c>
       <c r="AJ11" s="3">
-        <f>(Q43+Q45+Q47+Q49+Q51)/5</f>
+        <f t="shared" si="17"/>
         <v>0.60686274509803861</v>
       </c>
       <c r="AK11" s="3">
-        <f>(R43+R45+R47+R49+R51)/5</f>
+        <f t="shared" si="17"/>
         <v>0.45466136640636245</v>
       </c>
       <c r="AL11" s="3">
@@ -3398,15 +3398,15 @@
         <v>27</v>
       </c>
       <c r="AC12" s="3">
-        <f t="shared" ref="AC12:AE12" si="16">(J44+J46+J48+J50+J52)</f>
+        <f t="shared" ref="AC12:AE12" si="18">(J44+J46+J48+J50+J52)</f>
         <v>17</v>
       </c>
       <c r="AD12" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>29</v>
       </c>
       <c r="AE12" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>33</v>
       </c>
       <c r="AF12" s="3">
@@ -3414,23 +3414,23 @@
         <v>0.56406926406926339</v>
       </c>
       <c r="AG12" s="15">
-        <f t="shared" ref="AG12" si="17">(N44+N46+N48+N50+N52)/5</f>
+        <f t="shared" ref="AG12" si="19">(N44+N46+N48+N50+N52)/5</f>
         <v>0.61165885308852996</v>
       </c>
       <c r="AH12" s="3">
-        <f>(O44+O46+O48+O50+O52)/5</f>
+        <f t="shared" si="17"/>
         <v>0.56406926406926339</v>
       </c>
       <c r="AI12" s="3">
-        <f>(P44+P46+P48+P50+P52)/5</f>
+        <f t="shared" si="17"/>
         <v>0.53796756363066456</v>
       </c>
       <c r="AJ12" s="3">
-        <f>(Q44+Q46+Q48+Q50+Q52)/5</f>
+        <f t="shared" si="17"/>
         <v>0.56249999999999956</v>
       </c>
       <c r="AK12" s="3">
-        <f>(R44+R46+R48+R50+R52)/5</f>
+        <f t="shared" si="17"/>
         <v>0.5489156753491834</v>
       </c>
       <c r="AL12" s="3">
@@ -3519,15 +3519,15 @@
         <v>16</v>
       </c>
       <c r="AC13" s="3">
-        <f t="shared" ref="AC13:AE13" si="18">(J53+J55+J57+J59+J61)</f>
+        <f t="shared" ref="AC13:AE13" si="20">(J53+J55+J57+J59+J61)</f>
         <v>15</v>
       </c>
       <c r="AD13" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>44</v>
       </c>
       <c r="AE13" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>35</v>
       </c>
       <c r="AF13" s="3">
@@ -3535,23 +3535,23 @@
         <v>0.46658385093167665</v>
       </c>
       <c r="AG13" s="3">
-        <f t="shared" ref="AG13" si="19">(N53+N55+N57+N59+N61)/5</f>
+        <f t="shared" ref="AG13" si="21">(N53+N55+N57+N59+N61)/5</f>
         <v>0.57483020793089401</v>
       </c>
       <c r="AH13" s="3">
-        <f>(O53+O55+O57+O59+O61)/5</f>
+        <f t="shared" ref="AH13:AK14" si="22">(O53+O55+O57+O59+O61)/5</f>
         <v>0.46658385093167665</v>
       </c>
       <c r="AI13" s="3">
-        <f>(P53+P55+P57+P59+P61)/5</f>
+        <f t="shared" si="22"/>
         <v>0.47369639549972842</v>
       </c>
       <c r="AJ13" s="3">
-        <f>(Q53+Q55+Q57+Q59+Q61)/5</f>
+        <f t="shared" si="22"/>
         <v>0.48296568627450964</v>
       </c>
       <c r="AK13" s="3">
-        <f>(R53+R55+R57+R59+R61)/5</f>
+        <f t="shared" si="22"/>
         <v>0.42836945434376422</v>
       </c>
       <c r="AL13" s="3">
@@ -3640,15 +3640,15 @@
         <v>23</v>
       </c>
       <c r="AC14" s="3">
-        <f t="shared" ref="AC14:AE14" si="20">(J54+J56+J58+J60+J62)</f>
+        <f t="shared" ref="AC14:AE14" si="23">(J54+J56+J58+J60+J62)</f>
         <v>18</v>
       </c>
       <c r="AD14" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>33</v>
       </c>
       <c r="AE14" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>34</v>
       </c>
       <c r="AF14" s="3">
@@ -3656,23 +3656,23 @@
         <v>0.52926783361565921</v>
       </c>
       <c r="AG14" s="3">
-        <f t="shared" ref="AG14" si="21">(N54+N56+N58+N60+N62)/5</f>
+        <f t="shared" ref="AG14" si="24">(N54+N56+N58+N60+N62)/5</f>
         <v>0.54057522877398601</v>
       </c>
       <c r="AH14" s="3">
-        <f>(O54+O56+O58+O60+O62)/5</f>
+        <f t="shared" si="22"/>
         <v>0.52926783361565921</v>
       </c>
       <c r="AI14" s="3">
-        <f>(P54+P56+P58+P60+P62)/5</f>
+        <f t="shared" si="22"/>
         <v>0.43794121337599556</v>
       </c>
       <c r="AJ14" s="3">
-        <f>(Q54+Q56+Q58+Q60+Q62)/5</f>
+        <f t="shared" si="22"/>
         <v>0.55866013071895426</v>
       </c>
       <c r="AK14" s="3">
-        <f>(R54+R56+R58+R60+R62)/5</f>
+        <f t="shared" si="22"/>
         <v>0.3309515991735934</v>
       </c>
       <c r="AL14" s="3">
@@ -3761,15 +3761,15 @@
         <v>14</v>
       </c>
       <c r="AC15" s="3">
-        <f t="shared" ref="AC15:AE15" si="22">(J63+J65+J67+J68+J71)</f>
+        <f t="shared" ref="AC15:AE15" si="25">(J63+J65+J67+J68+J71)</f>
         <v>14</v>
       </c>
       <c r="AD15" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>26</v>
       </c>
       <c r="AE15" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>58</v>
       </c>
       <c r="AF15" s="3">
@@ -3777,7 +3777,7 @@
         <v>0.63913043478260845</v>
       </c>
       <c r="AG15" s="17">
-        <f t="shared" ref="AG15" si="23">(N63+N65+N67+N68+N71)/5</f>
+        <f t="shared" ref="AG15" si="26">(N63+N65+N67+N68+N71)/5</f>
         <v>0.75704874835309588</v>
       </c>
       <c r="AH15" s="3">
@@ -3882,15 +3882,15 @@
         <v>16</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" ref="AC16:AE16" si="24">(J64+J66+J69+J72+J70)</f>
+        <f t="shared" ref="AC16:AE16" si="27">(J64+J66+J69+J72+J70)</f>
         <v>28</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>27</v>
       </c>
       <c r="AE16" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>35</v>
       </c>
       <c r="AF16" s="3">
@@ -3898,7 +3898,7 @@
         <v>0.48181818181818137</v>
       </c>
       <c r="AG16" s="3">
-        <f t="shared" ref="AG16" si="25">(N64+N66+N69+N72+N70)/5</f>
+        <f t="shared" ref="AG16" si="28">(N64+N66+N69+N72+N70)/5</f>
         <v>0.56853535672642208</v>
       </c>
       <c r="AH16" s="3">
@@ -4003,15 +4003,15 @@
         <v>12</v>
       </c>
       <c r="AC17" s="3">
-        <f t="shared" ref="AC17:AE17" si="26">(J73+J75+J77+J79+J81)</f>
+        <f t="shared" ref="AC17:AE17" si="29">(J73+J75+J77+J79+J81)</f>
         <v>16</v>
       </c>
       <c r="AD17" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>41</v>
       </c>
       <c r="AE17" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>43</v>
       </c>
       <c r="AF17" s="3">
@@ -4019,23 +4019,23 @@
         <v>0.48608695652173878</v>
       </c>
       <c r="AG17" s="3">
-        <f t="shared" ref="AG17" si="27">(N73+N75+N77+N79+N81)/5</f>
+        <f t="shared" ref="AG17" si="30">(N73+N75+N77+N79+N81)/5</f>
         <v>0.6159846916368652</v>
       </c>
       <c r="AH17" s="3">
-        <f>(O73+O75+O77+O79+O81)/5</f>
+        <f t="shared" ref="AH17:AK18" si="31">(O73+O75+O77+O79+O81)/5</f>
         <v>0.48608695652173878</v>
       </c>
       <c r="AI17" s="3">
-        <f>(P73+P75+P77+P79+P81)/5</f>
+        <f t="shared" si="31"/>
         <v>0.45501021144041676</v>
       </c>
       <c r="AJ17" s="3">
-        <f>(Q73+Q75+Q77+Q79+Q81)/5</f>
+        <f t="shared" si="31"/>
         <v>0.4710784313725484</v>
       </c>
       <c r="AK17" s="3">
-        <f>(R73+R75+R77+R79+R81)/5</f>
+        <f t="shared" si="31"/>
         <v>0.25109506759992861</v>
       </c>
       <c r="AL17" s="3">
@@ -4124,15 +4124,15 @@
         <v>22</v>
       </c>
       <c r="AC18" s="3">
-        <f t="shared" ref="AC18:AE18" si="28">(J74+J76+J78+J80+J82)</f>
+        <f t="shared" ref="AC18:AE18" si="32">(J74+J76+J78+J80+J82)</f>
         <v>22</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>35</v>
       </c>
       <c r="AE18" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>27</v>
       </c>
       <c r="AF18" s="3">
@@ -4140,23 +4140,23 @@
         <v>0.46320346320346284</v>
       </c>
       <c r="AG18" s="3">
-        <f t="shared" ref="AG18" si="29">(N74+N76+N78+N80+N82)/5</f>
+        <f t="shared" ref="AG18" si="33">(N74+N76+N78+N80+N82)/5</f>
         <v>0.44984764153595275</v>
       </c>
       <c r="AH18" s="3">
-        <f>(O74+O76+O78+O80+O82)/5</f>
+        <f t="shared" si="31"/>
         <v>0.46320346320346284</v>
       </c>
       <c r="AI18" s="3">
-        <f>(P74+P76+P78+P80+P82)/5</f>
+        <f t="shared" si="31"/>
         <v>0.39448078600415892</v>
       </c>
       <c r="AJ18" s="3">
-        <f>(Q74+Q76+Q78+Q80+Q82)/5</f>
+        <f t="shared" si="31"/>
         <v>0.48055555555555518</v>
       </c>
       <c r="AK18" s="3">
-        <f>(R74+R76+R78+R80+R82)/5</f>
+        <f t="shared" si="31"/>
         <v>0.35531298021783736</v>
       </c>
       <c r="AL18" s="3">
@@ -4245,15 +4245,15 @@
         <v>19</v>
       </c>
       <c r="AC19" s="3">
-        <f t="shared" ref="AC19:AE19" si="30">(J83+J85+J87+J89+J91)</f>
+        <f t="shared" ref="AC19:AE19" si="34">(J83+J85+J87+J89+J91)</f>
         <v>9</v>
       </c>
       <c r="AD19" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>38</v>
       </c>
       <c r="AE19" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>46</v>
       </c>
       <c r="AF19" s="3">
@@ -4261,23 +4261,23 @@
         <v>0.5730434782608691</v>
       </c>
       <c r="AG19" s="17">
-        <f t="shared" ref="AG19" si="31">(N83+N85+N87+N89+N91)/5</f>
+        <f t="shared" ref="AG19" si="35">(N83+N85+N87+N89+N91)/5</f>
         <v>0.7518200252582401</v>
       </c>
       <c r="AH19" s="3">
-        <f>(O83+O85+O87+O89+O91)/5</f>
+        <f t="shared" ref="AH19:AK20" si="36">(O83+O85+O87+O89+O91)/5</f>
         <v>0.5730434782608691</v>
       </c>
       <c r="AI19" s="3">
-        <f>(P83+P85+P87+P89+P91)/5</f>
+        <f t="shared" si="36"/>
         <v>0.57163924913123931</v>
       </c>
       <c r="AJ19" s="3">
-        <f>(Q83+Q85+Q87+Q89+Q91)/5</f>
+        <f t="shared" si="36"/>
         <v>0.62132352941176427</v>
       </c>
       <c r="AK19" s="3">
-        <f>(R83+R85+R87+R89+R91)/5</f>
+        <f t="shared" si="36"/>
         <v>0.57391091106185832</v>
       </c>
       <c r="AL19" s="3">
@@ -4366,15 +4366,15 @@
         <v>31</v>
       </c>
       <c r="AC20" s="3">
-        <f t="shared" ref="AC20:AE20" si="32">(J84+J86+J88+J90+J92)</f>
+        <f t="shared" ref="AC20:AE20" si="37">(J84+J86+J88+J90+J92)</f>
         <v>13</v>
       </c>
       <c r="AD20" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>45</v>
       </c>
       <c r="AE20" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>17</v>
       </c>
       <c r="AF20" s="3">
@@ -4382,23 +4382,23 @@
         <v>0.45324675324675284</v>
       </c>
       <c r="AG20" s="3">
-        <f t="shared" ref="AG20" si="33">(N84+N86+N88+N90+N92)/5</f>
+        <f t="shared" ref="AG20" si="38">(N84+N86+N88+N90+N92)/5</f>
         <v>0.50916154021417115</v>
       </c>
       <c r="AH20" s="3">
-        <f>(O84+O86+O88+O90+O92)/5</f>
+        <f t="shared" si="36"/>
         <v>0.45324675324675284</v>
       </c>
       <c r="AI20" s="3">
-        <f>(P84+P86+P88+P90+P92)/5</f>
+        <f t="shared" si="36"/>
         <v>0.3931444901192796</v>
       </c>
       <c r="AJ20" s="3">
-        <f>(Q84+Q86+Q88+Q90+Q92)/5</f>
+        <f t="shared" si="36"/>
         <v>0.49345238095238059</v>
       </c>
       <c r="AK20" s="3">
-        <f>(R84+R86+R88+R90+R92)/5</f>
+        <f t="shared" si="36"/>
         <v>0.41940835062367554</v>
       </c>
       <c r="AL20" s="3">
@@ -4487,15 +4487,15 @@
         <v>17</v>
       </c>
       <c r="AC21" s="3">
-        <f t="shared" ref="AC21:AE21" si="34">(J93+J95+J97+J99+J101)</f>
+        <f t="shared" ref="AC21:AE21" si="39">(J93+J95+J97+J99+J101)</f>
         <v>11</v>
       </c>
       <c r="AD21" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>49</v>
       </c>
       <c r="AE21" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>35</v>
       </c>
       <c r="AF21" s="3">
@@ -4503,23 +4503,23 @@
         <v>0.45739130434782582</v>
       </c>
       <c r="AG21" s="3">
-        <f t="shared" ref="AG21" si="35">(N93+N95+N97+N99+N101)/5</f>
+        <f t="shared" ref="AG21" si="40">(N93+N95+N97+N99+N101)/5</f>
         <v>0.54679795396419395</v>
       </c>
       <c r="AH21" s="3">
-        <f>(O93+O95+O97+O99+O101)/5</f>
+        <f t="shared" ref="AH21:AK22" si="41">(O93+O95+O97+O99+O101)/5</f>
         <v>0.45739130434782582</v>
       </c>
       <c r="AI21" s="3">
-        <f>(P93+P95+P97+P99+P101)/5</f>
+        <f t="shared" si="41"/>
         <v>0.41241864161772568</v>
       </c>
       <c r="AJ21" s="3">
-        <f>(Q93+Q95+Q97+Q99+Q101)/5</f>
+        <f t="shared" si="41"/>
         <v>0.52254901960784261</v>
       </c>
       <c r="AK21" s="3">
-        <f>(R93+R95+R97+R99+R101)/5</f>
+        <f t="shared" si="41"/>
         <v>0.36880367976850542</v>
       </c>
       <c r="AL21" s="3">
@@ -4608,15 +4608,15 @@
         <v>19</v>
       </c>
       <c r="AC22" s="3">
-        <f t="shared" ref="AC22:AE22" si="36">(J94+J96+J98+J100+J102)</f>
+        <f t="shared" ref="AC22:AE22" si="42">(J94+J96+J98+J100+J102)</f>
         <v>25</v>
       </c>
       <c r="AD22" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>40</v>
       </c>
       <c r="AE22" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>22</v>
       </c>
       <c r="AF22" s="3">
@@ -4624,23 +4624,23 @@
         <v>0.38658008658008619</v>
       </c>
       <c r="AG22" s="3">
-        <f t="shared" ref="AG22" si="37">(N94+N96+N98+N100+N102)/5</f>
+        <f t="shared" ref="AG22" si="43">(N94+N96+N98+N100+N102)/5</f>
         <v>0.38375158675910503</v>
       </c>
       <c r="AH22" s="3">
-        <f>(O94+O96+O98+O100+O102)/5</f>
+        <f t="shared" si="41"/>
         <v>0.38658008658008619</v>
       </c>
       <c r="AI22" s="3">
-        <f>(P94+P96+P98+P100+P102)/5</f>
+        <f t="shared" si="41"/>
         <v>0.34141764553529202</v>
       </c>
       <c r="AJ22" s="3">
-        <f>(Q94+Q96+Q98+Q100+Q102)/5</f>
+        <f t="shared" si="41"/>
         <v>0.40178571428571397</v>
       </c>
       <c r="AK22" s="3">
-        <f>(R94+R96+R98+R100+R102)/5</f>
+        <f t="shared" si="41"/>
         <v>0.28488954270425859</v>
       </c>
       <c r="AL22" s="3">
@@ -4729,15 +4729,15 @@
         <v>15</v>
       </c>
       <c r="AC23" s="3">
-        <f t="shared" ref="AC23:AE23" si="38">(J103+J105+J107+J109+J111)</f>
+        <f t="shared" ref="AC23:AE23" si="44">(J103+J105+J107+J109+J111)</f>
         <v>13</v>
       </c>
       <c r="AD23" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>33</v>
       </c>
       <c r="AE23" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>51</v>
       </c>
       <c r="AF23" s="3">
@@ -4745,23 +4745,23 @@
         <v>0.59086956521739098</v>
       </c>
       <c r="AG23" s="3">
-        <f t="shared" ref="AG23" si="39">(N103+N105+N107+N109+N111)/5</f>
+        <f t="shared" ref="AG23" si="45">(N103+N105+N107+N109+N111)/5</f>
         <v>0.58312390304384032</v>
       </c>
       <c r="AH23" s="3">
-        <f>(O103+O105+O107+O109+O111)/5</f>
+        <f t="shared" ref="AH23:AK24" si="46">(O103+O105+O107+O109+O111)/5</f>
         <v>0.59086956521739098</v>
       </c>
       <c r="AI23" s="3">
-        <f>(P103+P105+P107+P109+P111)/5</f>
+        <f t="shared" si="46"/>
         <v>0.55861090985607642</v>
       </c>
       <c r="AJ23" s="3">
-        <f>(Q103+Q105+Q107+Q109+Q111)/5</f>
+        <f t="shared" si="46"/>
         <v>0.55477941176470558</v>
       </c>
       <c r="AK23" s="3">
-        <f>(R103+R105+R107+R109+R111)/5</f>
+        <f t="shared" si="46"/>
         <v>0.36985982851294241</v>
       </c>
       <c r="AL23" s="3">
@@ -4850,15 +4850,15 @@
         <v>21</v>
       </c>
       <c r="AC24" s="3">
-        <f t="shared" ref="AC24:AE24" si="40">(J104+J106+J108+J110+J112)</f>
+        <f t="shared" ref="AC24:AE24" si="47">(J104+J106+J108+J110+J112)</f>
         <v>23</v>
       </c>
       <c r="AD24" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>31</v>
       </c>
       <c r="AE24" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>31</v>
       </c>
       <c r="AF24" s="3">
@@ -4866,23 +4866,23 @@
         <v>0.49004329004328939</v>
       </c>
       <c r="AG24" s="3">
-        <f t="shared" ref="AG24" si="41">(N104+N106+N108+N110+N112)/5</f>
+        <f t="shared" ref="AG24" si="48">(N104+N106+N108+N110+N112)/5</f>
         <v>0.41847990944629565</v>
       </c>
       <c r="AH24" s="3">
-        <f>(O104+O106+O108+O110+O112)/5</f>
+        <f t="shared" si="46"/>
         <v>0.49004329004328939</v>
       </c>
       <c r="AI24" s="3">
-        <f>(P104+P106+P108+P110+P112)/5</f>
+        <f t="shared" si="46"/>
         <v>0.43748555974113756</v>
       </c>
       <c r="AJ24" s="3">
-        <f>(Q104+Q106+Q108+Q110+Q112)/5</f>
+        <f t="shared" si="46"/>
         <v>0.48253968253968227</v>
       </c>
       <c r="AK24" s="3">
-        <f>(R104+R106+R108+R110+R112)/5</f>
+        <f t="shared" si="46"/>
         <v>0.3041427664693182</v>
       </c>
       <c r="AL24" s="3">
@@ -4971,15 +4971,15 @@
         <v>18</v>
       </c>
       <c r="AC25" s="3">
-        <f t="shared" ref="AC25:AE25" si="42">(J113+J115+J117+J119+J121)</f>
+        <f t="shared" ref="AC25:AE25" si="49">(J113+J115+J117+J119+J121)</f>
         <v>15</v>
       </c>
       <c r="AD25" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>38</v>
       </c>
       <c r="AE25" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>42</v>
       </c>
       <c r="AF25" s="3">
@@ -4987,23 +4987,23 @@
         <v>0.52836438923395401</v>
       </c>
       <c r="AG25" s="3">
-        <f t="shared" ref="AG25" si="43">(N113+N115+N117+N119+N121)/5</f>
+        <f t="shared" ref="AG25" si="50">(N113+N115+N117+N119+N121)/5</f>
         <v>0.57645142678323447</v>
       </c>
       <c r="AH25" s="3">
-        <f>(O113+O115+O117+O119+O121)/5</f>
+        <f t="shared" ref="AH25:AK26" si="51">(O113+O115+O117+O119+O121)/5</f>
         <v>0.52836438923395401</v>
       </c>
       <c r="AI25" s="3">
-        <f>(P113+P115+P117+P119+P121)/5</f>
+        <f t="shared" si="51"/>
         <v>0.51948796351542303</v>
       </c>
       <c r="AJ25" s="3">
-        <f>(Q113+Q115+Q117+Q119+Q121)/5</f>
+        <f t="shared" si="51"/>
         <v>0.51062091503267937</v>
       </c>
       <c r="AK25" s="3">
-        <f>(R113+R115+R117+R119+R121)/5</f>
+        <f t="shared" si="51"/>
         <v>0.4499015469470603</v>
       </c>
       <c r="AL25" s="3">
@@ -5092,15 +5092,15 @@
         <v>14</v>
       </c>
       <c r="AC26" s="3">
-        <f t="shared" ref="AC26:AE26" si="44">(J114+J116+J118+J120+J122)</f>
+        <f t="shared" ref="AC26:AE26" si="52">(J114+J116+J118+J120+J122)</f>
         <v>25</v>
       </c>
       <c r="AD26" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>26</v>
       </c>
       <c r="AE26" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>40</v>
       </c>
       <c r="AF26" s="3">
@@ -5108,23 +5108,23 @@
         <v>0.51562770562770532</v>
       </c>
       <c r="AG26" s="3">
-        <f t="shared" ref="AG26" si="45">(N114+N116+N118+N120+N122)/5</f>
+        <f t="shared" ref="AG26" si="53">(N114+N116+N118+N120+N122)/5</f>
         <v>0.50506612341906421</v>
       </c>
       <c r="AH26" s="3">
-        <f>(O114+O116+O118+O120+O122)/5</f>
+        <f t="shared" si="51"/>
         <v>0.51562770562770532</v>
       </c>
       <c r="AI26" s="3">
-        <f>(P114+P116+P118+P120+P122)/5</f>
+        <f t="shared" si="51"/>
         <v>0.48731423051493844</v>
       </c>
       <c r="AJ26" s="3">
-        <f>(Q114+Q116+Q118+Q120+Q122)/5</f>
+        <f t="shared" si="51"/>
         <v>0.45525793650793622</v>
       </c>
       <c r="AK26" s="3">
-        <f>(R114+R116+R118+R120+R122)/5</f>
+        <f t="shared" si="51"/>
         <v>0.29298968486481541</v>
       </c>
       <c r="AL26" s="3">
@@ -5213,15 +5213,15 @@
         <v>12</v>
       </c>
       <c r="AC27" s="3">
-        <f t="shared" ref="AC27:AE27" si="46">(J123+J124+J125+J126+J127)</f>
+        <f t="shared" ref="AC27:AE27" si="54">(J123+J124+J125+J126+J127)</f>
         <v>16</v>
       </c>
       <c r="AD27" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>16</v>
       </c>
       <c r="AE27" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>68</v>
       </c>
       <c r="AF27" s="3">
@@ -5229,7 +5229,7 @@
         <v>0.71130434782608654</v>
       </c>
       <c r="AG27" s="3">
-        <f t="shared" ref="AG27" si="47">(N123+N124+N125+N126+N127)/5</f>
+        <f t="shared" ref="AG27" si="55">(N123+N124+N125+N126+N127)/5</f>
         <v>0.72288398862769521</v>
       </c>
       <c r="AH27" s="3">
@@ -5334,15 +5334,15 @@
         <v>20</v>
       </c>
       <c r="AC28" s="3">
-        <f t="shared" ref="AC28:AE28" si="48">(J128+J129+J130+J131+J132)</f>
+        <f t="shared" ref="AC28:AE28" si="56">(J128+J129+J130+J131+J132)</f>
         <v>24</v>
       </c>
       <c r="AD28" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>24</v>
       </c>
       <c r="AE28" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>38</v>
       </c>
       <c r="AF28" s="3">
@@ -5350,7 +5350,7 @@
         <v>0.54761904761904734</v>
       </c>
       <c r="AG28" s="3">
-        <f t="shared" ref="AG28" si="49">(N128+N129+N130+N131+N132)/5</f>
+        <f t="shared" ref="AG28" si="57">(N128+N129+N130+N131+N132)/5</f>
         <v>0.55027139527139479</v>
       </c>
       <c r="AH28" s="3">
@@ -5455,15 +5455,15 @@
         <v>8</v>
       </c>
       <c r="AC29" s="3">
-        <f t="shared" ref="AC29:AE29" si="50">(J133+J135+J137+J139+J141)</f>
+        <f t="shared" ref="AC29:AE29" si="58">(J133+J135+J137+J139+J141)</f>
         <v>20</v>
       </c>
       <c r="AD29" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>10</v>
       </c>
       <c r="AE29" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>74</v>
       </c>
       <c r="AF29" s="3">
@@ -5471,23 +5471,23 @@
         <v>0.73130434782608655</v>
       </c>
       <c r="AG29" s="3">
-        <f t="shared" ref="AG29" si="51">(N133+N135+N137+N139+N141)/5</f>
+        <f t="shared" ref="AG29" si="59">(N133+N135+N137+N139+N141)/5</f>
         <v>0.6964852183158815</v>
       </c>
       <c r="AH29" s="3">
-        <f>(O133+O135+O137+O139+O141)/5</f>
+        <f t="shared" ref="AH29:AK30" si="60">(O133+O135+O137+O139+O141)/5</f>
         <v>0.73130434782608655</v>
       </c>
       <c r="AI29" s="3">
-        <f>(P133+P135+P137+P139+P141)/5</f>
+        <f t="shared" si="60"/>
         <v>0.69774036895848057</v>
       </c>
       <c r="AJ29" s="3">
-        <f>(Q133+Q135+Q137+Q139+Q141)/5</f>
+        <f t="shared" si="60"/>
         <v>0.5737745098039212</v>
       </c>
       <c r="AK29" s="3">
-        <f>(R133+R135+R137+R139+R141)/5</f>
+        <f t="shared" si="60"/>
         <v>0.39103133445427002</v>
       </c>
       <c r="AL29" s="3">
@@ -5576,15 +5576,15 @@
         <v>21</v>
       </c>
       <c r="AC30" s="3">
-        <f t="shared" ref="AC30:AE30" si="52">(J134+J136+J138+J140+J142)</f>
+        <f t="shared" ref="AC30:AE30" si="61">(J134+J136+J138+J140+J142)</f>
         <v>23</v>
       </c>
       <c r="AD30" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="61"/>
         <v>22</v>
       </c>
       <c r="AE30" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="61"/>
         <v>40</v>
       </c>
       <c r="AF30" s="3">
@@ -5592,23 +5592,23 @@
         <v>0.57662337662337626</v>
       </c>
       <c r="AG30" s="3">
-        <f t="shared" ref="AG30" si="53">(N134+N136+N138+N140+N142)/5</f>
+        <f t="shared" ref="AG30" si="62">(N134+N136+N138+N140+N142)/5</f>
         <v>0.58000166500166461</v>
       </c>
       <c r="AH30" s="3">
-        <f>(O134+O136+O138+O140+O142)/5</f>
+        <f t="shared" si="60"/>
         <v>0.57662337662337626</v>
       </c>
       <c r="AI30" s="3">
-        <f>(P134+P136+P138+P140+P142)/5</f>
+        <f t="shared" si="60"/>
         <v>0.57041314149957822</v>
       </c>
       <c r="AJ30" s="3">
-        <f>(Q134+Q136+Q138+Q140+Q142)/5</f>
+        <f t="shared" si="60"/>
         <v>0.5599206349206346</v>
       </c>
       <c r="AK30" s="3">
-        <f>(R134+R136+R138+R140+R142)/5</f>
+        <f t="shared" si="60"/>
         <v>0.54576603789845612</v>
       </c>
       <c r="AL30" s="3">
@@ -5697,15 +5697,15 @@
         <v>14</v>
       </c>
       <c r="AC31" s="3">
-        <f t="shared" ref="AC31:AE31" si="54">(J143+J145+J147+J149+J151)</f>
+        <f t="shared" ref="AC31:AE31" si="63">(J143+J145+J147+J149+J151)</f>
         <v>14</v>
       </c>
       <c r="AD31" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>33</v>
       </c>
       <c r="AE31" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>51</v>
       </c>
       <c r="AF31" s="3">
@@ -5713,23 +5713,23 @@
         <v>0.57956521739130429</v>
       </c>
       <c r="AG31" s="3">
-        <f t="shared" ref="AG31" si="55">(N143+N145+N147+N149+N151)/5</f>
+        <f t="shared" ref="AG31" si="64">(N143+N145+N147+N149+N151)/5</f>
         <v>0.66521550912855232</v>
       </c>
       <c r="AH31" s="3">
-        <f>(O143+O145+O147+O149+O151)/5</f>
+        <f t="shared" ref="AH31:AK32" si="65">(O143+O145+O147+O149+O151)/5</f>
         <v>0.57956521739130429</v>
       </c>
       <c r="AI31" s="3">
-        <f>(P143+P145+P147+P149+P151)/5</f>
+        <f t="shared" si="65"/>
         <v>0.59715697859877337</v>
       </c>
       <c r="AJ31" s="3">
-        <f>(Q143+Q145+Q147+Q149+Q151)/5</f>
+        <f t="shared" si="65"/>
         <v>0.55330882352941113</v>
       </c>
       <c r="AK31" s="3">
-        <f>(R143+R145+R147+R149+R151)/5</f>
+        <f t="shared" si="65"/>
         <v>0.49997345418030398</v>
       </c>
       <c r="AL31" s="3">
@@ -5818,15 +5818,15 @@
         <v>31</v>
       </c>
       <c r="AC32" s="3">
-        <f t="shared" ref="AC32:AE32" si="56">(J144+J146+J148+J150+J152)</f>
+        <f t="shared" ref="AC32:AE32" si="66">(J144+J146+J148+J150+J152)</f>
         <v>13</v>
       </c>
       <c r="AD32" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>35</v>
       </c>
       <c r="AE32" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>27</v>
       </c>
       <c r="AF32" s="3">
@@ -5834,23 +5834,23 @@
         <v>0.5467532467532461</v>
       </c>
       <c r="AG32" s="3">
-        <f t="shared" ref="AG32" si="57">(N144+N146+N148+N150+N152)/5</f>
+        <f t="shared" ref="AG32" si="67">(N144+N146+N148+N150+N152)/5</f>
         <v>0.59680735930735851</v>
       </c>
       <c r="AH32" s="3">
-        <f>(O144+O146+O148+O150+O152)/5</f>
+        <f t="shared" si="65"/>
         <v>0.5467532467532461</v>
       </c>
       <c r="AI32" s="3">
-        <f>(P144+P146+P148+P150+P152)/5</f>
+        <f t="shared" si="65"/>
         <v>0.53504358159601073</v>
       </c>
       <c r="AJ32" s="3">
-        <f>(Q144+Q146+Q148+Q150+Q152)/5</f>
+        <f t="shared" si="65"/>
         <v>0.57202380952380916</v>
       </c>
       <c r="AK32" s="3">
-        <f>(R144+R146+R148+R150+R152)/5</f>
+        <f t="shared" si="65"/>
         <v>0.55209973725693495</v>
       </c>
       <c r="AL32" s="3">
@@ -5939,15 +5939,15 @@
         <v>13</v>
       </c>
       <c r="AC33" s="3">
-        <f t="shared" ref="AC33:AE33" si="58">(J153+J155+J157+J159+J161)</f>
+        <f t="shared" ref="AC33:AE33" si="68">(J153+J155+J157+J159+J161)</f>
         <v>15</v>
       </c>
       <c r="AD33" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>10</v>
       </c>
       <c r="AE33" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>74</v>
       </c>
       <c r="AF33" s="3">
@@ -5955,23 +5955,23 @@
         <v>0.77478260869565185</v>
       </c>
       <c r="AG33" s="17">
-        <f t="shared" ref="AG33" si="59">(N153+N155+N157+N159+N161)/5</f>
+        <f t="shared" ref="AG33" si="69">(N153+N155+N157+N159+N161)/5</f>
         <v>0.76829392321383128</v>
       </c>
       <c r="AH33" s="3">
-        <f>(O153+O155+O157+O159+O161)/5</f>
+        <f t="shared" ref="AH33:AK34" si="70">(O153+O155+O157+O159+O161)/5</f>
         <v>0.77478260869565185</v>
       </c>
       <c r="AI33" s="3">
-        <f>(P153+P155+P157+P159+P161)/5</f>
+        <f t="shared" si="70"/>
         <v>0.76786122090469888</v>
       </c>
       <c r="AJ33" s="3">
-        <f>(Q153+Q155+Q157+Q159+Q161)/5</f>
+        <f t="shared" si="70"/>
         <v>0.66507352941176445</v>
       </c>
       <c r="AK33" s="3">
-        <f>(R153+R155+R157+R159+R161)/5</f>
+        <f t="shared" si="70"/>
         <v>0.6441590044681148</v>
       </c>
       <c r="AL33" s="3">
@@ -6060,15 +6060,15 @@
         <v>24</v>
       </c>
       <c r="AC34" s="3">
-        <f t="shared" ref="AC34:AE34" si="60">(J154+J156+J158+J160+J162)</f>
+        <f t="shared" ref="AC34:AE34" si="71">(J154+J156+J158+J160+J162)</f>
         <v>20</v>
       </c>
       <c r="AD34" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>32</v>
       </c>
       <c r="AE34" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>30</v>
       </c>
       <c r="AF34" s="3">
@@ -6076,23 +6076,23 @@
         <v>0.51038961038960973</v>
       </c>
       <c r="AG34" s="3">
-        <f t="shared" ref="AG34" si="61">(N154+N156+N158+N160+N162)/5</f>
+        <f t="shared" ref="AG34" si="72">(N154+N156+N158+N160+N162)/5</f>
         <v>0.53386724386724316</v>
       </c>
       <c r="AH34" s="3">
-        <f>(O154+O156+O158+O160+O162)/5</f>
+        <f t="shared" si="70"/>
         <v>0.51038961038960973</v>
       </c>
       <c r="AI34" s="3">
-        <f>(P154+P156+P158+P160+P162)/5</f>
+        <f t="shared" si="70"/>
         <v>0.5091097308488608</v>
       </c>
       <c r="AJ34" s="3">
-        <f>(Q154+Q156+Q158+Q160+Q162)/5</f>
+        <f t="shared" si="70"/>
         <v>0.51884920634920584</v>
       </c>
       <c r="AK34" s="3">
-        <f>(R154+R156+R158+R160+R162)/5</f>
+        <f t="shared" si="70"/>
         <v>0.50901666761833053</v>
       </c>
       <c r="AL34" s="3">
@@ -6181,15 +6181,15 @@
         <v>9</v>
       </c>
       <c r="AC35" s="3">
-        <f t="shared" ref="AC35:AE35" si="62">(J163+J165+J167+J169+J171+J173)</f>
+        <f t="shared" ref="AC35:AE35" si="73">(J163+J165+J167+J169+J171+J173)</f>
         <v>25</v>
       </c>
       <c r="AD35" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>11</v>
       </c>
       <c r="AE35" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>90</v>
       </c>
       <c r="AF35" s="17">
@@ -6197,23 +6197,23 @@
         <v>0.87782608695652142</v>
       </c>
       <c r="AG35" s="17">
-        <f t="shared" ref="AG35" si="63">(N163+N165+N167+N169+N171+N173)/5</f>
+        <f t="shared" ref="AG35" si="74">(N163+N165+N167+N169+N171+N173)/5</f>
         <v>0.87993295841323749</v>
       </c>
       <c r="AH35" s="17">
-        <f>(O163+O165+O167+O169+O171+O173)/5</f>
+        <f t="shared" ref="AH35:AK36" si="75">(O163+O165+O167+O169+O171+O173)/5</f>
         <v>0.87782608695652142</v>
       </c>
       <c r="AI35" s="17">
-        <f>(P163+P165+P167+P169+P171+P173)/5</f>
+        <f t="shared" si="75"/>
         <v>0.84301025442901811</v>
       </c>
       <c r="AJ35" s="3">
-        <f>(Q163+Q165+Q167+Q169+Q171+Q173)/5</f>
+        <f t="shared" si="75"/>
         <v>0.6841911764705878</v>
       </c>
       <c r="AK35" s="3">
-        <f>(R163+R165+R167+R169+R171+R173)/5</f>
+        <f t="shared" si="75"/>
         <v>0.59367505197296599</v>
       </c>
       <c r="AL35" s="3">
@@ -6302,15 +6302,15 @@
         <v>25</v>
       </c>
       <c r="AC36" s="3">
-        <f t="shared" ref="AC36:AE36" si="64">(J164+J166+J168+J170+J172+J174)</f>
+        <f t="shared" ref="AC36:AE36" si="76">(J164+J166+J168+J170+J172+J174)</f>
         <v>28</v>
       </c>
       <c r="AD36" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>24</v>
       </c>
       <c r="AE36" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>50</v>
       </c>
       <c r="AF36" s="3">
@@ -6318,23 +6318,23 @@
         <v>0.70865800865800821</v>
       </c>
       <c r="AG36" s="15">
-        <f t="shared" ref="AG36" si="65">(N164+N166+N168+N170+N172+N174)/5</f>
+        <f t="shared" ref="AG36" si="77">(N164+N166+N168+N170+N172+N174)/5</f>
         <v>0.71874680874680819</v>
       </c>
       <c r="AH36" s="3">
-        <f>(O164+O166+O168+O170+O172+O174)/5</f>
+        <f t="shared" si="75"/>
         <v>0.70865800865800821</v>
       </c>
       <c r="AI36" s="3">
-        <f>(P164+P166+P168+P170+P172+P174)/5</f>
+        <f t="shared" si="75"/>
         <v>0.70076466450944785</v>
       </c>
       <c r="AJ36" s="3">
-        <f>(Q164+Q166+Q168+Q170+Q172+Q174)/5</f>
+        <f t="shared" si="75"/>
         <v>0.68928571428571372</v>
       </c>
       <c r="AK36" s="3">
-        <f>(R164+R166+R168+R170+R172+R174)/5</f>
+        <f t="shared" si="75"/>
         <v>0.68223932794395881</v>
       </c>
       <c r="AL36" s="3">
@@ -6423,15 +6423,15 @@
         <v>16</v>
       </c>
       <c r="AC37" s="3">
-        <f t="shared" ref="AC37:AE37" si="66">(J175+J177+J179+J181+J183)</f>
+        <f t="shared" ref="AC37:AE37" si="78">(J175+J177+J179+J181+J183)</f>
         <v>12</v>
       </c>
       <c r="AD37" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>9</v>
       </c>
       <c r="AE37" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>75</v>
       </c>
       <c r="AF37" s="3">
@@ -6439,23 +6439,23 @@
         <v>0.81086956521739106</v>
       </c>
       <c r="AG37" s="17">
-        <f t="shared" ref="AG37" si="67">(N175+N177+N179+N181+N183)/5</f>
+        <f t="shared" ref="AG37" si="79">(N175+N177+N179+N181+N183)/5</f>
         <v>0.82147158176771806</v>
       </c>
       <c r="AH37" s="3">
-        <f>(O175+O177+O179+O181+O183)/5</f>
+        <f t="shared" ref="AH37:AK38" si="80">(O175+O177+O179+O181+O183)/5</f>
         <v>0.81086956521739106</v>
       </c>
       <c r="AI37" s="3">
-        <f>(P175+P177+P179+P181+P183)/5</f>
+        <f t="shared" si="80"/>
         <v>0.79945159341040273</v>
       </c>
       <c r="AJ37" s="3">
-        <f>(Q175+Q177+Q179+Q181+Q183)/5</f>
+        <f t="shared" si="80"/>
         <v>0.72132352941176447</v>
       </c>
       <c r="AK37" s="3">
-        <f>(R175+R177+R179+R181+R183)/5</f>
+        <f t="shared" si="80"/>
         <v>0.7016244129777498</v>
       </c>
       <c r="AL37" s="3">
@@ -6544,15 +6544,15 @@
         <v>20</v>
       </c>
       <c r="AC38" s="3">
-        <f t="shared" ref="AC38:AE38" si="68">(J176+J178+J180+J182+J184)</f>
+        <f t="shared" ref="AC38:AE38" si="81">(J176+J178+J180+J182+J184)</f>
         <v>24</v>
       </c>
       <c r="AD38" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="81"/>
         <v>21</v>
       </c>
       <c r="AE38" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="81"/>
         <v>41</v>
       </c>
       <c r="AF38" s="3">
@@ -6560,23 +6560,23 @@
         <v>0.57532467532467491</v>
       </c>
       <c r="AG38" s="3">
-        <f t="shared" ref="AG38" si="69">(N176+N178+N180+N182+N184)/5</f>
+        <f t="shared" ref="AG38" si="82">(N176+N178+N180+N182+N184)/5</f>
         <v>0.58073614696991283</v>
       </c>
       <c r="AH38" s="3">
-        <f>(O176+O178+O180+O182+O184)/5</f>
+        <f t="shared" si="80"/>
         <v>0.57532467532467491</v>
       </c>
       <c r="AI38" s="3">
-        <f>(P176+P178+P180+P182+P184)/5</f>
+        <f t="shared" si="80"/>
         <v>0.56927397268615976</v>
       </c>
       <c r="AJ38" s="3">
-        <f>(Q176+Q178+Q180+Q182+Q184)/5</f>
+        <f t="shared" si="80"/>
         <v>0.56130952380952337</v>
       </c>
       <c r="AK38" s="3">
-        <f>(R176+R178+R180+R182+R184)/5</f>
+        <f t="shared" si="80"/>
         <v>0.55291434583201438</v>
       </c>
       <c r="AL38" s="3">
@@ -6665,15 +6665,15 @@
         <v>9</v>
       </c>
       <c r="AC39" s="3">
-        <f t="shared" ref="AC39:AE39" si="70">(J185+J187+J189+J191+J193)</f>
+        <f t="shared" ref="AC39:AE39" si="83">(J185+J187+J189+J191+J193)</f>
         <v>19</v>
       </c>
       <c r="AD39" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>26</v>
       </c>
       <c r="AE39" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>58</v>
       </c>
       <c r="AF39" s="3">
@@ -6681,23 +6681,23 @@
         <v>0.6008695652173911</v>
       </c>
       <c r="AG39" s="3">
-        <f t="shared" ref="AG39" si="71">(N185+N187+N189+N191+N193)/5</f>
+        <f t="shared" ref="AG39" si="84">(N185+N187+N189+N191+N193)/5</f>
         <v>0.61874964478544991</v>
       </c>
       <c r="AH39" s="3">
-        <f>(O185+O187+O189+O191+O193)/5</f>
+        <f t="shared" ref="AH39:AK40" si="85">(O185+O187+O189+O191+O193)/5</f>
         <v>0.6008695652173911</v>
       </c>
       <c r="AI39" s="3">
-        <f>(P185+P187+P189+P191+P193)/5</f>
+        <f t="shared" si="85"/>
         <v>0.5882977380675587</v>
       </c>
       <c r="AJ39" s="3">
-        <f>(Q185+Q187+Q189+Q191+Q193)/5</f>
+        <f t="shared" si="85"/>
         <v>0.49632352941176422</v>
       </c>
       <c r="AK39" s="3">
-        <f>(R185+R187+R189+R191+R193)/5</f>
+        <f t="shared" si="85"/>
         <v>0.36197557661543456</v>
       </c>
       <c r="AL39" s="3">
@@ -6786,15 +6786,15 @@
         <v>26</v>
       </c>
       <c r="AC40" s="3">
-        <f t="shared" ref="AC40:AE40" si="72">(J186+J188+J190+J192+J194)</f>
+        <f t="shared" ref="AC40:AE40" si="86">(J186+J188+J190+J192+J194)</f>
         <v>18</v>
       </c>
       <c r="AD40" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="86"/>
         <v>30</v>
       </c>
       <c r="AE40" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="86"/>
         <v>32</v>
       </c>
       <c r="AF40" s="3">
@@ -6802,23 +6802,23 @@
         <v>0.54761904761904734</v>
       </c>
       <c r="AG40" s="3">
-        <f t="shared" ref="AG40" si="73">(N186+N188+N190+N192+N194)/5</f>
+        <f t="shared" ref="AG40" si="87">(N186+N188+N190+N192+N194)/5</f>
         <v>0.56511904761904719</v>
       </c>
       <c r="AH40" s="3">
-        <f>(O186+O188+O190+O192+O194)/5</f>
+        <f t="shared" si="85"/>
         <v>0.54761904761904734</v>
       </c>
       <c r="AI40" s="3">
-        <f>(P186+P188+P190+P192+P194)/5</f>
+        <f t="shared" si="85"/>
         <v>0.53910789143243465</v>
       </c>
       <c r="AJ40" s="3">
-        <f>(Q186+Q188+Q190+Q192+Q194)/5</f>
+        <f t="shared" si="85"/>
         <v>0.54761904761904723</v>
       </c>
       <c r="AK40" s="3">
-        <f>(R186+R188+R190+R192+R194)/5</f>
+        <f t="shared" si="85"/>
         <v>0.52920167769251503</v>
       </c>
       <c r="AL40" s="3">
@@ -6907,15 +6907,15 @@
         <v>6</v>
       </c>
       <c r="AC41" s="3">
-        <f t="shared" ref="AC41:AE41" si="74">(J195+J197+J199+J201+J203)</f>
+        <f t="shared" ref="AC41:AE41" si="88">(J195+J197+J199+J201+J203)</f>
         <v>22</v>
       </c>
       <c r="AD41" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="88"/>
         <v>20</v>
       </c>
       <c r="AE41" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="88"/>
         <v>64</v>
       </c>
       <c r="AF41" s="3">
@@ -6923,23 +6923,23 @@
         <v>0.62043478260869522</v>
       </c>
       <c r="AG41" s="3">
-        <f t="shared" ref="AG41" si="75">(N195+N197+N199+N201+N203)/5</f>
+        <f t="shared" ref="AG41" si="89">(N195+N197+N199+N201+N203)/5</f>
         <v>0.62726699692374654</v>
       </c>
       <c r="AH41" s="3">
-        <f>(O195+O197+O199+O201+O203)/5</f>
+        <f t="shared" ref="AH41:AK42" si="90">(O195+O197+O199+O201+O203)/5</f>
         <v>0.62043478260869522</v>
       </c>
       <c r="AI41" s="3">
-        <f>(P195+P197+P199+P201+P203)/5</f>
+        <f t="shared" si="90"/>
         <v>0.615559412970062</v>
       </c>
       <c r="AJ41" s="3">
-        <f>(Q195+Q197+Q199+Q201+Q203)/5</f>
+        <f t="shared" si="90"/>
         <v>0.47977941176470562</v>
       </c>
       <c r="AK41" s="3">
-        <f>(R195+R197+R199+R201+R203)/5</f>
+        <f t="shared" si="90"/>
         <v>0.3759022310938066</v>
       </c>
       <c r="AL41" s="3">
@@ -7028,15 +7028,15 @@
         <v>18</v>
       </c>
       <c r="AC42" s="3">
-        <f t="shared" ref="AC42:AE42" si="76">(J196+J198+J200+J202+J204)</f>
+        <f t="shared" ref="AC42:AE42" si="91">(J196+J198+J200+J202+J204)</f>
         <v>26</v>
       </c>
       <c r="AD42" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>21</v>
       </c>
       <c r="AE42" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>41</v>
       </c>
       <c r="AF42" s="3">
@@ -7044,23 +7044,23 @@
         <v>0.55584415584415559</v>
       </c>
       <c r="AG42" s="3">
-        <f t="shared" ref="AG42" si="77">(N196+N198+N200+N202+N204)/5</f>
+        <f t="shared" ref="AG42" si="92">(N196+N198+N200+N202+N204)/5</f>
         <v>0.54960059781488302</v>
       </c>
       <c r="AH42" s="3">
-        <f>(O196+O198+O200+O202+O204)/5</f>
+        <f t="shared" si="90"/>
         <v>0.55584415584415559</v>
       </c>
       <c r="AI42" s="3">
-        <f>(P196+P198+P200+P202+P204)/5</f>
+        <f t="shared" si="90"/>
         <v>0.546663336663336</v>
       </c>
       <c r="AJ42" s="3">
-        <f>(Q196+Q198+Q200+Q202+Q204)/5</f>
+        <f t="shared" si="90"/>
         <v>0.53273809523809479</v>
       </c>
       <c r="AK42" s="3">
-        <f>(R196+R198+R200+R202+R204)/5</f>
+        <f t="shared" si="90"/>
         <v>0.51944980544933039</v>
       </c>
       <c r="AL42" s="3">
@@ -7149,15 +7149,15 @@
         <v>8</v>
       </c>
       <c r="AC43" s="3">
-        <f t="shared" ref="AC43:AE43" si="78">(J205+J207+J209+J211+J213)</f>
+        <f t="shared" ref="AC43:AE43" si="93">(J205+J207+J209+J211+J213)</f>
         <v>20</v>
       </c>
       <c r="AD43" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>24</v>
       </c>
       <c r="AE43" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>60</v>
       </c>
       <c r="AF43" s="3">
@@ -7165,23 +7165,23 @@
         <v>0.60304347826086924</v>
       </c>
       <c r="AG43" s="3">
-        <f t="shared" ref="AG43" si="79">(N205+N207+N209+N211+N213)/5</f>
+        <f t="shared" ref="AG43" si="94">(N205+N207+N209+N211+N213)/5</f>
         <v>0.6270686597917714</v>
       </c>
       <c r="AH43" s="3">
-        <f>(O205+O207+O209+O211+O213)/5</f>
+        <f t="shared" ref="AH43:AK44" si="95">(O205+O207+O209+O211+O213)/5</f>
         <v>0.60304347826086924</v>
       </c>
       <c r="AI43" s="3">
-        <f>(P205+P207+P209+P211+P213)/5</f>
+        <f t="shared" si="95"/>
         <v>0.60725103995791208</v>
       </c>
       <c r="AJ43" s="3">
-        <f>(Q205+Q207+Q209+Q211+Q213)/5</f>
+        <f t="shared" si="95"/>
         <v>0.49754901960784281</v>
       </c>
       <c r="AK43" s="3">
-        <f>(R205+R207+R209+R211+R213)/5</f>
+        <f t="shared" si="95"/>
         <v>0.38141370206703556</v>
       </c>
       <c r="AL43" s="3">
@@ -7270,15 +7270,15 @@
         <v>23</v>
       </c>
       <c r="AC44" s="3">
-        <f t="shared" ref="AC44:AE44" si="80">(J206+J208+J210+J212+J214)</f>
+        <f t="shared" ref="AC44:AE44" si="96">(J206+J208+J210+J212+J214)</f>
         <v>21</v>
       </c>
       <c r="AD44" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="96"/>
         <v>36</v>
       </c>
       <c r="AE44" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="96"/>
         <v>26</v>
       </c>
       <c r="AF44" s="3">
@@ -7286,23 +7286,23 @@
         <v>0.46190476190476132</v>
       </c>
       <c r="AG44" s="3">
-        <f t="shared" ref="AG44" si="81">(N206+N208+N210+N212+N214)/5</f>
+        <f t="shared" ref="AG44" si="97">(N206+N208+N210+N212+N214)/5</f>
         <v>0.48467532467532415</v>
       </c>
       <c r="AH44" s="3">
-        <f>(O206+O208+O210+O212+O214)/5</f>
+        <f t="shared" si="95"/>
         <v>0.46190476190476132</v>
       </c>
       <c r="AI44" s="3">
-        <f>(P206+P208+P210+P212+P214)/5</f>
+        <f t="shared" si="95"/>
         <v>0.45533283141978736</v>
       </c>
       <c r="AJ44" s="3">
-        <f>(Q206+Q208+Q210+Q212+Q214)/5</f>
+        <f t="shared" si="95"/>
         <v>0.47460317460317414</v>
       </c>
       <c r="AK44" s="3">
-        <f>(R206+R208+R210+R212+R214)/5</f>
+        <f t="shared" si="95"/>
         <v>0.45730115286306655</v>
       </c>
       <c r="AL44" s="3">
@@ -7391,15 +7391,15 @@
         <v>18</v>
       </c>
       <c r="AC45" s="3">
-        <f t="shared" ref="AC45:AE45" si="82">(J215+J217+J219+J221+J223)</f>
+        <f t="shared" ref="AC45:AE45" si="98">(J215+J217+J219+J221+J223)</f>
         <v>10</v>
       </c>
       <c r="AD45" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>18</v>
       </c>
       <c r="AE45" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>66</v>
       </c>
       <c r="AF45" s="3">
@@ -7407,23 +7407,23 @@
         <v>0.7513043478260869</v>
       </c>
       <c r="AG45" s="17">
-        <f t="shared" ref="AG45" si="83">(N215+N217+N219+N221+N223)/5</f>
+        <f t="shared" ref="AG45" si="99">(N215+N217+N219+N221+N223)/5</f>
         <v>0.78048183700357587</v>
       </c>
       <c r="AH45" s="3">
-        <f>(O215+O217+O219+O221+O223)/5</f>
+        <f t="shared" ref="AH45:AK46" si="100">(O215+O217+O219+O221+O223)/5</f>
         <v>0.7513043478260869</v>
       </c>
       <c r="AI45" s="3">
-        <f>(P215+P217+P219+P221+P223)/5</f>
+        <f t="shared" si="100"/>
         <v>0.75527632564850644</v>
       </c>
       <c r="AJ45" s="3">
-        <f>(Q215+Q217+Q219+Q221+Q223)/5</f>
+        <f t="shared" si="100"/>
         <v>0.70208333333333306</v>
       </c>
       <c r="AK45" s="3">
-        <f>(R215+R217+R219+R221+R223)/5</f>
+        <f t="shared" si="100"/>
         <v>0.67219999432231403</v>
       </c>
       <c r="AL45" s="3">
@@ -7512,15 +7512,15 @@
         <v>25</v>
       </c>
       <c r="AC46" s="3">
-        <f t="shared" ref="AC46:AE46" si="84">(J216+J218+J220+J222+J224)</f>
+        <f t="shared" ref="AC46:AE46" si="101">(J216+J218+J220+J222+J224)</f>
         <v>19</v>
       </c>
       <c r="AD46" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="101"/>
         <v>29</v>
       </c>
       <c r="AE46" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="101"/>
         <v>33</v>
       </c>
       <c r="AF46" s="3">
@@ -7528,23 +7528,23 @@
         <v>0.54805194805194757</v>
       </c>
       <c r="AG46" s="3">
-        <f t="shared" ref="AG46" si="85">(N216+N218+N220+N222+N224)/5</f>
+        <f t="shared" ref="AG46" si="102">(N216+N218+N220+N222+N224)/5</f>
         <v>0.55891240338608716</v>
       </c>
       <c r="AH46" s="3">
-        <f>(O216+O218+O220+O222+O224)/5</f>
+        <f t="shared" si="100"/>
         <v>0.54805194805194757</v>
       </c>
       <c r="AI46" s="3">
-        <f>(P216+P218+P220+P222+P224)/5</f>
+        <f t="shared" si="100"/>
         <v>0.52417843096834615</v>
       </c>
       <c r="AJ46" s="3">
-        <f>(Q216+Q218+Q220+Q222+Q224)/5</f>
+        <f t="shared" si="100"/>
         <v>0.55119047619047579</v>
       </c>
       <c r="AK46" s="3">
-        <f>(R216+R218+R220+R222+R224)/5</f>
+        <f t="shared" si="100"/>
         <v>0.51398966152258996</v>
       </c>
       <c r="AL46" s="3">
@@ -7633,15 +7633,15 @@
         <v>16</v>
       </c>
       <c r="AC47" s="3">
-        <f t="shared" ref="AC47:AE47" si="86">(J225+J227+J229+J231+J233)</f>
+        <f t="shared" ref="AC47:AE47" si="103">(J225+J227+J229+J231+J233)</f>
         <v>12</v>
       </c>
       <c r="AD47" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="103"/>
         <v>29</v>
       </c>
       <c r="AE47" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="103"/>
         <v>55</v>
       </c>
       <c r="AF47" s="3">
@@ -7649,23 +7649,23 @@
         <v>0.63565217391304341</v>
       </c>
       <c r="AG47" s="3">
-        <f t="shared" ref="AG47" si="87">(N225+N227+N229+N231+N233)/5</f>
+        <f t="shared" ref="AG47" si="104">(N225+N227+N229+N231+N233)/5</f>
         <v>0.7168301746562612</v>
       </c>
       <c r="AH47" s="3">
-        <f>(O225+O227+O229+O231+O233)/5</f>
+        <f t="shared" ref="AH47:AK48" si="105">(O225+O227+O229+O231+O233)/5</f>
         <v>0.63565217391304341</v>
       </c>
       <c r="AI47" s="3">
-        <f>(P225+P227+P229+P231+P233)/5</f>
+        <f t="shared" si="105"/>
         <v>0.64296268338831231</v>
       </c>
       <c r="AJ47" s="3">
-        <f>(Q225+Q227+Q229+Q231+Q233)/5</f>
+        <f t="shared" si="105"/>
         <v>0.60330882352941118</v>
       </c>
       <c r="AK47" s="3">
-        <f>(R225+R227+R229+R231+R233)/5</f>
+        <f t="shared" si="105"/>
         <v>0.53465801641423405</v>
       </c>
       <c r="AL47" s="3">
@@ -7754,15 +7754,15 @@
         <v>22</v>
       </c>
       <c r="AC48" s="3">
-        <f t="shared" ref="AC48:AE48" si="88">(J226+J228+J230+J232+J234)</f>
+        <f t="shared" ref="AC48:AE48" si="106">(J226+J228+J230+J232+J234)</f>
         <v>22</v>
       </c>
       <c r="AD48" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="106"/>
         <v>28</v>
       </c>
       <c r="AE48" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="106"/>
         <v>34</v>
       </c>
       <c r="AF48" s="3">
@@ -7770,23 +7770,23 @@
         <v>0.52770562770562712</v>
       </c>
       <c r="AG48" s="3">
-        <f t="shared" ref="AG48" si="89">(N226+N228+N230+N232+N234)/5</f>
+        <f t="shared" ref="AG48" si="107">(N226+N228+N230+N232+N234)/5</f>
         <v>0.53833752615265207</v>
       </c>
       <c r="AH48" s="3">
-        <f>(O226+O228+O230+O232+O234)/5</f>
+        <f t="shared" si="105"/>
         <v>0.52770562770562712</v>
       </c>
       <c r="AI48" s="3">
-        <f>(P226+P228+P230+P232+P234)/5</f>
+        <f t="shared" si="105"/>
         <v>0.51403156090601798</v>
       </c>
       <c r="AJ48" s="3">
-        <f>(Q226+Q228+Q230+Q232+Q234)/5</f>
+        <f t="shared" si="105"/>
         <v>0.52003968253968225</v>
       </c>
       <c r="AK48" s="3">
-        <f>(R226+R228+R230+R232+R234)/5</f>
+        <f t="shared" si="105"/>
         <v>0.50104498360459004</v>
       </c>
       <c r="AL48" s="3">
@@ -7875,15 +7875,15 @@
         <v>22</v>
       </c>
       <c r="AC49" s="3">
-        <f t="shared" ref="AC49:AE49" si="90">(J235+J237+J239+J241+J243)</f>
+        <f t="shared" ref="AC49:AE49" si="108">(J235+J237+J239+J241+J243)</f>
         <v>6</v>
       </c>
       <c r="AD49" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="108"/>
         <v>52</v>
       </c>
       <c r="AE49" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="108"/>
         <v>32</v>
       </c>
       <c r="AF49" s="3">
@@ -7891,23 +7891,23 @@
         <v>0.48782608695652135</v>
       </c>
       <c r="AG49" s="3">
-        <f t="shared" ref="AG49" si="91">(N235+N237+N239+N241+N243)/5</f>
+        <f t="shared" ref="AG49" si="109">(N235+N237+N239+N241+N243)/5</f>
         <v>0.45782660523681284</v>
       </c>
       <c r="AH49" s="3">
-        <f>(O235+O237+O239+O241+O243)/5</f>
+        <f t="shared" ref="AH49:AK50" si="110">(O235+O237+O239+O241+O243)/5</f>
         <v>0.48782608695652135</v>
       </c>
       <c r="AI49" s="3">
-        <f>(P235+P237+P239+P241+P243)/5</f>
+        <f t="shared" si="110"/>
         <v>0.426575542222424</v>
       </c>
       <c r="AJ49" s="3">
-        <f>(Q235+Q237+Q239+Q241+Q243)/5</f>
+        <f t="shared" si="110"/>
         <v>0.56004901960784292</v>
       </c>
       <c r="AK49" s="3">
-        <f>(R235+R237+R239+R241+R243)/5</f>
+        <f t="shared" si="110"/>
         <v>0.25008716208090781</v>
       </c>
       <c r="AL49" s="3">
@@ -7996,15 +7996,15 @@
         <v>31</v>
       </c>
       <c r="AC50" s="3">
-        <f t="shared" ref="AC50:AE50" si="92">(J236+J238+J240+J242+J244)</f>
+        <f t="shared" ref="AC50:AE50" si="111">(J236+J238+J240+J242+J244)</f>
         <v>13</v>
       </c>
       <c r="AD50" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="111"/>
         <v>41</v>
       </c>
       <c r="AE50" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="111"/>
         <v>21</v>
       </c>
       <c r="AF50" s="3">
@@ -8012,23 +8012,23 @@
         <v>0.48831168831168775</v>
       </c>
       <c r="AG50" s="3">
-        <f t="shared" ref="AG50" si="93">(N236+N238+N240+N242+N244)/5</f>
+        <f t="shared" ref="AG50" si="112">(N236+N238+N240+N242+N244)/5</f>
         <v>0.4272356215213356</v>
       </c>
       <c r="AH50" s="3">
-        <f>(O236+O238+O240+O242+O244)/5</f>
+        <f t="shared" si="110"/>
         <v>0.48831168831168775</v>
       </c>
       <c r="AI50" s="3">
-        <f>(P236+P238+P240+P242+P244)/5</f>
+        <f t="shared" si="110"/>
         <v>0.39478783760921299</v>
       </c>
       <c r="AJ50" s="3">
-        <f>(Q236+Q238+Q240+Q242+Q244)/5</f>
+        <f t="shared" si="110"/>
         <v>0.50555555555555531</v>
       </c>
       <c r="AK50" s="3">
-        <f>(R236+R238+R240+R242+R244)/5</f>
+        <f t="shared" si="110"/>
         <v>0.29509654543120184</v>
       </c>
       <c r="AL50" s="3">
@@ -8117,15 +8117,15 @@
         <v>18</v>
       </c>
       <c r="AC51" s="3">
-        <f t="shared" ref="AC51:AE51" si="94">(J245+J247+J249+J251+J253)</f>
+        <f t="shared" ref="AC51:AE51" si="113">(J245+J247+J249+J251+J253)</f>
         <v>10</v>
       </c>
       <c r="AD51" s="3">
-        <f t="shared" si="94"/>
+        <f t="shared" si="113"/>
         <v>42</v>
       </c>
       <c r="AE51" s="3">
-        <f t="shared" si="94"/>
+        <f t="shared" si="113"/>
         <v>42</v>
       </c>
       <c r="AF51" s="3">
@@ -8133,23 +8133,23 @@
         <v>0.54260869565217362</v>
       </c>
       <c r="AG51" s="3">
-        <f t="shared" ref="AG51" si="95">(N245+N247+N249+N251+N253)/5</f>
+        <f t="shared" ref="AG51" si="114">(N245+N247+N249+N251+N253)/5</f>
         <v>0.68310822510822478</v>
       </c>
       <c r="AH51" s="3">
-        <f>(O245+O247+O249+O251+O253)/5</f>
+        <f t="shared" ref="AH51:AK52" si="115">(O245+O247+O249+O251+O253)/5</f>
         <v>0.54260869565217362</v>
       </c>
       <c r="AI51" s="3">
-        <f>(P245+P247+P249+P251+P253)/5</f>
+        <f t="shared" si="115"/>
         <v>0.50732796756619725</v>
       </c>
       <c r="AJ51" s="3">
-        <f>(Q245+Q247+Q249+Q251+Q253)/5</f>
+        <f t="shared" si="115"/>
         <v>0.55294117647058783</v>
       </c>
       <c r="AK51" s="3">
-        <f>(R245+R247+R249+R251+R253)/5</f>
+        <f t="shared" si="115"/>
         <v>0.38755913934208203</v>
       </c>
       <c r="AL51" s="3">
@@ -8238,15 +8238,15 @@
         <v>30</v>
       </c>
       <c r="AC52" s="3">
-        <f t="shared" ref="AC52:AE52" si="96">(J246+J248+J250+J252+J254)</f>
+        <f t="shared" ref="AC52:AE52" si="116">(J246+J248+J250+J252+J254)</f>
         <v>14</v>
       </c>
       <c r="AD52" s="3">
-        <f t="shared" si="96"/>
+        <f t="shared" si="116"/>
         <v>42</v>
       </c>
       <c r="AE52" s="3">
-        <f t="shared" si="96"/>
+        <f t="shared" si="116"/>
         <v>20</v>
       </c>
       <c r="AF52" s="3">
@@ -8254,23 +8254,23 @@
         <v>0.47012987012986962</v>
       </c>
       <c r="AG52" s="3">
-        <f t="shared" ref="AG52" si="97">(N246+N248+N250+N252+N254)/5</f>
+        <f t="shared" ref="AG52" si="117">(N246+N248+N250+N252+N254)/5</f>
         <v>0.41154995882650536</v>
       </c>
       <c r="AH52" s="3">
-        <f>(O246+O248+O250+O252+O254)/5</f>
+        <f t="shared" si="115"/>
         <v>0.47012987012986962</v>
       </c>
       <c r="AI52" s="3">
-        <f>(P246+P248+P250+P252+P254)/5</f>
+        <f t="shared" si="115"/>
         <v>0.37515538056714498</v>
       </c>
       <c r="AJ52" s="3">
-        <f>(Q246+Q248+Q250+Q252+Q254)/5</f>
+        <f t="shared" si="115"/>
         <v>0.48333333333333323</v>
       </c>
       <c r="AK52" s="3">
-        <f>(R246+R248+R250+R252+R254)/5</f>
+        <f t="shared" si="115"/>
         <v>0.24370185294007518</v>
       </c>
       <c r="AL52" s="3">
@@ -8359,15 +8359,15 @@
         <v>15</v>
       </c>
       <c r="AC53" s="3">
-        <f t="shared" ref="AC53:AE53" si="98">(J255+J257+J259+J261+J263)</f>
+        <f t="shared" ref="AC53:AE53" si="118">(J255+J257+J259+J261+J263)</f>
         <v>13</v>
       </c>
       <c r="AD53" s="3">
-        <f t="shared" si="98"/>
+        <f t="shared" si="118"/>
         <v>50</v>
       </c>
       <c r="AE53" s="3">
-        <f t="shared" si="98"/>
+        <f t="shared" si="118"/>
         <v>34</v>
       </c>
       <c r="AF53" s="3">
@@ -8375,23 +8375,23 @@
         <v>0.43130434782608662</v>
       </c>
       <c r="AG53" s="3">
-        <f t="shared" ref="AG53" si="99">(N255+N257+N259+N261+N263)/5</f>
+        <f t="shared" ref="AG53" si="119">(N255+N257+N259+N261+N263)/5</f>
         <v>0.33066048003666132</v>
       </c>
       <c r="AH53" s="3">
-        <f>(O255+O257+O259+O261+O263)/5</f>
+        <f t="shared" ref="AH53:AK54" si="120">(O255+O257+O259+O261+O263)/5</f>
         <v>0.43130434782608662</v>
       </c>
       <c r="AI53" s="3">
-        <f>(P255+P257+P259+P261+P263)/5</f>
+        <f t="shared" si="120"/>
         <v>0.31881065294858341</v>
       </c>
       <c r="AJ53" s="3">
-        <f>(Q255+Q257+Q259+Q261+Q263)/5</f>
+        <f t="shared" si="120"/>
         <v>0.47536764705882339</v>
       </c>
       <c r="AK53" s="3">
-        <f>(R255+R257+R259+R261+R263)/5</f>
+        <f t="shared" si="120"/>
         <v>0.05</v>
       </c>
       <c r="AL53" s="3">
@@ -8480,15 +8480,15 @@
         <v>19</v>
       </c>
       <c r="AC54" s="3">
-        <f t="shared" ref="AC54:AE54" si="100">(J256+J258+J260+J262+J264)</f>
+        <f t="shared" ref="AC54:AE54" si="121">(J256+J258+J260+J262+J264)</f>
         <v>25</v>
       </c>
       <c r="AD54" s="3">
-        <f t="shared" si="100"/>
+        <f t="shared" si="121"/>
         <v>32</v>
       </c>
       <c r="AE54" s="3">
-        <f t="shared" si="100"/>
+        <f t="shared" si="121"/>
         <v>30</v>
       </c>
       <c r="AF54" s="3">
@@ -8496,23 +8496,23 @@
         <v>0.46233766233766183</v>
       </c>
       <c r="AG54" s="3">
-        <f t="shared" ref="AG54" si="101">(N256+N258+N260+N262+N264)/5</f>
+        <f t="shared" ref="AG54" si="122">(N256+N258+N260+N262+N264)/5</f>
         <v>0.27963048855905959</v>
       </c>
       <c r="AH54" s="3">
-        <f>(O256+O258+O260+O262+O264)/5</f>
+        <f t="shared" si="120"/>
         <v>0.46233766233766183</v>
       </c>
       <c r="AI54" s="3">
-        <f>(P256+P258+P260+P262+P264)/5</f>
+        <f t="shared" si="120"/>
         <v>0.34129870129870082</v>
       </c>
       <c r="AJ54" s="3">
-        <f>(Q256+Q258+Q260+Q262+Q264)/5</f>
+        <f t="shared" si="120"/>
         <v>0.45178571428571423</v>
       </c>
       <c r="AK54" s="3">
-        <f>(R256+R258+R260+R262+R264)/5</f>
+        <f t="shared" si="120"/>
         <v>5.8922197635076799E-2</v>
       </c>
       <c r="AL54" s="3">
@@ -8601,15 +8601,15 @@
         <v>16</v>
       </c>
       <c r="AC55" s="3">
-        <f t="shared" ref="AC55:AE55" si="102">(J265+J267+J269+J271+J273)</f>
+        <f t="shared" ref="AC55:AE55" si="123">(J265+J267+J269+J271+J273)</f>
         <v>12</v>
       </c>
       <c r="AD55" s="3">
-        <f t="shared" si="102"/>
+        <f t="shared" si="123"/>
         <v>46</v>
       </c>
       <c r="AE55" s="3">
-        <f t="shared" si="102"/>
+        <f t="shared" si="123"/>
         <v>38</v>
       </c>
       <c r="AF55" s="3">
@@ -8617,23 +8617,23 @@
         <v>0.47869565217391263</v>
       </c>
       <c r="AG55" s="3">
-        <f t="shared" ref="AG55" si="103">(N265+N267+N269+N271+N273)/5</f>
+        <f t="shared" ref="AG55" si="124">(N265+N267+N269+N271+N273)/5</f>
         <v>0.54986713475560334</v>
       </c>
       <c r="AH55" s="3">
-        <f>(O265+O267+O269+O271+O273)/5</f>
+        <f t="shared" ref="AH55:AK56" si="125">(O265+O267+O269+O271+O273)/5</f>
         <v>0.47869565217391263</v>
       </c>
       <c r="AI55" s="3">
-        <f>(P265+P267+P269+P271+P273)/5</f>
+        <f t="shared" si="125"/>
         <v>0.40658821879448342</v>
       </c>
       <c r="AJ55" s="3">
-        <f>(Q265+Q267+Q269+Q271+Q273)/5</f>
+        <f t="shared" si="125"/>
         <v>0.51666666666666639</v>
       </c>
       <c r="AK55" s="3">
-        <f>(R265+R267+R269+R271+R273)/5</f>
+        <f t="shared" si="125"/>
         <v>0.25644873696200399</v>
       </c>
       <c r="AL55" s="3">
@@ -8722,15 +8722,15 @@
         <v>24</v>
       </c>
       <c r="AC56" s="3">
-        <f t="shared" ref="AC56:AE56" si="104">(J266+J268+J270+J272+J274)</f>
+        <f t="shared" ref="AC56:AE56" si="126">(J266+J268+J270+J272+J274)</f>
         <v>20</v>
       </c>
       <c r="AD56" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="126"/>
         <v>37</v>
       </c>
       <c r="AE56" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="126"/>
         <v>25</v>
       </c>
       <c r="AF56" s="3">
@@ -8738,23 +8738,23 @@
         <v>0.46320346320346284</v>
       </c>
       <c r="AG56" s="3">
-        <f t="shared" ref="AG56" si="105">(N266+N268+N270+N272+N274)/5</f>
+        <f t="shared" ref="AG56" si="127">(N266+N268+N270+N272+N274)/5</f>
         <v>0.4503277674706242</v>
       </c>
       <c r="AH56" s="3">
-        <f>(O266+O268+O270+O272+O274)/5</f>
+        <f t="shared" si="125"/>
         <v>0.46320346320346284</v>
       </c>
       <c r="AI56" s="3">
-        <f>(P266+P268+P270+P272+P274)/5</f>
+        <f t="shared" si="125"/>
         <v>0.36597624597624567</v>
       </c>
       <c r="AJ56" s="3">
-        <f>(Q266+Q268+Q270+Q272+Q274)/5</f>
+        <f t="shared" si="125"/>
         <v>0.48095238095238058</v>
       </c>
       <c r="AK56" s="3">
-        <f>(R266+R268+R270+R272+R274)/5</f>
+        <f t="shared" si="125"/>
         <v>0.26628280059769704</v>
       </c>
       <c r="AL56" s="3">
@@ -8843,15 +8843,15 @@
         <v>15</v>
       </c>
       <c r="AC57" s="3">
-        <f t="shared" ref="AC57:AE57" si="106">(J275+J277+J279+J281+J283)</f>
+        <f t="shared" ref="AC57:AE57" si="128">(J275+J277+J279+J281+J283)</f>
         <v>13</v>
       </c>
       <c r="AD57" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="128"/>
         <v>40</v>
       </c>
       <c r="AE57" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="128"/>
         <v>44</v>
       </c>
       <c r="AF57" s="3">
@@ -8859,23 +8859,23 @@
         <v>0.5313043478260866</v>
       </c>
       <c r="AG57" s="3">
-        <f t="shared" ref="AG57" si="107">(N275+N277+N279+N281+N283)/5</f>
+        <f t="shared" ref="AG57" si="129">(N275+N277+N279+N281+N283)/5</f>
         <v>0.64736954860995743</v>
       </c>
       <c r="AH57" s="3">
-        <f>(O275+O277+O279+O281+O283)/5</f>
+        <f t="shared" ref="AH57:AK58" si="130">(O275+O277+O279+O281+O283)/5</f>
         <v>0.5313043478260866</v>
       </c>
       <c r="AI57" s="3">
-        <f>(P275+P277+P279+P281+P283)/5</f>
+        <f t="shared" si="130"/>
         <v>0.54559701661774118</v>
       </c>
       <c r="AJ57" s="3">
-        <f>(Q275+Q277+Q279+Q281+Q283)/5</f>
+        <f t="shared" si="130"/>
         <v>0.5299019607843134</v>
       </c>
       <c r="AK57" s="3">
-        <f>(R275+R277+R279+R281+R283)/5</f>
+        <f t="shared" si="130"/>
         <v>0.48453394382387333</v>
       </c>
       <c r="AL57" s="3">
@@ -8964,15 +8964,15 @@
         <v>28</v>
       </c>
       <c r="AC58" s="3">
-        <f t="shared" ref="AC58:AE58" si="108">(J276+J278+J280+J282+J284)</f>
+        <f t="shared" ref="AC58:AE58" si="131">(J276+J278+J280+J282+J284)</f>
         <v>16</v>
       </c>
       <c r="AD58" s="3">
-        <f t="shared" si="108"/>
+        <f t="shared" si="131"/>
         <v>34</v>
       </c>
       <c r="AE58" s="3">
-        <f t="shared" si="108"/>
+        <f t="shared" si="131"/>
         <v>28</v>
       </c>
       <c r="AF58" s="3">
@@ -8980,23 +8980,23 @@
         <v>0.52943722943722904</v>
       </c>
       <c r="AG58" s="3">
-        <f t="shared" ref="AG58" si="109">(N276+N278+N280+N282+N284)/5</f>
+        <f t="shared" ref="AG58" si="132">(N276+N278+N280+N282+N284)/5</f>
         <v>0.57436017456915234</v>
       </c>
       <c r="AH58" s="3">
-        <f>(O276+O278+O280+O282+O284)/5</f>
+        <f t="shared" si="130"/>
         <v>0.52943722943722904</v>
       </c>
       <c r="AI58" s="3">
-        <f>(P276+P278+P280+P282+P284)/5</f>
+        <f t="shared" si="130"/>
         <v>0.49869038586945641</v>
       </c>
       <c r="AJ58" s="3">
-        <f>(Q276+Q278+Q280+Q282+Q284)/5</f>
+        <f t="shared" si="130"/>
         <v>0.54404761904761856</v>
       </c>
       <c r="AK58" s="3">
-        <f>(R276+R278+R280+R282+R284)/5</f>
+        <f t="shared" si="130"/>
         <v>0.51235195214485674</v>
       </c>
       <c r="AL58" s="3">
@@ -9085,15 +9085,15 @@
         <v>20</v>
       </c>
       <c r="AC59" s="3">
-        <f t="shared" ref="AC59:AE59" si="110">(J285+J287+J289+J291+J293)</f>
+        <f t="shared" ref="AC59:AE59" si="133">(J285+J287+J289+J291+J293)</f>
         <v>8</v>
       </c>
       <c r="AD59" s="3">
-        <f t="shared" si="110"/>
+        <f t="shared" si="133"/>
         <v>43</v>
       </c>
       <c r="AE59" s="3">
-        <f t="shared" si="110"/>
+        <f t="shared" si="133"/>
         <v>41</v>
       </c>
       <c r="AF59" s="3">
@@ -9101,23 +9101,23 @@
         <v>0.54478260869565176</v>
       </c>
       <c r="AG59" s="3">
-        <f t="shared" ref="AG59" si="111">(N285+N287+N289+N291+N293)/5</f>
+        <f t="shared" ref="AG59" si="134">(N285+N287+N289+N291+N293)/5</f>
         <v>0.72050473680908422</v>
       </c>
       <c r="AH59" s="3">
-        <f>(O285+O287+O289+O291+O293)/5</f>
+        <f t="shared" ref="AH59:AK60" si="135">(O285+O287+O289+O291+O293)/5</f>
         <v>0.54478260869565176</v>
       </c>
       <c r="AI59" s="3">
-        <f>(P285+P287+P289+P291+P293)/5</f>
+        <f t="shared" si="135"/>
         <v>0.56614844720496882</v>
       </c>
       <c r="AJ59" s="3">
-        <f>(Q285+Q287+Q289+Q291+Q293)/5</f>
+        <f t="shared" si="135"/>
         <v>0.60245098039215639</v>
       </c>
       <c r="AK59" s="3">
-        <f>(R285+R287+R289+R291+R293)/5</f>
+        <f t="shared" si="135"/>
         <v>0.54773646537067522</v>
       </c>
       <c r="AL59" s="3">
@@ -9206,15 +9206,15 @@
         <v>30</v>
       </c>
       <c r="AC60" s="3">
-        <f t="shared" ref="AC60:AE60" si="112">(J286+J288+J290+J292+J294)</f>
+        <f t="shared" ref="AC60:AE60" si="136">(J286+J288+J290+J292+J294)</f>
         <v>14</v>
       </c>
       <c r="AD60" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="136"/>
         <v>36</v>
       </c>
       <c r="AE60" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="136"/>
         <v>26</v>
       </c>
       <c r="AF60" s="3">
@@ -9222,23 +9222,23 @@
         <v>0.52900432900432848</v>
       </c>
       <c r="AG60" s="3">
-        <f t="shared" ref="AG60" si="113">(N286+N288+N290+N292+N294)/5</f>
+        <f t="shared" ref="AG60" si="137">(N286+N288+N290+N292+N294)/5</f>
         <v>0.5018046239474806</v>
       </c>
       <c r="AH60" s="3">
-        <f>(O286+O288+O290+O292+O294)/5</f>
+        <f t="shared" si="135"/>
         <v>0.52900432900432848</v>
       </c>
       <c r="AI60" s="3">
-        <f>(P286+P288+P290+P292+P294)/5</f>
+        <f t="shared" si="135"/>
         <v>0.49307864406424062</v>
       </c>
       <c r="AJ60" s="3">
-        <f>(Q286+Q288+Q290+Q292+Q294)/5</f>
+        <f t="shared" si="135"/>
         <v>0.55099206349206331</v>
       </c>
       <c r="AK60" s="3">
-        <f>(R286+R288+R290+R292+R294)/5</f>
+        <f t="shared" si="135"/>
         <v>0.43974741898985703</v>
       </c>
       <c r="AL60" s="3">
@@ -9327,15 +9327,15 @@
         <v>22</v>
       </c>
       <c r="AC61" s="3">
-        <f t="shared" ref="AC61:AE61" si="114">(J295+J297+J299+J301+J303)</f>
+        <f t="shared" ref="AC61:AE61" si="138">(J295+J297+J299+J301+J303)</f>
         <v>6</v>
       </c>
       <c r="AD61" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="138"/>
         <v>66</v>
       </c>
       <c r="AE61" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="138"/>
         <v>18</v>
       </c>
       <c r="AF61" s="3">
@@ -9343,23 +9343,23 @@
         <v>0.35434782608695625</v>
       </c>
       <c r="AG61" s="3">
-        <f t="shared" ref="AG61" si="115">(N295+N297+N299+N301+N303)/5</f>
+        <f t="shared" ref="AG61" si="139">(N295+N297+N299+N301+N303)/5</f>
         <v>0.4652074420455673</v>
       </c>
       <c r="AH61" s="3">
-        <f>(O295+O297+O299+O301+O303)/5</f>
+        <f t="shared" ref="AH61:AK62" si="140">(O295+O297+O299+O301+O303)/5</f>
         <v>0.35434782608695625</v>
       </c>
       <c r="AI61" s="3">
-        <f>(P295+P297+P299+P301+P303)/5</f>
+        <f t="shared" si="140"/>
         <v>0.23599355245884862</v>
       </c>
       <c r="AJ61" s="3">
-        <f>(Q295+Q297+Q299+Q301+Q303)/5</f>
+        <f t="shared" si="140"/>
         <v>0.50624999999999987</v>
       </c>
       <c r="AK61" s="3">
-        <f>(R295+R297+R299+R301+R303)/5</f>
+        <f t="shared" si="140"/>
         <v>0.138915776091009</v>
       </c>
       <c r="AL61" s="3">
@@ -9448,15 +9448,15 @@
         <v>33</v>
       </c>
       <c r="AC62" s="3">
-        <f t="shared" ref="AC62:AE62" si="116">(J296+J298+J300+J302+J304)</f>
+        <f t="shared" ref="AC62:AE62" si="141">(J296+J298+J300+J302+J304)</f>
         <v>11</v>
       </c>
       <c r="AD62" s="3">
-        <f t="shared" si="116"/>
+        <f t="shared" si="141"/>
         <v>49</v>
       </c>
       <c r="AE62" s="3">
-        <f t="shared" si="116"/>
+        <f t="shared" si="141"/>
         <v>13</v>
       </c>
       <c r="AF62" s="3">
@@ -9464,23 +9464,23 @@
         <v>0.43463203463203398</v>
       </c>
       <c r="AG62" s="3">
-        <f t="shared" ref="AG62" si="117">(N296+N298+N300+N302+N304)/5</f>
+        <f t="shared" ref="AG62" si="142">(N296+N298+N300+N302+N304)/5</f>
         <v>0.23665036262438818</v>
       </c>
       <c r="AH62" s="3">
-        <f>(O296+O298+O300+O302+O304)/5</f>
+        <f t="shared" si="140"/>
         <v>0.43463203463203398</v>
       </c>
       <c r="AI62" s="3">
-        <f>(P296+P298+P300+P302+P304)/5</f>
+        <f t="shared" si="140"/>
         <v>0.28444444444444394</v>
       </c>
       <c r="AJ62" s="3">
-        <f>(Q296+Q298+Q300+Q302+Q304)/5</f>
+        <f t="shared" si="140"/>
         <v>0.48611111111111099</v>
       </c>
       <c r="AK62" s="3">
-        <f>(R296+R298+R300+R302+R304)/5</f>
+        <f t="shared" si="140"/>
         <v>6.0551462460889008E-2</v>
       </c>
       <c r="AL62" s="3">
@@ -9569,15 +9569,15 @@
         <v>23</v>
       </c>
       <c r="AC63" s="3">
-        <f t="shared" ref="AC63:AE63" si="118">(J305+J307+J309+J311+J313)</f>
+        <f t="shared" ref="AC63:AE63" si="143">(J305+J307+J309+J311+J313)</f>
         <v>5</v>
       </c>
       <c r="AD63" s="3">
-        <f t="shared" si="118"/>
+        <f t="shared" si="143"/>
         <v>57</v>
       </c>
       <c r="AE63" s="3">
-        <f t="shared" si="118"/>
+        <f t="shared" si="143"/>
         <v>27</v>
       </c>
       <c r="AF63" s="3">
@@ -9585,23 +9585,23 @@
         <v>0.4478260869565216</v>
       </c>
       <c r="AG63" s="3">
-        <f t="shared" ref="AG63" si="119">(N305+N307+N309+N311+N313)/5</f>
+        <f t="shared" ref="AG63" si="144">(N305+N307+N309+N311+N313)/5</f>
         <v>0.45753173102889527</v>
       </c>
       <c r="AH63" s="3">
-        <f>(O305+O307+O309+O311+O313)/5</f>
+        <f t="shared" ref="AH63:AK64" si="145">(O305+O307+O309+O311+O313)/5</f>
         <v>0.4478260869565216</v>
       </c>
       <c r="AI63" s="3">
-        <f>(P305+P307+P309+P311+P313)/5</f>
+        <f t="shared" si="145"/>
         <v>0.40200624962244086</v>
       </c>
       <c r="AJ63" s="3">
-        <f>(Q305+Q307+Q309+Q311+Q313)/5</f>
+        <f t="shared" si="145"/>
         <v>0.56973039215686261</v>
       </c>
       <c r="AK63" s="3">
-        <f>(R305+R307+R309+R311+R313)/5</f>
+        <f t="shared" si="145"/>
         <v>0.34230085947848998</v>
       </c>
       <c r="AL63" s="3">
@@ -9690,15 +9690,15 @@
         <v>31</v>
       </c>
       <c r="AC64" s="3">
-        <f t="shared" ref="AC64:AE64" si="120">(J306+J308+J310+J312+J314)</f>
+        <f t="shared" ref="AC64:AE64" si="146">(J306+J308+J310+J312+J314)</f>
         <v>13</v>
       </c>
       <c r="AD64" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="146"/>
         <v>41</v>
       </c>
       <c r="AE64" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="146"/>
         <v>21</v>
       </c>
       <c r="AF64" s="3">
@@ -9706,23 +9706,23 @@
         <v>0.4913419913419908</v>
       </c>
       <c r="AG64" s="3">
-        <f t="shared" ref="AG64" si="121">(N306+N308+N310+N312+N314)/5</f>
+        <f t="shared" ref="AG64" si="147">(N306+N308+N310+N312+N314)/5</f>
         <v>0.40517220874363702</v>
       </c>
       <c r="AH64" s="3">
-        <f>(O306+O308+O310+O312+O314)/5</f>
+        <f t="shared" si="145"/>
         <v>0.4913419913419908</v>
       </c>
       <c r="AI64" s="3">
-        <f>(P306+P308+P310+P312+P314)/5</f>
+        <f t="shared" si="145"/>
         <v>0.41814095452714339</v>
       </c>
       <c r="AJ64" s="3">
-        <f>(Q306+Q308+Q310+Q312+Q314)/5</f>
+        <f t="shared" si="145"/>
         <v>0.52162698412698383</v>
       </c>
       <c r="AK64" s="3">
-        <f>(R306+R308+R310+R312+R314)/5</f>
+        <f t="shared" si="145"/>
         <v>0.31281250138825922</v>
       </c>
       <c r="AL64" s="3">
@@ -9811,15 +9811,15 @@
         <v>13</v>
       </c>
       <c r="AC65" s="3">
-        <f t="shared" ref="AC65:AE65" si="122">(J315+J317+J319+J321+J323)</f>
+        <f t="shared" ref="AC65:AE65" si="148">(J315+J317+J319+J321+J323)</f>
         <v>15</v>
       </c>
       <c r="AD65" s="3">
-        <f t="shared" si="122"/>
+        <f t="shared" si="148"/>
         <v>28</v>
       </c>
       <c r="AE65" s="3">
-        <f t="shared" si="122"/>
+        <f t="shared" si="148"/>
         <v>56</v>
       </c>
       <c r="AF65" s="3">
@@ -9827,23 +9827,23 @@
         <v>0.6182608695652172</v>
       </c>
       <c r="AG65" s="3">
-        <f t="shared" ref="AG65" si="123">(N315+N317+N319+N321+N323)/5</f>
+        <f t="shared" ref="AG65" si="149">(N315+N317+N319+N321+N323)/5</f>
         <v>0.66266390614216686</v>
       </c>
       <c r="AH65" s="3">
-        <f>(O315+O317+O319+O321+O323)/5</f>
+        <f t="shared" ref="AH65:AK66" si="150">(O315+O317+O319+O321+O323)/5</f>
         <v>0.6182608695652172</v>
       </c>
       <c r="AI65" s="3">
-        <f>(P315+P317+P319+P321+P323)/5</f>
+        <f t="shared" si="150"/>
         <v>0.60669383053344528</v>
       </c>
       <c r="AJ65" s="3">
-        <f>(Q315+Q317+Q319+Q321+Q323)/5</f>
+        <f t="shared" si="150"/>
         <v>0.55122549019607803</v>
       </c>
       <c r="AK65" s="3">
-        <f>(R315+R317+R319+R321+R323)/5</f>
+        <f t="shared" si="150"/>
         <v>0.34854528613175118</v>
       </c>
       <c r="AL65" s="3">
@@ -9932,15 +9932,15 @@
         <v>21</v>
       </c>
       <c r="AC66" s="3">
-        <f t="shared" ref="AC66:AE66" si="124">(J316+J318+J320+J322+J324)</f>
+        <f t="shared" ref="AC66:AE66" si="151">(J316+J318+J320+J322+J324)</f>
         <v>23</v>
       </c>
       <c r="AD66" s="3">
-        <f t="shared" si="124"/>
+        <f t="shared" si="151"/>
         <v>33</v>
       </c>
       <c r="AE66" s="3">
-        <f t="shared" si="124"/>
+        <f t="shared" si="151"/>
         <v>29</v>
       </c>
       <c r="AF66" s="3">
@@ -9948,23 +9948,23 @@
         <v>0.47142857142857097</v>
       </c>
       <c r="AG66" s="3">
-        <f t="shared" ref="AG66" si="125">(N316+N318+N320+N322+N324)/5</f>
+        <f t="shared" ref="AG66" si="152">(N316+N318+N320+N322+N324)/5</f>
         <v>0.47620320855614917</v>
       </c>
       <c r="AH66" s="3">
-        <f>(O316+O318+O320+O322+O324)/5</f>
+        <f t="shared" si="150"/>
         <v>0.47142857142857097</v>
       </c>
       <c r="AI66" s="3">
-        <f>(P316+P318+P320+P322+P324)/5</f>
+        <f t="shared" si="150"/>
         <v>0.44774519870528201</v>
       </c>
       <c r="AJ66" s="3">
-        <f>(Q316+Q318+Q320+Q322+Q324)/5</f>
+        <f t="shared" si="150"/>
         <v>0.46706349206349185</v>
       </c>
       <c r="AK66" s="3">
-        <f>(R316+R318+R320+R322+R324)/5</f>
+        <f t="shared" si="150"/>
         <v>0.42963761244925164</v>
       </c>
       <c r="AL66" s="3">
@@ -10053,15 +10053,15 @@
         <v>24</v>
       </c>
       <c r="AC67" s="3">
-        <f t="shared" ref="AC67:AE67" si="126">(J325+J327+J329+J331+J333)</f>
+        <f t="shared" ref="AC67:AE67" si="153">(J325+J327+J329+J331+J333)</f>
         <v>4</v>
       </c>
       <c r="AD67" s="3">
-        <f t="shared" si="126"/>
+        <f t="shared" si="153"/>
         <v>68</v>
       </c>
       <c r="AE67" s="3">
-        <f t="shared" si="126"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="AF67" s="3">
@@ -10069,23 +10069,23 @@
         <v>0.35304347826086935</v>
       </c>
       <c r="AG67" s="3">
-        <f t="shared" ref="AG67" si="127">(N325+N327+N329+N331+N333)/5</f>
+        <f t="shared" ref="AG67" si="154">(N325+N327+N329+N331+N333)/5</f>
         <v>0.53326139764126013</v>
       </c>
       <c r="AH67" s="3">
-        <f>(O325+O327+O329+O331+O333)/5</f>
+        <f t="shared" ref="AH67:AK68" si="155">(O325+O327+O329+O331+O333)/5</f>
         <v>0.35304347826086935</v>
       </c>
       <c r="AI67" s="3">
-        <f>(P325+P327+P329+P331+P333)/5</f>
+        <f t="shared" si="155"/>
         <v>0.30280061357406834</v>
       </c>
       <c r="AJ67" s="3">
-        <f>(Q325+Q327+Q329+Q331+Q333)/5</f>
+        <f t="shared" si="155"/>
         <v>0.52745098039215654</v>
       </c>
       <c r="AK67" s="3">
-        <f>(R325+R327+R329+R331+R333)/5</f>
+        <f t="shared" si="155"/>
         <v>0.35381450636691597</v>
       </c>
       <c r="AL67" s="3">
@@ -10174,15 +10174,15 @@
         <v>33</v>
       </c>
       <c r="AC68" s="3">
-        <f t="shared" ref="AC68:AE68" si="128">(J326+J328+J330+J332+J334)</f>
+        <f t="shared" ref="AC68:AE68" si="156">(J326+J328+J330+J332+J334)</f>
         <v>11</v>
       </c>
       <c r="AD68" s="3">
-        <f t="shared" si="128"/>
+        <f t="shared" si="156"/>
         <v>49</v>
       </c>
       <c r="AE68" s="3">
-        <f t="shared" si="128"/>
+        <f t="shared" si="156"/>
         <v>13</v>
       </c>
       <c r="AF68" s="3">
@@ -10190,23 +10190,23 @@
         <v>0.43463203463203415</v>
       </c>
       <c r="AG68" s="3">
-        <f t="shared" ref="AG68" si="129">(N326+N328+N330+N332+N334)/5</f>
+        <f t="shared" ref="AG68" si="157">(N326+N328+N330+N332+N334)/5</f>
         <v>0.41565263019808418</v>
       </c>
       <c r="AH68" s="3">
-        <f>(O326+O328+O330+O332+O334)/5</f>
+        <f t="shared" si="155"/>
         <v>0.43463203463203415</v>
       </c>
       <c r="AI68" s="3">
-        <f>(P326+P328+P330+P332+P334)/5</f>
+        <f t="shared" si="155"/>
         <v>0.3787318563789146</v>
       </c>
       <c r="AJ68" s="3">
-        <f>(Q326+Q328+Q330+Q332+Q334)/5</f>
+        <f t="shared" si="155"/>
         <v>0.48611111111111055</v>
       </c>
       <c r="AK68" s="3">
-        <f>(R326+R328+R330+R332+R334)/5</f>
+        <f t="shared" si="155"/>
         <v>0.35821173231699999</v>
       </c>
       <c r="AL68" s="3">
@@ -10295,15 +10295,15 @@
         <v>14</v>
       </c>
       <c r="AC69" s="3">
-        <f t="shared" ref="AC69:AE69" si="130">(J335+J337+J339+J341+J343)</f>
+        <f t="shared" ref="AC69:AE69" si="158">(J335+J337+J339+J341+J343)</f>
         <v>14</v>
       </c>
       <c r="AD69" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="158"/>
         <v>38</v>
       </c>
       <c r="AE69" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="158"/>
         <v>46</v>
       </c>
       <c r="AF69" s="3">
@@ -10311,23 +10311,23 @@
         <v>0.52826086956521701</v>
       </c>
       <c r="AG69" s="3">
-        <f t="shared" ref="AG69" si="131">(N335+N337+N339+N341+N343)/5</f>
+        <f t="shared" ref="AG69" si="159">(N335+N337+N339+N341+N343)/5</f>
         <v>0.67054422445527762</v>
       </c>
       <c r="AH69" s="3">
-        <f>(O335+O337+O339+O341+O343)/5</f>
+        <f t="shared" ref="AH69:AK70" si="160">(O335+O337+O339+O341+O343)/5</f>
         <v>0.52826086956521701</v>
       </c>
       <c r="AI69" s="3">
-        <f>(P335+P337+P339+P341+P343)/5</f>
+        <f t="shared" si="160"/>
         <v>0.4851589331384723</v>
       </c>
       <c r="AJ69" s="3">
-        <f>(Q335+Q337+Q339+Q341+Q343)/5</f>
+        <f t="shared" si="160"/>
         <v>0.5376225490196076</v>
       </c>
       <c r="AK69" s="3">
-        <f>(R335+R337+R339+R341+R343)/5</f>
+        <f t="shared" si="160"/>
         <v>0.36535063266862922</v>
       </c>
       <c r="AL69" s="3">
@@ -10416,15 +10416,15 @@
         <v>19</v>
       </c>
       <c r="AC70" s="3">
-        <f t="shared" ref="AC70:AE70" si="132">(J336+J338+J340+J342+J344)</f>
+        <f t="shared" ref="AC70:AE70" si="161">(J336+J338+J340+J342+J344)</f>
         <v>25</v>
       </c>
       <c r="AD70" s="3">
-        <f t="shared" si="132"/>
+        <f t="shared" si="161"/>
         <v>19</v>
       </c>
       <c r="AE70" s="3">
-        <f t="shared" si="132"/>
+        <f t="shared" si="161"/>
         <v>43</v>
       </c>
       <c r="AF70" s="3">
@@ -10432,23 +10432,23 @@
         <v>0.5865800865800862</v>
       </c>
       <c r="AG70" s="3">
-        <f t="shared" ref="AG70" si="133">(N336+N338+N340+N342+N344)/5</f>
+        <f t="shared" ref="AG70" si="162">(N336+N338+N340+N342+N344)/5</f>
         <v>0.58269913878936375</v>
       </c>
       <c r="AH70" s="3">
-        <f>(O336+O338+O340+O342+O344)/5</f>
+        <f t="shared" si="160"/>
         <v>0.5865800865800862</v>
       </c>
       <c r="AI70" s="3">
-        <f>(P336+P338+P340+P342+P344)/5</f>
+        <f t="shared" si="160"/>
         <v>0.54256190009640903</v>
       </c>
       <c r="AJ70" s="3">
-        <f>(Q336+Q338+Q340+Q342+Q344)/5</f>
+        <f t="shared" si="160"/>
         <v>0.5690476190476188</v>
       </c>
       <c r="AK70" s="3">
-        <f>(R336+R338+R340+R342+R344)/5</f>
+        <f t="shared" si="160"/>
         <v>0.46463973842369699</v>
       </c>
       <c r="AL70" s="3">
@@ -10537,15 +10537,15 @@
         <v>11</v>
       </c>
       <c r="AC71" s="3">
-        <f t="shared" ref="AC71:AE71" si="134">(J345+J347+J349+J351+J353)</f>
+        <f t="shared" ref="AC71:AE71" si="163">(J345+J347+J349+J351+J353)</f>
         <v>17</v>
       </c>
       <c r="AD71" s="3">
-        <f t="shared" si="134"/>
+        <f t="shared" si="163"/>
         <v>12</v>
       </c>
       <c r="AE71" s="3">
-        <f t="shared" si="134"/>
+        <f t="shared" si="163"/>
         <v>72</v>
       </c>
       <c r="AF71" s="3">
@@ -10553,23 +10553,23 @@
         <v>0.74130434782608656</v>
       </c>
       <c r="AG71" s="3">
-        <f t="shared" ref="AG71" si="135">(N345+N347+N349+N351+N353)/5</f>
+        <f t="shared" ref="AG71" si="164">(N345+N347+N349+N351+N353)/5</f>
         <v>0.7036138537282699</v>
       </c>
       <c r="AH71" s="3">
-        <f>(O345+O347+O349+O351+O353)/5</f>
+        <f t="shared" ref="AH71:AK72" si="165">(O345+O347+O349+O351+O353)/5</f>
         <v>0.74130434782608656</v>
       </c>
       <c r="AI71" s="3">
-        <f>(P345+P347+P349+P351+P353)/5</f>
+        <f t="shared" si="165"/>
         <v>0.71026597667901981</v>
       </c>
       <c r="AJ71" s="3">
-        <f>(Q345+Q347+Q349+Q351+Q353)/5</f>
+        <f t="shared" si="165"/>
         <v>0.61237745098039187</v>
       </c>
       <c r="AK71" s="3">
-        <f>(R345+R347+R349+R351+R353)/5</f>
+        <f t="shared" si="165"/>
         <v>0.40939674567952239</v>
       </c>
       <c r="AL71" s="3">
@@ -10658,15 +10658,15 @@
         <v>21</v>
       </c>
       <c r="AC72" s="3">
-        <f t="shared" ref="AC72:AE72" si="136">(J346+J348+J350+J352+J354)</f>
+        <f t="shared" ref="AC72:AE72" si="166">(J346+J348+J350+J352+J354)</f>
         <v>23</v>
       </c>
       <c r="AD72" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="166"/>
         <v>21</v>
       </c>
       <c r="AE72" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="166"/>
         <v>41</v>
       </c>
       <c r="AF72" s="3">
@@ -10674,23 +10674,23 @@
         <v>0.58528138528138474</v>
       </c>
       <c r="AG72" s="3">
-        <f t="shared" ref="AG72" si="137">(N346+N348+N350+N352+N354)/5</f>
+        <f t="shared" ref="AG72" si="167">(N346+N348+N350+N352+N354)/5</f>
         <v>0.592492703375056</v>
       </c>
       <c r="AH72" s="3">
-        <f>(O346+O348+O350+O352+O354)/5</f>
+        <f t="shared" si="165"/>
         <v>0.58528138528138474</v>
       </c>
       <c r="AI72" s="3">
-        <f>(P346+P348+P350+P352+P354)/5</f>
+        <f t="shared" si="165"/>
         <v>0.57435845408701047</v>
       </c>
       <c r="AJ72" s="3">
-        <f>(Q346+Q348+Q350+Q352+Q354)/5</f>
+        <f t="shared" si="165"/>
         <v>0.56587301587301553</v>
       </c>
       <c r="AK72" s="3">
-        <f>(R346+R348+R350+R352+R354)/5</f>
+        <f t="shared" si="165"/>
         <v>0.55362443985702936</v>
       </c>
       <c r="AL72" s="3">
@@ -10779,15 +10779,15 @@
         <v>10</v>
       </c>
       <c r="AC73" s="3">
-        <f t="shared" ref="AC73:AE73" si="138">(J355+J357+J359+J361+J363)</f>
+        <f t="shared" ref="AC73:AE73" si="168">(J355+J357+J359+J361+J363)</f>
         <v>18</v>
       </c>
       <c r="AD73" s="3">
-        <f t="shared" si="138"/>
+        <f t="shared" si="168"/>
         <v>16</v>
       </c>
       <c r="AE73" s="3">
-        <f t="shared" si="138"/>
+        <f t="shared" si="168"/>
         <v>68</v>
       </c>
       <c r="AF73" s="3">
@@ -10795,23 +10795,23 @@
         <v>0.68869565217391271</v>
       </c>
       <c r="AG73" s="3">
-        <f t="shared" ref="AG73" si="139">(N355+N357+N359+N361+N363)/5</f>
+        <f t="shared" ref="AG73" si="169">(N355+N357+N359+N361+N363)/5</f>
         <v>0.70649362536776705</v>
       </c>
       <c r="AH73" s="3">
-        <f>(O355+O357+O359+O361+O363)/5</f>
+        <f t="shared" ref="AH73:AK74" si="170">(O355+O357+O359+O361+O363)/5</f>
         <v>0.68869565217391271</v>
       </c>
       <c r="AI73" s="3">
-        <f>(P355+P357+P359+P361+P363)/5</f>
+        <f t="shared" si="170"/>
         <v>0.68378785211737114</v>
       </c>
       <c r="AJ73" s="3">
-        <f>(Q355+Q357+Q359+Q361+Q363)/5</f>
+        <f t="shared" si="170"/>
         <v>0.57757352941176443</v>
       </c>
       <c r="AK73" s="3">
-        <f>(R355+R357+R359+R361+R363)/5</f>
+        <f t="shared" si="170"/>
         <v>0.54891923966527834</v>
       </c>
       <c r="AL73" s="3">
@@ -10900,15 +10900,15 @@
         <v>24</v>
       </c>
       <c r="AC74" s="3">
-        <f t="shared" ref="AC74:AE74" si="140">(J356+J358+J360+J362+J364)</f>
+        <f t="shared" ref="AC74:AE74" si="171">(J356+J358+J360+J362+J364)</f>
         <v>20</v>
       </c>
       <c r="AD74" s="3">
-        <f t="shared" si="140"/>
+        <f t="shared" si="171"/>
         <v>27</v>
       </c>
       <c r="AE74" s="3">
-        <f t="shared" si="140"/>
+        <f t="shared" si="171"/>
         <v>35</v>
       </c>
       <c r="AF74" s="3">
@@ -10916,23 +10916,23 @@
         <v>0.55757575757575695</v>
       </c>
       <c r="AG74" s="3">
-        <f t="shared" ref="AG74" si="141">(N356+N358+N360+N362+N364)/5</f>
+        <f t="shared" ref="AG74" si="172">(N356+N358+N360+N362+N364)/5</f>
         <v>0.58064768564768499</v>
       </c>
       <c r="AH74" s="3">
-        <f>(O356+O358+O360+O362+O364)/5</f>
+        <f t="shared" si="170"/>
         <v>0.55757575757575695</v>
       </c>
       <c r="AI74" s="3">
-        <f>(P356+P358+P360+P362+P364)/5</f>
+        <f t="shared" si="170"/>
         <v>0.54700006063031237</v>
       </c>
       <c r="AJ74" s="3">
-        <f>(Q356+Q358+Q360+Q362+Q364)/5</f>
+        <f t="shared" si="170"/>
         <v>0.55932539682539639</v>
       </c>
       <c r="AK74" s="3">
-        <f>(R356+R358+R360+R362+R364)/5</f>
+        <f t="shared" si="170"/>
         <v>0.54301110650920836</v>
       </c>
       <c r="AL74" s="3">
@@ -11021,15 +11021,15 @@
         <v>12</v>
       </c>
       <c r="AC75" s="3">
-        <f t="shared" ref="AC75:AE75" si="142">(J365+J367+J369+J371+J373)</f>
+        <f t="shared" ref="AC75:AE75" si="173">(J365+J367+J369+J371+J373)</f>
         <v>16</v>
       </c>
       <c r="AD75" s="3">
-        <f t="shared" si="142"/>
+        <f t="shared" si="173"/>
         <v>25</v>
       </c>
       <c r="AE75" s="3">
-        <f t="shared" si="142"/>
+        <f t="shared" si="173"/>
         <v>59</v>
       </c>
       <c r="AF75" s="3">
@@ -11037,23 +11037,23 @@
         <v>0.63043478260869512</v>
       </c>
       <c r="AG75" s="3">
-        <f t="shared" ref="AG75" si="143">(N365+N367+N369+N371+N373)/5</f>
+        <f t="shared" ref="AG75" si="174">(N365+N367+N369+N371+N373)/5</f>
         <v>0.68155624568668005</v>
       </c>
       <c r="AH75" s="3">
-        <f>(O365+O367+O369+O371+O373)/5</f>
+        <f t="shared" ref="AH75:AK76" si="175">(O365+O367+O369+O371+O373)/5</f>
         <v>0.63043478260869512</v>
       </c>
       <c r="AI75" s="3">
-        <f>(P365+P367+P369+P371+P373)/5</f>
+        <f t="shared" si="175"/>
         <v>0.63629472759907479</v>
       </c>
       <c r="AJ75" s="3">
-        <f>(Q365+Q367+Q369+Q371+Q373)/5</f>
+        <f t="shared" si="175"/>
         <v>0.55870098039215643</v>
       </c>
       <c r="AK75" s="3">
-        <f>(R365+R367+R369+R371+R373)/5</f>
+        <f t="shared" si="175"/>
         <v>0.50346034841778431</v>
       </c>
       <c r="AL75" s="3">
@@ -11142,15 +11142,15 @@
         <v>26</v>
       </c>
       <c r="AC76" s="3">
-        <f t="shared" ref="AC76:AE76" si="144">(J366+J368+J370+J372+J374)</f>
+        <f t="shared" ref="AC76:AE76" si="176">(J366+J368+J370+J372+J374)</f>
         <v>18</v>
       </c>
       <c r="AD76" s="3">
-        <f t="shared" si="144"/>
+        <f t="shared" si="176"/>
         <v>34</v>
       </c>
       <c r="AE76" s="3">
-        <f t="shared" si="144"/>
+        <f t="shared" si="176"/>
         <v>28</v>
       </c>
       <c r="AF76" s="3">
@@ -11158,23 +11158,23 @@
         <v>0.50909090909090882</v>
       </c>
       <c r="AG76" s="3">
-        <f t="shared" ref="AG76" si="145">(N366+N368+N370+N372+N374)/5</f>
+        <f t="shared" ref="AG76" si="177">(N366+N368+N370+N372+N374)/5</f>
         <v>0.54343022057307722</v>
       </c>
       <c r="AH76" s="3">
-        <f>(O366+O368+O370+O372+O374)/5</f>
+        <f t="shared" si="175"/>
         <v>0.50909090909090882</v>
       </c>
       <c r="AI76" s="3">
-        <f>(P366+P368+P370+P372+P374)/5</f>
+        <f t="shared" si="175"/>
         <v>0.50130638240477998</v>
       </c>
       <c r="AJ76" s="3">
-        <f>(Q366+Q368+Q370+Q372+Q374)/5</f>
+        <f t="shared" si="175"/>
         <v>0.52599206349206318</v>
       </c>
       <c r="AK76" s="3">
-        <f>(R366+R368+R370+R372+R374)/5</f>
+        <f t="shared" si="175"/>
         <v>0.51065307402245375</v>
       </c>
       <c r="AL76" s="3">
@@ -11263,15 +11263,15 @@
         <v>11</v>
       </c>
       <c r="AC77" s="3">
-        <f t="shared" ref="AC77:AE77" si="146">(J375+J377+J379+J381+J383)</f>
+        <f t="shared" ref="AC77:AE77" si="178">(J375+J377+J379+J381+J383)</f>
         <v>20</v>
       </c>
       <c r="AD77" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="178"/>
         <v>18</v>
       </c>
       <c r="AE77" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="178"/>
         <v>61</v>
       </c>
       <c r="AF77" s="3">
@@ -11279,7 +11279,7 @@
         <v>0.64989648033126279</v>
       </c>
       <c r="AG77" s="3">
-        <f t="shared" ref="AG77" si="147">(N375+N377+N379+N381+N383)/5</f>
+        <f t="shared" ref="AG77" si="179">(N375+N377+N379+N381+N383)/5</f>
         <v>0.63347637869376949</v>
       </c>
       <c r="AH77" s="3">
@@ -11384,15 +11384,15 @@
         <v>15</v>
       </c>
       <c r="AC78" s="3">
-        <f t="shared" ref="AC78:AE78" si="148">(J376+J378+J380+J382+J384)</f>
+        <f t="shared" ref="AC78:AE78" si="180">(J376+J378+J380+J382+J384)</f>
         <v>26</v>
       </c>
       <c r="AD78" s="3">
-        <f t="shared" si="148"/>
+        <f t="shared" si="180"/>
         <v>22</v>
       </c>
       <c r="AE78" s="3">
-        <f t="shared" si="148"/>
+        <f t="shared" si="180"/>
         <v>45</v>
       </c>
       <c r="AF78" s="3">
@@ -11400,7 +11400,7 @@
         <v>0.55431959345002779</v>
       </c>
       <c r="AG78" s="3">
-        <f t="shared" ref="AG78" si="149">(N376+N378+N380+N382+N384)/5</f>
+        <f t="shared" ref="AG78" si="181">(N376+N378+N380+N382+N384)/5</f>
         <v>0.55967319227178325</v>
       </c>
       <c r="AH78" s="3">
@@ -11505,15 +11505,15 @@
         <v>9</v>
       </c>
       <c r="AC79" s="3">
-        <f t="shared" ref="AC79:AE79" si="150">(J385+J387+J389+J391+J393)</f>
+        <f t="shared" ref="AC79:AE79" si="182">(J385+J387+J389+J391+J393)</f>
         <v>19</v>
       </c>
       <c r="AD79" s="3">
-        <f t="shared" si="150"/>
+        <f t="shared" si="182"/>
         <v>16</v>
       </c>
       <c r="AE79" s="3">
-        <f t="shared" si="150"/>
+        <f t="shared" si="182"/>
         <v>68</v>
       </c>
       <c r="AF79" s="3">
@@ -11521,7 +11521,7 @@
         <v>0.68130434782608673</v>
       </c>
       <c r="AG79" s="3">
-        <f t="shared" ref="AG79" si="151">(N385+N387+N389+N391+N393)/5</f>
+        <f t="shared" ref="AG79" si="183">(N385+N387+N389+N391+N393)/5</f>
         <v>0.70992601601297201</v>
       </c>
       <c r="AH79" s="3">
@@ -11626,15 +11626,15 @@
         <v>26</v>
       </c>
       <c r="AC80" s="3">
-        <f t="shared" ref="AC80:AE80" si="152">(J386+J388+J390+J392+J394)</f>
+        <f t="shared" ref="AC80:AE80" si="184">(J386+J388+J390+J392+J394)</f>
         <v>18</v>
       </c>
       <c r="AD80" s="3">
-        <f t="shared" si="152"/>
+        <f t="shared" si="184"/>
         <v>26</v>
       </c>
       <c r="AE80" s="3">
-        <f t="shared" si="152"/>
+        <f t="shared" si="184"/>
         <v>36</v>
       </c>
       <c r="AF80" s="3">
@@ -11646,7 +11646,7 @@
         <v>0.60877122877122825</v>
       </c>
       <c r="AH80" s="3">
-        <f t="shared" ref="AH80" si="153">(O386+O388+O390+O392+O394)/5</f>
+        <f t="shared" ref="AH80" si="185">(O386+O388+O390+O392+O394)/5</f>
         <v>0.58528138528138474</v>
       </c>
       <c r="AI80" s="3">
@@ -11747,15 +11747,15 @@
         <v>13</v>
       </c>
       <c r="AC81" s="3">
-        <f t="shared" ref="AC81:AE82" si="154">(J395+J397+J399+J401+J403)</f>
+        <f t="shared" ref="AC81:AE82" si="186">(J395+J397+J399+J401+J403)</f>
         <v>15</v>
       </c>
       <c r="AD81" s="3">
-        <f t="shared" si="154"/>
+        <f t="shared" si="186"/>
         <v>14</v>
       </c>
       <c r="AE81" s="3">
-        <f t="shared" si="154"/>
+        <f t="shared" si="186"/>
         <v>70</v>
       </c>
       <c r="AF81" s="3">
@@ -11763,7 +11763,7 @@
         <v>0.73999999999999966</v>
       </c>
       <c r="AG81" s="17">
-        <f t="shared" ref="AG81:AG82" si="155">(N395+N397+N399+N401+N403)/5</f>
+        <f t="shared" ref="AG81:AG82" si="187">(N395+N397+N399+N401+N403)/5</f>
         <v>0.76314434357912553</v>
       </c>
       <c r="AH81" s="3">
@@ -11775,11 +11775,11 @@
         <v>0.73738674643022462</v>
       </c>
       <c r="AJ81" s="3">
-        <f t="shared" ref="AJ81:AJ82" si="156">(Q395+Q397+Q399+Q401+Q403)/5</f>
+        <f t="shared" ref="AJ81:AJ82" si="188">(Q395+Q397+Q399+Q401+Q403)/5</f>
         <v>0.64950980392156843</v>
       </c>
       <c r="AK81" s="3">
-        <f t="shared" ref="AK81:AK82" si="157">(R395+R397+R399+R401+R403)/5</f>
+        <f t="shared" ref="AK81:AK82" si="189">(R395+R397+R399+R401+R403)/5</f>
         <v>0.63556895585737916</v>
       </c>
       <c r="AL81" s="3">
@@ -11868,15 +11868,15 @@
         <v>27</v>
       </c>
       <c r="AC82" s="3">
-        <f t="shared" si="154"/>
+        <f t="shared" si="186"/>
         <v>17</v>
       </c>
       <c r="AD82" s="3">
-        <f t="shared" si="154"/>
+        <f t="shared" si="186"/>
         <v>26</v>
       </c>
       <c r="AE82" s="3">
-        <f t="shared" si="154"/>
+        <f t="shared" si="186"/>
         <v>36</v>
       </c>
       <c r="AF82" s="3">
@@ -11884,7 +11884,7 @@
         <v>0.59350649350649287</v>
       </c>
       <c r="AG82" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="187"/>
         <v>0.6387776928953397</v>
       </c>
       <c r="AH82" s="3">
@@ -11896,16 +11896,16 @@
         <v>0.5758076705902786</v>
       </c>
       <c r="AJ82" s="3">
-        <f t="shared" si="156"/>
+        <f t="shared" si="188"/>
         <v>0.60277777777777763</v>
       </c>
       <c r="AK82" s="3">
-        <f t="shared" si="157"/>
+        <f t="shared" si="189"/>
         <v>0.57924078965973913</v>
       </c>
       <c r="AL82" s="3">
-        <f t="shared" ref="AL82" si="158">(S396+S398+S400+S402+S404)/5</f>
-        <v>742.2</v>
+        <f>(S396+S398+S400+S402+S404)/5/60</f>
+        <v>12.370000000000001</v>
       </c>
     </row>
     <row r="83" spans="2:38" x14ac:dyDescent="0.3">
@@ -11989,15 +11989,15 @@
         <v>8</v>
       </c>
       <c r="AC83" s="3">
-        <f t="shared" ref="AC83:AE83" si="159">(J405+J407+J409+J411+J413)</f>
+        <f t="shared" ref="AC83:AE83" si="190">(J405+J407+J409+J411+J413)</f>
         <v>20</v>
       </c>
       <c r="AD83" s="3">
-        <f t="shared" si="159"/>
+        <f t="shared" si="190"/>
         <v>19</v>
       </c>
       <c r="AE83" s="3">
-        <f t="shared" si="159"/>
+        <f t="shared" si="190"/>
         <v>65</v>
       </c>
       <c r="AF83" s="3">
@@ -12005,23 +12005,23 @@
         <v>0.65043478260869547</v>
       </c>
       <c r="AG83" s="3">
-        <f t="shared" ref="AG83" si="160">(N405+N407+N409+N411+N413)/5</f>
+        <f t="shared" ref="AG83" si="191">(N405+N407+N409+N411+N413)/5</f>
         <v>0.63857095802747921</v>
       </c>
       <c r="AH83" s="3">
-        <f>(O405+O407+O409+O411+O413)/5</f>
+        <f t="shared" ref="AH83:AK84" si="192">(O405+O407+O409+O411+O413)/5</f>
         <v>0.65043478260869547</v>
       </c>
       <c r="AI83" s="3">
-        <f>(P405+P407+P409+P411+P413)/5</f>
+        <f t="shared" si="192"/>
         <v>0.6411740143914052</v>
       </c>
       <c r="AJ83" s="3">
-        <f>(Q405+Q407+Q409+Q411+Q413)/5</f>
+        <f t="shared" si="192"/>
         <v>0.52806372549019565</v>
       </c>
       <c r="AK83" s="3">
-        <f>(R405+R407+R409+R411+R413)/5</f>
+        <f t="shared" si="192"/>
         <v>0.39402527946291216</v>
       </c>
       <c r="AL83" s="3">
@@ -12110,15 +12110,15 @@
         <v>22</v>
       </c>
       <c r="AC84" s="3">
-        <f t="shared" ref="AC84:AE84" si="161">(J406+J408+J410+J412+J414)</f>
+        <f t="shared" ref="AC84:AE84" si="193">(J406+J408+J410+J412+J414)</f>
         <v>22</v>
       </c>
       <c r="AD84" s="3">
-        <f t="shared" si="161"/>
+        <f t="shared" si="193"/>
         <v>31</v>
       </c>
       <c r="AE84" s="3">
-        <f t="shared" si="161"/>
+        <f t="shared" si="193"/>
         <v>31</v>
       </c>
       <c r="AF84" s="3">
@@ -12126,23 +12126,23 @@
         <v>0.49999999999999956</v>
       </c>
       <c r="AG84" s="3">
-        <f t="shared" ref="AG84" si="162">(N406+N408+N410+N412+N414)/5</f>
+        <f t="shared" ref="AG84" si="194">(N406+N408+N410+N412+N414)/5</f>
         <v>0.5122266622266618</v>
       </c>
       <c r="AH84" s="3">
-        <f>(O406+O408+O410+O412+O414)/5</f>
+        <f t="shared" si="192"/>
         <v>0.49999999999999956</v>
       </c>
       <c r="AI84" s="3">
-        <f>(P406+P408+P410+P412+P414)/5</f>
+        <f t="shared" si="192"/>
         <v>0.50044264864025223</v>
       </c>
       <c r="AJ84" s="3">
-        <f>(Q406+Q408+Q410+Q412+Q414)/5</f>
+        <f t="shared" si="192"/>
         <v>0.49742063492063454</v>
       </c>
       <c r="AK84" s="3">
-        <f>(R406+R408+R410+R412+R414)/5</f>
+        <f t="shared" si="192"/>
         <v>0.48985278910141483</v>
       </c>
       <c r="AL84" s="3">
@@ -12231,15 +12231,15 @@
         <v>13</v>
       </c>
       <c r="AC85" s="3">
-        <f t="shared" ref="AC85:AE85" si="163">(J415+J417+J419+J421+J423)</f>
+        <f t="shared" ref="AC85:AE85" si="195">(J415+J417+J419+J421+J423)</f>
         <v>18</v>
       </c>
       <c r="AD85" s="3">
-        <f t="shared" si="163"/>
+        <f t="shared" si="195"/>
         <v>38</v>
       </c>
       <c r="AE85" s="3">
-        <f t="shared" si="163"/>
+        <f t="shared" si="195"/>
         <v>41</v>
       </c>
       <c r="AF85" s="3">
@@ -12247,23 +12247,23 @@
         <v>0.48484472049689398</v>
       </c>
       <c r="AG85" s="3">
-        <f t="shared" ref="AG85" si="164">(N415+N417+N419+N421+N423)/5</f>
+        <f t="shared" ref="AG85" si="196">(N415+N417+N419+N421+N423)/5</f>
         <v>0.56206900650836533</v>
       </c>
       <c r="AH85" s="3">
-        <f>(O415+O417+O419+O421+O423)/5</f>
+        <f t="shared" ref="AH85:AK86" si="197">(O415+O417+O419+O421+O423)/5</f>
         <v>0.48484472049689398</v>
       </c>
       <c r="AI85" s="3">
-        <f>(P415+P417+P419+P421+P423)/5</f>
+        <f t="shared" si="197"/>
         <v>0.49995784501351875</v>
       </c>
       <c r="AJ85" s="3">
-        <f>(Q415+Q417+Q419+Q421+Q423)/5</f>
+        <f t="shared" si="197"/>
         <v>0.44203431372548979</v>
       </c>
       <c r="AK85" s="3">
-        <f>(R415+R417+R419+R421+R423)/5</f>
+        <f t="shared" si="197"/>
         <v>0.40974373511400836</v>
       </c>
       <c r="AL85" s="3">
@@ -12352,15 +12352,15 @@
         <v>20</v>
       </c>
       <c r="AC86" s="3">
-        <f t="shared" ref="AC86:AE86" si="165">(J416+J418+J420+J422+J424)</f>
+        <f t="shared" ref="AC86:AE86" si="198">(J416+J418+J420+J422+J424)</f>
         <v>21</v>
       </c>
       <c r="AD86" s="3">
-        <f t="shared" si="165"/>
+        <f t="shared" si="198"/>
         <v>21</v>
       </c>
       <c r="AE86" s="3">
-        <f t="shared" si="165"/>
+        <f t="shared" si="198"/>
         <v>46</v>
       </c>
       <c r="AF86" s="3">
@@ -12368,23 +12368,23 @@
         <v>0.6101261057782793</v>
       </c>
       <c r="AG86" s="15">
-        <f t="shared" ref="AG86" si="166">(N416+N418+N420+N422+N424)/5</f>
+        <f t="shared" ref="AG86" si="199">(N416+N418+N420+N422+N424)/5</f>
         <v>0.61513399643834399</v>
       </c>
       <c r="AH86" s="3">
-        <f>(O416+O418+O420+O422+O424)/5</f>
+        <f t="shared" si="197"/>
         <v>0.6101261057782793</v>
       </c>
       <c r="AI86" s="3">
-        <f>(P416+P418+P420+P422+P424)/5</f>
+        <f t="shared" si="197"/>
         <v>0.59867061975555669</v>
       </c>
       <c r="AJ86" s="3">
-        <f>(Q416+Q418+Q420+Q422+Q424)/5</f>
+        <f t="shared" si="197"/>
         <v>0.57553688141923398</v>
       </c>
       <c r="AK86" s="3">
-        <f>(R416+R418+R420+R422+R424)/5</f>
+        <f t="shared" si="197"/>
         <v>0.54996314805619806</v>
       </c>
       <c r="AL86" s="3">
@@ -12652,15 +12652,15 @@
         <v>15</v>
       </c>
       <c r="AC89" s="3">
-        <f t="shared" ref="AC89:AE89" si="167">(J435+J437+J439+J441+J443)</f>
+        <f t="shared" ref="AC89:AE89" si="200">(J435+J437+J439+J441+J443)</f>
         <v>13</v>
       </c>
       <c r="AD89" s="3">
-        <f t="shared" si="167"/>
+        <f t="shared" si="200"/>
         <v>17</v>
       </c>
       <c r="AE89" s="3">
-        <f t="shared" si="167"/>
+        <f t="shared" si="200"/>
         <v>67</v>
       </c>
       <c r="AF89" s="3">
@@ -12668,23 +12668,23 @@
         <v>0.73130434782608678</v>
       </c>
       <c r="AG89" s="17">
-        <f t="shared" ref="AG89" si="168">(N435+N437+N439+N441+N443)/5</f>
+        <f t="shared" ref="AG89" si="201">(N435+N437+N439+N441+N443)/5</f>
         <v>0.77212591756069981</v>
       </c>
       <c r="AH89" s="3">
-        <f>(O435+O437+O439+O441+O443)/5</f>
+        <f t="shared" ref="AH89:AK90" si="202">(O435+O437+O439+O441+O443)/5</f>
         <v>0.73130434782608678</v>
       </c>
       <c r="AI89" s="3">
-        <f>(P435+P437+P439+P441+P443)/5</f>
+        <f t="shared" si="202"/>
         <v>0.73633175202651735</v>
       </c>
       <c r="AJ89" s="3">
-        <f>(Q435+Q437+Q439+Q441+Q443)/5</f>
+        <f t="shared" si="202"/>
         <v>0.66519607843137218</v>
       </c>
       <c r="AK89" s="3">
-        <f>(R435+R437+R439+R441+R443)/5</f>
+        <f t="shared" si="202"/>
         <v>0.65472949815766257</v>
       </c>
       <c r="AL89" s="3">
@@ -12773,15 +12773,15 @@
         <v>26</v>
       </c>
       <c r="AC90" s="3">
-        <f t="shared" ref="AC90:AE90" si="169">(J436+J438+J440+J442+J444)</f>
+        <f t="shared" ref="AC90:AE90" si="203">(J436+J438+J440+J442+J444)</f>
         <v>18</v>
       </c>
       <c r="AD90" s="3">
-        <f t="shared" si="169"/>
+        <f t="shared" si="203"/>
         <v>35</v>
       </c>
       <c r="AE90" s="3">
-        <f t="shared" si="169"/>
+        <f t="shared" si="203"/>
         <v>27</v>
       </c>
       <c r="AF90" s="3">
@@ -12789,23 +12789,23 @@
         <v>0.50043290043289979</v>
       </c>
       <c r="AG90" s="3">
-        <f t="shared" ref="AG90" si="170">(N436+N438+N440+N442+N444)/5</f>
+        <f t="shared" ref="AG90" si="204">(N436+N438+N440+N442+N444)/5</f>
         <v>0.53275613275613221</v>
       </c>
       <c r="AH90" s="3">
-        <f>(O436+O438+O440+O442+O444)/5</f>
+        <f t="shared" si="202"/>
         <v>0.50043290043289979</v>
       </c>
       <c r="AI90" s="3">
-        <f>(P436+P438+P440+P442+P444)/5</f>
+        <f t="shared" si="202"/>
         <v>0.4757548020248244</v>
       </c>
       <c r="AJ90" s="3">
-        <f>(Q436+Q438+Q440+Q442+Q444)/5</f>
+        <f t="shared" si="202"/>
         <v>0.51746031746031695</v>
       </c>
       <c r="AK90" s="3">
-        <f>(R436+R438+R440+R442+R444)/5</f>
+        <f t="shared" si="202"/>
         <v>0.47826972798844736</v>
       </c>
       <c r="AL90" s="3">
@@ -12894,15 +12894,15 @@
         <v>13</v>
       </c>
       <c r="AC91" s="3">
-        <f t="shared" ref="AC91:AE91" si="171">(J445+J447+J449+J451+J453)</f>
+        <f t="shared" ref="AC91:AE91" si="205">(J445+J447+J449+J451+J453)</f>
         <v>15</v>
       </c>
       <c r="AD91" s="3">
-        <f t="shared" si="171"/>
+        <f t="shared" si="205"/>
         <v>25</v>
       </c>
       <c r="AE91" s="3">
-        <f t="shared" si="171"/>
+        <f t="shared" si="205"/>
         <v>59</v>
       </c>
       <c r="AF91" s="3">
@@ -12910,23 +12910,23 @@
         <v>0.64173913043478248</v>
       </c>
       <c r="AG91" s="3">
-        <f t="shared" ref="AG91" si="172">(N445+N447+N449+N451+N453)/5</f>
+        <f t="shared" ref="AG91" si="206">(N445+N447+N449+N451+N453)/5</f>
         <v>0.68648471475130468</v>
       </c>
       <c r="AH91" s="3">
-        <f>(O445+O447+O449+O451+O453)/5</f>
+        <f t="shared" ref="AH91:AK92" si="207">(O445+O447+O449+O451+O453)/5</f>
         <v>0.64173913043478248</v>
       </c>
       <c r="AI91" s="3">
-        <f>(P445+P447+P449+P451+P453)/5</f>
+        <f t="shared" si="207"/>
         <v>0.65164723759955145</v>
       </c>
       <c r="AJ91" s="3">
-        <f>(Q445+Q447+Q449+Q451+Q453)/5</f>
+        <f t="shared" si="207"/>
         <v>0.57610294117647021</v>
       </c>
       <c r="AK91" s="3">
-        <f>(R445+R447+R449+R451+R453)/5</f>
+        <f t="shared" si="207"/>
         <v>0.51722183682486311</v>
       </c>
       <c r="AL91" s="3">
@@ -13015,15 +13015,15 @@
         <v>22</v>
       </c>
       <c r="AC92" s="3">
-        <f t="shared" ref="AC92:AE92" si="173">(J446+J448+J450+J452+J454)</f>
+        <f t="shared" ref="AC92:AE92" si="208">(J446+J448+J450+J452+J454)</f>
         <v>22</v>
       </c>
       <c r="AD92" s="3">
-        <f t="shared" si="173"/>
+        <f t="shared" si="208"/>
         <v>30</v>
       </c>
       <c r="AE92" s="3">
-        <f t="shared" si="173"/>
+        <f t="shared" si="208"/>
         <v>32</v>
       </c>
       <c r="AF92" s="3">
@@ -13031,23 +13031,23 @@
         <v>0.50952380952380927</v>
       </c>
       <c r="AG92" s="3">
-        <f t="shared" ref="AG92" si="174">(N446+N448+N450+N452+N454)/5</f>
+        <f t="shared" ref="AG92" si="209">(N446+N448+N450+N452+N454)/5</f>
         <v>0.51117243867243822</v>
       </c>
       <c r="AH92" s="3">
-        <f>(O446+O448+O450+O452+O454)/5</f>
+        <f t="shared" si="207"/>
         <v>0.50952380952380927</v>
       </c>
       <c r="AI92" s="3">
-        <f>(P446+P448+P450+P452+P454)/5</f>
+        <f t="shared" si="207"/>
         <v>0.4825721134848916</v>
       </c>
       <c r="AJ92" s="3">
-        <f>(Q446+Q448+Q450+Q452+Q454)/5</f>
+        <f t="shared" si="207"/>
         <v>0.50317460317460283</v>
       </c>
       <c r="AK92" s="3">
-        <f>(R446+R448+R450+R452+R454)/5</f>
+        <f t="shared" si="207"/>
         <v>0.46402947440910702</v>
       </c>
       <c r="AL92" s="3">
@@ -13136,15 +13136,15 @@
         <v>24</v>
       </c>
       <c r="AC93" s="3">
-        <f t="shared" ref="AC93:AE93" si="175">(J455+J457+J459+J461+J463)</f>
+        <f t="shared" ref="AC93:AE93" si="210">(J455+J457+J459+J461+J463)</f>
         <v>4</v>
       </c>
       <c r="AD93" s="3">
-        <f t="shared" si="175"/>
+        <f t="shared" si="210"/>
         <v>66</v>
       </c>
       <c r="AE93" s="3">
-        <f t="shared" si="175"/>
+        <f t="shared" si="210"/>
         <v>18</v>
       </c>
       <c r="AF93" s="3">
@@ -13152,23 +13152,23 @@
         <v>0.3860869565217388</v>
       </c>
       <c r="AG93" s="3">
-        <f t="shared" ref="AG93" si="176">(N455+N457+N459+N461+N463)/5</f>
+        <f t="shared" ref="AG93" si="211">(N455+N457+N459+N461+N463)/5</f>
         <v>0.33156467728868488</v>
       </c>
       <c r="AH93" s="3">
-        <f>(O455+O457+O459+O461+O463)/5</f>
+        <f t="shared" ref="AH93:AK94" si="212">(O455+O457+O459+O461+O463)/5</f>
         <v>0.3860869565217388</v>
       </c>
       <c r="AI93" s="3">
-        <f>(P455+P457+P459+P461+P463)/5</f>
+        <f t="shared" si="212"/>
         <v>0.26129952567575804</v>
       </c>
       <c r="AJ93" s="3">
-        <f>(Q455+Q457+Q459+Q461+Q463)/5</f>
+        <f t="shared" si="212"/>
         <v>0.51176470588235279</v>
       </c>
       <c r="AK93" s="3">
-        <f>(R455+R457+R459+R461+R463)/5</f>
+        <f t="shared" si="212"/>
         <v>8.5636370639031997E-2</v>
       </c>
       <c r="AL93" s="3">
@@ -13257,15 +13257,15 @@
         <v>36</v>
       </c>
       <c r="AC94" s="3">
-        <f t="shared" ref="AC94:AE94" si="177">(J456+J458+J460+J462+J464)</f>
+        <f t="shared" ref="AC94:AE94" si="213">(J456+J458+J460+J462+J464)</f>
         <v>8</v>
       </c>
       <c r="AD94" s="3">
-        <f t="shared" si="177"/>
+        <f t="shared" si="213"/>
         <v>48</v>
       </c>
       <c r="AE94" s="3">
-        <f t="shared" si="177"/>
+        <f t="shared" si="213"/>
         <v>14</v>
       </c>
       <c r="AF94" s="3">
@@ -13273,23 +13273,23 @@
         <v>0.47012987012986962</v>
       </c>
       <c r="AG94" s="3">
-        <f t="shared" ref="AG94" si="178">(N456+N458+N460+N462+N464)/5</f>
+        <f t="shared" ref="AG94" si="214">(N456+N458+N460+N462+N464)/5</f>
         <v>0.22793051104739401</v>
       </c>
       <c r="AH94" s="3">
-        <f>(O456+O458+O460+O462+O464)/5</f>
+        <f t="shared" si="212"/>
         <v>0.47012987012986962</v>
       </c>
       <c r="AI94" s="3">
-        <f>(P456+P458+P460+P462+P464)/5</f>
+        <f t="shared" si="212"/>
         <v>0.30470418470418459</v>
       </c>
       <c r="AJ94" s="3">
-        <f>(Q456+Q458+Q460+Q462+Q464)/5</f>
+        <f t="shared" si="212"/>
         <v>0.5</v>
       </c>
       <c r="AK94" s="3">
-        <f>(R456+R458+R460+R462+R464)/5</f>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="AL94" s="3">
@@ -13378,15 +13378,15 @@
         <v>25</v>
       </c>
       <c r="AC95" s="3">
-        <f t="shared" ref="AC95:AE95" si="179">(J465+J467+J469+J471+J473)</f>
+        <f t="shared" ref="AC95:AE95" si="215">(J465+J467+J469+J471+J473)</f>
         <v>3</v>
       </c>
       <c r="AD95" s="3">
-        <f t="shared" si="179"/>
+        <f t="shared" si="215"/>
         <v>69</v>
       </c>
       <c r="AE95" s="3">
-        <f t="shared" si="179"/>
+        <f t="shared" si="215"/>
         <v>15</v>
       </c>
       <c r="AF95" s="3">
@@ -13394,23 +13394,23 @@
         <v>0.3530434782608694</v>
       </c>
       <c r="AG95" s="3">
-        <f t="shared" ref="AG95" si="180">(N465+N467+N469+N471+N473)/5</f>
+        <f t="shared" ref="AG95" si="216">(N465+N467+N469+N471+N473)/5</f>
         <v>0.3099811946087937</v>
       </c>
       <c r="AH95" s="3">
-        <f>(O465+O467+O469+O471+O473)/5</f>
+        <f t="shared" ref="AH95:AK96" si="217">(O465+O467+O469+O471+O473)/5</f>
         <v>0.3530434782608694</v>
       </c>
       <c r="AI95" s="3">
-        <f>(P465+P467+P469+P471+P473)/5</f>
+        <f t="shared" si="217"/>
         <v>0.27165384840047474</v>
       </c>
       <c r="AJ95" s="3">
-        <f>(Q465+Q467+Q469+Q471+Q473)/5</f>
+        <f t="shared" si="217"/>
         <v>0.53823529411764703</v>
       </c>
       <c r="AK95" s="3">
-        <f>(R465+R467+R469+R471+R473)/5</f>
+        <f t="shared" si="217"/>
         <v>0.21780173101470623</v>
       </c>
       <c r="AL95" s="3">
@@ -13499,15 +13499,15 @@
         <v>38</v>
       </c>
       <c r="AC96" s="3">
-        <f t="shared" ref="AC96:AE96" si="181">(J466+J468+J470+J472+J474)</f>
+        <f t="shared" ref="AC96:AE96" si="218">(J466+J468+J470+J472+J474)</f>
         <v>6</v>
       </c>
       <c r="AD96" s="3">
-        <f t="shared" si="181"/>
+        <f t="shared" si="218"/>
         <v>50</v>
       </c>
       <c r="AE96" s="3">
-        <f t="shared" si="181"/>
+        <f t="shared" si="218"/>
         <v>12</v>
       </c>
       <c r="AF96" s="3">
@@ -13515,23 +13515,23 @@
         <v>0.47272727272727211</v>
       </c>
       <c r="AG96" s="3">
-        <f t="shared" ref="AG96" si="182">(N466+N468+N470+N472+N474)/5</f>
+        <f t="shared" ref="AG96" si="219">(N466+N468+N470+N472+N474)/5</f>
         <v>0.33765792648909498</v>
       </c>
       <c r="AH96" s="3">
-        <f>(O466+O468+O470+O472+O474)/5</f>
+        <f t="shared" si="217"/>
         <v>0.47272727272727211</v>
       </c>
       <c r="AI96" s="3">
-        <f>(P466+P468+P470+P472+P474)/5</f>
+        <f t="shared" si="217"/>
         <v>0.36969696969696919</v>
       </c>
       <c r="AJ96" s="3">
-        <f>(Q466+Q468+Q470+Q472+Q474)/5</f>
+        <f t="shared" si="217"/>
         <v>0.53333333333333321</v>
       </c>
       <c r="AK96" s="3">
-        <f>(R466+R468+R470+R472+R474)/5</f>
+        <f t="shared" si="217"/>
         <v>0.23055959514595181</v>
       </c>
       <c r="AL96" s="3">
@@ -13620,15 +13620,15 @@
         <v>9</v>
       </c>
       <c r="AC97" s="3">
-        <f t="shared" ref="AC97:AE97" si="183">(J475+J477+J479+J481+J483)</f>
+        <f t="shared" ref="AC97:AE97" si="220">(J475+J477+J479+J481+J483)</f>
         <v>19</v>
       </c>
       <c r="AD97" s="3">
-        <f t="shared" si="183"/>
+        <f t="shared" si="220"/>
         <v>18</v>
       </c>
       <c r="AE97" s="3">
-        <f t="shared" si="183"/>
+        <f t="shared" si="220"/>
         <v>66</v>
       </c>
       <c r="AF97" s="3">
@@ -13636,23 +13636,23 @@
         <v>0.67304347826086919</v>
       </c>
       <c r="AG97" s="3">
-        <f t="shared" ref="AG97" si="184">(N475+N477+N479+N481+N483)/5</f>
+        <f t="shared" ref="AG97" si="221">(N475+N477+N479+N481+N483)/5</f>
         <v>0.63219739051118984</v>
       </c>
       <c r="AH97" s="3">
-        <f>(O475+O477+O479+O481+O483)/5</f>
+        <f t="shared" ref="AH97:AK98" si="222">(O475+O477+O479+O481+O483)/5</f>
         <v>0.67304347826086919</v>
       </c>
       <c r="AI97" s="3">
-        <f>(P475+P477+P479+P481+P483)/5</f>
+        <f t="shared" si="222"/>
         <v>0.62474688206953599</v>
       </c>
       <c r="AJ97" s="3">
-        <f>(Q475+Q477+Q479+Q481+Q483)/5</f>
+        <f t="shared" si="222"/>
         <v>0.54411764705882315</v>
       </c>
       <c r="AK97" s="3">
-        <f>(R475+R477+R479+R481+R483)/5</f>
+        <f t="shared" si="222"/>
         <v>0.23045719886028601</v>
       </c>
       <c r="AL97" s="3">
@@ -13741,15 +13741,15 @@
         <v>13</v>
       </c>
       <c r="AC98" s="3">
-        <f t="shared" ref="AC98:AE98" si="185">(J476+J478+J480+J482+J484)</f>
+        <f t="shared" ref="AC98:AE98" si="223">(J476+J478+J480+J482+J484)</f>
         <v>31</v>
       </c>
       <c r="AD98" s="3">
-        <f t="shared" si="185"/>
+        <f t="shared" si="223"/>
         <v>15</v>
       </c>
       <c r="AE98" s="3">
-        <f t="shared" si="185"/>
+        <f t="shared" si="223"/>
         <v>47</v>
       </c>
       <c r="AF98" s="3">
@@ -13757,23 +13757,23 @@
         <v>0.56536796536796496</v>
       </c>
       <c r="AG98" s="3">
-        <f t="shared" ref="AG98" si="186">(N476+N478+N480+N482+N484)/5</f>
+        <f t="shared" ref="AG98" si="224">(N476+N478+N480+N482+N484)/5</f>
         <v>0.47764793647910453</v>
       </c>
       <c r="AH98" s="3">
-        <f>(O476+O478+O480+O482+O484)/5</f>
+        <f t="shared" si="222"/>
         <v>0.56536796536796496</v>
       </c>
       <c r="AI98" s="3">
-        <f>(P476+P478+P480+P482+P484)/5</f>
+        <f t="shared" si="222"/>
         <v>0.44948704484607072</v>
       </c>
       <c r="AJ98" s="3">
-        <f>(Q476+Q478+Q480+Q482+Q484)/5</f>
+        <f t="shared" si="222"/>
         <v>0.51944444444444415</v>
       </c>
       <c r="AK98" s="3">
-        <f>(R476+R478+R480+R482+R484)/5</f>
+        <f t="shared" si="222"/>
         <v>0.19790940704795318</v>
       </c>
       <c r="AL98" s="3">
@@ -13862,15 +13862,15 @@
         <v>21</v>
       </c>
       <c r="AC99" s="3">
-        <f t="shared" ref="AC99:AE99" si="187">(J485+J487+J489+J491+J493)</f>
+        <f t="shared" ref="AC99:AE99" si="225">(J485+J487+J489+J491+J493)</f>
         <v>7</v>
       </c>
       <c r="AD99" s="3">
-        <f t="shared" si="187"/>
+        <f t="shared" si="225"/>
         <v>43</v>
       </c>
       <c r="AE99" s="3">
-        <f t="shared" si="187"/>
+        <f t="shared" si="225"/>
         <v>41</v>
       </c>
       <c r="AF99" s="3">
@@ -13878,23 +13878,23 @@
         <v>0.54826086956521702</v>
       </c>
       <c r="AG99" s="17">
-        <f t="shared" ref="AG99" si="188">(N485+N487+N489+N491+N493)/5</f>
+        <f t="shared" ref="AG99" si="226">(N485+N487+N489+N491+N493)/5</f>
         <v>0.73429396690266224</v>
       </c>
       <c r="AH99" s="3">
-        <f>(O485+O487+O489+O491+O493)/5</f>
+        <f t="shared" ref="AH99:AK100" si="227">(O485+O487+O489+O491+O493)/5</f>
         <v>0.54826086956521702</v>
       </c>
       <c r="AI99" s="3">
-        <f>(P485+P487+P489+P491+P493)/5</f>
+        <f t="shared" si="227"/>
         <v>0.57000985784359903</v>
       </c>
       <c r="AJ99" s="3">
-        <f>(Q485+Q487+Q489+Q491+Q493)/5</f>
+        <f t="shared" si="227"/>
         <v>0.60171568627450944</v>
       </c>
       <c r="AK99" s="3">
-        <f>(R485+R487+R489+R491+R493)/5</f>
+        <f t="shared" si="227"/>
         <v>0.54463449823731569</v>
       </c>
       <c r="AL99" s="3">
@@ -13983,15 +13983,15 @@
         <v>22</v>
       </c>
       <c r="AC100" s="3">
-        <f t="shared" ref="AC100:AE100" si="189">(J486+J488+J490+J492+J494)</f>
+        <f t="shared" ref="AC100:AE100" si="228">(J486+J488+J490+J492+J494)</f>
         <v>22</v>
       </c>
       <c r="AD100" s="3">
-        <f t="shared" si="189"/>
+        <f t="shared" si="228"/>
         <v>27</v>
       </c>
       <c r="AE100" s="3">
-        <f t="shared" si="189"/>
+        <f t="shared" si="228"/>
         <v>35</v>
       </c>
       <c r="AF100" s="3">
@@ -13999,23 +13999,23 @@
         <v>0.53809523809523752</v>
       </c>
       <c r="AG100" s="3">
-        <f t="shared" ref="AG100" si="190">(N486+N488+N490+N492+N494)/5</f>
+        <f t="shared" ref="AG100" si="229">(N486+N488+N490+N492+N494)/5</f>
         <v>0.55357854266945128</v>
       </c>
       <c r="AH100" s="3">
-        <f>(O486+O488+O490+O492+O494)/5</f>
+        <f t="shared" si="227"/>
         <v>0.53809523809523752</v>
       </c>
       <c r="AI100" s="3">
-        <f>(P486+P488+P490+P492+P494)/5</f>
+        <f t="shared" si="227"/>
         <v>0.53411489763369413</v>
       </c>
       <c r="AJ100" s="3">
-        <f>(Q486+Q488+Q490+Q492+Q494)/5</f>
+        <f t="shared" si="227"/>
         <v>0.53333333333333299</v>
       </c>
       <c r="AK100" s="3">
-        <f>(R486+R488+R490+R492+R494)/5</f>
+        <f t="shared" si="227"/>
         <v>0.5248785366862414</v>
       </c>
       <c r="AL100" s="3">
@@ -14104,15 +14104,15 @@
         <v>13</v>
       </c>
       <c r="AC101" s="3">
-        <f t="shared" ref="AC101:AE101" si="191">(J495+J497+J499+J501+J503)</f>
+        <f t="shared" ref="AC101:AE101" si="230">(J495+J497+J499+J501+J503)</f>
         <v>15</v>
       </c>
       <c r="AD101" s="3">
-        <f t="shared" si="191"/>
+        <f t="shared" si="230"/>
         <v>46</v>
       </c>
       <c r="AE101" s="3">
-        <f t="shared" si="191"/>
+        <f t="shared" si="230"/>
         <v>38</v>
       </c>
       <c r="AF101" s="3">
@@ -14120,23 +14120,23 @@
         <v>0.45391304347826067</v>
       </c>
       <c r="AG101" s="3">
-        <f t="shared" ref="AG101" si="192">(N495+N497+N499+N501+N503)/5</f>
+        <f t="shared" ref="AG101" si="231">(N495+N497+N499+N501+N503)/5</f>
         <v>0.50621253478720374</v>
       </c>
       <c r="AH101" s="3">
-        <f>(O495+O497+O499+O501+O503)/5</f>
+        <f t="shared" ref="AH101:AK102" si="232">(O495+O497+O499+O501+O503)/5</f>
         <v>0.45391304347826067</v>
       </c>
       <c r="AI101" s="3">
-        <f>(P495+P497+P499+P501+P503)/5</f>
+        <f t="shared" si="232"/>
         <v>0.44232964002014424</v>
       </c>
       <c r="AJ101" s="3">
-        <f>(Q495+Q497+Q499+Q501+Q503)/5</f>
+        <f t="shared" si="232"/>
         <v>0.45110294117647021</v>
       </c>
       <c r="AK101" s="3">
-        <f>(R495+R497+R499+R501+R503)/5</f>
+        <f t="shared" si="232"/>
         <v>0.34213854234625901</v>
       </c>
       <c r="AL101" s="3">
@@ -14225,15 +14225,15 @@
         <v>26</v>
       </c>
       <c r="AC102" s="3">
-        <f t="shared" ref="AC102:AE102" si="193">(J496+J498+J500+J502+J504)</f>
+        <f t="shared" ref="AC102:AE102" si="233">(J496+J498+J500+J502+J504)</f>
         <v>18</v>
       </c>
       <c r="AD102" s="3">
-        <f t="shared" si="193"/>
+        <f t="shared" si="233"/>
         <v>43</v>
       </c>
       <c r="AE102" s="3">
-        <f t="shared" si="193"/>
+        <f t="shared" si="233"/>
         <v>19</v>
       </c>
       <c r="AF102" s="3">
@@ -14241,23 +14241,23 @@
         <v>0.42554112554112516</v>
       </c>
       <c r="AG102" s="3">
-        <f t="shared" ref="AG102" si="194">(N496+N498+N500+N502+N504)/5</f>
+        <f t="shared" ref="AG102" si="234">(N496+N498+N500+N502+N504)/5</f>
         <v>0.39843271807557462</v>
       </c>
       <c r="AH102" s="3">
-        <f>(O496+O498+O500+O502+O504)/5</f>
+        <f t="shared" si="232"/>
         <v>0.42554112554112516</v>
       </c>
       <c r="AI102" s="3">
-        <f>(P496+P498+P500+P502+P504)/5</f>
+        <f t="shared" si="232"/>
         <v>0.38556442023449661</v>
       </c>
       <c r="AJ102" s="3">
-        <f>(Q496+Q498+Q500+Q502+Q504)/5</f>
+        <f t="shared" si="232"/>
         <v>0.44662698412698354</v>
       </c>
       <c r="AK102" s="3">
-        <f>(R496+R498+R500+R502+R504)/5</f>
+        <f t="shared" si="232"/>
         <v>0.33607716821812839</v>
       </c>
       <c r="AL102" s="3">
@@ -14346,15 +14346,15 @@
         <v>13</v>
       </c>
       <c r="AC103" s="3">
-        <f t="shared" ref="AC103:AE103" si="195">(J505+J507+J509+J511+J513)</f>
+        <f t="shared" ref="AC103:AE103" si="235">(J505+J507+J509+J511+J513)</f>
         <v>15</v>
       </c>
       <c r="AD103" s="3">
-        <f t="shared" si="195"/>
+        <f t="shared" si="235"/>
         <v>23</v>
       </c>
       <c r="AE103" s="3">
-        <f t="shared" si="195"/>
+        <f t="shared" si="235"/>
         <v>61</v>
       </c>
       <c r="AF103" s="3">
@@ -14362,23 +14362,23 @@
         <v>0.66173913043478227</v>
       </c>
       <c r="AG103" s="3">
-        <f t="shared" ref="AG103" si="196">(N505+N507+N509+N511+N513)/5</f>
+        <f t="shared" ref="AG103" si="236">(N505+N507+N509+N511+N513)/5</f>
         <v>0.6872018319844404</v>
       </c>
       <c r="AH103" s="3">
-        <f>(O505+O507+O509+O511+O513)/5</f>
+        <f t="shared" ref="AH103:AK104" si="237">(O505+O507+O509+O511+O513)/5</f>
         <v>0.66173913043478227</v>
       </c>
       <c r="AI103" s="3">
-        <f>(P505+P507+P509+P511+P513)/5</f>
+        <f t="shared" si="237"/>
         <v>0.65161930347043617</v>
       </c>
       <c r="AJ103" s="3">
-        <f>(Q505+Q507+Q509+Q511+Q513)/5</f>
+        <f t="shared" si="237"/>
         <v>0.58860294117647016</v>
       </c>
       <c r="AK103" s="3">
-        <f>(R505+R507+R509+R511+R513)/5</f>
+        <f t="shared" si="237"/>
         <v>0.44760954035231898</v>
       </c>
       <c r="AL103" s="3">
@@ -14467,15 +14467,15 @@
         <v>15</v>
       </c>
       <c r="AC104" s="3">
-        <f t="shared" ref="AC104:AE104" si="197">(J506+J508+J510+J512+J514)</f>
+        <f t="shared" ref="AC104:AE104" si="238">(J506+J508+J510+J512+J514)</f>
         <v>29</v>
       </c>
       <c r="AD104" s="3">
-        <f t="shared" si="197"/>
+        <f t="shared" si="238"/>
         <v>12</v>
       </c>
       <c r="AE104" s="3">
-        <f t="shared" si="197"/>
+        <f t="shared" si="238"/>
         <v>50</v>
       </c>
       <c r="AF104" s="3">
@@ -14483,23 +14483,23 @@
         <v>0.61298701298701241</v>
       </c>
       <c r="AG104" s="3">
-        <f t="shared" ref="AG104" si="198">(N506+N508+N510+N512+N514)/5</f>
+        <f t="shared" ref="AG104" si="239">(N506+N508+N510+N512+N514)/5</f>
         <v>0.50620045538876668</v>
       </c>
       <c r="AH104" s="3">
-        <f>(O506+O508+O510+O512+O514)/5</f>
+        <f t="shared" si="237"/>
         <v>0.61298701298701241</v>
       </c>
       <c r="AI104" s="3">
-        <f>(P506+P508+P510+P512+P514)/5</f>
+        <f t="shared" si="237"/>
         <v>0.52325783108472523</v>
       </c>
       <c r="AJ104" s="3">
-        <f>(Q506+Q508+Q510+Q512+Q514)/5</f>
+        <f t="shared" si="237"/>
         <v>0.56666666666666643</v>
       </c>
       <c r="AK104" s="3">
-        <f>(R506+R508+R510+R512+R514)/5</f>
+        <f t="shared" si="237"/>
         <v>0.27188098029944463</v>
       </c>
       <c r="AL104" s="3">
@@ -14588,15 +14588,15 @@
         <v>16</v>
       </c>
       <c r="AC105" s="3">
-        <f t="shared" ref="AC105:AE105" si="199">(J515+J517+J519+J521+J523)</f>
+        <f t="shared" ref="AC105:AE105" si="240">(J515+J517+J519+J521+J523)</f>
         <v>12</v>
       </c>
       <c r="AD105" s="3">
-        <f t="shared" si="199"/>
+        <f t="shared" si="240"/>
         <v>52</v>
       </c>
       <c r="AE105" s="3">
-        <f t="shared" si="199"/>
+        <f t="shared" si="240"/>
         <v>32</v>
       </c>
       <c r="AF105" s="3">
@@ -14604,23 +14604,23 @@
         <v>0.42260869565217363</v>
       </c>
       <c r="AG105" s="3">
-        <f t="shared" ref="AG105" si="200">(N515+N517+N519+N521+N523)/5</f>
+        <f t="shared" ref="AG105" si="241">(N515+N517+N519+N521+N523)/5</f>
         <v>0.54329079616036124</v>
       </c>
       <c r="AH105" s="3">
-        <f>(O515+O517+O519+O521+O523)/5</f>
+        <f t="shared" ref="AH105:AK106" si="242">(O515+O517+O519+O521+O523)/5</f>
         <v>0.42260869565217363</v>
       </c>
       <c r="AI105" s="3">
-        <f>(P515+P517+P519+P521+P523)/5</f>
+        <f t="shared" si="242"/>
         <v>0.32431368275761857</v>
       </c>
       <c r="AJ105" s="3">
-        <f>(Q515+Q517+Q519+Q521+Q523)/5</f>
+        <f t="shared" si="242"/>
         <v>0.48823529411764682</v>
       </c>
       <c r="AK105" s="3">
-        <f>(R515+R517+R519+R521+R523)/5</f>
+        <f t="shared" si="242"/>
         <v>0.14235735275775521</v>
       </c>
       <c r="AL105" s="3">
@@ -14709,15 +14709,15 @@
         <v>34</v>
       </c>
       <c r="AC106" s="3">
-        <f t="shared" ref="AC106:AE106" si="201">(J516+J518+J520+J522+J524)</f>
+        <f t="shared" ref="AC106:AE106" si="243">(J516+J518+J520+J522+J524)</f>
         <v>10</v>
       </c>
       <c r="AD106" s="3">
-        <f t="shared" si="201"/>
+        <f t="shared" si="243"/>
         <v>45</v>
       </c>
       <c r="AE106" s="3">
-        <f t="shared" si="201"/>
+        <f t="shared" si="243"/>
         <v>17</v>
       </c>
       <c r="AF106" s="3">
@@ -14725,23 +14725,23 @@
         <v>0.48225108225108154</v>
       </c>
       <c r="AG106" s="3">
-        <f t="shared" ref="AG106" si="202">(N516+N518+N520+N522+N524)/5</f>
+        <f t="shared" ref="AG106" si="244">(N516+N518+N520+N522+N524)/5</f>
         <v>0.33303255186372022</v>
       </c>
       <c r="AH106" s="3">
-        <f>(O516+O518+O520+O522+O524)/5</f>
+        <f t="shared" si="242"/>
         <v>0.48225108225108154</v>
       </c>
       <c r="AI106" s="3">
-        <f>(P516+P518+P520+P522+P524)/5</f>
+        <f t="shared" si="242"/>
         <v>0.37324264925441736</v>
       </c>
       <c r="AJ106" s="3">
-        <f>(Q516+Q518+Q520+Q522+Q524)/5</f>
+        <f t="shared" si="242"/>
         <v>0.53055555555555534</v>
       </c>
       <c r="AK106" s="3">
-        <f>(R516+R518+R520+R522+R524)/5</f>
+        <f t="shared" si="242"/>
         <v>0.22073426979309682</v>
       </c>
       <c r="AL106" s="3">
@@ -14830,15 +14830,15 @@
         <v>23</v>
       </c>
       <c r="AC107" s="3">
-        <f t="shared" ref="AC107:AE107" si="203">(J525+J527+J529+J531+J533)</f>
+        <f t="shared" ref="AC107:AE107" si="245">(J525+J527+J529+J531+J533)</f>
         <v>5</v>
       </c>
       <c r="AD107" s="3">
-        <f t="shared" si="203"/>
+        <f t="shared" si="245"/>
         <v>66</v>
       </c>
       <c r="AE107" s="3">
-        <f t="shared" si="203"/>
+        <f t="shared" si="245"/>
         <v>18</v>
       </c>
       <c r="AF107" s="3">
@@ -14846,23 +14846,23 @@
         <v>0.3617391304347824</v>
       </c>
       <c r="AG107" s="3">
-        <f t="shared" ref="AG107" si="204">(N525+N527+N529+N531+N533)/5</f>
+        <f t="shared" ref="AG107" si="246">(N525+N527+N529+N531+N533)/5</f>
         <v>0.32149119490597927</v>
       </c>
       <c r="AH107" s="3">
-        <f>(O525+O527+O529+O531+O533)/5</f>
+        <f t="shared" ref="AH107:AK108" si="247">(O525+O527+O529+O531+O533)/5</f>
         <v>0.3617391304347824</v>
       </c>
       <c r="AI107" s="3">
-        <f>(P525+P527+P529+P531+P533)/5</f>
+        <f t="shared" si="247"/>
         <v>0.26328055020108948</v>
       </c>
       <c r="AJ107" s="3">
-        <f>(Q525+Q527+Q529+Q531+Q533)/5</f>
+        <f t="shared" si="247"/>
         <v>0.52254901960784306</v>
       </c>
       <c r="AK107" s="3">
-        <f>(R525+R527+R529+R531+R533)/5</f>
+        <f t="shared" si="247"/>
         <v>0.1841714505698232</v>
       </c>
       <c r="AL107" s="3">
@@ -14951,15 +14951,15 @@
         <v>33</v>
       </c>
       <c r="AC108" s="3">
-        <f t="shared" ref="AC108:AE108" si="205">(J526+J528+J530+J532+J534)</f>
+        <f t="shared" ref="AC108:AE108" si="248">(J526+J528+J530+J532+J534)</f>
         <v>11</v>
       </c>
       <c r="AD108" s="3">
-        <f t="shared" si="205"/>
+        <f t="shared" si="248"/>
         <v>42</v>
       </c>
       <c r="AE108" s="3">
-        <f t="shared" si="205"/>
+        <f t="shared" si="248"/>
         <v>20</v>
       </c>
       <c r="AF108" s="3">
@@ -14967,23 +14967,23 @@
         <v>0.49999999999999956</v>
       </c>
       <c r="AG108" s="3">
-        <f t="shared" ref="AG108" si="206">(N526+N528+N530+N532+N534)/5</f>
+        <f t="shared" ref="AG108" si="249">(N526+N528+N530+N532+N534)/5</f>
         <v>0.43251700680272087</v>
       </c>
       <c r="AH108" s="3">
-        <f>(O526+O528+O530+O532+O534)/5</f>
+        <f t="shared" si="247"/>
         <v>0.49999999999999956</v>
       </c>
       <c r="AI108" s="3">
-        <f>(P526+P528+P530+P532+P534)/5</f>
+        <f t="shared" si="247"/>
         <v>0.43353367272407695</v>
       </c>
       <c r="AJ108" s="3">
-        <f>(Q526+Q528+Q530+Q532+Q534)/5</f>
+        <f t="shared" si="247"/>
         <v>0.53571428571428537</v>
       </c>
       <c r="AK108" s="3">
-        <f>(R526+R528+R530+R532+R534)/5</f>
+        <f t="shared" si="247"/>
         <v>0.3389728002650228</v>
       </c>
       <c r="AL108" s="3">
@@ -15072,15 +15072,15 @@
         <v>12</v>
       </c>
       <c r="AC109" s="3">
-        <f t="shared" ref="AC109:AE109" si="207">(J535+J537+J539+J541+J543)</f>
+        <f t="shared" ref="AC109:AE109" si="250">(J535+J537+J539+J541+J543)</f>
         <v>16</v>
       </c>
       <c r="AD109" s="3">
-        <f t="shared" si="207"/>
+        <f t="shared" si="250"/>
         <v>18</v>
       </c>
       <c r="AE109" s="3">
-        <f t="shared" si="207"/>
+        <f t="shared" si="250"/>
         <v>66</v>
       </c>
       <c r="AF109" s="3">
@@ -15088,23 +15088,23 @@
         <v>0.70043478260869541</v>
       </c>
       <c r="AG109" s="3">
-        <f t="shared" ref="AG109" si="208">(N535+N537+N539+N541+N543)/5</f>
+        <f t="shared" ref="AG109" si="251">(N535+N537+N539+N541+N543)/5</f>
         <v>0.73050916237552577</v>
       </c>
       <c r="AH109" s="3">
-        <f>(O535+O537+O539+O541+O543)/5</f>
+        <f t="shared" ref="AH109:AK110" si="252">(O535+O537+O539+O541+O543)/5</f>
         <v>0.70043478260869541</v>
       </c>
       <c r="AI109" s="3">
-        <f>(P535+P537+P539+P541+P543)/5</f>
+        <f t="shared" si="252"/>
         <v>0.67101567997220124</v>
       </c>
       <c r="AJ109" s="3">
-        <f>(Q535+Q537+Q539+Q541+Q543)/5</f>
+        <f t="shared" si="252"/>
         <v>0.60245098039215672</v>
       </c>
       <c r="AK109" s="3">
-        <f>(R535+R537+R539+R541+R543)/5</f>
+        <f t="shared" si="252"/>
         <v>0.48612881576782296</v>
       </c>
       <c r="AL109" s="3">
@@ -15193,15 +15193,15 @@
         <v>16</v>
       </c>
       <c r="AC110" s="3">
-        <f t="shared" ref="AC110:AE110" si="209">(J536+J538+J540+J542+J544)</f>
+        <f t="shared" ref="AC110:AE110" si="253">(J536+J538+J540+J542+J544)</f>
         <v>28</v>
       </c>
       <c r="AD110" s="3">
-        <f t="shared" si="209"/>
+        <f t="shared" si="253"/>
         <v>13</v>
       </c>
       <c r="AE110" s="3">
-        <f t="shared" si="209"/>
+        <f t="shared" si="253"/>
         <v>49</v>
       </c>
       <c r="AF110" s="3">
@@ -15209,23 +15209,23 @@
         <v>0.6142857142857141</v>
       </c>
       <c r="AG110" s="15">
-        <f t="shared" ref="AG110" si="210">(N536+N538+N540+N542+N544)/5</f>
+        <f t="shared" ref="AG110" si="254">(N536+N538+N540+N542+N544)/5</f>
         <v>0.61578231292516938</v>
       </c>
       <c r="AH110" s="3">
-        <f>(O536+O538+O540+O542+O544)/5</f>
+        <f t="shared" si="252"/>
         <v>0.6142857142857141</v>
       </c>
       <c r="AI110" s="3">
-        <f>(P536+P538+P540+P542+P544)/5</f>
+        <f t="shared" si="252"/>
         <v>0.55521139141828735</v>
       </c>
       <c r="AJ110" s="3">
-        <f>(Q536+Q538+Q540+Q542+Q544)/5</f>
+        <f t="shared" si="252"/>
         <v>0.57817460317460301</v>
       </c>
       <c r="AK110" s="3">
-        <f>(R536+R538+R540+R542+R544)/5</f>
+        <f t="shared" si="252"/>
         <v>0.45851799642020036</v>
       </c>
       <c r="AL110" s="3">
@@ -15314,15 +15314,15 @@
         <v>16</v>
       </c>
       <c r="AC111" s="3">
-        <f t="shared" ref="AC111:AE111" si="211">(J545+J547+J549+J551+J553)</f>
+        <f t="shared" ref="AC111:AE111" si="255">(J545+J547+J549+J551+J553)</f>
         <v>12</v>
       </c>
       <c r="AD111" s="3">
-        <f t="shared" si="211"/>
+        <f t="shared" si="255"/>
         <v>40</v>
       </c>
       <c r="AE111" s="3">
-        <f t="shared" si="211"/>
+        <f t="shared" si="255"/>
         <v>44</v>
       </c>
       <c r="AF111" s="3">
@@ -15330,23 +15330,23 @@
         <v>0.53999999999999981</v>
       </c>
       <c r="AG111" s="3">
-        <f t="shared" ref="AG111" si="212">(N545+N547+N549+N551+N553)/5</f>
+        <f t="shared" ref="AG111" si="256">(N545+N547+N549+N551+N553)/5</f>
         <v>0.5738477731821674</v>
       </c>
       <c r="AH111" s="3">
-        <f>(O545+O547+O549+O551+O553)/5</f>
+        <f t="shared" ref="AH111:AK112" si="257">(O545+O547+O549+O551+O553)/5</f>
         <v>0.53999999999999981</v>
       </c>
       <c r="AI111" s="3">
-        <f>(P545+P547+P549+P551+P553)/5</f>
+        <f t="shared" si="257"/>
         <v>0.49770040637806723</v>
       </c>
       <c r="AJ111" s="3">
-        <f>(Q545+Q547+Q549+Q551+Q553)/5</f>
+        <f t="shared" si="257"/>
         <v>0.54656862745098</v>
       </c>
       <c r="AK111" s="3">
-        <f>(R545+R547+R549+R551+R553)/5</f>
+        <f t="shared" si="257"/>
         <v>0.38009119820170861</v>
       </c>
       <c r="AL111" s="3">
@@ -15435,15 +15435,15 @@
         <v>30</v>
       </c>
       <c r="AC112" s="3">
-        <f t="shared" ref="AC112:AE112" si="213">(J546+J548+J550+J552+J554)</f>
+        <f t="shared" ref="AC112:AE112" si="258">(J546+J548+J550+J552+J554)</f>
         <v>14</v>
       </c>
       <c r="AD112" s="3">
-        <f t="shared" si="213"/>
+        <f t="shared" si="258"/>
         <v>45</v>
       </c>
       <c r="AE112" s="3">
-        <f t="shared" si="213"/>
+        <f t="shared" si="258"/>
         <v>17</v>
       </c>
       <c r="AF112" s="3">
@@ -15451,23 +15451,23 @@
         <v>0.44502164502164454</v>
       </c>
       <c r="AG112" s="3">
-        <f t="shared" ref="AG112" si="214">(N546+N548+N550+N552+N554)/5</f>
+        <f t="shared" ref="AG112" si="259">(N546+N548+N550+N552+N554)/5</f>
         <v>0.40106033481973302</v>
       </c>
       <c r="AH112" s="3">
-        <f>(O546+O548+O550+O552+O554)/5</f>
+        <f t="shared" si="257"/>
         <v>0.44502164502164454</v>
       </c>
       <c r="AI112" s="3">
-        <f>(P546+P548+P550+P552+P554)/5</f>
+        <f t="shared" si="257"/>
         <v>0.37654371272547082</v>
       </c>
       <c r="AJ112" s="3">
-        <f>(Q546+Q548+Q550+Q552+Q554)/5</f>
+        <f t="shared" si="257"/>
         <v>0.48075396825396799</v>
       </c>
       <c r="AK112" s="3">
-        <f>(R546+R548+R550+R552+R554)/5</f>
+        <f t="shared" si="257"/>
         <v>0.33002784483328301</v>
       </c>
       <c r="AL112" s="3">
@@ -15556,15 +15556,15 @@
         <v>17</v>
       </c>
       <c r="AC113" s="3">
-        <f t="shared" ref="AC113:AE113" si="215">(J555+J557+J559+J561+J563)</f>
+        <f t="shared" ref="AC113:AE113" si="260">(J555+J557+J559+J561+J563)</f>
         <v>11</v>
       </c>
       <c r="AD113" s="3">
-        <f t="shared" si="215"/>
+        <f t="shared" si="260"/>
         <v>27</v>
       </c>
       <c r="AE113" s="3">
-        <f t="shared" si="215"/>
+        <f t="shared" si="260"/>
         <v>57</v>
       </c>
       <c r="AF113" s="3">
@@ -15572,23 +15572,23 @@
         <v>0.66043478260869548</v>
       </c>
       <c r="AG113" s="17">
-        <f t="shared" ref="AG113" si="216">(N555+N557+N559+N561+N563)/5</f>
+        <f t="shared" ref="AG113" si="261">(N555+N557+N559+N561+N563)/5</f>
         <v>0.75676664341625921</v>
       </c>
       <c r="AH113" s="3">
-        <f>(O555+O557+O559+O561+O563)/5</f>
+        <f t="shared" ref="AH113:AK114" si="262">(O555+O557+O559+O561+O563)/5</f>
         <v>0.66043478260869548</v>
       </c>
       <c r="AI113" s="3">
-        <f>(P555+P557+P559+P561+P563)/5</f>
+        <f t="shared" si="262"/>
         <v>0.64715748020095798</v>
       </c>
       <c r="AJ113" s="3">
-        <f>(Q555+Q557+Q559+Q561+Q563)/5</f>
+        <f t="shared" si="262"/>
         <v>0.62340686274509782</v>
       </c>
       <c r="AK113" s="3">
-        <f>(R555+R557+R559+R561+R563)/5</f>
+        <f t="shared" si="262"/>
         <v>0.50707933892909385</v>
       </c>
       <c r="AL113" s="3">
@@ -15677,15 +15677,15 @@
         <v>14</v>
       </c>
       <c r="AC114" s="3">
-        <f t="shared" ref="AC114:AE114" si="217">(J556+J558+J560+J562+J564)</f>
+        <f t="shared" ref="AC114:AE114" si="263">(J556+J558+J560+J562+J564)</f>
         <v>30</v>
       </c>
       <c r="AD114" s="3">
-        <f t="shared" si="217"/>
+        <f t="shared" si="263"/>
         <v>23</v>
       </c>
       <c r="AE114" s="3">
-        <f t="shared" si="217"/>
+        <f t="shared" si="263"/>
         <v>39</v>
       </c>
       <c r="AF114" s="3">
@@ -15693,23 +15693,23 @@
         <v>0.50043290043289979</v>
       </c>
       <c r="AG114" s="3">
-        <f t="shared" ref="AG114" si="218">(N556+N558+N560+N562+N564)/5</f>
+        <f t="shared" ref="AG114" si="264">(N556+N558+N560+N562+N564)/5</f>
         <v>0.49128172481113602</v>
       </c>
       <c r="AH114" s="3">
-        <f>(O556+O558+O560+O562+O564)/5</f>
+        <f t="shared" si="262"/>
         <v>0.50043290043289979</v>
       </c>
       <c r="AI114" s="3">
-        <f>(P556+P558+P560+P562+P564)/5</f>
+        <f t="shared" si="262"/>
         <v>0.47943711460952781</v>
       </c>
       <c r="AJ114" s="3">
-        <f>(Q556+Q558+Q560+Q562+Q564)/5</f>
+        <f t="shared" si="262"/>
         <v>0.47638888888888858</v>
       </c>
       <c r="AK114" s="3">
-        <f>(R556+R558+R560+R562+R564)/5</f>
+        <f t="shared" si="262"/>
         <v>0.44162069682563942</v>
       </c>
       <c r="AL114" s="3">
@@ -15798,15 +15798,15 @@
         <v>22</v>
       </c>
       <c r="AC115" s="3">
-        <f t="shared" ref="AC115:AE115" si="219">(J565+J567+J569+J571+J573)</f>
+        <f t="shared" ref="AC115:AE115" si="265">(J565+J567+J569+J571+J573)</f>
         <v>6</v>
       </c>
       <c r="AD115" s="3">
-        <f t="shared" si="219"/>
+        <f t="shared" si="265"/>
         <v>67</v>
       </c>
       <c r="AE115" s="3">
-        <f t="shared" si="219"/>
+        <f t="shared" si="265"/>
         <v>17</v>
       </c>
       <c r="AF115" s="3">
@@ -15814,23 +15814,23 @@
         <v>0.34434782608695619</v>
       </c>
       <c r="AG115" s="3">
-        <f t="shared" ref="AG115" si="220">(N565+N567+N569+N571+N573)/5</f>
+        <f t="shared" ref="AG115" si="266">(N565+N567+N569+N571+N573)/5</f>
         <v>0.15809451795841206</v>
       </c>
       <c r="AH115" s="3">
-        <f>(O565+O567+O569+O571+O573)/5</f>
+        <f t="shared" ref="AH115:AK116" si="267">(O565+O567+O569+O571+O573)/5</f>
         <v>0.34434782608695619</v>
       </c>
       <c r="AI115" s="3">
-        <f>(P565+P567+P569+P571+P573)/5</f>
+        <f t="shared" si="267"/>
         <v>0.20375312343828034</v>
       </c>
       <c r="AJ115" s="3">
-        <f>(Q565+Q567+Q569+Q571+Q573)/5</f>
+        <f t="shared" si="267"/>
         <v>0.5</v>
       </c>
       <c r="AK115" s="3">
-        <f>(R565+R567+R569+R571+R573)/5</f>
+        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="AL115" s="3">
@@ -15919,15 +15919,15 @@
         <v>35</v>
       </c>
       <c r="AC116" s="3">
-        <f t="shared" ref="AC116:AE116" si="221">(J566+J568+J570+J572+J574)</f>
+        <f t="shared" ref="AC116:AE116" si="268">(J566+J568+J570+J572+J574)</f>
         <v>9</v>
       </c>
       <c r="AD116" s="3">
-        <f t="shared" si="221"/>
+        <f t="shared" si="268"/>
         <v>50</v>
       </c>
       <c r="AE116" s="3">
-        <f t="shared" si="221"/>
+        <f t="shared" si="268"/>
         <v>12</v>
       </c>
       <c r="AF116" s="3">
@@ -15935,23 +15935,23 @@
         <v>0.44415584415584358</v>
       </c>
       <c r="AG116" s="3">
-        <f t="shared" ref="AG116" si="222">(N566+N568+N570+N572+N574)/5</f>
+        <f t="shared" ref="AG116" si="269">(N566+N568+N570+N572+N574)/5</f>
         <v>0.20195648507336778</v>
       </c>
       <c r="AH116" s="3">
-        <f>(O566+O568+O570+O572+O574)/5</f>
+        <f t="shared" si="267"/>
         <v>0.44415584415584358</v>
       </c>
       <c r="AI116" s="3">
-        <f>(P566+P568+P570+P572+P574)/5</f>
+        <f t="shared" si="267"/>
         <v>0.27619047619047576</v>
       </c>
       <c r="AJ116" s="3">
-        <f>(Q566+Q568+Q570+Q572+Q574)/5</f>
+        <f t="shared" si="267"/>
         <v>0.5</v>
       </c>
       <c r="AK116" s="3">
-        <f>(R566+R568+R570+R572+R574)/5</f>
+        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="AL116" s="3">
@@ -16040,15 +16040,15 @@
         <v>15</v>
       </c>
       <c r="AC117" s="3">
-        <f t="shared" ref="AC117:AE117" si="223">(J575+J577+J579+J581+J583)</f>
+        <f t="shared" ref="AC117:AE117" si="270">(J575+J577+J579+J581+J583)</f>
         <v>13</v>
       </c>
       <c r="AD117" s="3">
-        <f t="shared" si="223"/>
+        <f t="shared" si="270"/>
         <v>42</v>
       </c>
       <c r="AE117" s="3">
-        <f t="shared" si="223"/>
+        <f t="shared" si="270"/>
         <v>42</v>
       </c>
       <c r="AF117" s="3">
@@ -16056,23 +16056,23 @@
         <v>0.50478260869565161</v>
       </c>
       <c r="AG117" s="3">
-        <f t="shared" ref="AG117" si="224">(N575+N577+N579+N581+N583)/5</f>
+        <f t="shared" ref="AG117" si="271">(N575+N577+N579+N581+N583)/5</f>
         <v>0.69388451498092318</v>
       </c>
       <c r="AH117" s="3">
-        <f>(O575+O577+O579+O581+O583)/5</f>
+        <f t="shared" ref="AH117:AK118" si="272">(O575+O577+O579+O581+O583)/5</f>
         <v>0.50478260869565161</v>
       </c>
       <c r="AI117" s="3">
-        <f>(P575+P577+P579+P581+P583)/5</f>
+        <f t="shared" si="272"/>
         <v>0.45077713465248737</v>
       </c>
       <c r="AJ117" s="3">
-        <f>(Q575+Q577+Q579+Q581+Q583)/5</f>
+        <f t="shared" si="272"/>
         <v>0.51556372549019558</v>
       </c>
       <c r="AK117" s="3">
-        <f>(R575+R577+R579+R581+R583)/5</f>
+        <f t="shared" si="272"/>
         <v>0.34255478534868644</v>
       </c>
       <c r="AL117" s="3">
@@ -16161,15 +16161,15 @@
         <v>19</v>
       </c>
       <c r="AC118" s="3">
-        <f t="shared" ref="AC118:AE118" si="225">(J576+J578+J580+J582+J584)</f>
+        <f t="shared" ref="AC118:AE118" si="273">(J576+J578+J580+J582+J584)</f>
         <v>25</v>
       </c>
       <c r="AD118" s="3">
-        <f t="shared" si="225"/>
+        <f t="shared" si="273"/>
         <v>28</v>
       </c>
       <c r="AE118" s="3">
-        <f t="shared" si="225"/>
+        <f t="shared" si="273"/>
         <v>34</v>
       </c>
       <c r="AF118" s="3">
@@ -16177,23 +16177,23 @@
         <v>0.49999999999999967</v>
       </c>
       <c r="AG118" s="3">
-        <f t="shared" ref="AG118" si="226">(N576+N578+N580+N582+N584)/5</f>
+        <f t="shared" ref="AG118" si="274">(N576+N578+N580+N582+N584)/5</f>
         <v>0.44425349087003163</v>
       </c>
       <c r="AH118" s="3">
-        <f>(O576+O578+O580+O582+O584)/5</f>
+        <f t="shared" si="272"/>
         <v>0.49999999999999967</v>
       </c>
       <c r="AI118" s="3">
-        <f>(P576+P578+P580+P582+P584)/5</f>
+        <f t="shared" si="272"/>
         <v>0.39696159341479487</v>
       </c>
       <c r="AJ118" s="3">
-        <f>(Q576+Q578+Q580+Q582+Q584)/5</f>
+        <f t="shared" si="272"/>
         <v>0.48650793650793622</v>
       </c>
       <c r="AK118" s="3">
-        <f>(R576+R578+R580+R582+R584)/5</f>
+        <f t="shared" si="272"/>
         <v>0.25378525673339036</v>
       </c>
       <c r="AL118" s="3">
@@ -16282,15 +16282,15 @@
         <v>16</v>
       </c>
       <c r="AC119" s="3">
-        <f t="shared" ref="AC119:AE119" si="227">(J585+J587+J589+J591+J593)</f>
+        <f t="shared" ref="AC119:AE119" si="275">(J585+J587+J589+J591+J593)</f>
         <v>12</v>
       </c>
       <c r="AD119" s="3">
-        <f t="shared" si="227"/>
+        <f t="shared" si="275"/>
         <v>50</v>
       </c>
       <c r="AE119" s="3">
-        <f t="shared" si="227"/>
+        <f t="shared" si="275"/>
         <v>34</v>
       </c>
       <c r="AF119" s="3">
@@ -16298,23 +16298,23 @@
         <v>0.43999999999999967</v>
       </c>
       <c r="AG119" s="3">
-        <f t="shared" ref="AG119" si="228">(N585+N587+N589+N591+N593)/5</f>
+        <f t="shared" ref="AG119" si="276">(N585+N587+N589+N591+N593)/5</f>
         <v>0.25374669187145554</v>
       </c>
       <c r="AH119" s="3">
-        <f>(O585+O587+O589+O591+O593)/5</f>
+        <f t="shared" ref="AH119:AK120" si="277">(O585+O587+O589+O591+O593)/5</f>
         <v>0.43999999999999967</v>
       </c>
       <c r="AI119" s="3">
-        <f>(P585+P587+P589+P591+P593)/5</f>
+        <f t="shared" si="277"/>
         <v>0.30781609195402254</v>
       </c>
       <c r="AJ119" s="3">
-        <f>(Q585+Q587+Q589+Q591+Q593)/5</f>
+        <f t="shared" si="277"/>
         <v>0.5</v>
       </c>
       <c r="AK119" s="3">
-        <f>(R585+R587+R589+R591+R593)/5</f>
+        <f t="shared" si="277"/>
         <v>0</v>
       </c>
       <c r="AL119" s="3">
@@ -16403,15 +16403,15 @@
         <v>26</v>
       </c>
       <c r="AC120" s="3">
-        <f t="shared" ref="AC120:AE120" si="229">(J586+J588+J590+J592+J594)</f>
+        <f t="shared" ref="AC120:AE120" si="278">(J586+J588+J590+J592+J594)</f>
         <v>18</v>
       </c>
       <c r="AD120" s="3">
-        <f t="shared" si="229"/>
+        <f t="shared" si="278"/>
         <v>37</v>
       </c>
       <c r="AE120" s="3">
-        <f t="shared" si="229"/>
+        <f t="shared" si="278"/>
         <v>25</v>
       </c>
       <c r="AF120" s="3">
@@ -16419,23 +16419,23 @@
         <v>0.48225108225108182</v>
       </c>
       <c r="AG120" s="3">
-        <f t="shared" ref="AG120" si="230">(N586+N588+N590+N592+N594)/5</f>
+        <f t="shared" ref="AG120" si="279">(N586+N588+N590+N592+N594)/5</f>
         <v>0.34665036262438803</v>
       </c>
       <c r="AH120" s="3">
-        <f>(O586+O588+O590+O592+O594)/5</f>
+        <f t="shared" si="277"/>
         <v>0.48225108225108182</v>
       </c>
       <c r="AI120" s="3">
-        <f>(P586+P588+P590+P592+P594)/5</f>
+        <f t="shared" si="277"/>
         <v>0.32723460447598318</v>
       </c>
       <c r="AJ120" s="3">
-        <f>(Q586+Q588+Q590+Q592+Q594)/5</f>
+        <f t="shared" si="277"/>
         <v>0.50833333333333319</v>
       </c>
       <c r="AK120" s="3">
-        <f>(R586+R588+R590+R592+R594)/5</f>
+        <f t="shared" si="277"/>
         <v>8.8011173679339208E-2</v>
       </c>
       <c r="AL120" s="3">
@@ -16524,15 +16524,15 @@
         <v>14</v>
       </c>
       <c r="AC121" s="3">
-        <f t="shared" ref="AC121:AE121" si="231">(J595+J597+J599+J601+J603)</f>
+        <f t="shared" ref="AC121:AE121" si="280">(J595+J597+J599+J601+J603)</f>
         <v>14</v>
       </c>
       <c r="AD121" s="3">
-        <f t="shared" si="231"/>
+        <f t="shared" si="280"/>
         <v>47</v>
       </c>
       <c r="AE121" s="3">
-        <f t="shared" si="231"/>
+        <f t="shared" si="280"/>
         <v>37</v>
       </c>
       <c r="AF121" s="3">
@@ -16540,23 +16540,23 @@
         <v>0.45782608695652138</v>
       </c>
       <c r="AG121" s="3">
-        <f t="shared" ref="AG121" si="232">(N595+N597+N599+N601+N603)/5</f>
+        <f t="shared" ref="AG121" si="281">(N595+N597+N599+N601+N603)/5</f>
         <v>0.3771632010081914</v>
       </c>
       <c r="AH121" s="3">
-        <f>(O595+O597+O599+O601+O603)/5</f>
+        <f t="shared" ref="AH121:AK122" si="282">(O595+O597+O599+O601+O603)/5</f>
         <v>0.45782608695652138</v>
       </c>
       <c r="AI121" s="3">
-        <f>(P595+P597+P599+P601+P603)/5</f>
+        <f t="shared" si="282"/>
         <v>0.3895917519689594</v>
       </c>
       <c r="AJ121" s="3">
-        <f>(Q595+Q597+Q599+Q601+Q603)/5</f>
+        <f t="shared" si="282"/>
         <v>0.45502450980392145</v>
       </c>
       <c r="AK121" s="3">
-        <f>(R595+R597+R599+R601+R603)/5</f>
+        <f t="shared" si="282"/>
         <v>9.6475791885375792E-2</v>
       </c>
       <c r="AL121" s="3">
@@ -16645,15 +16645,15 @@
         <v>34</v>
       </c>
       <c r="AC122" s="3">
-        <f t="shared" ref="AC122:AE122" si="233">(J596+J598+J600+J602+J604)</f>
+        <f t="shared" ref="AC122:AE122" si="283">(J596+J598+J600+J602+J604)</f>
         <v>10</v>
       </c>
       <c r="AD122" s="3">
-        <f t="shared" si="233"/>
+        <f t="shared" si="283"/>
         <v>50</v>
       </c>
       <c r="AE122" s="3">
-        <f t="shared" si="233"/>
+        <f t="shared" si="283"/>
         <v>12</v>
       </c>
       <c r="AF122" s="3">
@@ -16661,23 +16661,23 @@
         <v>0.43593073593073539</v>
       </c>
       <c r="AG122" s="3">
-        <f t="shared" ref="AG122" si="234">(N596+N598+N600+N602+N604)/5</f>
+        <f t="shared" ref="AG122" si="284">(N596+N598+N600+N602+N604)/5</f>
         <v>0.43049240675291067</v>
       </c>
       <c r="AH122" s="3">
-        <f>(O596+O598+O600+O602+O604)/5</f>
+        <f t="shared" si="282"/>
         <v>0.43593073593073539</v>
       </c>
       <c r="AI122" s="3">
-        <f>(P596+P598+P600+P602+P604)/5</f>
+        <f t="shared" si="282"/>
         <v>0.35597619685014575</v>
       </c>
       <c r="AJ122" s="3">
-        <f>(Q596+Q598+Q600+Q602+Q604)/5</f>
+        <f t="shared" si="282"/>
         <v>0.48472222222222194</v>
       </c>
       <c r="AK122" s="3">
-        <f>(R596+R598+R600+R602+R604)/5</f>
+        <f t="shared" si="282"/>
         <v>0.30088267256210421</v>
       </c>
       <c r="AL122" s="3">
@@ -16766,15 +16766,15 @@
         <v>20</v>
       </c>
       <c r="AC123" s="3">
-        <f t="shared" ref="AC123:AE123" si="235">(J605+J607+J609+J611+J613)</f>
+        <f t="shared" ref="AC123:AE123" si="285">(J605+J607+J609+J611+J613)</f>
         <v>8</v>
       </c>
       <c r="AD123" s="3">
-        <f t="shared" si="235"/>
+        <f t="shared" si="285"/>
         <v>32</v>
       </c>
       <c r="AE123" s="3">
-        <f t="shared" si="235"/>
+        <f t="shared" si="285"/>
         <v>52</v>
       </c>
       <c r="AF123" s="3">
@@ -16782,23 +16782,23 @@
         <v>0.6469565217391301</v>
       </c>
       <c r="AG123" s="17">
-        <f t="shared" ref="AG123" si="236">(N605+N607+N609+N611+N613)/5</f>
+        <f t="shared" ref="AG123" si="286">(N605+N607+N609+N611+N613)/5</f>
         <v>0.77813299232736521</v>
       </c>
       <c r="AH123" s="3">
-        <f>(O605+O607+O609+O611+O613)/5</f>
+        <f t="shared" ref="AH123:AK124" si="287">(O605+O607+O609+O611+O613)/5</f>
         <v>0.6469565217391301</v>
       </c>
       <c r="AI123" s="3">
-        <f>(P605+P607+P609+P611+P613)/5</f>
+        <f t="shared" si="287"/>
         <v>0.64975155279503061</v>
       </c>
       <c r="AJ123" s="3">
-        <f>(Q605+Q607+Q609+Q611+Q613)/5</f>
+        <f t="shared" si="287"/>
         <v>0.66102941176470564</v>
       </c>
       <c r="AK123" s="3">
-        <f>(R605+R607+R609+R611+R613)/5</f>
+        <f t="shared" si="287"/>
         <v>0.61234769489189511</v>
       </c>
       <c r="AL123" s="3">
@@ -16887,15 +16887,15 @@
         <v>19</v>
       </c>
       <c r="AC124" s="3">
-        <f t="shared" ref="AC124:AE124" si="237">(J606+J608+J610+J612+J614)</f>
+        <f t="shared" ref="AC124:AE124" si="288">(J606+J608+J610+J612+J614)</f>
         <v>25</v>
       </c>
       <c r="AD124" s="3">
-        <f t="shared" si="237"/>
+        <f t="shared" si="288"/>
         <v>30</v>
       </c>
       <c r="AE124" s="3">
-        <f t="shared" si="237"/>
+        <f t="shared" si="288"/>
         <v>32</v>
       </c>
       <c r="AF124" s="3">
@@ -16903,23 +16903,23 @@
         <v>0.48008658008657956</v>
       </c>
       <c r="AG124" s="3">
-        <f t="shared" ref="AG124" si="238">(N606+N608+N610+N612+N614)/5</f>
+        <f t="shared" ref="AG124" si="289">(N606+N608+N610+N612+N614)/5</f>
         <v>0.47697986850242458</v>
       </c>
       <c r="AH124" s="3">
-        <f>(O606+O608+O610+O612+O614)/5</f>
+        <f t="shared" si="287"/>
         <v>0.48008658008657956</v>
       </c>
       <c r="AI124" s="3">
-        <f>(P606+P608+P610+P612+P614)/5</f>
+        <f t="shared" si="287"/>
         <v>0.45336744151129976</v>
       </c>
       <c r="AJ124" s="3">
-        <f>(Q606+Q608+Q610+Q612+Q614)/5</f>
+        <f t="shared" si="287"/>
         <v>0.46488095238095195</v>
       </c>
       <c r="AK124" s="3">
-        <f>(R606+R608+R610+R612+R614)/5</f>
+        <f t="shared" si="287"/>
         <v>0.41631165907769985</v>
       </c>
       <c r="AL124" s="3">
@@ -17008,15 +17008,15 @@
         <v>25</v>
       </c>
       <c r="AC125" s="3">
-        <f t="shared" ref="AC125:AE125" si="239">(J615+J617+J619+J621+J623)</f>
+        <f t="shared" ref="AC125:AE125" si="290">(J615+J617+J619+J621+J623)</f>
         <v>3</v>
       </c>
       <c r="AD125" s="3">
-        <f t="shared" si="239"/>
+        <f t="shared" si="290"/>
         <v>65</v>
       </c>
       <c r="AE125" s="3">
-        <f t="shared" si="239"/>
+        <f t="shared" si="290"/>
         <v>19</v>
       </c>
       <c r="AF125" s="3">
@@ -17024,23 +17024,23 @@
         <v>0.38782608695652138</v>
       </c>
       <c r="AG125" s="3">
-        <f t="shared" ref="AG125" si="240">(N615+N617+N619+N621+N623)/5</f>
+        <f t="shared" ref="AG125" si="291">(N615+N617+N619+N621+N623)/5</f>
         <v>0.70607276781189809</v>
       </c>
       <c r="AH125" s="3">
-        <f>(O615+O617+O619+O621+O623)/5</f>
+        <f t="shared" ref="AH125:AK126" si="292">(O615+O617+O619+O621+O623)/5</f>
         <v>0.38782608695652138</v>
       </c>
       <c r="AI125" s="3">
-        <f>(P615+P617+P619+P621+P623)/5</f>
+        <f t="shared" si="292"/>
         <v>0.33262124349080846</v>
       </c>
       <c r="AJ125" s="3">
-        <f>(Q615+Q617+Q619+Q621+Q623)/5</f>
+        <f t="shared" si="292"/>
         <v>0.55379901960784306</v>
       </c>
       <c r="AK125" s="3">
-        <f>(R615+R617+R619+R621+R623)/5</f>
+        <f t="shared" si="292"/>
         <v>0.42810141254755124</v>
       </c>
       <c r="AL125" s="3">
@@ -17129,15 +17129,15 @@
         <v>38</v>
       </c>
       <c r="AC126" s="3">
-        <f t="shared" ref="AC126:AE126" si="241">(J616+J618+J620+J622+J624)</f>
+        <f t="shared" ref="AC126:AE126" si="293">(J616+J618+J620+J622+J624)</f>
         <v>6</v>
       </c>
       <c r="AD126" s="3">
-        <f t="shared" si="241"/>
+        <f t="shared" si="293"/>
         <v>50</v>
       </c>
       <c r="AE126" s="3">
-        <f t="shared" si="241"/>
+        <f t="shared" si="293"/>
         <v>12</v>
       </c>
       <c r="AF126" s="3">
@@ -17145,23 +17145,23 @@
         <v>0.47142857142857081</v>
       </c>
       <c r="AG126" s="3">
-        <f t="shared" ref="AG126" si="242">(N616+N618+N620+N622+N624)/5</f>
+        <f t="shared" ref="AG126" si="294">(N616+N618+N620+N622+N624)/5</f>
         <v>0.4109930670832922</v>
       </c>
       <c r="AH126" s="3">
-        <f>(O616+O618+O620+O622+O624)/5</f>
+        <f t="shared" si="292"/>
         <v>0.47142857142857081</v>
       </c>
       <c r="AI126" s="3">
-        <f>(P616+P618+P620+P622+P624)/5</f>
+        <f t="shared" si="292"/>
         <v>0.37743076763745936</v>
       </c>
       <c r="AJ126" s="3">
-        <f>(Q616+Q618+Q620+Q622+Q624)/5</f>
+        <f t="shared" si="292"/>
         <v>0.52976190476190455</v>
       </c>
       <c r="AK126" s="3">
-        <f>(R616+R618+R620+R622+R624)/5</f>
+        <f t="shared" si="292"/>
         <v>0.26166649260132202</v>
       </c>
       <c r="AL126" s="3">
@@ -17250,15 +17250,15 @@
         <v>14</v>
       </c>
       <c r="AC127" s="3">
-        <f t="shared" ref="AC127:AE127" si="243">(J625+J627+J629+J631+J633)</f>
+        <f t="shared" ref="AC127:AE127" si="295">(J625+J627+J629+J631+J633)</f>
         <v>14</v>
       </c>
       <c r="AD127" s="3">
-        <f t="shared" si="243"/>
+        <f t="shared" si="295"/>
         <v>27</v>
       </c>
       <c r="AE127" s="3">
-        <f t="shared" si="243"/>
+        <f t="shared" si="295"/>
         <v>57</v>
       </c>
       <c r="AF127" s="3">
@@ -17266,23 +17266,23 @@
         <v>0.63565217391304318</v>
       </c>
       <c r="AG127" s="3">
-        <f t="shared" ref="AG127" si="244">(N625+N627+N629+N631+N633)/5</f>
+        <f t="shared" ref="AG127" si="296">(N625+N627+N629+N631+N633)/5</f>
         <v>0.57379174543163158</v>
       </c>
       <c r="AH127" s="3">
-        <f>(O625+O627+O629+O631+O633)/5</f>
+        <f t="shared" ref="AH127:AK128" si="297">(O625+O627+O629+O631+O633)/5</f>
         <v>0.63565217391304318</v>
       </c>
       <c r="AI127" s="3">
-        <f>(P625+P627+P629+P631+P633)/5</f>
+        <f t="shared" si="297"/>
         <v>0.58826833425491942</v>
       </c>
       <c r="AJ127" s="3">
-        <f>(Q625+Q627+Q629+Q631+Q633)/5</f>
+        <f t="shared" si="297"/>
         <v>0.58970588235294086</v>
       </c>
       <c r="AK127" s="3">
-        <f>(R625+R627+R629+R631+R633)/5</f>
+        <f t="shared" si="297"/>
         <v>0.36953670978392339</v>
       </c>
       <c r="AL127" s="3">
@@ -17371,15 +17371,15 @@
         <v>32</v>
       </c>
       <c r="AC128" s="3">
-        <f t="shared" ref="AC128:AE128" si="245">(J626+J628+J630+J632+J634)</f>
+        <f t="shared" ref="AC128:AE128" si="298">(J626+J628+J630+J632+J634)</f>
         <v>12</v>
       </c>
       <c r="AD128" s="3">
-        <f t="shared" si="245"/>
+        <f t="shared" si="298"/>
         <v>30</v>
       </c>
       <c r="AE128" s="3">
-        <f t="shared" si="245"/>
+        <f t="shared" si="298"/>
         <v>32</v>
       </c>
       <c r="AF128" s="3">
@@ -17387,23 +17387,23 @@
         <v>0.6034632034632027</v>
       </c>
       <c r="AG128" s="15">
-        <f t="shared" ref="AG128" si="246">(N626+N628+N630+N632+N634)/5</f>
+        <f t="shared" ref="AG128" si="299">(N626+N628+N630+N632+N634)/5</f>
         <v>0.687544364819906</v>
       </c>
       <c r="AH128" s="3">
-        <f>(O626+O628+O630+O632+O634)/5</f>
+        <f t="shared" si="297"/>
         <v>0.6034632034632027</v>
       </c>
       <c r="AI128" s="3">
-        <f>(P626+P628+P630+P632+P634)/5</f>
+        <f t="shared" si="297"/>
         <v>0.57558788799124883</v>
       </c>
       <c r="AJ128" s="3">
-        <f>(Q626+Q628+Q630+Q632+Q634)/5</f>
+        <f t="shared" si="297"/>
         <v>0.6210317460317456</v>
       </c>
       <c r="AK128" s="3">
-        <f>(R626+R628+R630+R632+R634)/5</f>
+        <f t="shared" si="297"/>
         <v>0.59982573622565161</v>
       </c>
       <c r="AL128" s="3">
@@ -17492,15 +17492,15 @@
         <v>13</v>
       </c>
       <c r="AC129" s="3">
-        <f t="shared" ref="AC129:AE129" si="247">(J635+J637+J639+J641+J643)</f>
+        <f t="shared" ref="AC129:AE129" si="300">(J635+J637+J639+J641+J643)</f>
         <v>15</v>
       </c>
       <c r="AD129" s="3">
-        <f t="shared" si="247"/>
+        <f t="shared" si="300"/>
         <v>33</v>
       </c>
       <c r="AE129" s="3">
-        <f t="shared" si="247"/>
+        <f t="shared" si="300"/>
         <v>51</v>
       </c>
       <c r="AF129" s="3">
@@ -17508,23 +17508,23 @@
         <v>0.56565217391304301</v>
       </c>
       <c r="AG129" s="3">
-        <f t="shared" ref="AG129" si="248">(N635+N637+N639+N641+N643)/5</f>
+        <f t="shared" ref="AG129" si="301">(N635+N637+N639+N641+N643)/5</f>
         <v>0.51511747231974059</v>
       </c>
       <c r="AH129" s="3">
-        <f>(O635+O637+O639+O641+O643)/5</f>
+        <f t="shared" ref="AH129:AK130" si="302">(O635+O637+O639+O641+O643)/5</f>
         <v>0.56565217391304301</v>
       </c>
       <c r="AI129" s="3">
-        <f>(P635+P637+P639+P641+P643)/5</f>
+        <f t="shared" si="302"/>
         <v>0.50274010053796581</v>
       </c>
       <c r="AJ129" s="3">
-        <f>(Q635+Q637+Q639+Q641+Q643)/5</f>
+        <f t="shared" si="302"/>
         <v>0.53517156862745097</v>
       </c>
       <c r="AK129" s="3">
-        <f>(R635+R637+R639+R641+R643)/5</f>
+        <f t="shared" si="302"/>
         <v>0.21676528182442478</v>
       </c>
       <c r="AL129" s="3">
@@ -17613,15 +17613,15 @@
         <v>22</v>
       </c>
       <c r="AC130" s="3">
-        <f t="shared" ref="AC130:AE130" si="249">(J636+J638+J640+J642+J644)</f>
+        <f t="shared" ref="AC130:AE130" si="303">(J636+J638+J640+J642+J644)</f>
         <v>22</v>
       </c>
       <c r="AD130" s="3">
-        <f t="shared" si="249"/>
+        <f t="shared" si="303"/>
         <v>32</v>
       </c>
       <c r="AE130" s="3">
-        <f t="shared" si="249"/>
+        <f t="shared" si="303"/>
         <v>30</v>
       </c>
       <c r="AF130" s="3">
@@ -17629,23 +17629,23 @@
         <v>0.49177489177489109</v>
       </c>
       <c r="AG130" s="3">
-        <f t="shared" ref="AG130" si="250">(N636+N638+N640+N642+N644)/5</f>
+        <f t="shared" ref="AG130" si="304">(N636+N638+N640+N642+N644)/5</f>
         <v>0.38706246134817501</v>
       </c>
       <c r="AH130" s="3">
-        <f>(O636+O638+O640+O642+O644)/5</f>
+        <f t="shared" si="302"/>
         <v>0.49177489177489109</v>
       </c>
       <c r="AI130" s="3">
-        <f>(P636+P638+P640+P642+P644)/5</f>
+        <f t="shared" si="302"/>
         <v>0.38401232393930124</v>
       </c>
       <c r="AJ130" s="3">
-        <f>(Q636+Q638+Q640+Q642+Q644)/5</f>
+        <f t="shared" si="302"/>
         <v>0.50039682539682528</v>
       </c>
       <c r="AK130" s="3">
-        <f>(R636+R638+R640+R642+R644)/5</f>
+        <f t="shared" si="302"/>
         <v>0.19045927614335478</v>
       </c>
       <c r="AL130" s="3">
@@ -17734,15 +17734,15 @@
         <v>17</v>
       </c>
       <c r="AC131" s="3">
-        <f t="shared" ref="AC131:AE131" si="251">(J645+J647+J649+J651+J653)</f>
+        <f t="shared" ref="AC131:AE131" si="305">(J645+J647+J649+J651+J653)</f>
         <v>11</v>
       </c>
       <c r="AD131" s="3">
-        <f t="shared" si="251"/>
+        <f t="shared" si="305"/>
         <v>48</v>
       </c>
       <c r="AE131" s="3">
-        <f t="shared" si="251"/>
+        <f t="shared" si="305"/>
         <v>36</v>
       </c>
       <c r="AF131" s="3">
@@ -17750,23 +17750,23 @@
         <v>0.48173913043478223</v>
       </c>
       <c r="AG131" s="3">
-        <f t="shared" ref="AG131" si="252">(N645+N647+N649+N651+N653)/5</f>
+        <f t="shared" ref="AG131" si="306">(N645+N647+N649+N651+N653)/5</f>
         <v>0.52599273704109017</v>
       </c>
       <c r="AH131" s="3">
-        <f>(O645+O647+O649+O651+O653)/5</f>
+        <f t="shared" ref="AH131:AK132" si="307">(O645+O647+O649+O651+O653)/5</f>
         <v>0.48173913043478223</v>
       </c>
       <c r="AI131" s="3">
-        <f>(P645+P647+P649+P651+P653)/5</f>
+        <f t="shared" si="307"/>
         <v>0.43119896761575882</v>
       </c>
       <c r="AJ131" s="3">
-        <f>(Q645+Q647+Q649+Q651+Q653)/5</f>
+        <f t="shared" si="307"/>
         <v>0.50098039215686241</v>
       </c>
       <c r="AK131" s="3">
-        <f>(R645+R647+R649+R651+R653)/5</f>
+        <f t="shared" si="307"/>
         <v>0.20792283735680223</v>
       </c>
       <c r="AL131" s="3">
@@ -17855,15 +17855,15 @@
         <v>29</v>
       </c>
       <c r="AC132" s="3">
-        <f t="shared" ref="AC132:AE132" si="253">(J646+J648+J650+J652+J654)</f>
+        <f t="shared" ref="AC132:AE132" si="308">(J646+J648+J650+J652+J654)</f>
         <v>15</v>
       </c>
       <c r="AD132" s="3">
-        <f t="shared" si="253"/>
+        <f t="shared" si="308"/>
         <v>41</v>
       </c>
       <c r="AE132" s="3">
-        <f t="shared" si="253"/>
+        <f t="shared" si="308"/>
         <v>21</v>
       </c>
       <c r="AF132" s="3">
@@ -17871,23 +17871,23 @@
         <v>0.47012987012986962</v>
       </c>
       <c r="AG132" s="3">
-        <f t="shared" ref="AG132" si="254">(N646+N648+N650+N652+N654)/5</f>
+        <f t="shared" ref="AG132" si="309">(N646+N648+N650+N652+N654)/5</f>
         <v>0.43428139148053857</v>
       </c>
       <c r="AH132" s="3">
-        <f>(O646+O648+O650+O652+O654)/5</f>
+        <f t="shared" si="307"/>
         <v>0.47012987012986962</v>
       </c>
       <c r="AI132" s="3">
-        <f>(P646+P648+P650+P652+P654)/5</f>
+        <f t="shared" si="307"/>
         <v>0.37835339263910661</v>
       </c>
       <c r="AJ132" s="3">
-        <f>(Q646+Q648+Q650+Q652+Q654)/5</f>
+        <f t="shared" si="307"/>
         <v>0.48055555555555535</v>
       </c>
       <c r="AK132" s="3">
-        <f>(R646+R648+R650+R652+R654)/5</f>
+        <f t="shared" si="307"/>
         <v>0.25415006171659521</v>
       </c>
       <c r="AL132" s="3">
@@ -17976,15 +17976,15 @@
         <v>14</v>
       </c>
       <c r="AC133" s="3">
-        <f t="shared" ref="AC133:AE133" si="255">(J655+J657+J659+J661+J663)</f>
+        <f t="shared" ref="AC133:AE133" si="310">(J655+J657+J659+J661+J663)</f>
         <v>14</v>
       </c>
       <c r="AD133" s="3">
-        <f t="shared" si="255"/>
+        <f t="shared" si="310"/>
         <v>37</v>
       </c>
       <c r="AE133" s="3">
-        <f t="shared" si="255"/>
+        <f t="shared" si="310"/>
         <v>47</v>
       </c>
       <c r="AF133" s="3">
@@ -17992,23 +17992,23 @@
         <v>0.55130434782608639</v>
       </c>
       <c r="AG133" s="3">
-        <f t="shared" ref="AG133" si="256">(N655+N657+N659+N661+N663)/5</f>
+        <f t="shared" ref="AG133" si="311">(N655+N657+N659+N661+N663)/5</f>
         <v>0.66702879728966669</v>
       </c>
       <c r="AH133" s="3">
-        <f>(O655+O657+O659+O661+O663)/5</f>
+        <f t="shared" ref="AH133:AK134" si="312">(O655+O657+O659+O661+O663)/5</f>
         <v>0.55130434782608639</v>
       </c>
       <c r="AI133" s="3">
-        <f>(P655+P657+P659+P661+P663)/5</f>
+        <f t="shared" si="312"/>
         <v>0.52504903270331005</v>
       </c>
       <c r="AJ133" s="3">
-        <f>(Q655+Q657+Q659+Q661+Q663)/5</f>
+        <f t="shared" si="312"/>
         <v>0.51568627450980364</v>
       </c>
       <c r="AK133" s="3">
-        <f>(R655+R657+R659+R661+R663)/5</f>
+        <f t="shared" si="312"/>
         <v>0.35576963468520717</v>
       </c>
       <c r="AL133" s="3">
@@ -18097,15 +18097,15 @@
         <v>26</v>
       </c>
       <c r="AC134" s="3">
-        <f t="shared" ref="AC134:AE134" si="257">(J656+J658+J660+J662+J664)</f>
+        <f t="shared" ref="AC134:AE134" si="313">(J656+J658+J660+J662+J664)</f>
         <v>18</v>
       </c>
       <c r="AD134" s="3">
-        <f t="shared" si="257"/>
+        <f t="shared" si="313"/>
         <v>37</v>
       </c>
       <c r="AE134" s="3">
-        <f t="shared" si="257"/>
+        <f t="shared" si="313"/>
         <v>25</v>
       </c>
       <c r="AF134" s="3">
@@ -18113,23 +18113,23 @@
         <v>0.47965367965367917</v>
       </c>
       <c r="AG134" s="3">
-        <f t="shared" ref="AG134" si="258">(N656+N658+N660+N662+N664)/5</f>
+        <f t="shared" ref="AG134" si="314">(N656+N658+N660+N662+N664)/5</f>
         <v>0.43730626134751382</v>
       </c>
       <c r="AH134" s="3">
-        <f>(O656+O658+O660+O662+O664)/5</f>
+        <f t="shared" si="312"/>
         <v>0.47965367965367917</v>
       </c>
       <c r="AI134" s="3">
-        <f>(P656+P658+P660+P662+P664)/5</f>
+        <f t="shared" si="312"/>
         <v>0.37347915357767542</v>
       </c>
       <c r="AJ134" s="3">
-        <f>(Q656+Q658+Q660+Q662+Q664)/5</f>
+        <f t="shared" si="312"/>
         <v>0.48055555555555518</v>
       </c>
       <c r="AK134" s="3">
-        <f>(R656+R658+R660+R662+R664)/5</f>
+        <f t="shared" si="312"/>
         <v>0.22752241207721399</v>
       </c>
       <c r="AL134" s="3">
@@ -18218,15 +18218,15 @@
         <v>16</v>
       </c>
       <c r="AC135" s="3">
-        <f t="shared" ref="AC135:AE135" si="259">(J665+J667+J669+J671+J673)</f>
+        <f t="shared" ref="AC135:AE135" si="315">(J665+J667+J669+J671+J673)</f>
         <v>12</v>
       </c>
       <c r="AD135" s="3">
-        <f t="shared" si="259"/>
+        <f t="shared" si="315"/>
         <v>51</v>
       </c>
       <c r="AE135" s="3">
-        <f t="shared" si="259"/>
+        <f t="shared" si="315"/>
         <v>33</v>
       </c>
       <c r="AF135" s="3">
@@ -18234,23 +18234,23 @@
         <v>0.43652173913043441</v>
       </c>
       <c r="AG135" s="3">
-        <f t="shared" ref="AG135" si="260">(N665+N667+N669+N671+N673)/5</f>
+        <f t="shared" ref="AG135" si="316">(N665+N667+N669+N671+N673)/5</f>
         <v>0.57394569198916989</v>
       </c>
       <c r="AH135" s="3">
-        <f>(O665+O667+O669+O671+O673)/5</f>
+        <f t="shared" ref="AH135:AK136" si="317">(O665+O667+O669+O671+O673)/5</f>
         <v>0.43652173913043441</v>
       </c>
       <c r="AI135" s="3">
-        <f>(P665+P667+P669+P671+P673)/5</f>
+        <f t="shared" si="317"/>
         <v>0.44248830244253518</v>
       </c>
       <c r="AJ135" s="3">
-        <f>(Q665+Q667+Q669+Q671+Q673)/5</f>
+        <f t="shared" si="317"/>
         <v>0.46372549019607801</v>
       </c>
       <c r="AK135" s="3">
-        <f>(R665+R667+R669+R671+R673)/5</f>
+        <f t="shared" si="317"/>
         <v>0.35220270436967199</v>
       </c>
       <c r="AL135" s="3">
@@ -18339,15 +18339,15 @@
         <v>29</v>
       </c>
       <c r="AC136" s="3">
-        <f t="shared" ref="AC136:AE136" si="261">(J666+J668+J670+J672+J674)</f>
+        <f t="shared" ref="AC136:AE136" si="318">(J666+J668+J670+J672+J674)</f>
         <v>15</v>
       </c>
       <c r="AD136" s="3">
-        <f t="shared" si="261"/>
+        <f t="shared" si="318"/>
         <v>46</v>
       </c>
       <c r="AE136" s="3">
-        <f t="shared" si="261"/>
+        <f t="shared" si="318"/>
         <v>16</v>
       </c>
       <c r="AF136" s="3">
@@ -18355,23 +18355,23 @@
         <v>0.42294372294372218</v>
       </c>
       <c r="AG136" s="3">
-        <f t="shared" ref="AG136" si="262">(N666+N668+N670+N672+N674)/5</f>
+        <f t="shared" ref="AG136" si="319">(N666+N668+N670+N672+N674)/5</f>
         <v>0.34942708085565177</v>
       </c>
       <c r="AH136" s="3">
-        <f>(O666+O668+O670+O672+O674)/5</f>
+        <f t="shared" si="317"/>
         <v>0.42294372294372218</v>
       </c>
       <c r="AI136" s="3">
-        <f>(P666+P668+P670+P672+P674)/5</f>
+        <f t="shared" si="317"/>
         <v>0.35768822215598783</v>
       </c>
       <c r="AJ136" s="3">
-        <f>(Q666+Q668+Q670+Q672+Q674)/5</f>
+        <f t="shared" si="317"/>
         <v>0.45555555555555516</v>
       </c>
       <c r="AK136" s="3">
-        <f>(R666+R668+R670+R672+R674)/5</f>
+        <f t="shared" si="317"/>
         <v>0.25861947185331718</v>
       </c>
       <c r="AL136" s="3">
@@ -18460,15 +18460,15 @@
         <v>6</v>
       </c>
       <c r="AC137" s="3">
-        <f t="shared" ref="AC137:AE137" si="263">(J675+J677+J679+J681+J683)</f>
+        <f t="shared" ref="AC137:AE137" si="320">(J675+J677+J679+J681+J683)</f>
         <v>22</v>
       </c>
       <c r="AD137" s="3">
-        <f t="shared" si="263"/>
+        <f t="shared" si="320"/>
         <v>9</v>
       </c>
       <c r="AE137" s="3">
-        <f t="shared" si="263"/>
+        <f t="shared" si="320"/>
         <v>75</v>
       </c>
       <c r="AF137" s="3">
@@ -18476,23 +18476,23 @@
         <v>0.72130434782608654</v>
       </c>
       <c r="AG137" s="3">
-        <f t="shared" ref="AG137" si="264">(N675+N677+N679+N681+N683)/5</f>
+        <f t="shared" ref="AG137" si="321">(N675+N677+N679+N681+N683)/5</f>
         <v>0.63539191858217725</v>
       </c>
       <c r="AH137" s="3">
-        <f>(O675+O677+O679+O681+O683)/5</f>
+        <f t="shared" ref="AH137:AK138" si="322">(O675+O677+O679+O681+O683)/5</f>
         <v>0.72130434782608654</v>
       </c>
       <c r="AI137" s="3">
-        <f>(P675+P677+P679+P681+P683)/5</f>
+        <f t="shared" si="322"/>
         <v>0.66758392461057237</v>
       </c>
       <c r="AJ137" s="3">
-        <f>(Q675+Q677+Q679+Q681+Q683)/5</f>
+        <f t="shared" si="322"/>
         <v>0.54595588235294101</v>
       </c>
       <c r="AK137" s="3">
-        <f>(R675+R677+R679+R681+R683)/5</f>
+        <f t="shared" si="322"/>
         <v>0.23901772075514902</v>
       </c>
       <c r="AL137" s="3">
@@ -18581,15 +18581,15 @@
         <v>20</v>
       </c>
       <c r="AC138" s="3">
-        <f t="shared" ref="AC138:AE138" si="265">(J676+J678+J680+J682+J684)</f>
+        <f t="shared" ref="AC138:AE138" si="323">(J676+J678+J680+J682+J684)</f>
         <v>24</v>
       </c>
       <c r="AD138" s="3">
-        <f t="shared" si="265"/>
+        <f t="shared" si="323"/>
         <v>24</v>
       </c>
       <c r="AE138" s="3">
-        <f t="shared" si="265"/>
+        <f t="shared" si="323"/>
         <v>38</v>
       </c>
       <c r="AF138" s="3">
@@ -18597,23 +18597,23 @@
         <v>0.54761904761904723</v>
       </c>
       <c r="AG138" s="3">
-        <f t="shared" ref="AG138" si="266">(N676+N678+N680+N682+N684)/5</f>
+        <f t="shared" ref="AG138" si="324">(N676+N678+N680+N682+N684)/5</f>
         <v>0.55303648732220112</v>
       </c>
       <c r="AH138" s="3">
-        <f>(O676+O678+O680+O682+O684)/5</f>
+        <f t="shared" si="322"/>
         <v>0.54761904761904723</v>
       </c>
       <c r="AI138" s="3">
-        <f>(P676+P678+P680+P682+P684)/5</f>
+        <f t="shared" si="322"/>
         <v>0.53984259926459832</v>
       </c>
       <c r="AJ138" s="3">
-        <f>(Q676+Q678+Q680+Q682+Q684)/5</f>
+        <f t="shared" si="322"/>
         <v>0.53095238095238084</v>
       </c>
       <c r="AK138" s="3">
-        <f>(R676+R678+R680+R682+R684)/5</f>
+        <f t="shared" si="322"/>
         <v>0.51909728582565662</v>
       </c>
       <c r="AL138" s="3">
@@ -18702,15 +18702,15 @@
         <v>11</v>
       </c>
       <c r="AC139" s="3">
-        <f t="shared" ref="AC139:AE139" si="267">(J685+J687+J689+J691+J693)</f>
+        <f t="shared" ref="AC139:AE139" si="325">(J685+J687+J689+J691+J693)</f>
         <v>17</v>
       </c>
       <c r="AD139" s="3">
-        <f t="shared" si="267"/>
+        <f t="shared" si="325"/>
         <v>11</v>
       </c>
       <c r="AE139" s="3">
-        <f t="shared" si="267"/>
+        <f t="shared" si="325"/>
         <v>73</v>
       </c>
       <c r="AF139" s="3">
@@ -18718,23 +18718,23 @@
         <v>0.74739130434782597</v>
       </c>
       <c r="AG139" s="17">
-        <f t="shared" ref="AG139" si="268">(N685+N687+N689+N691+N693)/5</f>
+        <f t="shared" ref="AG139" si="326">(N685+N687+N689+N691+N693)/5</f>
         <v>0.73612623310193581</v>
       </c>
       <c r="AH139" s="3">
-        <f>(O685+O687+O689+O691+O693)/5</f>
+        <f t="shared" ref="AH139:AK140" si="327">(O685+O687+O689+O691+O693)/5</f>
         <v>0.74739130434782597</v>
       </c>
       <c r="AI139" s="3">
-        <f>(P685+P687+P689+P691+P693)/5</f>
+        <f t="shared" si="327"/>
         <v>0.73390329216416161</v>
       </c>
       <c r="AJ139" s="3">
-        <f>(Q685+Q687+Q689+Q691+Q693)/5</f>
+        <f t="shared" si="327"/>
         <v>0.61752450980392126</v>
       </c>
       <c r="AK139" s="3">
-        <f>(R685+R687+R689+R691+R693)/5</f>
+        <f t="shared" si="327"/>
         <v>0.53003179142854639</v>
       </c>
       <c r="AL139" s="3">
@@ -18823,15 +18823,15 @@
         <v>20</v>
       </c>
       <c r="AC140" s="3">
-        <f t="shared" ref="AC140:AE140" si="269">(J686+J688+J690+J692+J694)</f>
+        <f t="shared" ref="AC140:AE140" si="328">(J686+J688+J690+J692+J694)</f>
         <v>24</v>
       </c>
       <c r="AD140" s="3">
-        <f t="shared" si="269"/>
+        <f t="shared" si="328"/>
         <v>19</v>
       </c>
       <c r="AE140" s="3">
-        <f t="shared" si="269"/>
+        <f t="shared" si="328"/>
         <v>43</v>
       </c>
       <c r="AF140" s="3">
@@ -18839,23 +18839,23 @@
         <v>0.59567099567099524</v>
       </c>
       <c r="AG140" s="3">
-        <f t="shared" ref="AG140" si="270">(N686+N688+N690+N692+N694)/5</f>
+        <f t="shared" ref="AG140" si="329">(N686+N688+N690+N692+N694)/5</f>
         <v>0.58561688311688287</v>
       </c>
       <c r="AH140" s="3">
-        <f>(O686+O688+O690+O692+O694)/5</f>
+        <f t="shared" si="327"/>
         <v>0.59567099567099524</v>
       </c>
       <c r="AI140" s="3">
-        <f>(P686+P688+P690+P692+P694)/5</f>
+        <f t="shared" si="327"/>
         <v>0.58770562770562718</v>
       </c>
       <c r="AJ140" s="3">
-        <f>(Q686+Q688+Q690+Q692+Q694)/5</f>
+        <f t="shared" si="327"/>
         <v>0.57123015873015826</v>
       </c>
       <c r="AK140" s="3">
-        <f>(R686+R688+R690+R692+R694)/5</f>
+        <f t="shared" si="327"/>
         <v>0.54767202308425189</v>
       </c>
       <c r="AL140" s="3">
@@ -19120,15 +19120,15 @@
         <v>12</v>
       </c>
       <c r="AC143" s="3">
-        <f t="shared" ref="AC143:AE143" si="271">(J695+J697+J699+J701+J703)</f>
+        <f t="shared" ref="AC143:AE143" si="330">(J695+J697+J699+J701+J703)</f>
         <v>19</v>
       </c>
       <c r="AD143" s="3">
-        <f t="shared" si="271"/>
+        <f t="shared" si="330"/>
         <v>16</v>
       </c>
       <c r="AE143" s="3">
-        <f t="shared" si="271"/>
+        <f t="shared" si="330"/>
         <v>63</v>
       </c>
       <c r="AF143" s="3">
@@ -19136,23 +19136,23 @@
         <v>0.67527950310558971</v>
       </c>
       <c r="AG143" s="3">
-        <f t="shared" ref="AG143" si="272">(N695+N697+N699+N701+N703)/5</f>
+        <f t="shared" ref="AG143" si="331">(N695+N697+N699+N701+N703)/5</f>
         <v>0.68702041665428337</v>
       </c>
       <c r="AH143" s="3">
-        <f>(O695+O697+O699+O701+O703)/5</f>
+        <f t="shared" ref="AH143:AK144" si="332">(O695+O697+O699+O701+O703)/5</f>
         <v>0.67527950310558971</v>
       </c>
       <c r="AI143" s="3">
-        <f>(P695+P697+P699+P701+P703)/5</f>
+        <f t="shared" si="332"/>
         <v>0.66512472649772403</v>
       </c>
       <c r="AJ143" s="3">
-        <f>(Q695+Q697+Q699+Q701+Q703)/5</f>
+        <f t="shared" si="332"/>
         <v>0.58096405228758119</v>
       </c>
       <c r="AK143" s="3">
-        <f>(R695+R697+R699+R701+R703)/5</f>
+        <f t="shared" si="332"/>
         <v>0.56116791425564605</v>
       </c>
       <c r="AL143" s="3">
@@ -19241,15 +19241,15 @@
         <v>23</v>
       </c>
       <c r="AC144" s="3">
-        <f t="shared" ref="AC144:AE144" si="273">(J696+J698+J700+J702+J704)</f>
+        <f t="shared" ref="AC144:AE144" si="333">(J696+J698+J700+J702+J704)</f>
         <v>18</v>
       </c>
       <c r="AD144" s="3">
-        <f t="shared" si="273"/>
+        <f t="shared" si="333"/>
         <v>22</v>
       </c>
       <c r="AE144" s="3">
-        <f t="shared" si="273"/>
+        <f t="shared" si="333"/>
         <v>45</v>
       </c>
       <c r="AF144" s="3">
@@ -19257,23 +19257,23 @@
         <v>0.62960662525879885</v>
       </c>
       <c r="AG144" s="15">
-        <f t="shared" ref="AG144" si="274">(N696+N698+N700+N702+N704)/5</f>
+        <f t="shared" ref="AG144" si="334">(N696+N698+N700+N702+N704)/5</f>
         <v>0.63833412963847702</v>
       </c>
       <c r="AH144" s="3">
-        <f>(O696+O698+O700+O702+O704)/5</f>
+        <f t="shared" si="332"/>
         <v>0.62960662525879885</v>
       </c>
       <c r="AI144" s="3">
-        <f>(P696+P698+P700+P702+P704)/5</f>
+        <f t="shared" si="332"/>
         <v>0.62101703683289311</v>
       </c>
       <c r="AJ144" s="3">
-        <f>(Q696+Q698+Q700+Q702+Q704)/5</f>
+        <f t="shared" si="332"/>
         <v>0.59914799253034501</v>
       </c>
       <c r="AK144" s="3">
-        <f>(R696+R698+R700+R702+R704)/5</f>
+        <f t="shared" si="332"/>
         <v>0.57651310886677121</v>
       </c>
       <c r="AL144" s="3">
@@ -19362,15 +19362,15 @@
         <v>13</v>
       </c>
       <c r="AC145" s="3">
-        <f t="shared" ref="AC145:AE145" si="275">(J705+J707+J709+J711+J713)</f>
+        <f t="shared" ref="AC145:AE145" si="335">(J705+J707+J709+J711+J713)</f>
         <v>15</v>
       </c>
       <c r="AD145" s="3">
-        <f t="shared" si="275"/>
+        <f t="shared" si="335"/>
         <v>17</v>
       </c>
       <c r="AE145" s="3">
-        <f t="shared" si="275"/>
+        <f t="shared" si="335"/>
         <v>67</v>
       </c>
       <c r="AF145" s="3">
@@ -19378,23 +19378,23 @@
         <v>0.70999999999999974</v>
       </c>
       <c r="AG145" s="17">
-        <f t="shared" ref="AG145" si="276">(N705+N707+N709+N711+N713)/5</f>
+        <f t="shared" ref="AG145" si="336">(N705+N707+N709+N711+N713)/5</f>
         <v>0.74094631836508218</v>
       </c>
       <c r="AH145" s="3">
-        <f>(O705+O707+O709+O711+O713)/5</f>
+        <f t="shared" ref="AH145:AK146" si="337">(O705+O707+O709+O711+O713)/5</f>
         <v>0.70999999999999974</v>
       </c>
       <c r="AI145" s="3">
-        <f>(P705+P707+P709+P711+P713)/5</f>
+        <f t="shared" si="337"/>
         <v>0.70676078981477186</v>
       </c>
       <c r="AJ145" s="3">
-        <f>(Q705+Q707+Q709+Q711+Q713)/5</f>
+        <f t="shared" si="337"/>
         <v>0.61482843137254861</v>
       </c>
       <c r="AK145" s="3">
-        <f>(R705+R707+R709+R711+R713)/5</f>
+        <f t="shared" si="337"/>
         <v>0.52068081537309219</v>
       </c>
       <c r="AL145" s="3">
@@ -19483,15 +19483,15 @@
         <v>24</v>
       </c>
       <c r="AC146" s="3">
-        <f t="shared" ref="AC146:AE146" si="277">(J706+J708+J710+J712+J714)</f>
+        <f t="shared" ref="AC146:AE146" si="338">(J706+J708+J710+J712+J714)</f>
         <v>20</v>
       </c>
       <c r="AD146" s="3">
-        <f t="shared" si="277"/>
+        <f t="shared" si="338"/>
         <v>30</v>
       </c>
       <c r="AE146" s="3">
-        <f t="shared" si="277"/>
+        <f t="shared" si="338"/>
         <v>32</v>
       </c>
       <c r="AF146" s="3">
@@ -19499,23 +19499,23 @@
         <v>0.52857142857142791</v>
       </c>
       <c r="AG146" s="3">
-        <f t="shared" ref="AG146" si="278">(N706+N708+N710+N712+N714)/5</f>
+        <f t="shared" ref="AG146" si="339">(N706+N708+N710+N712+N714)/5</f>
         <v>0.54393495393495339</v>
       </c>
       <c r="AH146" s="3">
-        <f>(O706+O708+O710+O712+O714)/5</f>
+        <f t="shared" si="337"/>
         <v>0.52857142857142791</v>
       </c>
       <c r="AI146" s="3">
-        <f>(P706+P708+P710+P712+P714)/5</f>
+        <f t="shared" si="337"/>
         <v>0.53048593868354232</v>
       </c>
       <c r="AJ146" s="3">
-        <f>(Q706+Q708+Q710+Q712+Q714)/5</f>
+        <f t="shared" si="337"/>
         <v>0.52797619047618982</v>
       </c>
       <c r="AK146" s="3">
-        <f>(R706+R708+R710+R712+R714)/5</f>
+        <f t="shared" si="337"/>
         <v>0.52153246588472102</v>
       </c>
       <c r="AL146" s="3">
@@ -19956,15 +19956,15 @@
         <v>3</v>
       </c>
       <c r="AC151" s="3">
-        <f t="shared" ref="AC151:AE151" si="279">(J735+J737+J739+J741+J743)</f>
+        <f t="shared" ref="AC151:AE151" si="340">(J735+J737+J739+J741+J743)</f>
         <v>25</v>
       </c>
       <c r="AD151" s="3">
-        <f t="shared" si="279"/>
+        <f t="shared" si="340"/>
         <v>15</v>
       </c>
       <c r="AE151" s="3">
-        <f t="shared" si="279"/>
+        <f t="shared" si="340"/>
         <v>69</v>
       </c>
       <c r="AF151" s="3">
@@ -19972,23 +19972,23 @@
         <v>0.63913043478260856</v>
       </c>
       <c r="AG151" s="3">
-        <f t="shared" ref="AG151" si="280">(N735+N737+N739+N741+N743)/5</f>
+        <f t="shared" ref="AG151" si="341">(N735+N737+N739+N741+N743)/5</f>
         <v>0.59836547891467762</v>
       </c>
       <c r="AH151" s="3">
-        <f>(O735+O737+O739+O741+O743)/5</f>
+        <f t="shared" ref="AH151:AK152" si="342">(O735+O737+O739+O741+O743)/5</f>
         <v>0.63913043478260856</v>
       </c>
       <c r="AI151" s="3">
-        <f>(P735+P737+P739+P741+P743)/5</f>
+        <f t="shared" si="342"/>
         <v>0.61168848482349603</v>
       </c>
       <c r="AJ151" s="3">
-        <f>(Q735+Q737+Q739+Q741+Q743)/5</f>
+        <f t="shared" si="342"/>
         <v>0.45955882352941141</v>
       </c>
       <c r="AK151" s="3">
-        <f>(R735+R737+R739+R741+R743)/5</f>
+        <f t="shared" si="342"/>
         <v>0.20766553442821278</v>
       </c>
       <c r="AL151" s="3">
@@ -20077,15 +20077,15 @@
         <v>14</v>
       </c>
       <c r="AC152" s="3">
-        <f t="shared" ref="AC152:AE152" si="281">(J736+J738+J740+J742+J744)</f>
+        <f t="shared" ref="AC152:AE152" si="343">(J736+J738+J740+J742+J744)</f>
         <v>30</v>
       </c>
       <c r="AD152" s="3">
-        <f t="shared" si="281"/>
+        <f t="shared" si="343"/>
         <v>19</v>
       </c>
       <c r="AE152" s="3">
-        <f t="shared" si="281"/>
+        <f t="shared" si="343"/>
         <v>43</v>
       </c>
       <c r="AF152" s="3">
@@ -20093,23 +20093,23 @@
         <v>0.53766233766233706</v>
       </c>
       <c r="AG152" s="3">
-        <f t="shared" ref="AG152" si="282">(N736+N738+N740+N742+N744)/5</f>
+        <f t="shared" ref="AG152" si="344">(N736+N738+N740+N742+N744)/5</f>
         <v>0.51206094559035686</v>
       </c>
       <c r="AH152" s="3">
-        <f>(O736+O738+O740+O742+O744)/5</f>
+        <f t="shared" si="342"/>
         <v>0.53766233766233706</v>
       </c>
       <c r="AI152" s="3">
-        <f>(P736+P738+P740+P742+P744)/5</f>
+        <f t="shared" si="342"/>
         <v>0.50657220174461493</v>
       </c>
       <c r="AJ152" s="3">
-        <f>(Q736+Q738+Q740+Q742+Q744)/5</f>
+        <f t="shared" si="342"/>
         <v>0.50992063492063433</v>
       </c>
       <c r="AK152" s="3">
-        <f>(R736+R738+R740+R742+R744)/5</f>
+        <f t="shared" si="342"/>
         <v>0.41742540612282764</v>
       </c>
       <c r="AL152" s="3">
@@ -20198,15 +20198,15 @@
         <v>5</v>
       </c>
       <c r="AC153" s="3">
-        <f t="shared" ref="AC153:AE153" si="283">(J745+J747+J749+J751+J753)</f>
+        <f t="shared" ref="AC153:AE153" si="345">(J745+J747+J749+J751+J753)</f>
         <v>23</v>
       </c>
       <c r="AD153" s="3">
-        <f t="shared" si="283"/>
+        <f t="shared" si="345"/>
         <v>25</v>
       </c>
       <c r="AE153" s="3">
-        <f t="shared" si="283"/>
+        <f t="shared" si="345"/>
         <v>59</v>
       </c>
       <c r="AF153" s="3">
@@ -20214,23 +20214,23 @@
         <v>0.56565217391304334</v>
       </c>
       <c r="AG153" s="3">
-        <f t="shared" ref="AG153" si="284">(N745+N747+N749+N751+N753)/5</f>
+        <f t="shared" ref="AG153" si="346">(N745+N747+N749+N751+N753)/5</f>
         <v>0.57092414831545213</v>
       </c>
       <c r="AH153" s="3">
-        <f>(O745+O747+O749+O751+O753)/5</f>
+        <f t="shared" ref="AH153:AK154" si="347">(O745+O747+O749+O751+O753)/5</f>
         <v>0.56565217391304334</v>
       </c>
       <c r="AI153" s="3">
-        <f>(P745+P747+P749+P751+P753)/5</f>
+        <f t="shared" si="347"/>
         <v>0.55783331521180446</v>
       </c>
       <c r="AJ153" s="3">
-        <f>(Q745+Q747+Q749+Q751+Q753)/5</f>
+        <f t="shared" si="347"/>
         <v>0.44093137254901904</v>
       </c>
       <c r="AK153" s="3">
-        <f>(R745+R747+R749+R751+R753)/5</f>
+        <f t="shared" si="347"/>
         <v>0.24445449478755563</v>
       </c>
       <c r="AL153" s="3">
@@ -20319,15 +20319,15 @@
         <v>15</v>
       </c>
       <c r="AC154" s="3">
-        <f t="shared" ref="AC154:AE154" si="285">(J746+J748+J750+J752+J754)</f>
+        <f t="shared" ref="AC154:AE154" si="348">(J746+J748+J750+J752+J754)</f>
         <v>29</v>
       </c>
       <c r="AD154" s="3">
-        <f t="shared" si="285"/>
+        <f t="shared" si="348"/>
         <v>10</v>
       </c>
       <c r="AE154" s="3">
-        <f t="shared" si="285"/>
+        <f t="shared" si="348"/>
         <v>52</v>
       </c>
       <c r="AF154" s="3">
@@ -20335,23 +20335,23 @@
         <v>0.63160173160173094</v>
       </c>
       <c r="AG154" s="15">
-        <f t="shared" ref="AG154" si="286">(N746+N748+N750+N752+N754)/5</f>
+        <f t="shared" ref="AG154" si="349">(N746+N748+N750+N752+N754)/5</f>
         <v>0.63163637016578134</v>
       </c>
       <c r="AH154" s="3">
-        <f>(O746+O748+O750+O752+O754)/5</f>
+        <f t="shared" si="347"/>
         <v>0.63160173160173094</v>
       </c>
       <c r="AI154" s="3">
-        <f>(P746+P748+P750+P752+P754)/5</f>
+        <f t="shared" si="347"/>
         <v>0.5979987504044294</v>
       </c>
       <c r="AJ154" s="3">
-        <f>(Q746+Q748+Q750+Q752+Q754)/5</f>
+        <f t="shared" si="347"/>
         <v>0.59246031746031669</v>
       </c>
       <c r="AK154" s="3">
-        <f>(R746+R748+R750+R752+R754)/5</f>
+        <f t="shared" si="347"/>
         <v>0.56402838658337562</v>
       </c>
       <c r="AL154" s="3">
@@ -20440,15 +20440,15 @@
         <v>3</v>
       </c>
       <c r="AC155" s="3">
-        <f t="shared" ref="AC155:AE155" si="287">(J755+J757+J759+J761+J763)</f>
+        <f t="shared" ref="AC155:AE155" si="350">(J755+J757+J759+J761+J763)</f>
         <v>25</v>
       </c>
       <c r="AD155" s="3">
-        <f t="shared" si="287"/>
+        <f t="shared" si="350"/>
         <v>10</v>
       </c>
       <c r="AE155" s="3">
-        <f t="shared" si="287"/>
+        <f t="shared" si="350"/>
         <v>74</v>
       </c>
       <c r="AF155" s="3">
@@ -20456,23 +20456,23 @@
         <v>0.68913043478260838</v>
       </c>
       <c r="AG155" s="3">
-        <f t="shared" ref="AG155" si="288">(N755+N757+N759+N761+N763)/5</f>
+        <f t="shared" ref="AG155" si="351">(N755+N757+N759+N761+N763)/5</f>
         <v>0.58711581647881506</v>
       </c>
       <c r="AH155" s="3">
-        <f>(O755+O757+O759+O761+O763)/5</f>
+        <f t="shared" ref="AH155:AK156" si="352">(O755+O757+O759+O761+O763)/5</f>
         <v>0.68913043478260838</v>
       </c>
       <c r="AI155" s="3">
-        <f>(P755+P757+P759+P761+P763)/5</f>
+        <f t="shared" si="352"/>
         <v>0.63191753244384785</v>
       </c>
       <c r="AJ155" s="3">
-        <f>(Q755+Q757+Q759+Q761+Q763)/5</f>
+        <f t="shared" si="352"/>
         <v>0.49080882352941141</v>
       </c>
       <c r="AK155" s="3">
-        <f>(R755+R757+R759+R761+R763)/5</f>
+        <f t="shared" si="352"/>
         <v>0.120811353675968</v>
       </c>
       <c r="AL155" s="3">
@@ -20561,15 +20561,15 @@
         <v>19</v>
       </c>
       <c r="AC156" s="3">
-        <f t="shared" ref="AC156:AE156" si="289">(J756+J758+J760+J762+J764)</f>
+        <f t="shared" ref="AC156:AE156" si="353">(J756+J758+J760+J762+J764)</f>
         <v>25</v>
       </c>
       <c r="AD156" s="3">
-        <f t="shared" si="289"/>
+        <f t="shared" si="353"/>
         <v>27</v>
       </c>
       <c r="AE156" s="3">
-        <f t="shared" si="289"/>
+        <f t="shared" si="353"/>
         <v>35</v>
       </c>
       <c r="AF156" s="3">
@@ -20577,23 +20577,23 @@
         <v>0.50995670995670939</v>
       </c>
       <c r="AG156" s="3">
-        <f t="shared" ref="AG156" si="290">(N756+N758+N760+N762+N764)/5</f>
+        <f t="shared" ref="AG156" si="354">(N756+N758+N760+N762+N764)/5</f>
         <v>0.54217713401149881</v>
       </c>
       <c r="AH156" s="3">
-        <f>(O756+O758+O760+O762+O764)/5</f>
+        <f t="shared" si="352"/>
         <v>0.50995670995670939</v>
       </c>
       <c r="AI156" s="3">
-        <f>(P756+P758+P760+P762+P764)/5</f>
+        <f t="shared" si="352"/>
         <v>0.4752352591761454</v>
       </c>
       <c r="AJ156" s="3">
-        <f>(Q756+Q758+Q760+Q762+Q764)/5</f>
+        <f t="shared" si="352"/>
         <v>0.49345238095238059</v>
       </c>
       <c r="AK156" s="3">
-        <f>(R756+R758+R760+R762+R764)/5</f>
+        <f t="shared" si="352"/>
         <v>0.44281513968372899</v>
       </c>
       <c r="AL156" s="3">
@@ -20682,15 +20682,15 @@
         <v>6</v>
       </c>
       <c r="AC157" s="3">
-        <f t="shared" ref="AC157:AE157" si="291">(J765+J767+J769+J771+J773)</f>
+        <f t="shared" ref="AC157:AE157" si="355">(J765+J767+J769+J771+J773)</f>
         <v>22</v>
       </c>
       <c r="AD157" s="3">
-        <f t="shared" si="291"/>
+        <f t="shared" si="355"/>
         <v>19</v>
       </c>
       <c r="AE157" s="3">
-        <f t="shared" si="291"/>
+        <f t="shared" si="355"/>
         <v>65</v>
       </c>
       <c r="AF157" s="3">
@@ -20698,23 +20698,23 @@
         <v>0.63173913043478236</v>
       </c>
       <c r="AG157" s="3">
-        <f t="shared" ref="AG157" si="292">(N765+N767+N769+N771+N773)/5</f>
+        <f t="shared" ref="AG157" si="356">(N765+N767+N769+N771+N773)/5</f>
         <v>0.61481725373974883</v>
       </c>
       <c r="AH157" s="3">
-        <f>(O765+O767+O769+O771+O773)/5</f>
+        <f t="shared" ref="AH157:AK158" si="357">(O765+O767+O769+O771+O773)/5</f>
         <v>0.63173913043478236</v>
       </c>
       <c r="AI157" s="3">
-        <f>(P765+P767+P769+P771+P773)/5</f>
+        <f t="shared" si="357"/>
         <v>0.61758085243092697</v>
       </c>
       <c r="AJ157" s="3">
-        <f>(Q765+Q767+Q769+Q771+Q773)/5</f>
+        <f t="shared" si="357"/>
         <v>0.49436274509803885</v>
       </c>
       <c r="AK157" s="3">
-        <f>(R765+R767+R769+R771+R773)/5</f>
+        <f t="shared" si="357"/>
         <v>0.34326151656168641</v>
       </c>
       <c r="AL157" s="3">
@@ -20803,15 +20803,15 @@
         <v>17</v>
       </c>
       <c r="AC158" s="3">
-        <f t="shared" ref="AC158:AE158" si="293">(J766+J768+J770+J772+J774)</f>
+        <f t="shared" ref="AC158:AE158" si="358">(J766+J768+J770+J772+J774)</f>
         <v>27</v>
       </c>
       <c r="AD158" s="3">
-        <f t="shared" si="293"/>
+        <f t="shared" si="358"/>
         <v>19</v>
       </c>
       <c r="AE158" s="3">
-        <f t="shared" si="293"/>
+        <f t="shared" si="358"/>
         <v>43</v>
       </c>
       <c r="AF158" s="3">
@@ -20819,23 +20819,23 @@
         <v>0.56406926406926339</v>
       </c>
       <c r="AG158" s="3">
-        <f t="shared" ref="AG158" si="294">(N766+N768+N770+N772+N774)/5</f>
+        <f t="shared" ref="AG158" si="359">(N766+N768+N770+N772+N774)/5</f>
         <v>0.5340775890775884</v>
       </c>
       <c r="AH158" s="3">
-        <f>(O766+O768+O770+O772+O774)/5</f>
+        <f t="shared" si="357"/>
         <v>0.56406926406926339</v>
       </c>
       <c r="AI158" s="3">
-        <f>(P766+P768+P770+P772+P774)/5</f>
+        <f t="shared" si="357"/>
         <v>0.54556750349042349</v>
       </c>
       <c r="AJ158" s="3">
-        <f>(Q766+Q768+Q770+Q772+Q774)/5</f>
+        <f t="shared" si="357"/>
         <v>0.53988095238095202</v>
       </c>
       <c r="AK158" s="3">
-        <f>(R766+R768+R770+R772+R774)/5</f>
+        <f t="shared" si="357"/>
         <v>0.46257398243630082</v>
       </c>
       <c r="AL158" s="3">
@@ -20924,15 +20924,15 @@
         <v>10</v>
       </c>
       <c r="AC159" s="3">
-        <f t="shared" ref="AC159:AE159" si="295">(J775+J777+J779+J781+J783)</f>
+        <f t="shared" ref="AC159:AE159" si="360">(J775+J777+J779+J781+J783)</f>
         <v>18</v>
       </c>
       <c r="AD159" s="3">
-        <f t="shared" si="295"/>
+        <f t="shared" si="360"/>
         <v>10</v>
       </c>
       <c r="AE159" s="3">
-        <f t="shared" si="295"/>
+        <f t="shared" si="360"/>
         <v>74</v>
       </c>
       <c r="AF159" s="3">
@@ -20940,23 +20940,23 @@
         <v>0.74999999999999956</v>
       </c>
       <c r="AG159" s="17">
-        <f t="shared" ref="AG159" si="296">(N775+N777+N779+N781+N783)/5</f>
+        <f t="shared" ref="AG159" si="361">(N775+N777+N779+N781+N783)/5</f>
         <v>0.73811603571194317</v>
       </c>
       <c r="AH159" s="3">
-        <f>(O775+O777+O779+O781+O783)/5</f>
+        <f t="shared" ref="AH159:AK160" si="362">(O775+O777+O779+O781+O783)/5</f>
         <v>0.74999999999999956</v>
       </c>
       <c r="AI159" s="3">
-        <f>(P775+P777+P779+P781+P783)/5</f>
+        <f t="shared" si="362"/>
         <v>0.72415091515777952</v>
       </c>
       <c r="AJ159" s="3">
-        <f>(Q775+Q777+Q779+Q781+Q783)/5</f>
+        <f t="shared" si="362"/>
         <v>0.61544117647058783</v>
       </c>
       <c r="AK159" s="3">
-        <f>(R775+R777+R779+R781+R783)/5</f>
+        <f t="shared" si="362"/>
         <v>0.56905489892723049</v>
       </c>
       <c r="AL159" s="3">
@@ -21045,15 +21045,15 @@
         <v>22</v>
       </c>
       <c r="AC160" s="3">
-        <f t="shared" ref="AC160:AE160" si="297">(J776+J778+J780+J782+J784)</f>
+        <f t="shared" ref="AC160:AE160" si="363">(J776+J778+J780+J782+J784)</f>
         <v>22</v>
       </c>
       <c r="AD160" s="3">
-        <f t="shared" si="297"/>
+        <f t="shared" si="363"/>
         <v>24</v>
       </c>
       <c r="AE160" s="3">
-        <f t="shared" si="297"/>
+        <f t="shared" si="363"/>
         <v>38</v>
       </c>
       <c r="AF160" s="3">
@@ -21061,23 +21061,23 @@
         <v>0.56666666666666632</v>
       </c>
       <c r="AG160" s="3">
-        <f t="shared" ref="AG160" si="298">(N776+N778+N780+N782+N784)/5</f>
+        <f t="shared" ref="AG160" si="364">(N776+N778+N780+N782+N784)/5</f>
         <v>0.57780219780219744</v>
       </c>
       <c r="AH160" s="3">
-        <f>(O776+O778+O780+O782+O784)/5</f>
+        <f t="shared" si="362"/>
         <v>0.56666666666666632</v>
       </c>
       <c r="AI160" s="3">
-        <f>(P776+P778+P780+P782+P784)/5</f>
+        <f t="shared" si="362"/>
         <v>0.56694482855204298</v>
       </c>
       <c r="AJ160" s="3">
-        <f>(Q776+Q778+Q780+Q782+Q784)/5</f>
+        <f t="shared" si="362"/>
         <v>0.55575396825396794</v>
       </c>
       <c r="AK160" s="3">
-        <f>(R776+R778+R780+R782+R784)/5</f>
+        <f t="shared" si="362"/>
         <v>0.55280731592145915</v>
       </c>
       <c r="AL160" s="3">
@@ -21166,15 +21166,15 @@
         <v>10</v>
       </c>
       <c r="AC161" s="3">
-        <f t="shared" ref="AC161:AE161" si="299">J785+J787+J789+J791+J793</f>
+        <f t="shared" ref="AC161:AE161" si="365">J785+J787+J789+J791+J793</f>
         <v>18</v>
       </c>
       <c r="AD161" s="3">
-        <f t="shared" si="299"/>
+        <f t="shared" si="365"/>
         <v>12</v>
       </c>
       <c r="AE161" s="3">
-        <f t="shared" si="299"/>
+        <f t="shared" si="365"/>
         <v>72</v>
       </c>
       <c r="AF161" s="3">
@@ -21182,23 +21182,23 @@
         <v>0.73391304347826036</v>
       </c>
       <c r="AG161" s="3">
-        <f t="shared" ref="AG161" si="300">(N785+N787+N789+N791+N793)/5</f>
+        <f t="shared" ref="AG161" si="366">(N785+N787+N789+N791+N793)/5</f>
         <v>0.72279503105590026</v>
       </c>
       <c r="AH161" s="3">
-        <f>(O785+O787+O789+O791+O793)/5</f>
+        <f t="shared" ref="AH161:AK162" si="367">(O785+O787+O789+O791+O793)/5</f>
         <v>0.73391304347826036</v>
       </c>
       <c r="AI161" s="3">
-        <f>(P785+P787+P789+P791+P793)/5</f>
+        <f t="shared" si="367"/>
         <v>0.71271918607259799</v>
       </c>
       <c r="AJ161" s="3">
-        <f>(Q785+Q787+Q789+Q791+Q793)/5</f>
+        <f t="shared" si="367"/>
         <v>0.60404411764705823</v>
       </c>
       <c r="AK161" s="3">
-        <f>(R785+R787+R789+R791+R793)/5</f>
+        <f t="shared" si="367"/>
         <v>0.5607744795312074</v>
       </c>
       <c r="AL161" s="3">
@@ -21287,15 +21287,15 @@
         <v>22</v>
       </c>
       <c r="AC162" s="3">
-        <f t="shared" ref="AC162:AE162" si="301">J786+J788+J790+J792+J794</f>
+        <f t="shared" ref="AC162:AE162" si="368">J786+J788+J790+J792+J794</f>
         <v>22</v>
       </c>
       <c r="AD162" s="3">
-        <f t="shared" si="301"/>
+        <f t="shared" si="368"/>
         <v>26</v>
       </c>
       <c r="AE162" s="3">
-        <f t="shared" si="301"/>
+        <f t="shared" si="368"/>
         <v>36</v>
       </c>
       <c r="AF162" s="3">
@@ -21303,23 +21303,23 @@
         <v>0.54761904761904734</v>
       </c>
       <c r="AG162" s="3">
-        <f t="shared" ref="AG162" si="302">(N786+N788+N790+N792+N794)/5</f>
+        <f t="shared" ref="AG162" si="369">(N786+N788+N790+N792+N794)/5</f>
         <v>0.55416583416583376</v>
       </c>
       <c r="AH162" s="3">
-        <f>(O786+O788+O790+O792+O794)/5</f>
+        <f t="shared" si="367"/>
         <v>0.54761904761904734</v>
       </c>
       <c r="AI162" s="3">
-        <f>(P786+P788+P790+P792+P794)/5</f>
+        <f t="shared" si="367"/>
         <v>0.54970731227562541</v>
       </c>
       <c r="AJ162" s="3">
-        <f>(Q786+Q788+Q790+Q792+Q794)/5</f>
+        <f t="shared" si="367"/>
         <v>0.53908730158730123</v>
       </c>
       <c r="AK162" s="3">
-        <f>(R786+R788+R790+R792+R794)/5</f>
+        <f t="shared" si="367"/>
         <v>0.53423589900308266</v>
       </c>
       <c r="AL162" s="3">
@@ -21408,15 +21408,15 @@
         <v>7</v>
       </c>
       <c r="AC163" s="3">
-        <f t="shared" ref="AC163:AE164" si="303">(J795+J797+J799+J801+J803)</f>
+        <f t="shared" ref="AC163:AE164" si="370">(J795+J797+J799+J801+J803)</f>
         <v>26</v>
       </c>
       <c r="AD163" s="3">
-        <f t="shared" si="303"/>
+        <f t="shared" si="370"/>
         <v>13</v>
       </c>
       <c r="AE163" s="3">
-        <f t="shared" si="303"/>
+        <f t="shared" si="370"/>
         <v>67</v>
       </c>
       <c r="AF163" s="3">
@@ -21424,23 +21424,23 @@
         <v>0.65175983436852958</v>
       </c>
       <c r="AG163" s="3">
-        <f t="shared" ref="AG163" si="304">(N795+N797+N799+N801+N803)/5</f>
+        <f t="shared" ref="AG163" si="371">(N795+N797+N799+N801+N803)/5</f>
         <v>0.57799019191268675</v>
       </c>
       <c r="AH163" s="3">
-        <f>(O795+O797+O799+O801+O803)/5</f>
+        <f t="shared" ref="AH163:AK164" si="372">(O795+O797+O799+O801+O803)/5</f>
         <v>0.65175983436852958</v>
       </c>
       <c r="AI163" s="3">
-        <f>(P795+P797+P799+P801+P803)/5</f>
+        <f t="shared" si="372"/>
         <v>0.60940752512619456</v>
       </c>
       <c r="AJ163" s="3">
-        <f>(Q795+Q797+Q799+Q801+Q803)/5</f>
+        <f t="shared" si="372"/>
         <v>0.5112745098039212</v>
       </c>
       <c r="AK163" s="3">
-        <f>(R795+R797+R799+R801+R803)/5</f>
+        <f t="shared" si="372"/>
         <v>0.29469186639777817</v>
       </c>
       <c r="AL163" s="3">
@@ -21525,19 +21525,19 @@
         <v>39</v>
       </c>
       <c r="AB164" s="3">
-        <f t="shared" ref="AB164" si="305">(I796+I798+I800+I802+I804)</f>
+        <f t="shared" ref="AB164" si="373">(I796+I798+I800+I802+I804)</f>
         <v>19</v>
       </c>
       <c r="AC164" s="3">
-        <f t="shared" si="303"/>
+        <f t="shared" si="370"/>
         <v>20</v>
       </c>
       <c r="AD164" s="3">
-        <f t="shared" si="303"/>
+        <f t="shared" si="370"/>
         <v>16</v>
       </c>
       <c r="AE164" s="3">
-        <f t="shared" si="303"/>
+        <f t="shared" si="370"/>
         <v>50</v>
       </c>
       <c r="AF164" s="3">
@@ -21545,23 +21545,23 @@
         <v>0.65683982683982656</v>
       </c>
       <c r="AG164" s="15">
-        <f t="shared" ref="AG164" si="306">(N796+N798+N800+N802+N804)/5</f>
+        <f t="shared" ref="AG164" si="374">(N796+N798+N800+N802+N804)/5</f>
         <v>0.659805387719826</v>
       </c>
       <c r="AH164" s="3">
-        <f>(O796+O798+O800+O802+O804)/5</f>
+        <f t="shared" si="372"/>
         <v>0.65683982683982656</v>
       </c>
       <c r="AI164" s="3">
-        <f>(P796+P798+P800+P802+P804)/5</f>
+        <f t="shared" si="372"/>
         <v>0.6426776030986554</v>
       </c>
       <c r="AJ164" s="3">
-        <f>(Q796+Q798+Q800+Q802+Q804)/5</f>
+        <f t="shared" si="372"/>
         <v>0.59831349206349194</v>
       </c>
       <c r="AK164" s="3">
-        <f>(R796+R798+R800+R802+R804)/5</f>
+        <f t="shared" si="372"/>
         <v>0.50669909252097955</v>
       </c>
       <c r="AL164" s="3">
@@ -21650,15 +21650,15 @@
         <v>2</v>
       </c>
       <c r="AC165" s="3">
-        <f t="shared" ref="AC165:AE165" si="307">(J805+J807+J809+J811+J813)</f>
+        <f t="shared" ref="AC165:AE165" si="375">(J805+J807+J809+J811+J813)</f>
         <v>26</v>
       </c>
       <c r="AD165" s="3">
-        <f t="shared" si="307"/>
+        <f t="shared" si="375"/>
         <v>9</v>
       </c>
       <c r="AE165" s="3">
-        <f t="shared" si="307"/>
+        <f t="shared" si="375"/>
         <v>75</v>
       </c>
       <c r="AF165" s="3">
@@ -21666,23 +21666,23 @@
         <v>0.6917391304347823</v>
       </c>
       <c r="AG165" s="3">
-        <f t="shared" ref="AG165" si="308">(N805+N807+N809+N811+N813)/5</f>
+        <f t="shared" ref="AG165" si="376">(N805+N807+N809+N811+N813)/5</f>
         <v>0.60803122258300801</v>
       </c>
       <c r="AH165" s="3">
-        <f>(O805+O807+O809+O811+O813)/5</f>
+        <f t="shared" ref="AH165:AK166" si="377">(O805+O807+O809+O811+O813)/5</f>
         <v>0.6917391304347823</v>
       </c>
       <c r="AI165" s="3">
-        <f>(P805+P807+P809+P811+P813)/5</f>
+        <f t="shared" si="377"/>
         <v>0.63414295614295557</v>
       </c>
       <c r="AJ165" s="3">
-        <f>(Q805+Q807+Q809+Q811+Q813)/5</f>
+        <f t="shared" si="377"/>
         <v>0.48872549019607792</v>
       </c>
       <c r="AK165" s="3">
-        <f>(R805+R807+R809+R811+R813)/5</f>
+        <f t="shared" si="377"/>
         <v>0.2040736334812662</v>
       </c>
       <c r="AL165" s="3">
@@ -21771,15 +21771,15 @@
         <v>13</v>
       </c>
       <c r="AC166" s="3">
-        <f t="shared" ref="AC166:AE166" si="309">(J806+J808+J810+J812+J814)</f>
+        <f t="shared" ref="AC166:AE166" si="378">(J806+J808+J810+J812+J814)</f>
         <v>31</v>
       </c>
       <c r="AD166" s="3">
-        <f t="shared" si="309"/>
+        <f t="shared" si="378"/>
         <v>8</v>
       </c>
       <c r="AE166" s="3">
-        <f t="shared" si="309"/>
+        <f t="shared" si="378"/>
         <v>54</v>
       </c>
       <c r="AF166" s="3">
@@ -21787,23 +21787,23 @@
         <v>0.63160173160173072</v>
       </c>
       <c r="AG166" s="15">
-        <f t="shared" ref="AG166" si="310">(N806+N808+N810+N812+N814)/5</f>
+        <f t="shared" ref="AG166" si="379">(N806+N808+N810+N812+N814)/5</f>
         <v>0.60884644766997686</v>
       </c>
       <c r="AH166" s="3">
-        <f>(O806+O808+O810+O812+O814)/5</f>
+        <f t="shared" si="377"/>
         <v>0.63160173160173072</v>
       </c>
       <c r="AI166" s="3">
-        <f>(P806+P808+P810+P812+P814)/5</f>
+        <f t="shared" si="377"/>
         <v>0.58699545717444346</v>
       </c>
       <c r="AJ166" s="3">
-        <f>(Q806+Q808+Q810+Q812+Q814)/5</f>
+        <f t="shared" si="377"/>
         <v>0.58174603174603157</v>
       </c>
       <c r="AK166" s="3">
-        <f>(R806+R808+R810+R812+R814)/5</f>
+        <f t="shared" si="377"/>
         <v>0.49572569333847855</v>
       </c>
       <c r="AL166" s="3">
@@ -21892,15 +21892,15 @@
         <v>5</v>
       </c>
       <c r="AC167" s="3">
-        <f t="shared" ref="AC167:AE167" si="311">(J815+J817+J819+J821+J823)</f>
+        <f t="shared" ref="AC167:AE167" si="380">(J815+J817+J819+J821+J823)</f>
         <v>23</v>
       </c>
       <c r="AD167" s="3">
-        <f t="shared" si="311"/>
+        <f t="shared" si="380"/>
         <v>19</v>
       </c>
       <c r="AE167" s="3">
-        <f t="shared" si="311"/>
+        <f t="shared" si="380"/>
         <v>65</v>
       </c>
       <c r="AF167" s="3">
@@ -21908,23 +21908,23 @@
         <v>0.62826086956521698</v>
       </c>
       <c r="AG167" s="3">
-        <f t="shared" ref="AG167" si="312">(N815+N817+N819+N821+N823)/5</f>
+        <f t="shared" ref="AG167" si="381">(N815+N817+N819+N821+N823)/5</f>
         <v>0.59200246994297312</v>
       </c>
       <c r="AH167" s="3">
-        <f>(O815+O817+O819+O821+O823)/5</f>
+        <f t="shared" ref="AH167:AK168" si="382">(O815+O817+O819+O821+O823)/5</f>
         <v>0.62826086956521698</v>
       </c>
       <c r="AI167" s="3">
-        <f>(P815+P817+P819+P821+P823)/5</f>
+        <f t="shared" si="382"/>
         <v>0.60622202740051656</v>
       </c>
       <c r="AJ167" s="3">
-        <f>(Q815+Q817+Q819+Q821+Q823)/5</f>
+        <f t="shared" si="382"/>
         <v>0.47120098039215641</v>
       </c>
       <c r="AK167" s="3">
-        <f>(R815+R817+R819+R821+R823)/5</f>
+        <f t="shared" si="382"/>
         <v>0.25204176687259838</v>
       </c>
       <c r="AL167" s="3">
@@ -22013,15 +22013,15 @@
         <v>17</v>
       </c>
       <c r="AC168" s="3">
-        <f t="shared" ref="AC168:AE168" si="313">(J816+J818+J820+J822+J824)</f>
+        <f t="shared" ref="AC168:AE168" si="383">(J816+J818+J820+J822+J824)</f>
         <v>27</v>
       </c>
       <c r="AD168" s="3">
-        <f t="shared" si="313"/>
+        <f t="shared" si="383"/>
         <v>16</v>
       </c>
       <c r="AE168" s="3">
-        <f t="shared" si="313"/>
+        <f t="shared" si="383"/>
         <v>46</v>
       </c>
       <c r="AF168" s="3">
@@ -22029,23 +22029,23 @@
         <v>0.59307359307359275</v>
       </c>
       <c r="AG168" s="3">
-        <f t="shared" ref="AG168" si="314">(N816+N818+N820+N822+N824)/5</f>
+        <f t="shared" ref="AG168" si="384">(N816+N818+N820+N822+N824)/5</f>
         <v>0.59203669346526455</v>
       </c>
       <c r="AH168" s="3">
-        <f>(O816+O818+O820+O822+O824)/5</f>
+        <f t="shared" si="382"/>
         <v>0.59307359307359275</v>
       </c>
       <c r="AI168" s="3">
-        <f>(P816+P818+P820+P822+P824)/5</f>
+        <f t="shared" si="382"/>
         <v>0.57592567996458077</v>
       </c>
       <c r="AJ168" s="3">
-        <f>(Q816+Q818+Q820+Q822+Q824)/5</f>
+        <f t="shared" si="382"/>
         <v>0.56349206349206304</v>
       </c>
       <c r="AK168" s="3">
-        <f>(R816+R818+R820+R822+R824)/5</f>
+        <f t="shared" si="382"/>
         <v>0.55047826848555237</v>
       </c>
       <c r="AL168" s="3">
@@ -22134,15 +22134,15 @@
         <v>3</v>
       </c>
       <c r="AC169" s="3">
-        <f t="shared" ref="AC169:AE169" si="315">(J825+J827+J829+J831+J833)</f>
+        <f t="shared" ref="AC169:AE169" si="385">(J825+J827+J829+J831+J833)</f>
         <v>25</v>
       </c>
       <c r="AD169" s="3">
-        <f t="shared" si="315"/>
+        <f t="shared" si="385"/>
         <v>8</v>
       </c>
       <c r="AE169" s="3">
-        <f t="shared" si="315"/>
+        <f t="shared" si="385"/>
         <v>76</v>
       </c>
       <c r="AF169" s="3">
@@ -22150,23 +22150,23 @@
         <v>0.70260869565217343</v>
       </c>
       <c r="AG169" s="3">
-        <f t="shared" ref="AG169" si="316">(N825+N827+N829+N831+N833)/5</f>
+        <f t="shared" ref="AG169" si="386">(N825+N827+N829+N831+N833)/5</f>
         <v>0.61828075946870065</v>
       </c>
       <c r="AH169" s="3">
-        <f>(O825+O827+O829+O831+O833)/5</f>
+        <f t="shared" ref="AH169:AK170" si="387">(O825+O827+O829+O831+O833)/5</f>
         <v>0.70260869565217343</v>
       </c>
       <c r="AI169" s="3">
-        <f>(P825+P827+P829+P831+P833)/5</f>
+        <f t="shared" si="387"/>
         <v>0.64853194860059804</v>
       </c>
       <c r="AJ169" s="3">
-        <f>(Q825+Q827+Q829+Q831+Q833)/5</f>
+        <f t="shared" si="387"/>
         <v>0.50147058823529378</v>
       </c>
       <c r="AK169" s="3">
-        <f>(R825+R827+R829+R831+R833)/5</f>
+        <f t="shared" si="387"/>
         <v>0.21562906557150799</v>
       </c>
       <c r="AL169" s="3">
@@ -22255,15 +22255,15 @@
         <v>15</v>
       </c>
       <c r="AC170" s="3">
-        <f t="shared" ref="AC170:AE170" si="317">(J826+J828+J830+J832+J834)</f>
+        <f t="shared" ref="AC170:AE170" si="388">(J826+J828+J830+J832+J834)</f>
         <v>29</v>
       </c>
       <c r="AD170" s="3">
-        <f t="shared" si="317"/>
+        <f t="shared" si="388"/>
         <v>12</v>
       </c>
       <c r="AE170" s="3">
-        <f t="shared" si="317"/>
+        <f t="shared" si="388"/>
         <v>50</v>
       </c>
       <c r="AF170" s="3">
@@ -22271,23 +22271,23 @@
         <v>0.61255411255411185</v>
       </c>
       <c r="AG170" s="3">
-        <f t="shared" ref="AG170" si="318">(N826+N828+N830+N832+N834)/5</f>
+        <f t="shared" ref="AG170" si="389">(N826+N828+N830+N832+N834)/5</f>
         <v>0.59640669490936815</v>
       </c>
       <c r="AH170" s="3">
-        <f>(O826+O828+O830+O832+O834)/5</f>
+        <f t="shared" si="387"/>
         <v>0.61255411255411185</v>
       </c>
       <c r="AI170" s="3">
-        <f>(P826+P828+P830+P832+P834)/5</f>
+        <f t="shared" si="387"/>
         <v>0.57636762407931674</v>
       </c>
       <c r="AJ170" s="3">
-        <f>(Q826+Q828+Q830+Q832+Q834)/5</f>
+        <f t="shared" si="387"/>
         <v>0.58095238095238066</v>
       </c>
       <c r="AK170" s="3">
-        <f>(R826+R828+R830+R832+R834)/5</f>
+        <f t="shared" si="387"/>
         <v>0.4945463322570906</v>
       </c>
       <c r="AL170" s="3">
@@ -22376,15 +22376,15 @@
         <v>6</v>
       </c>
       <c r="AC171" s="3">
-        <f t="shared" ref="AC171:AE171" si="319">(J835+J837+J839+J841+J843)</f>
+        <f t="shared" ref="AC171:AE171" si="390">(J835+J837+J839+J841+J843)</f>
         <v>22</v>
       </c>
       <c r="AD171" s="3">
-        <f t="shared" si="319"/>
+        <f t="shared" si="390"/>
         <v>8</v>
       </c>
       <c r="AE171" s="3">
-        <f t="shared" si="319"/>
+        <f t="shared" si="390"/>
         <v>76</v>
       </c>
       <c r="AF171" s="3">
@@ -22392,23 +22392,23 @@
         <v>0.73391304347826036</v>
       </c>
       <c r="AG171" s="3">
-        <f t="shared" ref="AG171" si="320">(N835+N837+N839+N841+N843)/5</f>
+        <f t="shared" ref="AG171" si="391">(N835+N837+N839+N841+N843)/5</f>
         <v>0.67208539622528241</v>
       </c>
       <c r="AH171" s="3">
-        <f>(O835+O837+O839+O841+O843)/5</f>
+        <f t="shared" ref="AH171:AK172" si="392">(O835+O837+O839+O841+O843)/5</f>
         <v>0.73391304347826036</v>
       </c>
       <c r="AI171" s="3">
-        <f>(P835+P837+P839+P841+P843)/5</f>
+        <f t="shared" si="392"/>
         <v>0.69186717193582148</v>
       </c>
       <c r="AJ171" s="3">
-        <f>(Q835+Q837+Q839+Q841+Q843)/5</f>
+        <f t="shared" si="392"/>
         <v>0.56887254901960738</v>
       </c>
       <c r="AK171" s="3">
-        <f>(R835+R837+R839+R841+R843)/5</f>
+        <f t="shared" si="392"/>
         <v>0.4268665502096412</v>
       </c>
       <c r="AL171" s="3">
@@ -22497,15 +22497,15 @@
         <v>11</v>
       </c>
       <c r="AC172" s="3">
-        <f t="shared" ref="AC172:AE172" si="321">(J836+J838+J840+J842+J844)</f>
+        <f t="shared" ref="AC172:AE172" si="393">(J836+J838+J840+J842+J844)</f>
         <v>33</v>
       </c>
       <c r="AD172" s="3">
-        <f t="shared" si="321"/>
+        <f t="shared" si="393"/>
         <v>15</v>
       </c>
       <c r="AE172" s="3">
-        <f t="shared" si="321"/>
+        <f t="shared" si="393"/>
         <v>47</v>
       </c>
       <c r="AF172" s="3">
@@ -22513,23 +22513,23 @@
         <v>0.54545454545454475</v>
       </c>
       <c r="AG172" s="3">
-        <f t="shared" ref="AG172" si="322">(N836+N838+N840+N842+N844)/5</f>
+        <f t="shared" ref="AG172" si="394">(N836+N838+N840+N842+N844)/5</f>
         <v>0.47942279942279897</v>
       </c>
       <c r="AH172" s="3">
-        <f>(O836+O838+O840+O842+O844)/5</f>
+        <f t="shared" si="392"/>
         <v>0.54545454545454475</v>
       </c>
       <c r="AI172" s="3">
-        <f>(P836+P838+P840+P842+P844)/5</f>
+        <f t="shared" si="392"/>
         <v>0.49681508967223198</v>
       </c>
       <c r="AJ172" s="3">
-        <f>(Q836+Q838+Q840+Q842+Q844)/5</f>
+        <f t="shared" si="392"/>
         <v>0.50773809523809477</v>
       </c>
       <c r="AK172" s="3">
-        <f>(R836+R838+R840+R842+R844)/5</f>
+        <f t="shared" si="392"/>
         <v>0.37303494914532837</v>
       </c>
       <c r="AL172" s="3">
@@ -22618,15 +22618,15 @@
         <v>2</v>
       </c>
       <c r="AC173" s="3">
-        <f t="shared" ref="AC173:AE173" si="323">(J845+J847+J849+J851+J853)</f>
+        <f t="shared" ref="AC173:AE173" si="395">(J845+J847+J849+J851+J853)</f>
         <v>26</v>
       </c>
       <c r="AD173" s="3">
-        <f t="shared" si="323"/>
+        <f t="shared" si="395"/>
         <v>16</v>
       </c>
       <c r="AE173" s="3">
-        <f t="shared" si="323"/>
+        <f t="shared" si="395"/>
         <v>68</v>
       </c>
       <c r="AF173" s="3">
@@ -22634,23 +22634,23 @@
         <v>0.62695652173913019</v>
       </c>
       <c r="AG173" s="3">
-        <f t="shared" ref="AG173" si="324">(N845+N847+N849+N851+N853)/5</f>
+        <f t="shared" ref="AG173" si="396">(N845+N847+N849+N851+N853)/5</f>
         <v>0.57006864988558337</v>
       </c>
       <c r="AH173" s="3">
-        <f>(O845+O847+O849+O851+O853)/5</f>
+        <f t="shared" ref="AH173:AK174" si="397">(O845+O847+O849+O851+O853)/5</f>
         <v>0.62695652173913019</v>
       </c>
       <c r="AI173" s="3">
-        <f>(P845+P847+P849+P851+P853)/5</f>
+        <f t="shared" si="397"/>
         <v>0.59591069330199731</v>
       </c>
       <c r="AJ173" s="3">
-        <f>(Q845+Q847+Q849+Q851+Q853)/5</f>
+        <f t="shared" si="397"/>
         <v>0.44644607843137207</v>
       </c>
       <c r="AK173" s="3">
-        <f>(R845+R847+R849+R851+R853)/5</f>
+        <f t="shared" si="397"/>
         <v>0.1698905963232602</v>
       </c>
       <c r="AL173" s="3">
@@ -22739,15 +22739,15 @@
         <v>10</v>
       </c>
       <c r="AC174" s="3">
-        <f t="shared" ref="AC174:AE174" si="325">(J846+J848+J850+J852+J854)</f>
+        <f t="shared" ref="AC174:AE174" si="398">(J846+J848+J850+J852+J854)</f>
         <v>34</v>
       </c>
       <c r="AD174" s="3">
-        <f t="shared" si="325"/>
+        <f t="shared" si="398"/>
         <v>15</v>
       </c>
       <c r="AE174" s="3">
-        <f t="shared" si="325"/>
+        <f t="shared" si="398"/>
         <v>47</v>
       </c>
       <c r="AF174" s="3">
@@ -22755,23 +22755,23 @@
         <v>0.53852813852813819</v>
       </c>
       <c r="AG174" s="3">
-        <f t="shared" ref="AG174" si="326">(N846+N848+N850+N852+N854)/5</f>
+        <f t="shared" ref="AG174" si="399">(N846+N848+N850+N852+N854)/5</f>
         <v>0.52248803827751167</v>
       </c>
       <c r="AH174" s="3">
-        <f>(O846+O848+O850+O852+O854)/5</f>
+        <f t="shared" si="397"/>
         <v>0.53852813852813819</v>
       </c>
       <c r="AI174" s="3">
-        <f>(P846+P848+P850+P852+P854)/5</f>
+        <f t="shared" si="397"/>
         <v>0.48790711592554886</v>
       </c>
       <c r="AJ174" s="3">
-        <f>(Q846+Q848+Q850+Q852+Q854)/5</f>
+        <f t="shared" si="397"/>
         <v>0.49603174603174544</v>
       </c>
       <c r="AK174" s="3">
-        <f>(R846+R848+R850+R852+R854)/5</f>
+        <f t="shared" si="397"/>
         <v>0.37731491625630376</v>
       </c>
       <c r="AL174" s="3">
@@ -22860,15 +22860,15 @@
         <v>2</v>
       </c>
       <c r="AC175" s="3">
-        <f t="shared" ref="AC175:AE175" si="327">(J855+J857+J859+J861+J863)</f>
+        <f t="shared" ref="AC175:AE175" si="400">(J855+J857+J859+J861+J863)</f>
         <v>26</v>
       </c>
       <c r="AD175" s="3">
-        <f t="shared" si="327"/>
+        <f t="shared" si="400"/>
         <v>23</v>
       </c>
       <c r="AE175" s="3">
-        <f t="shared" si="327"/>
+        <f t="shared" si="400"/>
         <v>61</v>
       </c>
       <c r="AF175" s="3">
@@ -22876,23 +22876,23 @@
         <v>0.55826086956521725</v>
       </c>
       <c r="AG175" s="3">
-        <f t="shared" ref="AG175" si="328">(N855+N857+N859+N861+N863)/5</f>
+        <f t="shared" ref="AG175" si="401">(N855+N857+N859+N861+N863)/5</f>
         <v>0.54201690821256021</v>
       </c>
       <c r="AH175" s="3">
-        <f>(O855+O857+O859+O861+O863)/5</f>
+        <f t="shared" ref="AH175:AK176" si="402">(O855+O857+O859+O861+O863)/5</f>
         <v>0.55826086956521725</v>
       </c>
       <c r="AI175" s="3">
-        <f>(P855+P857+P859+P861+P863)/5</f>
+        <f t="shared" si="402"/>
         <v>0.54587907814452397</v>
       </c>
       <c r="AJ175" s="3">
-        <f>(Q855+Q857+Q859+Q861+Q863)/5</f>
+        <f t="shared" si="402"/>
         <v>0.39509803921568576</v>
       </c>
       <c r="AK175" s="3">
-        <f>(R855+R857+R859+R861+R863)/5</f>
+        <f t="shared" si="402"/>
         <v>0.13783115457630341</v>
       </c>
       <c r="AL175" s="3">
@@ -22981,15 +22981,15 @@
         <v>14</v>
       </c>
       <c r="AC176" s="3">
-        <f t="shared" ref="AC176:AE176" si="329">(J856+J858+J860+J862+J864)</f>
+        <f t="shared" ref="AC176:AE176" si="403">(J856+J858+J860+J862+J864)</f>
         <v>30</v>
       </c>
       <c r="AD176" s="3">
-        <f t="shared" si="329"/>
+        <f t="shared" si="403"/>
         <v>13</v>
       </c>
       <c r="AE176" s="3">
-        <f t="shared" si="329"/>
+        <f t="shared" si="403"/>
         <v>49</v>
       </c>
       <c r="AF176" s="3">
@@ -22997,23 +22997,23 @@
         <v>0.59393939393939343</v>
       </c>
       <c r="AG176" s="3">
-        <f t="shared" ref="AG176" si="330">(N856+N858+N860+N862+N864)/5</f>
+        <f t="shared" ref="AG176" si="404">(N856+N858+N860+N862+N864)/5</f>
         <v>0.60016496661233454</v>
       </c>
       <c r="AH176" s="3">
-        <f>(O856+O858+O860+O862+O864)/5</f>
+        <f t="shared" si="402"/>
         <v>0.59393939393939343</v>
       </c>
       <c r="AI176" s="3">
-        <f>(P856+P858+P860+P862+P864)/5</f>
+        <f t="shared" si="402"/>
         <v>0.56488335158110115</v>
       </c>
       <c r="AJ176" s="3">
-        <f>(Q856+Q858+Q860+Q862+Q864)/5</f>
+        <f t="shared" si="402"/>
         <v>0.55496031746031682</v>
       </c>
       <c r="AK176" s="3">
-        <f>(R856+R858+R860+R862+R864)/5</f>
+        <f t="shared" si="402"/>
         <v>0.52890307939401537</v>
       </c>
       <c r="AL176" s="3">
@@ -23102,15 +23102,15 @@
         <v>6</v>
       </c>
       <c r="AC177" s="3">
-        <f t="shared" ref="AC177:AE177" si="331">(J865+J867+J869+J871+J873)</f>
+        <f t="shared" ref="AC177:AE177" si="405">(J865+J867+J869+J871+J873)</f>
         <v>22</v>
       </c>
       <c r="AD177" s="3">
-        <f t="shared" si="331"/>
+        <f t="shared" si="405"/>
         <v>9</v>
       </c>
       <c r="AE177" s="3">
-        <f t="shared" si="331"/>
+        <f t="shared" si="405"/>
         <v>75</v>
       </c>
       <c r="AF177" s="3">
@@ -23118,23 +23118,23 @@
         <v>0.72391304347826035</v>
       </c>
       <c r="AG177" s="3">
-        <f t="shared" ref="AG177" si="332">(N865+N867+N869+N871+N873)/5</f>
+        <f t="shared" ref="AG177" si="406">(N865+N867+N869+N871+N873)/5</f>
         <v>0.65255577507094742</v>
       </c>
       <c r="AH177" s="3">
-        <f>(O865+O867+O869+O871+O873)/5</f>
+        <f t="shared" ref="AH177:AK178" si="407">(O865+O867+O869+O871+O873)/5</f>
         <v>0.72391304347826035</v>
       </c>
       <c r="AI177" s="3">
-        <f>(P865+P867+P869+P871+P873)/5</f>
+        <f t="shared" si="407"/>
         <v>0.67858450474011067</v>
       </c>
       <c r="AJ177" s="3">
-        <f>(Q865+Q867+Q869+Q871+Q873)/5</f>
+        <f t="shared" si="407"/>
         <v>0.54669117647058774</v>
       </c>
       <c r="AK177" s="3">
-        <f>(R865+R867+R869+R871+R873)/5</f>
+        <f t="shared" si="407"/>
         <v>0.32819778572516495</v>
       </c>
       <c r="AL177" s="3">
@@ -23223,15 +23223,15 @@
         <v>20</v>
       </c>
       <c r="AC178" s="3">
-        <f t="shared" ref="AC178:AE178" si="333">(J866+J868+J870+J872+J874)</f>
+        <f t="shared" ref="AC178:AE178" si="408">(J866+J868+J870+J872+J874)</f>
         <v>24</v>
       </c>
       <c r="AD178" s="3">
-        <f t="shared" si="333"/>
+        <f t="shared" si="408"/>
         <v>22</v>
       </c>
       <c r="AE178" s="3">
-        <f t="shared" si="333"/>
+        <f t="shared" si="408"/>
         <v>40</v>
       </c>
       <c r="AF178" s="3">
@@ -23239,23 +23239,23 @@
         <v>0.56623376623376576</v>
       </c>
       <c r="AG178" s="3">
-        <f t="shared" ref="AG178" si="334">(N866+N868+N870+N872+N874)/5</f>
+        <f t="shared" ref="AG178" si="409">(N866+N868+N870+N872+N874)/5</f>
         <v>0.56306748806748752</v>
       </c>
       <c r="AH178" s="3">
-        <f>(O866+O868+O870+O872+O874)/5</f>
+        <f t="shared" si="407"/>
         <v>0.56623376623376576</v>
       </c>
       <c r="AI178" s="3">
-        <f>(P866+P868+P870+P872+P874)/5</f>
+        <f t="shared" si="407"/>
         <v>0.5599918512859684</v>
       </c>
       <c r="AJ178" s="3">
-        <f>(Q866+Q868+Q870+Q872+Q874)/5</f>
+        <f t="shared" si="407"/>
         <v>0.54642857142857104</v>
       </c>
       <c r="AK178" s="3">
-        <f>(R866+R868+R870+R872+R874)/5</f>
+        <f t="shared" si="407"/>
         <v>0.52974981976842905</v>
       </c>
       <c r="AL178" s="3">
@@ -23344,15 +23344,15 @@
         <v>7</v>
       </c>
       <c r="AC179" s="3">
-        <f t="shared" ref="AC179:AE179" si="335">(J875+J877+J879+J881+J883)</f>
+        <f t="shared" ref="AC179:AE179" si="410">(J875+J877+J879+J881+J883)</f>
         <v>21</v>
       </c>
       <c r="AD179" s="3">
-        <f t="shared" si="335"/>
+        <f t="shared" si="410"/>
         <v>11</v>
       </c>
       <c r="AE179" s="3">
-        <f t="shared" si="335"/>
+        <f t="shared" si="410"/>
         <v>73</v>
       </c>
       <c r="AF179" s="3">
@@ -23360,23 +23360,23 @@
         <v>0.71260869565217333</v>
       </c>
       <c r="AG179" s="3">
-        <f t="shared" ref="AG179" si="336">(N875+N877+N879+N881+N883)/5</f>
+        <f t="shared" ref="AG179" si="411">(N875+N877+N879+N881+N883)/5</f>
         <v>0.67781962639887183</v>
       </c>
       <c r="AH179" s="3">
-        <f>(O875+O877+O879+O881+O883)/5</f>
+        <f t="shared" ref="AH179:AK180" si="412">(O875+O877+O879+O881+O883)/5</f>
         <v>0.71260869565217333</v>
       </c>
       <c r="AI179" s="3">
-        <f>(P875+P877+P879+P881+P883)/5</f>
+        <f t="shared" si="412"/>
         <v>0.67567199834934322</v>
       </c>
       <c r="AJ179" s="3">
-        <f>(Q875+Q877+Q879+Q881+Q883)/5</f>
+        <f t="shared" si="412"/>
         <v>0.57475490196078405</v>
       </c>
       <c r="AK179" s="3">
-        <f>(R875+R877+R879+R881+R883)/5</f>
+        <f t="shared" si="412"/>
         <v>0.42598820437968482</v>
       </c>
       <c r="AL179" s="3">
@@ -23465,15 +23465,15 @@
         <v>17</v>
       </c>
       <c r="AC180" s="3">
-        <f t="shared" ref="AC180:AE180" si="337">(J876+J878+J880+J882+J884)</f>
+        <f t="shared" ref="AC180:AE180" si="413">(J876+J878+J880+J882+J884)</f>
         <v>27</v>
       </c>
       <c r="AD180" s="3">
-        <f t="shared" si="337"/>
+        <f t="shared" si="413"/>
         <v>17</v>
       </c>
       <c r="AE180" s="3">
-        <f t="shared" si="337"/>
+        <f t="shared" si="413"/>
         <v>45</v>
       </c>
       <c r="AF180" s="3">
@@ -23481,23 +23481,23 @@
         <v>0.58441558441558372</v>
       </c>
       <c r="AG180" s="3">
-        <f t="shared" ref="AG180" si="338">(N876+N878+N880+N882+N884)/5</f>
+        <f t="shared" ref="AG180" si="414">(N876+N878+N880+N882+N884)/5</f>
         <v>0.56277415395062425</v>
       </c>
       <c r="AH180" s="3">
-        <f>(O876+O878+O880+O882+O884)/5</f>
+        <f t="shared" si="412"/>
         <v>0.58441558441558372</v>
       </c>
       <c r="AI180" s="3">
-        <f>(P876+P878+P880+P882+P884)/5</f>
+        <f t="shared" si="412"/>
         <v>0.55980957064121317</v>
       </c>
       <c r="AJ180" s="3">
-        <f>(Q876+Q878+Q880+Q882+Q884)/5</f>
+        <f t="shared" si="412"/>
         <v>0.56011904761904741</v>
       </c>
       <c r="AK180" s="3">
-        <f>(R876+R878+R880+R882+R884)/5</f>
+        <f t="shared" si="412"/>
         <v>0.51411137579028721</v>
       </c>
       <c r="AL180" s="3">
